--- a/examples/data/data_provider_example.xlsx
+++ b/examples/data/data_provider_example.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\src\SBTi\examples\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\mountainrambler\ITR\ITR-tool\examples\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31069B4E-C6D0-4B21-82AC-FB12F5CC2C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="2028" yWindow="1404" windowWidth="17280" windowHeight="12252" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="305">
   <si>
     <t>company_name</t>
   </si>
@@ -580,22 +581,374 @@
   </si>
   <si>
     <t>Company AW</t>
+  </si>
+  <si>
+    <t>target_ids</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>T17</t>
+  </si>
+  <si>
+    <t>T18</t>
+  </si>
+  <si>
+    <t>T19</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>T21</t>
+  </si>
+  <si>
+    <t>T22</t>
+  </si>
+  <si>
+    <t>T23</t>
+  </si>
+  <si>
+    <t>T24</t>
+  </si>
+  <si>
+    <t>T25</t>
+  </si>
+  <si>
+    <t>T26</t>
+  </si>
+  <si>
+    <t>T27</t>
+  </si>
+  <si>
+    <t>T28</t>
+  </si>
+  <si>
+    <t>T29</t>
+  </si>
+  <si>
+    <t>T30</t>
+  </si>
+  <si>
+    <t>T31</t>
+  </si>
+  <si>
+    <t>T32</t>
+  </si>
+  <si>
+    <t>T33</t>
+  </si>
+  <si>
+    <t>T34</t>
+  </si>
+  <si>
+    <t>T35</t>
+  </si>
+  <si>
+    <t>T36</t>
+  </si>
+  <si>
+    <t>T37</t>
+  </si>
+  <si>
+    <t>T38</t>
+  </si>
+  <si>
+    <t>T39</t>
+  </si>
+  <si>
+    <t>T40</t>
+  </si>
+  <si>
+    <t>T41</t>
+  </si>
+  <si>
+    <t>T42</t>
+  </si>
+  <si>
+    <t>T43</t>
+  </si>
+  <si>
+    <t>T44</t>
+  </si>
+  <si>
+    <t>T45</t>
+  </si>
+  <si>
+    <t>T46</t>
+  </si>
+  <si>
+    <t>T47</t>
+  </si>
+  <si>
+    <t>T48</t>
+  </si>
+  <si>
+    <t>T49</t>
+  </si>
+  <si>
+    <t>T50</t>
+  </si>
+  <si>
+    <t>T51</t>
+  </si>
+  <si>
+    <t>T52</t>
+  </si>
+  <si>
+    <t>T53</t>
+  </si>
+  <si>
+    <t>T54</t>
+  </si>
+  <si>
+    <t>T55</t>
+  </si>
+  <si>
+    <t>T56</t>
+  </si>
+  <si>
+    <t>T57</t>
+  </si>
+  <si>
+    <t>T58</t>
+  </si>
+  <si>
+    <t>T59</t>
+  </si>
+  <si>
+    <t>T60</t>
+  </si>
+  <si>
+    <t>T61</t>
+  </si>
+  <si>
+    <t>T62</t>
+  </si>
+  <si>
+    <t>T63</t>
+  </si>
+  <si>
+    <t>T64</t>
+  </si>
+  <si>
+    <t>T65</t>
+  </si>
+  <si>
+    <t>T66</t>
+  </si>
+  <si>
+    <t>T67</t>
+  </si>
+  <si>
+    <t>T68</t>
+  </si>
+  <si>
+    <t>T69</t>
+  </si>
+  <si>
+    <t>T70</t>
+  </si>
+  <si>
+    <t>T71</t>
+  </si>
+  <si>
+    <t>T72</t>
+  </si>
+  <si>
+    <t>T73</t>
+  </si>
+  <si>
+    <t>T74</t>
+  </si>
+  <si>
+    <t>T75</t>
+  </si>
+  <si>
+    <t>T76</t>
+  </si>
+  <si>
+    <t>T77</t>
+  </si>
+  <si>
+    <t>T78</t>
+  </si>
+  <si>
+    <t>T79</t>
+  </si>
+  <si>
+    <t>T80</t>
+  </si>
+  <si>
+    <t>T81</t>
+  </si>
+  <si>
+    <t>T82</t>
+  </si>
+  <si>
+    <t>T83</t>
+  </si>
+  <si>
+    <t>T84</t>
+  </si>
+  <si>
+    <t>T85</t>
+  </si>
+  <si>
+    <t>T86</t>
+  </si>
+  <si>
+    <t>T87</t>
+  </si>
+  <si>
+    <t>T88</t>
+  </si>
+  <si>
+    <t>T89</t>
+  </si>
+  <si>
+    <t>T90</t>
+  </si>
+  <si>
+    <t>T91</t>
+  </si>
+  <si>
+    <t>T92</t>
+  </si>
+  <si>
+    <t>T93</t>
+  </si>
+  <si>
+    <t>T94</t>
+  </si>
+  <si>
+    <t>T95</t>
+  </si>
+  <si>
+    <t>T96</t>
+  </si>
+  <si>
+    <t>T97</t>
+  </si>
+  <si>
+    <t>T98</t>
+  </si>
+  <si>
+    <t>T99</t>
+  </si>
+  <si>
+    <t>T100</t>
+  </si>
+  <si>
+    <t>T101</t>
+  </si>
+  <si>
+    <t>T102</t>
+  </si>
+  <si>
+    <t>T103</t>
+  </si>
+  <si>
+    <t>T104</t>
+  </si>
+  <si>
+    <t>T105</t>
+  </si>
+  <si>
+    <t>T106</t>
+  </si>
+  <si>
+    <t>T107</t>
+  </si>
+  <si>
+    <t>T108</t>
+  </si>
+  <si>
+    <t>T109</t>
+  </si>
+  <si>
+    <t>T110</t>
+  </si>
+  <si>
+    <t>T111</t>
+  </si>
+  <si>
+    <t>T112</t>
+  </si>
+  <si>
+    <t>T113</t>
+  </si>
+  <si>
+    <t>T114</t>
+  </si>
+  <si>
+    <t>T115</t>
+  </si>
+  <si>
+    <t>T116</t>
+  </si>
+  <si>
+    <t>T117</t>
+  </si>
+  <si>
+    <t>T118</t>
+  </si>
+  <si>
+    <t>T119</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -606,6 +959,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -630,10 +989,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,53 +1022,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q51" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="A1:Q51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Q51" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:Q51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="17">
-    <tableColumn id="1" name="company_name"/>
-    <tableColumn id="2" name="company_id"/>
-    <tableColumn id="3" name="isic"/>
-    <tableColumn id="4" name="country"/>
-    <tableColumn id="20" name="region"/>
-    <tableColumn id="5" name="industry_level_1"/>
-    <tableColumn id="22" name="industry_level_2"/>
-    <tableColumn id="21" name="industry_level_3"/>
-    <tableColumn id="7" name="industry_level_4"/>
-    <tableColumn id="6" name="sector"/>
-    <tableColumn id="18" name="ghg_s1s2"/>
-    <tableColumn id="8" name="ghg_s3"/>
-    <tableColumn id="9" name="company_revenue"/>
-    <tableColumn id="10" name="company_market_cap"/>
-    <tableColumn id="11" name="company_enterprise_value"/>
-    <tableColumn id="12" name="company_total_assets" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="company_name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="company_id"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="isic"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="country"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="region"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="industry_level_1"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="industry_level_2"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="industry_level_3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="industry_level_4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="sector"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ghg_s1s2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ghg_s3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="company_revenue"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="company_market_cap"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="company_enterprise_value"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="company_total_assets" dataDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[company_market_cap]]*Q2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="company_cash_equivalents"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="company_cash_equivalents"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table4" displayName="Table4" ref="A1:P120" totalsRowShown="0">
-  <autoFilter ref="A1:P120"/>
-  <tableColumns count="16">
-    <tableColumn id="1" name="company_name"/>
-    <tableColumn id="2" name="company_id"/>
-    <tableColumn id="3" name="target_type"/>
-    <tableColumn id="10" name="intensity_metric"/>
-    <tableColumn id="4" name="scope"/>
-    <tableColumn id="12" name="coverage_s1"/>
-    <tableColumn id="11" name="coverage_s2"/>
-    <tableColumn id="5" name="coverage_s3"/>
-    <tableColumn id="6" name="reduction_ambition"/>
-    <tableColumn id="7" name="base_year"/>
-    <tableColumn id="8" name="end_year"/>
-    <tableColumn id="9" name="start_year"/>
-    <tableColumn id="13" name="base_year_ghg_s1"/>
-    <tableColumn id="14" name="base_year_ghg_s2"/>
-    <tableColumn id="15" name="base_year_ghg_s3"/>
-    <tableColumn id="16" name="achieved_reduction"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:Q120" totalsRowShown="0">
+  <autoFilter ref="A1:Q120" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="company_name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="company_id"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="target_type"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="intensity_metric"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="scope"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="coverage_s1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="coverage_s2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="coverage_s3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="reduction_ambition"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="base_year"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="end_year"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="start_year"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="base_year_ghg_s1"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="base_year_ghg_s2"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="base_year_ghg_s3"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="achieved_reduction"/>
+    <tableColumn id="17" xr3:uid="{6A6E570C-9F99-4FAE-BE0A-2C01E832A15A}" name="target_ids"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -977,27 +1337,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="21.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="21.5546875" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" customWidth="1"/>
+    <col min="16" max="16" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1037,7 +1397,7 @@
       <c r="M1" t="s">
         <v>156</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>166</v>
       </c>
       <c r="O1" t="s">
@@ -1050,7 +1410,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -1088,7 +1448,7 @@
         <v>4528467714.7267609</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -1126,7 +1486,7 @@
         <v>69006940.998092517</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>169</v>
       </c>
@@ -1164,7 +1524,7 @@
         <v>1163119848.4230556</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>170</v>
       </c>
@@ -1202,7 +1562,7 @@
         <v>117630751.45422383</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>171</v>
       </c>
@@ -1240,7 +1600,7 @@
         <v>28933197273.168182</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>172</v>
       </c>
@@ -1278,7 +1638,7 @@
         <v>51876930016.314178</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>173</v>
       </c>
@@ -1316,7 +1676,7 @@
         <v>2214490.9702577037</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>174</v>
       </c>
@@ -1354,7 +1714,7 @@
         <v>203940251.11854151</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>175</v>
       </c>
@@ -1392,7 +1752,7 @@
         <v>42950453116.50563</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -1430,7 +1790,7 @@
         <v>5520000408.4878492</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>177</v>
       </c>
@@ -1468,7 +1828,7 @@
         <v>505519258.45795137</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -1506,7 +1866,7 @@
         <v>462245314.11453331</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>179</v>
       </c>
@@ -1544,7 +1904,7 @@
         <v>1853875026.0311818</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -1582,7 +1942,7 @@
         <v>3272481697.8285317</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>181</v>
       </c>
@@ -1620,7 +1980,7 @@
         <v>518880676.89759755</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>182</v>
       </c>
@@ -1658,7 +2018,7 @@
         <v>990719858.47337103</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>184</v>
       </c>
@@ -1696,7 +2056,7 @@
         <v>470283632.88013947</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1734,7 +2094,7 @@
         <v>963039844.50366735</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1772,7 +2132,7 @@
         <v>23467516.32994597</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1810,7 +2170,7 @@
         <v>457926390.7271148</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1848,7 +2208,7 @@
         <v>469617764.24836379</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1886,7 +2246,7 @@
         <v>209706066.63280141</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1924,7 +2284,7 @@
         <v>80140338.552216381</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -1962,7 +2322,7 @@
         <v>1863069356.1369269</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2000,7 +2360,7 @@
         <v>802015633.4125073</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -2038,7 +2398,7 @@
         <v>1090445581.1975896</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -2076,7 +2436,7 @@
         <v>408632883.32140654</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2114,7 +2474,7 @@
         <v>223357269.54921383</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -2152,7 +2512,7 @@
         <v>1279584288.1275206</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -2190,7 +2550,7 @@
         <v>259739897.26190066</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -2228,7 +2588,7 @@
         <v>2957267010.5849843</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -2266,7 +2626,7 @@
         <v>3249873922.9934068</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -2304,7 +2664,7 @@
         <v>1054147392.1400725</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -2342,7 +2702,7 @@
         <v>16164035.009301951</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -2380,7 +2740,7 @@
         <v>76375335.415532187</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -2418,7 +2778,7 @@
         <v>403556882.32980388</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -2456,7 +2816,7 @@
         <v>359922992.06079412</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -2494,7 +2854,7 @@
         <v>188775849.06628573</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -2532,7 +2892,7 @@
         <v>3126017043.1166129</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -2570,7 +2930,7 @@
         <v>25963862784.153816</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -2608,7 +2968,7 @@
         <v>216444951.50947747</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -2646,7 +3006,7 @@
         <v>463981837.16979945</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -2684,7 +3044,7 @@
         <v>630827983.47226107</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -2722,7 +3082,7 @@
         <v>1089931685.5934117</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -2760,7 +3120,7 @@
         <v>1580248549.8247914</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>108</v>
       </c>
@@ -2798,7 +3158,7 @@
         <v>360167278.93933254</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
         <v>112</v>
       </c>
@@ -2836,7 +3196,7 @@
         <v>23659060554.326973</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>115</v>
       </c>
@@ -2874,7 +3234,7 @@
         <v>94976895574.746582</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
         <v>118</v>
       </c>
@@ -2912,7 +3272,7 @@
         <v>408452279.29417968</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
         <v>183</v>
       </c>
@@ -2960,26 +3320,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Q120"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="4" width="21.140625" customWidth="1"/>
-    <col min="6" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="4" width="21.109375" customWidth="1"/>
+    <col min="6" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="15" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3028,8 +3390,11 @@
       <c r="P1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -3069,8 +3434,11 @@
       <c r="P2">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -3113,9 +3481,11 @@
       <c r="P3">
         <v>0.5</v>
       </c>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q3" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>169</v>
       </c>
@@ -3155,8 +3525,11 @@
       <c r="P4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>170</v>
       </c>
@@ -3202,8 +3575,11 @@
       <c r="P5">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q5" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>171</v>
       </c>
@@ -3249,8 +3625,11 @@
       <c r="P6">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>172</v>
       </c>
@@ -3293,8 +3672,11 @@
       <c r="P7">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q7" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>173</v>
       </c>
@@ -3331,8 +3713,11 @@
       <c r="P8">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>174</v>
       </c>
@@ -3375,8 +3760,11 @@
       <c r="P9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q9" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>175</v>
       </c>
@@ -3419,8 +3807,11 @@
       <c r="P10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -3463,8 +3854,11 @@
       <c r="P11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q11" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>177</v>
       </c>
@@ -3504,8 +3898,11 @@
       <c r="P12">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -3545,8 +3942,11 @@
       <c r="P13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q13" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>179</v>
       </c>
@@ -3586,8 +3986,11 @@
       <c r="P14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -3627,8 +4030,11 @@
       <c r="P15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q15" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>181</v>
       </c>
@@ -3668,8 +4074,11 @@
       <c r="P16">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>182</v>
       </c>
@@ -3709,8 +4118,11 @@
       <c r="P17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>184</v>
       </c>
@@ -3747,8 +4159,11 @@
       <c r="P18">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -3785,8 +4200,11 @@
       <c r="P19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -3823,8 +4241,11 @@
       <c r="P20">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -3861,8 +4282,11 @@
       <c r="P21">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -3899,8 +4323,11 @@
       <c r="P22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -3937,8 +4364,11 @@
       <c r="P23">
         <v>0.88300000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -3978,8 +4408,11 @@
       <c r="P24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -4019,8 +4452,11 @@
       <c r="P25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -4060,8 +4496,11 @@
       <c r="P26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -4104,8 +4543,11 @@
       <c r="P27">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -4139,8 +4581,11 @@
       <c r="P28">
         <v>0.49600000000000005</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -4180,8 +4625,11 @@
       <c r="P29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -4221,8 +4669,11 @@
       <c r="P30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -4262,8 +4713,11 @@
       <c r="P31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -4303,8 +4757,11 @@
       <c r="P32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -4341,8 +4798,11 @@
       <c r="P33">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -4382,8 +4842,11 @@
       <c r="P34">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -4417,8 +4880,11 @@
       <c r="P35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -4458,8 +4924,11 @@
       <c r="P36">
         <v>6.1699999999999998E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -4499,8 +4968,11 @@
       <c r="P37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -4540,8 +5012,11 @@
       <c r="P38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -4578,8 +5053,11 @@
       <c r="P39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -4616,8 +5094,11 @@
       <c r="P40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -4660,8 +5141,11 @@
       <c r="P41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -4704,8 +5188,11 @@
       <c r="P42">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q42" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -4745,8 +5232,11 @@
       <c r="P43">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -4786,8 +5276,11 @@
       <c r="P44">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>168</v>
       </c>
@@ -4827,8 +5320,11 @@
       <c r="P45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>169</v>
       </c>
@@ -4871,8 +5367,11 @@
       <c r="P46">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q46" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>170</v>
       </c>
@@ -4915,8 +5414,11 @@
       <c r="P47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q47" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
         <v>171</v>
       </c>
@@ -4956,8 +5458,11 @@
       <c r="P48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q48" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>172</v>
       </c>
@@ -5000,8 +5505,11 @@
       <c r="P49">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q49" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
         <v>173</v>
       </c>
@@ -5047,8 +5555,11 @@
       <c r="P50">
         <v>0.35799999999999998</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q50" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
         <v>174</v>
       </c>
@@ -5088,8 +5599,11 @@
       <c r="P51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q51" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
         <v>175</v>
       </c>
@@ -5129,8 +5643,11 @@
       <c r="P52">
         <v>0.32600000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q52" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
         <v>176</v>
       </c>
@@ -5173,8 +5690,11 @@
       <c r="P53">
         <v>5.4000000000000006E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q53" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
         <v>177</v>
       </c>
@@ -5214,8 +5734,11 @@
       <c r="P54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q54" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
         <v>178</v>
       </c>
@@ -5255,8 +5778,11 @@
       <c r="P55">
         <v>0.30809999999999998</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q55" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
         <v>179</v>
       </c>
@@ -5296,8 +5822,11 @@
       <c r="P56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q56" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
         <v>180</v>
       </c>
@@ -5337,8 +5866,11 @@
       <c r="P57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q57" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
         <v>181</v>
       </c>
@@ -5378,8 +5910,11 @@
       <c r="P58">
         <v>0.41000000000000003</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q58" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
         <v>182</v>
       </c>
@@ -5422,8 +5957,11 @@
       <c r="P59">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q59" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
         <v>184</v>
       </c>
@@ -5466,8 +6004,11 @@
       <c r="P60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q60" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
         <v>81</v>
       </c>
@@ -5510,8 +6051,11 @@
       <c r="P61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q61" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
         <v>83</v>
       </c>
@@ -5551,8 +6095,11 @@
       <c r="P62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q62" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -5592,8 +6139,11 @@
       <c r="P63">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q63" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -5633,8 +6183,11 @@
       <c r="P64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q64" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
         <v>90</v>
       </c>
@@ -5677,8 +6230,11 @@
       <c r="P65">
         <v>0.47789999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q65" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -5721,8 +6277,11 @@
       <c r="P66">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q66" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
         <v>83</v>
       </c>
@@ -5762,8 +6321,11 @@
       <c r="P67">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q67" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -5806,8 +6368,11 @@
       <c r="P68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q68" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -5844,8 +6409,11 @@
       <c r="P69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q69" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
         <v>90</v>
       </c>
@@ -5885,8 +6453,11 @@
       <c r="P70">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q70" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -5929,8 +6500,11 @@
       <c r="P71">
         <v>6.4100000000000004E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q71" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -5970,8 +6544,11 @@
       <c r="P72">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q72" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -6011,8 +6588,11 @@
       <c r="P73">
         <v>0.11220000000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q73" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
         <v>88</v>
       </c>
@@ -6055,8 +6635,11 @@
       <c r="P74">
         <v>0.22870000000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q74" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -6096,8 +6679,11 @@
       <c r="P75">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q75" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -6140,8 +6726,11 @@
       <c r="P76">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q76" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -6184,8 +6773,11 @@
       <c r="P77">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q77" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
         <v>53</v>
       </c>
@@ -6228,8 +6820,11 @@
       <c r="P78">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q78" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -6266,8 +6861,11 @@
       <c r="P79">
         <v>0.84400000000000008</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q79" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
       <c r="A80" t="s">
         <v>168</v>
       </c>
@@ -6313,8 +6911,11 @@
       <c r="P80">
         <v>0.85299999999999998</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q80" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" t="s">
         <v>169</v>
       </c>
@@ -6357,8 +6958,11 @@
       <c r="P81">
         <v>0.55670000000000008</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q81" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
         <v>170</v>
       </c>
@@ -6398,8 +7002,11 @@
       <c r="P82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q82" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
         <v>171</v>
       </c>
@@ -6439,8 +7046,11 @@
       <c r="P83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q83" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
       <c r="A84" t="s">
         <v>172</v>
       </c>
@@ -6480,8 +7090,11 @@
       <c r="P84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q84" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
         <v>173</v>
       </c>
@@ -6521,8 +7134,11 @@
       <c r="P85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q85" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
         <v>174</v>
       </c>
@@ -6559,8 +7175,11 @@
       <c r="P86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q86" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
         <v>175</v>
       </c>
@@ -6603,8 +7222,11 @@
       <c r="P87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q87" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
         <v>176</v>
       </c>
@@ -6641,8 +7263,11 @@
       <c r="P88">
         <v>0.36700000000000005</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q88" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
         <v>178</v>
       </c>
@@ -6682,8 +7307,11 @@
       <c r="P89">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q89" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17">
       <c r="A90" t="s">
         <v>180</v>
       </c>
@@ -6720,8 +7348,11 @@
       <c r="P90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q90" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
         <v>180</v>
       </c>
@@ -6758,8 +7389,11 @@
       <c r="P91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q91" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17">
       <c r="A92" t="s">
         <v>181</v>
       </c>
@@ -6796,8 +7430,11 @@
       <c r="P92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q92" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
       <c r="A93" t="s">
         <v>181</v>
       </c>
@@ -6834,8 +7471,11 @@
       <c r="P93">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q93" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
       <c r="A94" t="s">
         <v>184</v>
       </c>
@@ -6875,8 +7515,11 @@
       <c r="P94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q94" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
       <c r="A95" t="s">
         <v>121</v>
       </c>
@@ -6916,8 +7559,11 @@
       <c r="P95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q95" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
       <c r="A96" t="s">
         <v>168</v>
       </c>
@@ -6960,8 +7606,11 @@
       <c r="P96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q96" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
       <c r="A97" t="s">
         <v>169</v>
       </c>
@@ -7004,8 +7653,11 @@
       <c r="P97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q97" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
       <c r="A98" t="s">
         <v>170</v>
       </c>
@@ -7042,8 +7694,11 @@
       <c r="P98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q98" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
       <c r="A99" t="s">
         <v>170</v>
       </c>
@@ -7080,8 +7735,11 @@
       <c r="P99">
         <v>0.82000000000000006</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q99" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
       <c r="A100" t="s">
         <v>172</v>
       </c>
@@ -7124,8 +7782,11 @@
       <c r="P100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q100" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
       <c r="A101" t="s">
         <v>173</v>
       </c>
@@ -7162,8 +7823,11 @@
       <c r="P101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q101" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
       <c r="A102" t="s">
         <v>174</v>
       </c>
@@ -7203,8 +7867,11 @@
       <c r="P102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q102" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
       <c r="A103" t="s">
         <v>175</v>
       </c>
@@ -7247,8 +7914,11 @@
       <c r="P103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q103" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
       <c r="A104" t="s">
         <v>176</v>
       </c>
@@ -7291,8 +7961,11 @@
       <c r="P104">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q104" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
       <c r="A105" t="s">
         <v>177</v>
       </c>
@@ -7332,8 +8005,11 @@
       <c r="P105">
         <v>0.70000000000000007</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q105" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
       <c r="A106" t="s">
         <v>178</v>
       </c>
@@ -7376,8 +8052,11 @@
       <c r="P106">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q106" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
       <c r="A107" t="s">
         <v>179</v>
       </c>
@@ -7417,8 +8096,11 @@
       <c r="P107">
         <v>0.69000000000000006</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q107" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
       <c r="A108" t="s">
         <v>180</v>
       </c>
@@ -7458,8 +8140,11 @@
       <c r="P108">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q108" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
       <c r="A109" t="s">
         <v>181</v>
       </c>
@@ -7502,8 +8187,11 @@
       <c r="P109">
         <v>0.57020000000000004</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q109" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
       <c r="A110" t="s">
         <v>182</v>
       </c>
@@ -7543,8 +8231,11 @@
       <c r="P110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q110" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
       <c r="A111" t="s">
         <v>184</v>
       </c>
@@ -7584,8 +8275,11 @@
       <c r="P111">
         <v>0.88300000000000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q111" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
       <c r="A112" t="s">
         <v>83</v>
       </c>
@@ -7625,8 +8319,11 @@
       <c r="P112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q112" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
       <c r="A113" t="s">
         <v>85</v>
       </c>
@@ -7666,8 +8363,11 @@
       <c r="P113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q113" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
       <c r="A114" t="s">
         <v>88</v>
       </c>
@@ -7707,8 +8407,11 @@
       <c r="P114">
         <v>1.52E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q114" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
       <c r="A115" t="s">
         <v>90</v>
       </c>
@@ -7748,8 +8451,11 @@
       <c r="P115">
         <v>1.24E-2</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q115" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
       <c r="A116" t="s">
         <v>81</v>
       </c>
@@ -7789,8 +8495,11 @@
       <c r="P116">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q116" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
       <c r="A117" t="s">
         <v>83</v>
       </c>
@@ -7833,8 +8542,11 @@
       <c r="P117">
         <v>0.154</v>
       </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q117" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
       <c r="A118" t="s">
         <v>83</v>
       </c>
@@ -7877,8 +8589,11 @@
       <c r="P118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q118" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
       <c r="A119" t="s">
         <v>83</v>
       </c>
@@ -7918,8 +8633,11 @@
       <c r="P119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q119" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
       <c r="A120" t="s">
         <v>83</v>
       </c>
@@ -7962,8 +8680,12 @@
       <c r="P120">
         <v>0.61</v>
       </c>
+      <c r="Q120" t="s">
+        <v>304</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/examples/data/data_provider_example.xlsx
+++ b/examples/data/data_provider_example.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27616"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\mountainrambler\ITR\ITR-tool\examples\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31069B4E-C6D0-4B21-82AC-FB12F5CC2C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3CB0F8-88A0-48AA-9C1B-7B18F687CF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2028" yWindow="1404" windowWidth="17280" windowHeight="12252" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="384" windowWidth="23232" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
     <sheet name="target_data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="323">
   <si>
     <t>company_name</t>
   </si>
@@ -490,9 +501,6 @@
     <t>industry_level_4</t>
   </si>
   <si>
-    <t>ghg_s1s2</t>
-  </si>
-  <si>
     <t>ghg_s3</t>
   </si>
   <si>
@@ -941,6 +949,63 @@
   </si>
   <si>
     <t>T119</t>
+  </si>
+  <si>
+    <t>statement_date</t>
+  </si>
+  <si>
+    <t>ghg_s1</t>
+  </si>
+  <si>
+    <t>ghg_s2</t>
+  </si>
+  <si>
+    <t>s3_category</t>
+  </si>
+  <si>
+    <t>ghg_s3_1</t>
+  </si>
+  <si>
+    <t>ghg_s3_2</t>
+  </si>
+  <si>
+    <t>ghg_s3_3</t>
+  </si>
+  <si>
+    <t>ghg_s3_4</t>
+  </si>
+  <si>
+    <t>ghg_s3_5</t>
+  </si>
+  <si>
+    <t>ghg_s3_6</t>
+  </si>
+  <si>
+    <t>ghg_s3_7</t>
+  </si>
+  <si>
+    <t>ghg_s3_8</t>
+  </si>
+  <si>
+    <t>ghg_s3_9</t>
+  </si>
+  <si>
+    <t>ghg_s3_10</t>
+  </si>
+  <si>
+    <t>ghg_s3_11</t>
+  </si>
+  <si>
+    <t>ghg_s3_12</t>
+  </si>
+  <si>
+    <t>ghg_s3_13</t>
+  </si>
+  <si>
+    <t>ghg_s3_14</t>
+  </si>
+  <si>
+    <t>ghg_s3_15</t>
   </si>
 </sst>
 </file>
@@ -987,12 +1052,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,9 +1086,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:Q51" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="A1:Q51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AG51" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:AG51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="33">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="company_name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="company_id"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="isic"/>
@@ -1035,29 +1099,53 @@
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="industry_level_3"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="industry_level_4"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="sector"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ghg_s1s2"/>
+    <tableColumn id="14" xr3:uid="{CABB9430-7E9C-4BD6-98E6-269BC8657C69}" name="ghg_s1"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="ghg_s2"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ghg_s3"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="company_revenue"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="company_market_cap"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="company_enterprise_value"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="company_total_assets" dataDxfId="0">
-      <calculatedColumnFormula>Table1[[#This Row],[company_market_cap]]*Q2</calculatedColumnFormula>
+      <calculatedColumnFormula>Table1[[#This Row],[company_market_cap]]*R2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="company_cash_equivalents"/>
+    <tableColumn id="15" xr3:uid="{AAB9E340-B10A-41BA-BB5B-A779F42495E9}" name="ghg_s3_1"/>
+    <tableColumn id="16" xr3:uid="{3FE55A93-1ADB-4D0D-ABC7-54DD7D150980}" name="ghg_s3_2"/>
+    <tableColumn id="17" xr3:uid="{FB2C9E6E-F8C0-4828-8840-8A384718D1CE}" name="ghg_s3_3"/>
+    <tableColumn id="19" xr3:uid="{40223CE0-43AE-49F7-BED3-9BC05FBC2F84}" name="ghg_s3_4"/>
+    <tableColumn id="23" xr3:uid="{6DC526CC-C21B-4B3E-8838-33391A4E5184}" name="ghg_s3_5"/>
+    <tableColumn id="24" xr3:uid="{58A9FCC4-220D-491E-AC24-C6B17B57A9F2}" name="ghg_s3_6"/>
+    <tableColumn id="25" xr3:uid="{F376A454-9111-4547-906B-FBCFE6C28391}" name="ghg_s3_7"/>
+    <tableColumn id="26" xr3:uid="{E90CCBD5-CD66-4234-BE07-CEA7A27E0A31}" name="ghg_s3_8"/>
+    <tableColumn id="27" xr3:uid="{1D29F4F6-8C11-4871-B19F-3F3B2B02C876}" name="ghg_s3_9"/>
+    <tableColumn id="28" xr3:uid="{B4743E40-9A60-4832-A62A-AA4C6FDCDD0E}" name="ghg_s3_10"/>
+    <tableColumn id="29" xr3:uid="{DE19A4EF-7B78-4F4A-BCFA-E6AFF221F2C0}" name="ghg_s3_11"/>
+    <tableColumn id="30" xr3:uid="{80AA508A-ED0A-4636-847B-FEEA379E3970}" name="ghg_s3_12"/>
+    <tableColumn id="31" xr3:uid="{7110CC2E-8816-4930-A45E-0A984B220F9F}" name="ghg_s3_13"/>
+    <tableColumn id="32" xr3:uid="{C68A2D79-94B4-4E1B-A44E-90687A0F320B}" name="ghg_s3_14"/>
+    <tableColumn id="33" xr3:uid="{2E40DD63-1F69-4A98-9981-08DBB41CD58F}" name="ghg_s3_15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:Q120" totalsRowShown="0">
-  <autoFilter ref="A1:Q120" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:S120" totalsRowShown="0">
+  <autoFilter ref="A1:S120" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Company AV"/>
+        <filter val="Company B"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="company_name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="company_id"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="target_type"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="intensity_metric"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="scope"/>
+    <tableColumn id="19" xr3:uid="{65CD73ED-15DA-434C-8DAC-0F88E592DCDB}" name="s3_category"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="coverage_s1"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="coverage_s2"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="coverage_s3"/>
@@ -1065,6 +1153,7 @@
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="base_year"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="end_year"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="start_year"/>
+    <tableColumn id="18" xr3:uid="{4D32676F-CAFE-4B93-A873-1772FA83F356}" name="statement_date"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="base_year_ghg_s1"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="base_year_ghg_s2"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="base_year_ghg_s3"/>
@@ -1338,26 +1427,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:AG51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="21.5546875" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.44140625" customWidth="1"/>
+    <col min="3" max="12" width="21.5546875" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1389,28 +1478,76 @@
         <v>1</v>
       </c>
       <c r="K1" t="s">
+        <v>305</v>
+      </c>
+      <c r="L1" t="s">
+        <v>306</v>
+      </c>
+      <c r="M1" t="s">
         <v>154</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>155</v>
       </c>
-      <c r="M1" t="s">
-        <v>156</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="P1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>146</v>
+      </c>
+      <c r="R1" t="s">
         <v>166</v>
       </c>
-      <c r="O1" t="s">
-        <v>145</v>
-      </c>
-      <c r="P1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="S1" t="s">
+        <v>308</v>
+      </c>
+      <c r="T1" t="s">
+        <v>309</v>
+      </c>
+      <c r="U1" t="s">
+        <v>310</v>
+      </c>
+      <c r="V1" t="s">
+        <v>311</v>
+      </c>
+      <c r="W1" t="s">
+        <v>312</v>
+      </c>
+      <c r="X1" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>314</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -1427,30 +1564,45 @@
         <v>5</v>
       </c>
       <c r="K2">
-        <v>24965246.128183831</v>
+        <v>16726714.905883167</v>
       </c>
       <c r="L2">
+        <v>8238531.2223006645</v>
+      </c>
+      <c r="M2">
         <v>66591747.474483326</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>20248547996.814251</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>10464805624.288572</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>20370723452.973633</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>814618.20572459628</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>4528467714.7267609</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="T2">
+        <v>3455667</v>
+      </c>
+      <c r="U2">
+        <v>34344444</v>
+      </c>
+      <c r="AC2">
+        <v>12121212</v>
+      </c>
+      <c r="AG2">
+        <v>16670424.474483326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1465,30 +1617,33 @@
         <v>7</v>
       </c>
       <c r="K3">
-        <v>1288468.9201645069</v>
+        <v>863274.1765102197</v>
       </c>
       <c r="L3">
+        <v>425194.7436542873</v>
+      </c>
+      <c r="M3">
         <v>1739806.6661840158</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>276185899.61435097</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>170431377.0111033</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>348843699.94010025</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>27314.648029499283</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>69006940.998092517</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1503,30 +1658,33 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>230191.46897492089</v>
+        <v>154228.28421319701</v>
       </c>
       <c r="L4">
+        <v>75963.184761723896</v>
+      </c>
+      <c r="M4">
         <v>1285703.5706158055</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>10283015131.798985</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>3087133686.0634212</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>4800604056.5816851</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>343642.47370860493</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1163119848.4230556</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1541,30 +1699,33 @@
         <v>5</v>
       </c>
       <c r="K5">
-        <v>178705.06184309252</v>
+        <v>119732.391434872</v>
       </c>
       <c r="L5">
+        <v>58972.670408220532</v>
+      </c>
+      <c r="M5">
         <v>476673.9446333939</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1860376238.2982879</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1395966780.8786128</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1849921444.2644947</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>159262.60935025438</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>117630751.45422383</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1579,30 +1740,33 @@
         <v>5</v>
       </c>
       <c r="K6">
-        <v>97771.835813462851</v>
+        <v>65507.129995020114</v>
       </c>
       <c r="L6">
+        <v>32264.705818442741</v>
+      </c>
+      <c r="M6">
         <v>260794.44068679411</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>31781332590.123966</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>20377644507.874138</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>34890123636.208443</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>43112605.779609621</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>28933197273.168182</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1617,30 +1781,33 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>466041.10015869705</v>
+        <v>312247.53710632707</v>
       </c>
       <c r="L7">
+        <v>153793.56305237004</v>
+      </c>
+      <c r="M7">
         <v>1094183.4525468543</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>22080444055.733891</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>89487875452.409622</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>142815816841.33038</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>12916972.788158268</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>51876930016.314178</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -1655,30 +1822,33 @@
         <v>5</v>
       </c>
       <c r="K8">
-        <v>128250.99022235045</v>
+        <v>85928.16344897481</v>
       </c>
       <c r="L8">
+        <v>42322.826773375651</v>
+      </c>
+      <c r="M8">
         <v>342093.86562374735</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>940141306.02078247</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>81646651.50551033</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1803870072.9332182</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>24970.460312431045</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2214490.9702577037</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -1693,30 +1863,33 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>1736.1153986195452</v>
+        <v>1163.1973170750953</v>
       </c>
       <c r="L9">
+        <v>572.91808154444993</v>
+      </c>
+      <c r="M9">
         <v>6920.0092644871493</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>7175786054.9926157</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>3440335994.5862403</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>65904184518.992409</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>981839.21865557774</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>203940251.11854151</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -1731,30 +1904,33 @@
         <v>24</v>
       </c>
       <c r="K10">
-        <v>196777.12553570265</v>
+        <v>131840.67410892079</v>
       </c>
       <c r="L10">
+        <v>64936.451426781881</v>
+      </c>
+      <c r="M10">
         <v>506897.87537997012</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>23960680689.116013</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>70745916655.317459</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>73065684225.787689</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>62472439.555649042</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>42950453116.50563</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1769,30 +1945,33 @@
         <v>7</v>
       </c>
       <c r="K11">
-        <v>259165.86622702488</v>
+        <v>173641.13037210668</v>
       </c>
       <c r="L11">
+        <v>85524.73585491821</v>
+      </c>
+      <c r="M11">
         <v>349949.07106641174</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>3219109002.8957133</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>2496486713.6419001</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>5824358695.1941013</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>1524416.4350418877</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>5520000408.4878492</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1807,30 +1986,33 @@
         <v>7</v>
       </c>
       <c r="K12">
-        <v>81810.361536814045</v>
+        <v>54812.942229665416</v>
       </c>
       <c r="L12">
+        <v>26997.419307148637</v>
+      </c>
+      <c r="M12">
         <v>110467.71104618369</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>2270961652.5606284</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>2706457656.0257611</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>6515964879.9462776</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>1952107.2215887399</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>505519258.45795137</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -1845,30 +2027,33 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>14847.919278129972</v>
+        <v>9948.1059163470818</v>
       </c>
       <c r="L13">
+        <v>4899.8133617828908</v>
+      </c>
+      <c r="M13">
         <v>38248.240060462806</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>2923800677.4723639</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>664730339.05847764</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>835883594.76778483</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>2411999.9946857756</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>462245314.11453331</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -1883,30 +2068,33 @@
         <v>5</v>
       </c>
       <c r="K14">
-        <v>31895.87194649009</v>
+        <v>21370.234204148361</v>
       </c>
       <c r="L14">
+        <v>10525.637742341731</v>
+      </c>
+      <c r="M14">
         <v>85078.34608293364</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>13732514101.607698</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>3691311949.1466961</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>5115075673.0843115</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>11668515.241009872</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1853875026.0311818</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -1921,30 +2109,33 @@
         <v>24</v>
       </c>
       <c r="K15">
-        <v>42305.282163536431</v>
+        <v>28344.539049569412</v>
       </c>
       <c r="L15">
+        <v>13960.743113967023</v>
+      </c>
+      <c r="M15">
         <v>108978.40685326984</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>209346393.16997689</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>4230199159.3241043</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>4360171694.8190174</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>17677610.033387754</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>3272481697.8285317</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -1959,30 +2150,33 @@
         <v>5</v>
       </c>
       <c r="K16">
-        <v>118561.91297201814</v>
+        <v>79436.481691252164</v>
       </c>
       <c r="L16">
+        <v>39125.431280765988</v>
+      </c>
+      <c r="M16">
         <v>316249.43444119371</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1273070098.4773746</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>4968986648.6279879</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>7465409801.5517616</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>2598718.9099521809</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>518880676.89759755</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
@@ -1997,30 +2191,33 @@
         <v>7</v>
       </c>
       <c r="K17">
-        <v>45833216.792469583</v>
+        <v>30708255.250954624</v>
       </c>
       <c r="L17">
+        <v>15124961.541514963</v>
+      </c>
+      <c r="M17">
         <v>61888133.163518459</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>7370536918.3818331</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>7318942238.1089144</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>24392175674.038094</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>21337139.680116065</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>990719858.47337103</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -2035,28 +2232,31 @@
         <v>20</v>
       </c>
       <c r="K18">
-        <v>9600.4773434214167</v>
+        <v>6432.3198200923498</v>
       </c>
       <c r="L18">
+        <v>3168.1575233290678</v>
+      </c>
+      <c r="M18">
         <v>38266.691383131059</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>7275042285.2361631</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>9570757347.8462524</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>12112090004.878937</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>9846733.1359346434</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>470283632.88013947</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -2073,28 +2273,31 @@
         <v>7</v>
       </c>
       <c r="K19">
-        <v>25428190.928034011</v>
+        <v>17036887.921782788</v>
       </c>
       <c r="L19">
+        <v>8391303.0062512234</v>
+      </c>
+      <c r="M19">
         <v>34335431.296196871</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1236962789.3246891</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>938015347.69711804</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>1252496335.1625824</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>4084768.6436157217</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>963039844.50366735</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2111,28 +2314,31 @@
         <v>7</v>
       </c>
       <c r="K20">
-        <v>85293.345618346313</v>
+        <v>57146.541564292034</v>
       </c>
       <c r="L20">
+        <v>28146.804054054286</v>
+      </c>
+      <c r="M20">
         <v>115170.74953460274</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>261404023.84240809</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>662870771.96900964</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>1167174030.7255652</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>472694.85008635663</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>23467516.32994597</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2149,28 +2355,31 @@
         <v>20</v>
       </c>
       <c r="K21">
-        <v>988.46631917228888</v>
+        <v>662.27243384543362</v>
       </c>
       <c r="L21">
+        <v>326.19388532685537</v>
+      </c>
+      <c r="M21">
         <v>3939.9432157657011</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>3077369259.9629478</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>2939810093.7110219</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>13093340767.11665</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>13536767.267073056</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>457926390.7271148</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2187,28 +2396,31 @@
         <v>5</v>
       </c>
       <c r="K22">
-        <v>20210717.506183945</v>
+        <v>13541180.729143243</v>
       </c>
       <c r="L22">
+        <v>6669536.7770407023</v>
+      </c>
+      <c r="M22">
         <v>53909622.582512662</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>23244037103.494522</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>2098673804.5958335</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>14963947966.837791</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>8645431.9293012284</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>469617764.24836379</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2225,28 +2437,31 @@
         <v>5</v>
       </c>
       <c r="K23">
-        <v>2878524.2770361695</v>
+        <v>1928611.2656142337</v>
       </c>
       <c r="L23">
+        <v>949913.01142193598</v>
+      </c>
+      <c r="M23">
         <v>7678112.235359557</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>1728429611.5289557</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>295280720.01181757</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>1576360518.0586846</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>2020519.8719741097</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>209706066.63280141</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2263,28 +2478,31 @@
         <v>5</v>
       </c>
       <c r="K24">
-        <v>589526.73014329805</v>
+        <v>394982.90919600974</v>
       </c>
       <c r="L24">
+        <v>194543.82094728836</v>
+      </c>
+      <c r="M24">
         <v>1572490.6112115649</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>11389577659.555063</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>9120141519.5952988</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>12030116674.248018</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>11516548.098293064</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>80140338.552216381</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -2301,28 +2519,31 @@
         <v>5</v>
       </c>
       <c r="K25">
-        <v>7790.9166015573965</v>
+        <v>5219.9141230434561</v>
       </c>
       <c r="L25">
+        <v>2571.0024785139408</v>
+      </c>
+      <c r="M25">
         <v>20781.319289320461</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1367677977.4270518</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>19415557155.05172</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>19753012111.679474</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>44134141.772179961</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>1863069356.1369269</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -2339,28 +2560,31 @@
         <v>11</v>
       </c>
       <c r="K26">
-        <v>2166428.3608621312</v>
+        <v>1451507.001777628</v>
       </c>
       <c r="L26">
+        <v>714921.35908450338</v>
+      </c>
+      <c r="M26">
         <v>12100294.991157025</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>26686529634.595795</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>5602526037.038002</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>13449017632.306343</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>28682928.807853833</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>802015633.4125073</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -2377,28 +2601,31 @@
         <v>57</v>
       </c>
       <c r="K27">
-        <v>1374527.5713624337</v>
+        <v>920933.4728128307</v>
       </c>
       <c r="L27">
+        <v>453594.09854960314</v>
+      </c>
+      <c r="M27">
         <v>3751090.3599220384</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>2631856604.6076617</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>3041544901.9972501</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>3932507690.064404</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>18254077.867497787</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>1090445581.1975896</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -2415,28 +2642,31 @@
         <v>20</v>
       </c>
       <c r="K28">
-        <v>36340.85512554364</v>
+        <v>24348.372934114239</v>
       </c>
       <c r="L28">
+        <v>11992.482191429403</v>
+      </c>
+      <c r="M28">
         <v>144851.57747196499</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>1955329090.5211396</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1202043687.03022</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>4172635345.0184641</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>22152151.290723033</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>408632883.32140654</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2453,28 +2683,31 @@
         <v>64</v>
       </c>
       <c r="K29">
-        <v>68737.202118534289</v>
+        <v>46053.925419417974</v>
       </c>
       <c r="L29">
+        <v>22683.276699116315</v>
+      </c>
+      <c r="M29">
         <v>610028.91647184663</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>679399572.34809971</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>989091472.7085501</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>1824699389.5965521</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>12700301.946414873</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>223357269.54921383</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -2491,28 +2724,31 @@
         <v>67</v>
       </c>
       <c r="K30">
-        <v>100484.3202610756</v>
+        <v>67324.494574920653</v>
       </c>
       <c r="L30">
+        <v>33159.825686154945</v>
+      </c>
+      <c r="M30">
         <v>139464.70542817947</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>4733667268.9461222</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>6559712908.8226519</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>7869272284.6593103</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>60818049.223066434</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>1279584288.1275206</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -2529,28 +2765,31 @@
         <v>67</v>
       </c>
       <c r="K31">
-        <v>14088280.445939962</v>
+        <v>9439147.8987797741</v>
       </c>
       <c r="L31">
+        <v>4649132.5471601877</v>
+      </c>
+      <c r="M31">
         <v>19553477.371186528</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>9338027130.3279953</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>933460072.78718007</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>2521235187.1692467</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>18868083.741257884</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>259739897.26190066</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -2567,28 +2806,31 @@
         <v>17</v>
       </c>
       <c r="K32">
-        <v>118941.23272573021</v>
+        <v>79690.625926239241</v>
       </c>
       <c r="L32">
+        <v>39250.606799490968</v>
+      </c>
+      <c r="M32">
         <v>279253.32900843222</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>5553767116.0249548</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>22740883934.252277</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>26209550144.806366</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>209055812.87937909</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>2957267010.5849843</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>73</v>
       </c>
@@ -2605,28 +2847,31 @@
         <v>5</v>
       </c>
       <c r="K33">
-        <v>21988.936351392673</v>
+        <v>14732.587355433092</v>
       </c>
       <c r="L33">
+        <v>7256.3489959595827</v>
+      </c>
+      <c r="M33">
         <v>58652.804351408406</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>3357277494.8819456</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>6156493627.1829901</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>7301196599.4075632</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>100899640.16776887</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>3249873922.9934068</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -2643,28 +2888,31 @@
         <v>7</v>
       </c>
       <c r="K34">
-        <v>11935572.900812317</v>
+        <v>7996833.8435442522</v>
       </c>
       <c r="L34">
+        <v>3938739.0572680645</v>
+      </c>
+      <c r="M34">
         <v>16116484.435579119</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>716739526.84037268</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>2830980395.1429429</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>4376941845.2913017</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>143353016.08483088</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>1054147392.1400725</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -2681,28 +2929,31 @@
         <v>80</v>
       </c>
       <c r="K35">
-        <v>2107.7428559933919</v>
+        <v>1412.1877135155726</v>
       </c>
       <c r="L35">
+        <v>695.55514247781935</v>
+      </c>
+      <c r="M35">
         <v>4384.1051404662558</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>158198222.65985265</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>249422098.91773474</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>292696603.63391906</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>762958.42384594458</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>16164035.009301951</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>81</v>
       </c>
@@ -2719,28 +2970,31 @@
         <v>24</v>
       </c>
       <c r="K36">
-        <v>314936.79875185777</v>
+        <v>211007.65516374473</v>
       </c>
       <c r="L36">
+        <v>103929.14358811307</v>
+      </c>
+      <c r="M36">
         <v>811277.19358478568</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>4635617473.6214733</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>1380607761.4533112</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>2134447049.726053</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>11504237.337847713</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>76375335.415532187</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -2757,28 +3011,31 @@
         <v>5</v>
       </c>
       <c r="K37">
-        <v>91117.578012331389</v>
+        <v>61048.777268262034</v>
       </c>
       <c r="L37">
+        <v>30068.800744069358</v>
+      </c>
+      <c r="M37">
         <v>243045.02003801151</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>5258576112.800808</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>6060088911.5225477</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>7212859670.6222897</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>17583453.748498078</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>403556882.32980388</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>85</v>
       </c>
@@ -2795,28 +3052,31 @@
         <v>87</v>
       </c>
       <c r="K38">
-        <v>26.865407941423623</v>
+        <v>17.99982332075383</v>
       </c>
       <c r="L38">
+        <v>8.8655846206697966</v>
+      </c>
+      <c r="M38">
         <v>107.08324544648249</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>95400397.363346085</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>1011205116.0305729</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>1758328648.113101</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>30514841.367504701</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>359922992.06079412</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>88</v>
       </c>
@@ -2833,28 +3093,31 @@
         <v>87</v>
       </c>
       <c r="K39">
-        <v>1988.9893256430512</v>
+        <v>1332.6228481808444</v>
       </c>
       <c r="L39">
+        <v>656.36647746220694</v>
+      </c>
+      <c r="M39">
         <v>7927.9433683924171</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>2115375586.2987034</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>1844557127.3171234</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>5599530600.291544</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>7548875.7857852448</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>188775849.06628573</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>90</v>
       </c>
@@ -2871,28 +3134,31 @@
         <v>57</v>
       </c>
       <c r="K40">
-        <v>116613.16602106349</v>
+        <v>78130.821234112547</v>
       </c>
       <c r="L40">
+        <v>38482.344786950955</v>
+      </c>
+      <c r="M40">
         <v>318237.72182888241</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>7078826293.7083092</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>30580047682.136097</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>43333676725.844238</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>282718545.65090203</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>3126017043.1166129</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -2909,28 +3175,31 @@
         <v>67</v>
       </c>
       <c r="K41">
-        <v>2641303.9499925142</v>
+        <v>1769673.6464949846</v>
       </c>
       <c r="L41">
+        <v>871630.30349752971</v>
+      </c>
+      <c r="M41">
         <v>3665931.9222661322</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>2183555774.2691259</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>2316403586.0519538</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>2379278787.8253641</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>25977313.769257337</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>25963862784.153816</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -2947,28 +3216,31 @@
         <v>5</v>
       </c>
       <c r="K42">
-        <v>34886.045315286356</v>
+        <v>23373.65036124186</v>
       </c>
       <c r="L42">
+        <v>11512.394954044497</v>
+      </c>
+      <c r="M42">
         <v>93054.268645935648</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>1937039764.6200025</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>1956254315.6187224</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>2081346372.8598316</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>37438563.761328541</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>216444951.50947747</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -2985,28 +3257,31 @@
         <v>67</v>
       </c>
       <c r="K43">
-        <v>13266889.881567331</v>
+        <v>8888816.2206501123</v>
       </c>
       <c r="L43">
+        <v>4378073.6609172197</v>
+      </c>
+      <c r="M43">
         <v>18413448.829378948</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>2795781568.3059931</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>3615211345.8092065</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>3620291185.464076</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>43581896.053874217</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>463981837.16979945</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>100</v>
       </c>
@@ -3023,28 +3298,31 @@
         <v>67</v>
       </c>
       <c r="K44">
-        <v>1436916.8962362793</v>
+        <v>962734.3204783072</v>
       </c>
       <c r="L44">
+        <v>474182.5757579722</v>
+      </c>
+      <c r="M44">
         <v>1994332.9579958254</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>7690973438.5809059</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>11889276849.016993</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>18502605598.04702</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>18621504.054669078</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>630827983.47226107</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -3061,28 +3339,31 @@
         <v>7</v>
       </c>
       <c r="K45">
-        <v>6611043.5529440343</v>
+        <v>4429399.1804725034</v>
       </c>
       <c r="L45">
+        <v>2181644.3724715314</v>
+      </c>
+      <c r="M45">
         <v>8926825.8347872831</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>4018557291.550961</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>13543182633.333107</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>21343567833.693756</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>35356024.729281023</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>1089931685.5934117</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -3099,28 +3380,31 @@
         <v>7</v>
       </c>
       <c r="K46">
-        <v>8307064.9522866216</v>
+        <v>5565733.5180320367</v>
       </c>
       <c r="L46">
+        <v>2741331.4342545853</v>
+      </c>
+      <c r="M46">
         <v>11216946.527950881</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>2450057767.0331631</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>7076305332.3843737</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>13035233744.394693</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>275063804.764153</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>1580248549.8247914</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
         <v>108</v>
       </c>
@@ -3137,28 +3421,31 @@
         <v>20</v>
       </c>
       <c r="K47">
-        <v>6086.1963717252083</v>
+        <v>4077.7515690558898</v>
       </c>
       <c r="L47">
+        <v>2008.4448026693187</v>
+      </c>
+      <c r="M47">
         <v>24259.064411402484</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>2861509906.7090659</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>1493712299.1514397</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>4324546614.5051928</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>31931759.848868102</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>360167278.93933254</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
         <v>112</v>
       </c>
@@ -3175,28 +3462,31 @@
         <v>17</v>
       </c>
       <c r="K48">
-        <v>121886.58843968091</v>
+        <v>81664.014254586218</v>
       </c>
       <c r="L48">
+        <v>40222.574185094702</v>
+      </c>
+      <c r="M48">
         <v>286168.51198886574</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>12722017057.247293</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>75512067802.194733</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>95624783649.69812</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>2880113536.669549</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>23659060554.326973</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
         <v>115</v>
       </c>
@@ -3213,28 +3503,31 @@
         <v>5</v>
       </c>
       <c r="K49">
-        <v>3073484.0384656894</v>
+        <v>2059234.3057720121</v>
       </c>
       <c r="L49">
+        <v>1014249.7326936775</v>
+      </c>
+      <c r="M49">
         <v>8198143.6075371653</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>9235065590.1879883</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>4682718562.4357243</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>9006159147.993166</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>85754475.964455485</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>94976895574.746582</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
         <v>118</v>
       </c>
@@ -3251,30 +3544,33 @@
         <v>57</v>
       </c>
       <c r="K50">
-        <v>244176.80273373649</v>
+        <v>163598.45783160345</v>
       </c>
       <c r="L50">
+        <v>80578.344902133045</v>
+      </c>
+      <c r="M50">
         <v>666359.31496309408</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>2224558208.8622451</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>1026092874.7627144</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>2193515906.2440734</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>18588160.612092916</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>408452279.29417968</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B51" t="s">
         <v>122</v>
@@ -3289,24 +3585,27 @@
         <v>67</v>
       </c>
       <c r="K51">
-        <v>240504.60431777878</v>
+        <v>161138.08489291178</v>
       </c>
       <c r="L51">
+        <v>79366.519424867001</v>
+      </c>
+      <c r="M51">
         <v>333802.3654653214</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>381814055.45190519</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>888003987.07463813</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>893072112.23021507</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>5297992.8568862602</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>95987554.945462793</v>
       </c>
     </row>
@@ -3321,10 +3620,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q120"/>
+  <dimension ref="A1:S120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q120"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3332,16 +3631,16 @@
     <col min="1" max="1" width="17.109375" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" customWidth="1"/>
     <col min="3" max="4" width="21.109375" customWidth="1"/>
-    <col min="6" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="15" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
+    <col min="14" max="16" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3349,52 +3648,58 @@
         <v>143</v>
       </c>
       <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
         <v>157</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>158</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G1" t="s">
         <v>159</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>160</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>161</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N1" t="s">
+        <v>304</v>
+      </c>
+      <c r="O1" t="s">
         <v>162</v>
       </c>
-      <c r="I1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>163</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>164</v>
       </c>
-      <c r="O1" t="s">
-        <v>165</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>129</v>
       </c>
-      <c r="Q1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="S1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" hidden="1">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -3407,40 +3712,43 @@
       <c r="E2" t="s">
         <v>131</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="J2">
         <v>0.3</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2018</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2025</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>2020</v>
       </c>
-      <c r="M2">
+      <c r="N2">
+        <v>2019</v>
+      </c>
+      <c r="O2">
         <v>11000</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>1200</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>0.4</v>
       </c>
-      <c r="Q2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="S2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" hidden="1">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -3454,40 +3762,43 @@
       <c r="E3" t="s">
         <v>133</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="I3">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>0.4</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2015</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2030</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2019</v>
       </c>
-      <c r="M3">
+      <c r="N3">
+        <v>2020</v>
+      </c>
+      <c r="O3">
         <v>1558</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>13333</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>1350</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>0.5</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="S3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" hidden="1">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -3501,37 +3812,43 @@
       <c r="E4" t="s">
         <v>144</v>
       </c>
-      <c r="H4">
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>0.6</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.15</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2018</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2050</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>2018</v>
       </c>
-      <c r="M4">
+      <c r="N4">
+        <v>2021</v>
+      </c>
+      <c r="O4">
         <v>1209218.5863059745</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>2110267.4136940255</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>0.5</v>
       </c>
-      <c r="Q4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="S4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" hidden="1">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -3546,42 +3863,48 @@
         <v>134</v>
       </c>
       <c r="F5">
-        <v>0.95</v>
+        <v>6</v>
       </c>
       <c r="G5">
         <v>0.95</v>
       </c>
       <c r="H5">
+        <v>0.95</v>
+      </c>
+      <c r="I5">
         <v>0.5</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.91</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2018</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2035</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2020</v>
       </c>
-      <c r="M5">
+      <c r="N5">
+        <v>2022</v>
+      </c>
+      <c r="O5">
         <v>184098.81832046947</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>80204.181679530549</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>0.04</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="S5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" hidden="1">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -3596,42 +3919,48 @@
         <v>134</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>0.7</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.93</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2015</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2025</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2016</v>
       </c>
-      <c r="M6">
+      <c r="N6">
+        <v>2023</v>
+      </c>
+      <c r="O6">
         <v>27727.460283476539</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>236575.53971652346</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>0.03</v>
       </c>
-      <c r="Q6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="S6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" hidden="1">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -3645,40 +3974,43 @@
       <c r="E7" t="s">
         <v>131</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7">
         <v>0.76</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>2015</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>2025</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>2015</v>
       </c>
-      <c r="M7">
+      <c r="N7">
+        <v>2024</v>
+      </c>
+      <c r="O7">
         <v>0</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>0</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>0.08</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" hidden="1">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -3689,37 +4021,43 @@
       <c r="E8" t="s">
         <v>144</v>
       </c>
-      <c r="H8">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>0.8</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.21</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>2015</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2030</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>2015</v>
       </c>
-      <c r="M8">
+      <c r="N8">
+        <v>2019</v>
+      </c>
+      <c r="O8">
         <v>545004.52801988786</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>1094846.4719801121</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>0.26</v>
       </c>
-      <c r="Q8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="S8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" hidden="1">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -3733,40 +4071,43 @@
       <c r="E9" t="s">
         <v>131</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9">
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9">
         <v>0.6</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>2015</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>2020</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>2015</v>
       </c>
-      <c r="M9">
+      <c r="N9">
+        <v>2020</v>
+      </c>
+      <c r="O9">
         <v>814592.7738002605</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>825258.2261997395</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>0</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="S9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" hidden="1">
       <c r="A10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -3780,40 +4121,43 @@
       <c r="E10" t="s">
         <v>131</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10">
         <v>0.47000000000000003</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>2015</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>2020</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>2015</v>
       </c>
-      <c r="M10">
+      <c r="N10">
+        <v>2021</v>
+      </c>
+      <c r="O10">
         <v>37200.153761330155</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>10506.846238669841</v>
       </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" hidden="1">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -3827,40 +4171,43 @@
       <c r="E11" t="s">
         <v>131</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11">
         <v>0.5</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>2015</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>2020</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>2015</v>
       </c>
-      <c r="M11">
+      <c r="N11">
+        <v>2022</v>
+      </c>
+      <c r="O11">
         <v>574771.14896427921</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>2744714.8510357207</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>0</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="S11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" hidden="1">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -3871,40 +4218,43 @@
       <c r="E12" t="s">
         <v>131</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12">
+      <c r="H12">
         <v>1</v>
       </c>
       <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
         <v>2017</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>2030</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>2017</v>
       </c>
-      <c r="M12">
+      <c r="N12">
+        <v>2023</v>
+      </c>
+      <c r="O12">
         <v>261254.34093679659</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>3048.6590632034122</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>0.15</v>
       </c>
-      <c r="Q12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="S12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" hidden="1">
       <c r="A13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -3915,40 +4265,43 @@
       <c r="E13" t="s">
         <v>131</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="J13">
         <v>0.94000000000000006</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>2017</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>2030</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>2017</v>
       </c>
-      <c r="M13">
+      <c r="N13">
+        <v>2024</v>
+      </c>
+      <c r="O13">
         <v>4529.3557815602426</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>259773.64421843976</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>0</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="S13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" hidden="1">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -3959,40 +4312,43 @@
       <c r="E14" t="s">
         <v>131</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="J14">
         <v>0.5</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>2005</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>2020</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>2006</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
       <c r="N14">
+        <v>2019</v>
+      </c>
+      <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
-      <c r="Q14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" hidden="1">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -4003,40 +4359,43 @@
       <c r="E15" t="s">
         <v>131</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="I15">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="J15">
         <v>0.91</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2018</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2030</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>2018</v>
       </c>
-      <c r="M15">
+      <c r="N15">
+        <v>2020</v>
+      </c>
+      <c r="O15">
         <v>1623495.6235948068</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>16355.37640519335</v>
       </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" hidden="1">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -4047,40 +4406,43 @@
       <c r="E16" t="s">
         <v>131</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="J16">
         <v>0.93</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>2017</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>2019</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>2018</v>
       </c>
-      <c r="M16">
+      <c r="N16">
+        <v>2021</v>
+      </c>
+      <c r="O16">
         <v>109063.26891512153</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>1530787.7310848786</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="Q16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="S16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
@@ -4091,40 +4453,43 @@
       <c r="E17" t="s">
         <v>131</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="J17">
         <v>0.76</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>2015</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>2020</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>2015</v>
       </c>
-      <c r="M17">
+      <c r="N17">
+        <v>2022</v>
+      </c>
+      <c r="O17">
         <v>28088.045032479266</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>19618.954967520734</v>
       </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" hidden="1">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -4135,35 +4500,41 @@
       <c r="E18" t="s">
         <v>144</v>
       </c>
-      <c r="H18">
+      <c r="F18">
+        <v>11</v>
+      </c>
+      <c r="I18">
         <v>0.12</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.21</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>2015</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>2030</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>2017</v>
       </c>
-      <c r="M18">
+      <c r="N18">
+        <v>2023</v>
+      </c>
+      <c r="O18">
         <v>2021033.4696043313</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>1298452.5303956687</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>0.08</v>
       </c>
-      <c r="Q18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="S18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" hidden="1">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -4176,35 +4547,41 @@
       <c r="E19" t="s">
         <v>144</v>
       </c>
-      <c r="H19">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>0.3</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.6</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>2015</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>2020</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>2016</v>
       </c>
-      <c r="M19">
+      <c r="N19">
+        <v>2024</v>
+      </c>
+      <c r="O19">
         <v>251813.3497402785</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>12489.650259721515</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>0</v>
       </c>
-      <c r="Q19" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="S19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -4217,35 +4594,41 @@
       <c r="E20" t="s">
         <v>144</v>
       </c>
-      <c r="H20">
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="I20">
         <v>0.4</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.47000000000000003</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>2015</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>2030</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>2017</v>
       </c>
-      <c r="M20">
+      <c r="N20">
+        <v>2019</v>
+      </c>
+      <c r="O20">
         <v>29144.618624426188</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>235158.38137557381</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>0.1</v>
       </c>
-      <c r="Q20" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="S20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" hidden="1">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -4258,35 +4641,41 @@
       <c r="E21" t="s">
         <v>144</v>
       </c>
-      <c r="H21">
-        <v>0.5</v>
+      <c r="F21">
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0.5</v>
       </c>
       <c r="J21">
+        <v>0.5</v>
+      </c>
+      <c r="K21">
         <v>2018</v>
-      </c>
-      <c r="K21">
-        <v>2019</v>
       </c>
       <c r="L21">
         <v>2019</v>
       </c>
       <c r="M21">
+        <v>2019</v>
+      </c>
+      <c r="N21">
+        <v>2020</v>
+      </c>
+      <c r="O21">
         <v>0</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>0</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>0.12</v>
       </c>
-      <c r="Q21" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="S21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" hidden="1">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -4299,35 +4688,41 @@
       <c r="E22" t="s">
         <v>144</v>
       </c>
-      <c r="H22">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>0.6</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.3</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>2018</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>2030</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>2019</v>
       </c>
-      <c r="M22">
+      <c r="N22">
+        <v>2021</v>
+      </c>
+      <c r="O22">
         <v>1542974.817386897</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>96876.182613102996</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>0</v>
       </c>
-      <c r="Q22" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="S22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" hidden="1">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -4340,35 +4735,41 @@
       <c r="E23" t="s">
         <v>144</v>
       </c>
-      <c r="H23">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="I23">
         <v>0.8</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.94000000000000006</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>2018</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>2030</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>2019</v>
       </c>
-      <c r="M23">
+      <c r="N23">
+        <v>2022</v>
+      </c>
+      <c r="O23">
         <v>1258605.9073582559</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>381245.09264174401</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>0.88300000000000001</v>
       </c>
-      <c r="Q23" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="S23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" hidden="1">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -4384,35 +4785,41 @@
       <c r="E24" t="s">
         <v>144</v>
       </c>
-      <c r="H24">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="I24">
         <v>0.7</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.5</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>2018</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>2025</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>2019</v>
       </c>
-      <c r="M24">
+      <c r="N24">
+        <v>2023</v>
+      </c>
+      <c r="O24">
         <v>25476.428678700202</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>22230.571321299798</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>0</v>
       </c>
-      <c r="Q24" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="S24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" hidden="1">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -4425,38 +4832,41 @@
       <c r="E25" t="s">
         <v>131</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="J25">
         <v>0.93</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>2005</v>
-      </c>
-      <c r="K25">
-        <v>2018</v>
       </c>
       <c r="L25">
         <v>2018</v>
       </c>
       <c r="M25">
+        <v>2018</v>
+      </c>
+      <c r="N25">
+        <v>2024</v>
+      </c>
+      <c r="O25">
         <v>739349.11745452916</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>2580136.8825454707</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>0</v>
       </c>
-      <c r="Q25" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="S25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" hidden="1">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -4469,38 +4879,41 @@
       <c r="E26" t="s">
         <v>131</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="I26">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="J26">
         <v>0.76</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>2015</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>2030</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>2017</v>
       </c>
-      <c r="M26">
+      <c r="N26">
+        <v>2019</v>
+      </c>
+      <c r="O26">
         <v>140273.75037513993</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <v>124029.24962486007</v>
       </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="R26">
+        <v>1</v>
+      </c>
+      <c r="S26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" hidden="1">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -4516,38 +4929,41 @@
       <c r="E27" t="s">
         <v>131</v>
       </c>
-      <c r="F27">
-        <v>0.95</v>
-      </c>
       <c r="G27">
         <v>0.95</v>
       </c>
-      <c r="I27">
+      <c r="H27">
+        <v>0.95</v>
+      </c>
+      <c r="J27">
         <v>0.21</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>2015</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>2030</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>2017</v>
       </c>
-      <c r="M27">
+      <c r="N27">
+        <v>2020</v>
+      </c>
+      <c r="O27">
         <v>3562.2554504317172</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>260740.74454956828</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>0.5</v>
       </c>
-      <c r="Q27" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="S27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" hidden="1">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -4563,29 +4979,35 @@
       <c r="E28" t="s">
         <v>144</v>
       </c>
-      <c r="H28">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="I28">
         <v>0.8</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.6</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>2015</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>2020</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>2015</v>
       </c>
-      <c r="P28">
+      <c r="N28">
+        <v>2021</v>
+      </c>
+      <c r="R28">
         <v>0.49600000000000005</v>
       </c>
-      <c r="Q28" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="S28" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" hidden="1">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -4601,35 +5023,41 @@
       <c r="E29" t="s">
         <v>144</v>
       </c>
-      <c r="H29">
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="I29">
         <v>0.9</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.47000000000000003</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>2015</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>2020</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>2015</v>
       </c>
-      <c r="M29">
+      <c r="N29">
+        <v>2022</v>
+      </c>
+      <c r="O29">
         <v>1527902.4738061246</v>
       </c>
-      <c r="N29">
+      <c r="P29">
         <v>111948.5261938753</v>
       </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" hidden="1">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -4642,38 +5070,41 @@
       <c r="E30" t="s">
         <v>131</v>
       </c>
-      <c r="F30">
-        <v>0.99</v>
-      </c>
       <c r="G30">
         <v>0.99</v>
       </c>
-      <c r="I30">
+      <c r="H30">
+        <v>0.99</v>
+      </c>
+      <c r="J30">
         <v>0.5</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>2013</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>2030</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>2017</v>
       </c>
-      <c r="M30">
+      <c r="N30">
+        <v>2023</v>
+      </c>
+      <c r="O30">
         <v>752485.53816878912</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <v>887365.46183121088</v>
       </c>
-      <c r="P30">
-        <v>1</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" hidden="1">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -4689,35 +5120,41 @@
       <c r="E31" t="s">
         <v>144</v>
       </c>
-      <c r="H31">
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="I31">
         <v>0.81</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0.3</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>2013</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>2021</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>2019</v>
       </c>
-      <c r="M31">
+      <c r="N31">
+        <v>2024</v>
+      </c>
+      <c r="O31">
         <v>13520.584701904279</v>
       </c>
-      <c r="N31">
+      <c r="P31">
         <v>34186.415298095722</v>
       </c>
-      <c r="P31">
+      <c r="R31">
         <v>0</v>
       </c>
-      <c r="Q31" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="S31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" hidden="1">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -4730,38 +5167,41 @@
       <c r="E32" t="s">
         <v>131</v>
       </c>
-      <c r="F32">
-        <v>0.85</v>
-      </c>
       <c r="G32">
         <v>0.85</v>
       </c>
-      <c r="I32">
+      <c r="H32">
+        <v>0.85</v>
+      </c>
+      <c r="J32">
         <v>0.94000000000000006</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>2017</v>
-      </c>
-      <c r="K32">
-        <v>2018</v>
       </c>
       <c r="L32">
         <v>2018</v>
       </c>
       <c r="M32">
+        <v>2018</v>
+      </c>
+      <c r="N32">
+        <v>2019</v>
+      </c>
+      <c r="O32">
         <v>8714.9533087395212</v>
       </c>
-      <c r="N32">
+      <c r="P32">
         <v>192816.04669126048</v>
       </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" hidden="1">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -4774,35 +5214,41 @@
       <c r="E33" t="s">
         <v>144</v>
       </c>
-      <c r="H33">
-        <v>1</v>
+      <c r="F33">
+        <v>5</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
         <v>2016</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>2030</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>2017</v>
       </c>
-      <c r="M33">
+      <c r="N33">
+        <v>2020</v>
+      </c>
+      <c r="O33">
         <v>5030.1715149841002</v>
       </c>
-      <c r="N33">
+      <c r="P33">
         <v>70864.828485015896</v>
       </c>
-      <c r="P33">
+      <c r="R33">
         <v>0.39</v>
       </c>
-      <c r="Q33" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="S33" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" hidden="1">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -4818,35 +5264,38 @@
       <c r="E34" t="s">
         <v>140</v>
       </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="I34">
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="J34">
         <v>0.69000000000000006</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>2006</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>2020</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>2012</v>
       </c>
-      <c r="M34">
+      <c r="N34">
+        <v>2021</v>
+      </c>
+      <c r="O34">
         <v>5030.1715149841002</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <v>70864.828485015896</v>
       </c>
-      <c r="P34">
+      <c r="R34">
         <v>0.1</v>
       </c>
-      <c r="Q34" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+      <c r="S34" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -4859,32 +5308,35 @@
       <c r="E35" t="s">
         <v>131</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
       <c r="G35">
         <v>1</v>
       </c>
-      <c r="I35">
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="J35">
         <v>0.82000000000000006</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>2017</v>
-      </c>
-      <c r="K35">
-        <v>2018</v>
       </c>
       <c r="L35">
         <v>2018</v>
       </c>
-      <c r="P35">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
+      <c r="M35">
+        <v>2018</v>
+      </c>
+      <c r="N35">
+        <v>2022</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -4897,38 +5349,41 @@
       <c r="E36" t="s">
         <v>131</v>
       </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
       <c r="G36">
         <v>1</v>
       </c>
-      <c r="I36">
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="J36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>2017</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>2025</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>2018</v>
       </c>
-      <c r="M36">
+      <c r="N36">
+        <v>2023</v>
+      </c>
+      <c r="O36">
         <v>18420.103830501779</v>
       </c>
-      <c r="N36">
+      <c r="P36">
         <v>12437.896169498223</v>
       </c>
-      <c r="P36">
+      <c r="R36">
         <v>6.1699999999999998E-2</v>
       </c>
-      <c r="Q36" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="S36" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -4944,35 +5399,41 @@
       <c r="E37" t="s">
         <v>144</v>
       </c>
-      <c r="H37">
+      <c r="F37">
+        <v>11</v>
+      </c>
+      <c r="I37">
         <v>0.159</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0.26</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>2010</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>2020</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>2012</v>
       </c>
-      <c r="M37">
+      <c r="N37">
+        <v>2024</v>
+      </c>
+      <c r="O37">
         <v>21253.709283596334</v>
       </c>
-      <c r="N37">
+      <c r="P37">
         <v>9604.290716403666</v>
       </c>
-      <c r="P37">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -4988,35 +5449,41 @@
       <c r="E38" t="s">
         <v>144</v>
       </c>
-      <c r="H38">
+      <c r="F38">
+        <v>15</v>
+      </c>
+      <c r="I38">
         <v>0.75</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.2</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>2017</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>2030</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>2017</v>
       </c>
-      <c r="M38">
+      <c r="N38">
+        <v>2019</v>
+      </c>
+      <c r="O38">
         <v>260823.50223769023</v>
       </c>
-      <c r="N38">
+      <c r="P38">
         <v>12190.497762309758</v>
       </c>
-      <c r="P38">
-        <v>1</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -5029,35 +5496,38 @@
       <c r="E39" t="s">
         <v>133</v>
       </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="I39">
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="J39">
         <v>0.39</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>2015</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>2020</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>2015</v>
       </c>
-      <c r="M39">
+      <c r="N39">
+        <v>2020</v>
+      </c>
+      <c r="O39">
         <v>260823.50223769023</v>
       </c>
-      <c r="N39">
+      <c r="P39">
         <v>12190.497762309758</v>
       </c>
-      <c r="P39">
+      <c r="R39">
         <v>0</v>
       </c>
-      <c r="Q39" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
+      <c r="S39" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" hidden="1">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -5073,32 +5543,35 @@
       <c r="E40" t="s">
         <v>131</v>
       </c>
-      <c r="F40">
-        <v>0.71</v>
-      </c>
       <c r="G40">
         <v>0.71</v>
       </c>
-      <c r="I40">
+      <c r="H40">
+        <v>0.71</v>
+      </c>
+      <c r="J40">
         <v>0.86</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>2015</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>2021</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>2016</v>
       </c>
-      <c r="P40">
+      <c r="N40">
+        <v>2021</v>
+      </c>
+      <c r="R40">
         <v>0</v>
       </c>
-      <c r="Q40" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+      <c r="S40" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" hidden="1">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -5114,38 +5587,41 @@
       <c r="E41" t="s">
         <v>131</v>
       </c>
-      <c r="F41">
-        <v>0.75</v>
-      </c>
       <c r="G41">
         <v>0.75</v>
       </c>
-      <c r="I41">
+      <c r="H41">
+        <v>0.75</v>
+      </c>
+      <c r="J41">
         <v>0.46</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>2018</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>2023</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>2018</v>
       </c>
-      <c r="M41">
+      <c r="N41">
+        <v>2022</v>
+      </c>
+      <c r="O41">
         <v>2435.0792096809209</v>
       </c>
-      <c r="N41">
+      <c r="P41">
         <v>16574.110790319079</v>
       </c>
-      <c r="P41">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" hidden="1">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -5161,38 +5637,41 @@
       <c r="E42" t="s">
         <v>131</v>
       </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
       <c r="G42">
         <v>1</v>
       </c>
-      <c r="I42">
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="J42">
         <v>0.94000000000000006</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>2016</v>
-      </c>
-      <c r="K42">
-        <v>2017</v>
       </c>
       <c r="L42">
         <v>2017</v>
       </c>
       <c r="M42">
+        <v>2017</v>
+      </c>
+      <c r="N42">
+        <v>2023</v>
+      </c>
+      <c r="O42">
         <v>3577.0205410445274</v>
       </c>
-      <c r="N42">
+      <c r="P42">
         <v>15432.169458955472</v>
       </c>
-      <c r="P42">
+      <c r="R42">
         <v>0.79</v>
       </c>
-      <c r="Q42" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="S42" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" hidden="1">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -5205,38 +5684,41 @@
       <c r="E43" t="s">
         <v>131</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
       <c r="G43">
         <v>1</v>
       </c>
-      <c r="I43">
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="J43">
         <v>0.69000000000000006</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>2015</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>2020</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>2015</v>
       </c>
-      <c r="M43">
+      <c r="N43">
+        <v>2024</v>
+      </c>
+      <c r="O43">
         <v>45289.348484583432</v>
       </c>
-      <c r="N43">
+      <c r="P43">
         <v>32682.651515416568</v>
       </c>
-      <c r="P43">
+      <c r="R43">
         <v>0.42</v>
       </c>
-      <c r="Q43" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+      <c r="S43" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" hidden="1">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -5249,40 +5731,43 @@
       <c r="E44" t="s">
         <v>131</v>
       </c>
-      <c r="F44">
-        <v>0.86</v>
-      </c>
       <c r="G44">
         <v>0.86</v>
       </c>
-      <c r="I44">
+      <c r="H44">
+        <v>0.86</v>
+      </c>
+      <c r="J44">
         <v>0.42</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>2013</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>2030</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>2017</v>
       </c>
-      <c r="M44">
+      <c r="N44">
+        <v>2019</v>
+      </c>
+      <c r="O44">
         <v>0</v>
       </c>
-      <c r="N44">
+      <c r="P44">
         <v>0</v>
       </c>
-      <c r="P44">
+      <c r="R44">
         <v>0.74</v>
       </c>
-      <c r="Q44" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+      <c r="S44" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" hidden="1">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -5293,40 +5778,43 @@
       <c r="E45" t="s">
         <v>131</v>
       </c>
-      <c r="F45">
-        <v>0.86</v>
-      </c>
       <c r="G45">
         <v>0.86</v>
       </c>
-      <c r="I45">
+      <c r="H45">
+        <v>0.86</v>
+      </c>
+      <c r="J45">
         <v>0.88</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>2013</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>2050</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>2017</v>
       </c>
-      <c r="M45">
+      <c r="N45">
+        <v>2020</v>
+      </c>
+      <c r="O45">
         <v>303878.5938430645</v>
       </c>
-      <c r="N45">
+      <c r="P45">
         <v>501599.4061569355</v>
       </c>
-      <c r="P45">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" hidden="1">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -5340,40 +5828,43 @@
       <c r="E46" t="s">
         <v>131</v>
       </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
       <c r="G46">
         <v>1</v>
       </c>
-      <c r="I46">
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="J46">
         <v>0.9</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>2011</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>2021</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>2018</v>
       </c>
-      <c r="M46">
+      <c r="N46">
+        <v>2021</v>
+      </c>
+      <c r="O46">
         <v>451204.69109967712</v>
       </c>
-      <c r="N46">
+      <c r="P46">
         <v>354273.30890032288</v>
       </c>
-      <c r="P46">
+      <c r="R46">
         <v>0.86</v>
       </c>
-      <c r="Q46" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="S46" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" hidden="1">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
@@ -5387,40 +5878,43 @@
       <c r="E47" t="s">
         <v>131</v>
       </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
       <c r="G47">
         <v>1</v>
       </c>
-      <c r="I47">
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="J47">
         <v>0.96</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>2011</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>2021</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>2018</v>
       </c>
-      <c r="M47">
+      <c r="N47">
+        <v>2022</v>
+      </c>
+      <c r="O47">
         <v>0</v>
       </c>
-      <c r="N47">
+      <c r="P47">
         <v>0</v>
       </c>
-      <c r="P47">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" hidden="1">
       <c r="A48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
@@ -5431,40 +5925,43 @@
       <c r="E48" t="s">
         <v>131</v>
       </c>
-      <c r="F48">
-        <v>0.65</v>
-      </c>
       <c r="G48">
         <v>0.65</v>
       </c>
-      <c r="I48">
+      <c r="H48">
+        <v>0.65</v>
+      </c>
+      <c r="J48">
         <v>0.43</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>2002</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>2020</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>2011</v>
       </c>
-      <c r="M48">
+      <c r="N48">
+        <v>2023</v>
+      </c>
+      <c r="O48">
         <v>481657.87875209423</v>
       </c>
-      <c r="N48">
+      <c r="P48">
         <v>486942.12124790577</v>
       </c>
-      <c r="P48">
-        <v>1</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" hidden="1">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
@@ -5478,40 +5975,43 @@
       <c r="E49" t="s">
         <v>131</v>
       </c>
-      <c r="F49">
-        <v>0.65</v>
-      </c>
       <c r="G49">
         <v>0.65</v>
       </c>
-      <c r="I49">
+      <c r="H49">
+        <v>0.65</v>
+      </c>
+      <c r="J49">
         <v>0.76</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>2006</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>2021</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>2011</v>
       </c>
-      <c r="M49">
+      <c r="N49">
+        <v>2024</v>
+      </c>
+      <c r="O49">
         <v>0</v>
       </c>
-      <c r="N49">
+      <c r="P49">
         <v>0</v>
       </c>
-      <c r="P49">
+      <c r="R49">
         <v>0.3</v>
       </c>
-      <c r="Q49" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="S49" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" hidden="1">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B50" t="s">
         <v>18</v>
@@ -5525,43 +6025,46 @@
       <c r="E50" t="s">
         <v>131</v>
       </c>
-      <c r="F50">
-        <v>0.65</v>
-      </c>
       <c r="G50">
         <v>0.65</v>
       </c>
-      <c r="I50">
+      <c r="H50">
+        <v>0.65</v>
+      </c>
+      <c r="J50">
         <v>0.25</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>2013</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>2025</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>2015</v>
       </c>
-      <c r="M50">
+      <c r="N50">
+        <v>2019</v>
+      </c>
+      <c r="O50">
         <v>0</v>
       </c>
-      <c r="N50">
+      <c r="P50">
         <v>0</v>
       </c>
-      <c r="O50">
+      <c r="Q50">
         <v>21752.5</v>
       </c>
-      <c r="P50">
+      <c r="R50">
         <v>0.35799999999999998</v>
       </c>
-      <c r="Q50" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="S50" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" hidden="1">
       <c r="A51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B51" t="s">
         <v>19</v>
@@ -5572,40 +6075,43 @@
       <c r="E51" t="s">
         <v>131</v>
       </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
       <c r="G51">
         <v>1</v>
       </c>
-      <c r="I51">
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="J51">
         <v>0.67</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>2015</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>2025</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>2016</v>
       </c>
-      <c r="M51">
+      <c r="N51">
+        <v>2020</v>
+      </c>
+      <c r="O51">
         <v>32319.716640771392</v>
       </c>
-      <c r="N51">
+      <c r="P51">
         <v>364406.28335922863</v>
       </c>
-      <c r="P51">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="S51" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" hidden="1">
       <c r="A52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B52" t="s">
         <v>21</v>
@@ -5619,37 +6125,40 @@
       <c r="E52" t="s">
         <v>133</v>
       </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="I52">
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="J52">
         <v>0.34</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>2006</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>2030</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>2019</v>
       </c>
-      <c r="M52">
+      <c r="N52">
+        <v>2021</v>
+      </c>
+      <c r="O52">
         <v>413573.83935666631</v>
       </c>
-      <c r="N52">
+      <c r="P52">
         <v>244312.16064333371</v>
       </c>
-      <c r="P52">
+      <c r="R52">
         <v>0.32600000000000001</v>
       </c>
-      <c r="Q52" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="S52" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" hidden="1">
       <c r="A53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B53" t="s">
         <v>25</v>
@@ -5663,40 +6172,43 @@
       <c r="E53" t="s">
         <v>131</v>
       </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="I53">
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="J53">
         <v>0.43</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>2015</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>2020</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>2016</v>
       </c>
-      <c r="M53">
+      <c r="N53">
+        <v>2022</v>
+      </c>
+      <c r="O53">
         <v>0</v>
       </c>
-      <c r="N53">
+      <c r="P53">
         <v>0</v>
       </c>
-      <c r="P53">
+      <c r="R53">
         <v>5.4000000000000006E-2</v>
       </c>
-      <c r="Q53" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="S53" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" hidden="1">
       <c r="A54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
@@ -5707,40 +6219,43 @@
       <c r="E54" t="s">
         <v>131</v>
       </c>
-      <c r="F54">
-        <v>0.7</v>
-      </c>
       <c r="G54">
         <v>0.7</v>
       </c>
-      <c r="I54">
-        <v>1</v>
+      <c r="H54">
+        <v>0.7</v>
       </c>
       <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
         <v>2015</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>2033</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>2015</v>
       </c>
-      <c r="M54">
+      <c r="N54">
+        <v>2023</v>
+      </c>
+      <c r="O54">
         <v>638079.70206497097</v>
       </c>
-      <c r="N54">
+      <c r="P54">
         <v>30833.297935029001</v>
       </c>
-      <c r="P54">
-        <v>1</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="R54">
+        <v>1</v>
+      </c>
+      <c r="S54" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" hidden="1">
       <c r="A55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B55" t="s">
         <v>27</v>
@@ -5751,40 +6266,43 @@
       <c r="E55" t="s">
         <v>131</v>
       </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
       <c r="G55">
         <v>1</v>
       </c>
-      <c r="I55">
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="J55">
         <v>0.84</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>2017</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>2027</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>2018</v>
       </c>
-      <c r="M55">
+      <c r="N55">
+        <v>2024</v>
+      </c>
+      <c r="O55">
         <v>370051.54090144561</v>
       </c>
-      <c r="N55">
+      <c r="P55">
         <v>1034948.4590985543</v>
       </c>
-      <c r="P55">
+      <c r="R55">
         <v>0.30809999999999998</v>
       </c>
-      <c r="Q55" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="S55" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" hidden="1">
       <c r="A56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B56" t="s">
         <v>29</v>
@@ -5795,40 +6313,43 @@
       <c r="E56" t="s">
         <v>131</v>
       </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
       <c r="G56">
         <v>1</v>
       </c>
-      <c r="I56">
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="J56">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>2010</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>2020</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>2010</v>
       </c>
-      <c r="M56">
+      <c r="N56">
+        <v>2019</v>
+      </c>
+      <c r="O56">
         <v>1349446.6608923262</v>
       </c>
-      <c r="N56">
+      <c r="P56">
         <v>94113.339107673848</v>
       </c>
-      <c r="P56">
+      <c r="R56">
         <v>0</v>
       </c>
-      <c r="Q56" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="S56" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" hidden="1">
       <c r="A57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B57" t="s">
         <v>30</v>
@@ -5839,40 +6360,43 @@
       <c r="E57" t="s">
         <v>131</v>
       </c>
-      <c r="F57">
-        <v>0.97</v>
-      </c>
       <c r="G57">
         <v>0.97</v>
       </c>
-      <c r="I57">
+      <c r="H57">
+        <v>0.97</v>
+      </c>
+      <c r="J57">
         <v>0.74</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>2017</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>2025</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>2018</v>
       </c>
-      <c r="M57">
+      <c r="N57">
+        <v>2020</v>
+      </c>
+      <c r="O57">
         <v>10470.424093308253</v>
       </c>
-      <c r="N57">
+      <c r="P57">
         <v>58169.575906691745</v>
       </c>
-      <c r="P57">
+      <c r="R57">
         <v>0</v>
       </c>
-      <c r="Q57" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="S57" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" hidden="1">
       <c r="A58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B58" t="s">
         <v>31</v>
@@ -5883,40 +6407,43 @@
       <c r="E58" t="s">
         <v>131</v>
       </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
       <c r="G58">
         <v>1</v>
       </c>
-      <c r="I58">
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="J58">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>2017</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>2030</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>2019</v>
       </c>
-      <c r="M58">
+      <c r="N58">
+        <v>2021</v>
+      </c>
+      <c r="O58">
         <v>7751.7100603643785</v>
       </c>
-      <c r="N58">
+      <c r="P58">
         <v>448181.28993963561</v>
       </c>
-      <c r="P58">
+      <c r="R58">
         <v>0.41000000000000003</v>
       </c>
-      <c r="Q58" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="S58" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B59" t="s">
         <v>33</v>
@@ -5930,40 +6457,43 @@
       <c r="E59" t="s">
         <v>131</v>
       </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
       <c r="G59">
         <v>1</v>
       </c>
-      <c r="I59">
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="J59">
         <v>0.85</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>2017</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>2050</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>2017</v>
       </c>
-      <c r="M59">
+      <c r="N59">
+        <v>2022</v>
+      </c>
+      <c r="O59">
         <v>0</v>
       </c>
-      <c r="N59">
+      <c r="P59">
         <v>0</v>
       </c>
-      <c r="P59">
+      <c r="R59">
         <v>0.24</v>
       </c>
-      <c r="Q59" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="S59" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" hidden="1">
       <c r="A60" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B60" t="s">
         <v>34</v>
@@ -5977,38 +6507,41 @@
       <c r="E60" t="s">
         <v>131</v>
       </c>
-      <c r="F60">
-        <v>0.75</v>
-      </c>
       <c r="G60">
         <v>0.75</v>
       </c>
-      <c r="I60">
+      <c r="H60">
+        <v>0.75</v>
+      </c>
+      <c r="J60">
         <v>0.26</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>2016</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>2026</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>2016</v>
       </c>
-      <c r="M60">
+      <c r="N60">
+        <v>2023</v>
+      </c>
+      <c r="O60">
         <v>78994.82719848564</v>
       </c>
-      <c r="N60">
+      <c r="P60">
         <v>272758.17280151439</v>
       </c>
-      <c r="P60">
-        <v>1</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" hidden="1">
       <c r="A61" t="s">
         <v>81</v>
       </c>
@@ -6024,38 +6557,41 @@
       <c r="E61" t="s">
         <v>131</v>
       </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
       <c r="G61">
         <v>1</v>
       </c>
-      <c r="I61">
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="J61">
         <v>0.39</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>2015</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>2035</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>2016</v>
       </c>
-      <c r="M61">
+      <c r="N61">
+        <v>2024</v>
+      </c>
+      <c r="O61">
         <v>498454.43322806311</v>
       </c>
-      <c r="N61">
+      <c r="P61">
         <v>217932.56677193692</v>
       </c>
-      <c r="P61">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" hidden="1">
       <c r="A62" t="s">
         <v>83</v>
       </c>
@@ -6068,38 +6604,41 @@
       <c r="E62" t="s">
         <v>131</v>
       </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
       <c r="G62">
         <v>1</v>
       </c>
-      <c r="I62">
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="J62">
         <v>0.36</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>2015</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>2020</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>2016</v>
       </c>
-      <c r="M62">
+      <c r="N62">
+        <v>2019</v>
+      </c>
+      <c r="O62">
         <v>741093.00013842876</v>
       </c>
-      <c r="N62">
+      <c r="P62">
         <v>1128906.9998615712</v>
       </c>
-      <c r="P62">
+      <c r="R62">
         <v>0</v>
       </c>
-      <c r="Q62" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="S62" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" hidden="1">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -6112,38 +6651,41 @@
       <c r="E63" t="s">
         <v>131</v>
       </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
       <c r="G63">
         <v>1</v>
       </c>
-      <c r="I63">
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="J63">
         <v>0.95000000000000007</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>2015</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>2020</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>2016</v>
       </c>
-      <c r="M63">
+      <c r="N63">
+        <v>2020</v>
+      </c>
+      <c r="O63">
         <v>0</v>
       </c>
-      <c r="N63">
+      <c r="P63">
         <v>0</v>
       </c>
-      <c r="P63">
+      <c r="R63">
         <v>0.6</v>
       </c>
-      <c r="Q63" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
+      <c r="S63" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" hidden="1">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -6156,38 +6698,41 @@
       <c r="E64" t="s">
         <v>131</v>
       </c>
-      <c r="F64">
-        <v>0.95</v>
-      </c>
       <c r="G64">
         <v>0.95</v>
       </c>
-      <c r="I64">
+      <c r="H64">
+        <v>0.95</v>
+      </c>
+      <c r="J64">
         <v>0.34</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>2015</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>2020</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>2016</v>
       </c>
-      <c r="M64">
+      <c r="N64">
+        <v>2021</v>
+      </c>
+      <c r="O64">
         <v>0</v>
       </c>
-      <c r="N64">
+      <c r="P64">
         <v>0</v>
       </c>
-      <c r="P64">
-        <v>1</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" hidden="1">
       <c r="A65" t="s">
         <v>90</v>
       </c>
@@ -6203,38 +6748,41 @@
       <c r="E65" t="s">
         <v>131</v>
       </c>
-      <c r="F65">
-        <v>0.95</v>
-      </c>
       <c r="G65">
         <v>0.95</v>
       </c>
-      <c r="I65">
+      <c r="H65">
+        <v>0.95</v>
+      </c>
+      <c r="J65">
         <v>0.91</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>2015</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>2020</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>2016</v>
       </c>
-      <c r="M65">
+      <c r="N65">
+        <v>2022</v>
+      </c>
+      <c r="O65">
         <v>0</v>
       </c>
-      <c r="N65">
+      <c r="P65">
         <v>0</v>
       </c>
-      <c r="P65">
+      <c r="R65">
         <v>0.47789999999999999</v>
       </c>
-      <c r="Q65" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="S65" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" hidden="1">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -6250,38 +6798,41 @@
       <c r="E66" t="s">
         <v>131</v>
       </c>
-      <c r="F66">
-        <v>0.93</v>
-      </c>
       <c r="G66">
         <v>0.93</v>
       </c>
-      <c r="I66">
+      <c r="H66">
+        <v>0.93</v>
+      </c>
+      <c r="J66">
         <v>0.91</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>2015</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>2020</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>2016</v>
       </c>
-      <c r="M66">
+      <c r="N66">
+        <v>2023</v>
+      </c>
+      <c r="O66">
         <v>0</v>
       </c>
-      <c r="N66">
+      <c r="P66">
         <v>0</v>
       </c>
-      <c r="P66">
+      <c r="R66">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Q66" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="S66" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" hidden="1">
       <c r="A67" t="s">
         <v>83</v>
       </c>
@@ -6294,38 +6845,41 @@
       <c r="E67" t="s">
         <v>131</v>
       </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
       <c r="G67">
         <v>1</v>
       </c>
-      <c r="I67">
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="J67">
         <v>0.48</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>2010</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>2030</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>2018</v>
       </c>
-      <c r="M67">
+      <c r="N67">
+        <v>2024</v>
+      </c>
+      <c r="O67">
         <v>26056783.910288956</v>
       </c>
-      <c r="N67">
+      <c r="P67">
         <v>879216.08971104492</v>
       </c>
-      <c r="P67">
+      <c r="R67">
         <v>0.79</v>
       </c>
-      <c r="Q67" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="S67" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" hidden="1">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -6341,38 +6895,41 @@
       <c r="E68" t="s">
         <v>131</v>
       </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
       <c r="G68">
         <v>1</v>
       </c>
-      <c r="I68">
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="J68">
         <v>0.99</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>2010</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>2030</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>2018</v>
       </c>
-      <c r="M68">
+      <c r="N68">
+        <v>2019</v>
+      </c>
+      <c r="O68">
         <v>75011.418885668551</v>
       </c>
-      <c r="N68">
+      <c r="P68">
         <v>10188.581114331457</v>
       </c>
-      <c r="P68">
-        <v>1</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" hidden="1">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -6385,35 +6942,38 @@
       <c r="E69" t="s">
         <v>140</v>
       </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="I69">
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="J69">
         <v>0.84</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>2010</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>2030</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>2016</v>
       </c>
-      <c r="M69">
+      <c r="N69">
+        <v>2020</v>
+      </c>
+      <c r="O69">
         <v>80105.165547396828</v>
       </c>
-      <c r="N69">
+      <c r="P69">
         <v>128381.83445260317</v>
       </c>
-      <c r="P69">
+      <c r="R69">
         <v>0</v>
       </c>
-      <c r="Q69" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="S69" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" hidden="1">
       <c r="A70" t="s">
         <v>90</v>
       </c>
@@ -6426,17 +6986,14 @@
       <c r="E70" t="s">
         <v>131</v>
       </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
       <c r="G70">
         <v>1</v>
       </c>
-      <c r="I70">
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="J70">
         <v>0.28999999999999998</v>
-      </c>
-      <c r="J70">
-        <v>2018</v>
       </c>
       <c r="K70">
         <v>2018</v>
@@ -6445,19 +7002,25 @@
         <v>2018</v>
       </c>
       <c r="M70">
+        <v>2018</v>
+      </c>
+      <c r="N70">
+        <v>2021</v>
+      </c>
+      <c r="O70">
         <v>52240.488471081924</v>
       </c>
-      <c r="N70">
+      <c r="P70">
         <v>78251.511528918083</v>
       </c>
-      <c r="P70">
+      <c r="R70">
         <v>0.1</v>
       </c>
-      <c r="Q70" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
+      <c r="S70" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" hidden="1">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -6473,38 +7036,41 @@
       <c r="E71" t="s">
         <v>131</v>
       </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
       <c r="G71">
         <v>1</v>
       </c>
-      <c r="I71">
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="J71">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>2016</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>2020</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>2017</v>
       </c>
-      <c r="M71">
+      <c r="N71">
+        <v>2022</v>
+      </c>
+      <c r="O71">
         <v>0</v>
       </c>
-      <c r="N71">
+      <c r="P71">
         <v>0</v>
       </c>
-      <c r="P71">
+      <c r="R71">
         <v>6.4100000000000004E-2</v>
       </c>
-      <c r="Q71" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="S71" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" hidden="1">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -6520,35 +7086,38 @@
       <c r="E72" t="s">
         <v>144</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>0.7</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>0.44</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>2018</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>2020</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>2018</v>
       </c>
-      <c r="M72">
+      <c r="N72">
+        <v>2023</v>
+      </c>
+      <c r="O72">
         <v>75067.919760266464</v>
       </c>
-      <c r="N72">
+      <c r="P72">
         <v>127151.08023973354</v>
       </c>
-      <c r="P72">
+      <c r="R72">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="Q72" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="S72" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" hidden="1">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -6561,38 +7130,41 @@
       <c r="E73" t="s">
         <v>131</v>
       </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
       <c r="G73">
         <v>1</v>
       </c>
-      <c r="I73">
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="J73">
         <v>0.8</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>2013</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>2040</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>2013</v>
       </c>
-      <c r="M73">
+      <c r="N73">
+        <v>2024</v>
+      </c>
+      <c r="O73">
         <v>414564.67553031148</v>
       </c>
-      <c r="N73">
+      <c r="P73">
         <v>46637.324469688494</v>
       </c>
-      <c r="P73">
+      <c r="R73">
         <v>0.11220000000000001</v>
       </c>
-      <c r="Q73" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
+      <c r="S73" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" hidden="1">
       <c r="A74" t="s">
         <v>88</v>
       </c>
@@ -6608,38 +7180,41 @@
       <c r="E74" t="s">
         <v>131</v>
       </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
       <c r="G74">
         <v>1</v>
       </c>
-      <c r="I74">
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="J74">
         <v>0.31</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>2012</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>2040</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>2012</v>
       </c>
-      <c r="M74">
+      <c r="N74">
+        <v>2019</v>
+      </c>
+      <c r="O74">
         <v>0</v>
       </c>
-      <c r="N74">
+      <c r="P74">
         <v>0</v>
       </c>
-      <c r="P74">
+      <c r="R74">
         <v>0.22870000000000001</v>
       </c>
-      <c r="Q74" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
+      <c r="S74" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" hidden="1">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -6652,38 +7227,41 @@
       <c r="E75" t="s">
         <v>131</v>
       </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
       <c r="G75">
         <v>1</v>
       </c>
-      <c r="I75">
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="J75">
         <v>0.25</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>2013</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>2020</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>2013</v>
       </c>
-      <c r="M75">
+      <c r="N75">
+        <v>2020</v>
+      </c>
+      <c r="O75">
         <v>7639691.7527608704</v>
       </c>
-      <c r="N75">
+      <c r="P75">
         <v>10586808.24723913</v>
       </c>
-      <c r="P75">
+      <c r="R75">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Q75" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
+      <c r="S75" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" hidden="1">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -6699,38 +7277,41 @@
       <c r="E76" t="s">
         <v>131</v>
       </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
       <c r="G76">
         <v>1</v>
       </c>
-      <c r="I76">
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="J76">
         <v>0.53</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>2012</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>2020</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>2012</v>
       </c>
-      <c r="M76">
+      <c r="N76">
+        <v>2021</v>
+      </c>
+      <c r="O76">
         <v>69408.560333988455</v>
       </c>
-      <c r="N76">
+      <c r="P76">
         <v>101682.43966601155</v>
       </c>
-      <c r="P76">
+      <c r="R76">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Q76" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
+      <c r="S76" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" hidden="1">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -6746,38 +7327,41 @@
       <c r="E77" t="s">
         <v>131</v>
       </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
       <c r="G77">
         <v>1</v>
       </c>
-      <c r="I77">
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="J77">
         <v>0.33</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>2014</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>2022</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>2015</v>
       </c>
-      <c r="M77">
+      <c r="N77">
+        <v>2022</v>
+      </c>
+      <c r="O77">
         <v>0</v>
       </c>
-      <c r="N77">
+      <c r="P77">
         <v>0</v>
       </c>
-      <c r="P77">
+      <c r="R77">
         <v>0.34</v>
       </c>
-      <c r="Q77" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
+      <c r="S77" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" hidden="1">
       <c r="A78" t="s">
         <v>53</v>
       </c>
@@ -6793,38 +7377,41 @@
       <c r="E78" t="s">
         <v>131</v>
       </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
       <c r="G78">
         <v>1</v>
       </c>
-      <c r="I78">
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="J78">
         <v>0.73</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>2014</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>2030</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>2018</v>
       </c>
-      <c r="M78">
+      <c r="N78">
+        <v>2023</v>
+      </c>
+      <c r="O78">
         <v>0</v>
       </c>
-      <c r="N78">
+      <c r="P78">
         <v>0</v>
       </c>
-      <c r="P78">
+      <c r="R78">
         <v>0.34</v>
       </c>
-      <c r="Q78" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
+      <c r="S78" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" hidden="1">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -6837,37 +7424,40 @@
       <c r="E79" t="s">
         <v>144</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>0.95</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>0.97</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>2014</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>2022</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>2015</v>
       </c>
-      <c r="M79">
+      <c r="N79">
+        <v>2024</v>
+      </c>
+      <c r="O79">
         <v>2794097.0730040986</v>
       </c>
-      <c r="N79">
+      <c r="P79">
         <v>544597.92699590151</v>
       </c>
-      <c r="P79">
+      <c r="R79">
         <v>0.84400000000000008</v>
       </c>
-      <c r="Q79" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
+      <c r="S79" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" hidden="1">
       <c r="A80" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
@@ -6881,43 +7471,46 @@
       <c r="E80" t="s">
         <v>134</v>
       </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
       <c r="G80">
         <v>1</v>
       </c>
       <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
         <v>0.9</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>0.24</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>2014</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>2030</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>2018</v>
       </c>
-      <c r="M80">
+      <c r="N80">
+        <v>2019</v>
+      </c>
+      <c r="O80">
         <v>2784330.1868065619</v>
       </c>
-      <c r="N80">
+      <c r="P80">
         <v>4565669.8131934376</v>
       </c>
-      <c r="P80">
+      <c r="R80">
         <v>0.85299999999999998</v>
       </c>
-      <c r="Q80" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
+      <c r="S80" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" hidden="1">
       <c r="A81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
@@ -6931,40 +7524,43 @@
       <c r="E81" t="s">
         <v>131</v>
       </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
       <c r="G81">
         <v>1</v>
       </c>
-      <c r="I81">
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="J81">
         <v>0.39</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>2016</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>2019</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>2017</v>
       </c>
-      <c r="M81">
+      <c r="N81">
+        <v>2020</v>
+      </c>
+      <c r="O81">
         <v>0</v>
       </c>
-      <c r="N81">
+      <c r="P81">
         <v>0</v>
       </c>
-      <c r="P81">
+      <c r="R81">
         <v>0.55670000000000008</v>
       </c>
-      <c r="Q81" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
+      <c r="S81" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" hidden="1">
       <c r="A82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B82" t="s">
         <v>12</v>
@@ -6978,37 +7574,43 @@
       <c r="E82" t="s">
         <v>144</v>
       </c>
-      <c r="H82">
-        <v>1</v>
+      <c r="F82">
+        <v>9</v>
       </c>
       <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
         <v>0.52</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>2016</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>2019</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>2017</v>
       </c>
-      <c r="M82">
+      <c r="N82">
+        <v>2021</v>
+      </c>
+      <c r="O82">
         <v>89998.291471429999</v>
       </c>
-      <c r="N82">
+      <c r="P82">
         <v>75081.708528570001</v>
       </c>
-      <c r="P82">
-        <v>1</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
+      <c r="R82">
+        <v>1</v>
+      </c>
+      <c r="S82" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" hidden="1">
       <c r="A83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B83" t="s">
         <v>13</v>
@@ -7022,37 +7624,43 @@
       <c r="E83" t="s">
         <v>144</v>
       </c>
-      <c r="H83">
+      <c r="F83">
+        <v>9</v>
+      </c>
+      <c r="I83">
         <v>0.6</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>0.69000000000000006</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>2016</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>2021</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>2017</v>
       </c>
-      <c r="M83">
+      <c r="N83">
+        <v>2022</v>
+      </c>
+      <c r="O83">
         <v>264761.8375622328</v>
       </c>
-      <c r="N83">
+      <c r="P83">
         <v>44578.162437767227</v>
       </c>
-      <c r="P83">
-        <v>1</v>
-      </c>
-      <c r="Q83" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17">
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" hidden="1">
       <c r="A84" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
@@ -7066,37 +7674,43 @@
       <c r="E84" t="s">
         <v>144</v>
       </c>
-      <c r="H84">
+      <c r="F84">
+        <v>9</v>
+      </c>
+      <c r="I84">
         <v>0.95</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>0.78</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>2015</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <v>2019</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>2016</v>
       </c>
-      <c r="M84">
+      <c r="N84">
+        <v>2023</v>
+      </c>
+      <c r="O84">
         <v>0</v>
       </c>
-      <c r="N84">
+      <c r="P84">
         <v>0</v>
       </c>
-      <c r="P84">
-        <v>1</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
+      <c r="R84">
+        <v>1</v>
+      </c>
+      <c r="S84" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" hidden="1">
       <c r="A85" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B85" t="s">
         <v>18</v>
@@ -7107,40 +7721,43 @@
       <c r="E85" t="s">
         <v>131</v>
       </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
       <c r="G85">
         <v>1</v>
       </c>
-      <c r="I85">
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="J85">
         <v>0.6</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>2005</v>
       </c>
-      <c r="K85">
+      <c r="L85">
         <v>2020</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>2015</v>
       </c>
-      <c r="M85">
+      <c r="N85">
+        <v>2024</v>
+      </c>
+      <c r="O85">
         <v>6754871.390457835</v>
       </c>
-      <c r="N85">
+      <c r="P85">
         <v>595128.6095421646</v>
       </c>
-      <c r="P85">
-        <v>1</v>
-      </c>
-      <c r="Q85" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
+      <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="S85" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" hidden="1">
       <c r="A86" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B86" t="s">
         <v>19</v>
@@ -7151,37 +7768,43 @@
       <c r="E86" t="s">
         <v>144</v>
       </c>
-      <c r="H86">
+      <c r="F86">
+        <v>15</v>
+      </c>
+      <c r="I86">
         <v>0.89270000000000005</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>2005</v>
       </c>
-      <c r="K86">
+      <c r="L86">
         <v>2020</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <v>2015</v>
       </c>
-      <c r="M86">
+      <c r="N86">
+        <v>2019</v>
+      </c>
+      <c r="O86">
         <v>25276.982031206586</v>
       </c>
-      <c r="N86">
+      <c r="P86">
         <v>87553.017968793414</v>
       </c>
-      <c r="P86">
-        <v>1</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17">
+      <c r="R86">
+        <v>1</v>
+      </c>
+      <c r="S86" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" hidden="1">
       <c r="A87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B87" t="s">
         <v>21</v>
@@ -7195,40 +7818,43 @@
       <c r="E87" t="s">
         <v>131</v>
       </c>
-      <c r="F87">
-        <v>0.93100000000000005</v>
-      </c>
       <c r="G87">
         <v>0.93100000000000005</v>
       </c>
-      <c r="I87">
+      <c r="H87">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="J87">
         <v>0.32</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>2013</v>
       </c>
-      <c r="K87">
+      <c r="L87">
         <v>2020</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <v>2014</v>
       </c>
-      <c r="M87">
+      <c r="N87">
+        <v>2020</v>
+      </c>
+      <c r="O87">
         <v>4995419.6435817536</v>
       </c>
-      <c r="N87">
+      <c r="P87">
         <v>9904580.3564182464</v>
       </c>
-      <c r="P87">
-        <v>1</v>
-      </c>
-      <c r="Q87" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17">
+      <c r="R87">
+        <v>1</v>
+      </c>
+      <c r="S87" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" hidden="1">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B88" t="s">
         <v>25</v>
@@ -7239,37 +7865,40 @@
       <c r="E88" t="s">
         <v>133</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>0.04</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>0.46</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>2010</v>
       </c>
-      <c r="K88">
+      <c r="L88">
         <v>2018</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>2011</v>
       </c>
-      <c r="M88">
+      <c r="N88">
+        <v>2021</v>
+      </c>
+      <c r="O88">
         <v>0</v>
       </c>
-      <c r="N88">
+      <c r="P88">
         <v>0</v>
       </c>
-      <c r="P88">
+      <c r="R88">
         <v>0.36700000000000005</v>
       </c>
-      <c r="Q88" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17">
+      <c r="S88" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" hidden="1">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B89" t="s">
         <v>27</v>
@@ -7283,37 +7912,40 @@
       <c r="E89" t="s">
         <v>133</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>0.7</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>0.63</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>2010</v>
       </c>
-      <c r="K89">
+      <c r="L89">
         <v>2030</v>
       </c>
-      <c r="L89">
+      <c r="M89">
         <v>2015</v>
       </c>
-      <c r="M89">
+      <c r="N89">
+        <v>2022</v>
+      </c>
+      <c r="O89">
         <v>0</v>
       </c>
-      <c r="N89">
+      <c r="P89">
         <v>0</v>
       </c>
-      <c r="P89">
+      <c r="R89">
         <v>0.93</v>
       </c>
-      <c r="Q89" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17">
+      <c r="S89" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" hidden="1">
       <c r="A90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B90" t="s">
         <v>30</v>
@@ -7324,37 +7956,40 @@
       <c r="E90" t="s">
         <v>140</v>
       </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="I90">
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="J90">
         <v>0.57000000000000006</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>2010</v>
       </c>
-      <c r="K90">
+      <c r="L90">
         <v>2050</v>
       </c>
-      <c r="L90">
+      <c r="M90">
         <v>2015</v>
       </c>
-      <c r="M90">
+      <c r="N90">
+        <v>2023</v>
+      </c>
+      <c r="O90">
         <v>0</v>
       </c>
-      <c r="N90">
+      <c r="P90">
         <v>0</v>
       </c>
-      <c r="P90">
-        <v>1</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17">
+      <c r="R90">
+        <v>1</v>
+      </c>
+      <c r="S90" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" hidden="1">
       <c r="A91" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B91" t="s">
         <v>30</v>
@@ -7365,37 +8000,40 @@
       <c r="E91" t="s">
         <v>133</v>
       </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="I91">
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="J91">
         <v>0.23</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>2005</v>
       </c>
-      <c r="K91">
+      <c r="L91">
         <v>2019</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <v>2015</v>
       </c>
-      <c r="M91">
+      <c r="N91">
+        <v>2024</v>
+      </c>
+      <c r="O91">
         <v>86188.973721744012</v>
       </c>
-      <c r="N91">
+      <c r="P91">
         <v>24078.026278255991</v>
       </c>
-      <c r="P91">
-        <v>1</v>
-      </c>
-      <c r="Q91" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17">
+      <c r="R91">
+        <v>1</v>
+      </c>
+      <c r="S91" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" hidden="1">
       <c r="A92" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B92" t="s">
         <v>31</v>
@@ -7406,37 +8044,40 @@
       <c r="E92" t="s">
         <v>140</v>
       </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="I92">
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="J92">
         <v>0.52</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>2006</v>
       </c>
-      <c r="K92">
+      <c r="L92">
         <v>2019</v>
       </c>
-      <c r="L92">
+      <c r="M92">
         <v>2015</v>
       </c>
-      <c r="M92">
+      <c r="N92">
+        <v>2019</v>
+      </c>
+      <c r="O92">
         <v>157300.227918088</v>
       </c>
-      <c r="N92">
+      <c r="P92">
         <v>256065.772081912</v>
       </c>
-      <c r="P92">
-        <v>1</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17">
+      <c r="R92">
+        <v>1</v>
+      </c>
+      <c r="S92" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" hidden="1">
       <c r="A93" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B93" t="s">
         <v>31</v>
@@ -7447,37 +8088,40 @@
       <c r="E93" t="s">
         <v>133</v>
       </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-      <c r="I93">
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="J93">
         <v>0.71</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>2017</v>
-      </c>
-      <c r="K93">
-        <v>2018</v>
       </c>
       <c r="L93">
         <v>2018</v>
       </c>
       <c r="M93">
+        <v>2018</v>
+      </c>
+      <c r="N93">
+        <v>2020</v>
+      </c>
+      <c r="O93">
         <v>76119.155977881208</v>
       </c>
-      <c r="N93">
+      <c r="P93">
         <v>34147.844022118792</v>
       </c>
-      <c r="P93">
+      <c r="R93">
         <v>0.13</v>
       </c>
-      <c r="Q93" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17">
+      <c r="S93" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" hidden="1">
       <c r="A94" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B94" t="s">
         <v>34</v>
@@ -7488,38 +8132,41 @@
       <c r="E94" t="s">
         <v>131</v>
       </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
       <c r="G94">
         <v>1</v>
       </c>
-      <c r="I94">
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="J94">
         <v>0.66</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>2005</v>
       </c>
-      <c r="K94">
+      <c r="L94">
         <v>2021</v>
       </c>
-      <c r="L94">
+      <c r="M94">
         <v>2016</v>
       </c>
-      <c r="M94">
+      <c r="N94">
+        <v>2021</v>
+      </c>
+      <c r="O94">
         <v>50287.328437504606</v>
       </c>
-      <c r="N94">
+      <c r="P94">
         <v>363078.67156249541</v>
       </c>
-      <c r="P94">
-        <v>1</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17">
+      <c r="R94">
+        <v>1</v>
+      </c>
+      <c r="S94" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" hidden="1">
       <c r="A95" t="s">
         <v>121</v>
       </c>
@@ -7532,40 +8179,43 @@
       <c r="E95" t="s">
         <v>131</v>
       </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
       <c r="G95">
         <v>1</v>
       </c>
-      <c r="I95">
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="J95">
         <v>0.3</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>2015</v>
       </c>
-      <c r="K95">
+      <c r="L95">
         <v>2020</v>
       </c>
-      <c r="L95">
+      <c r="M95">
         <v>2015</v>
       </c>
-      <c r="M95">
+      <c r="N95">
+        <v>2022</v>
+      </c>
+      <c r="O95">
         <v>220221.12183529223</v>
       </c>
-      <c r="N95">
+      <c r="P95">
         <v>310630.27816470782</v>
       </c>
-      <c r="P95">
+      <c r="R95">
         <v>0</v>
       </c>
-      <c r="Q95" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17">
+      <c r="S95" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" hidden="1">
       <c r="A96" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -7579,40 +8229,43 @@
       <c r="E96" t="s">
         <v>131</v>
       </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
       <c r="G96">
         <v>1</v>
       </c>
-      <c r="I96">
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="J96">
         <v>0.57999999999999996</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>2008</v>
       </c>
-      <c r="K96">
+      <c r="L96">
         <v>2030</v>
       </c>
-      <c r="L96">
+      <c r="M96">
         <v>2015</v>
       </c>
-      <c r="M96">
+      <c r="N96">
+        <v>2023</v>
+      </c>
+      <c r="O96">
         <v>152767.86090478685</v>
       </c>
-      <c r="N96">
+      <c r="P96">
         <v>378083.53909521317</v>
       </c>
-      <c r="P96">
+      <c r="R96">
         <v>0</v>
       </c>
-      <c r="Q96" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17">
+      <c r="S96" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" hidden="1">
       <c r="A97" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B97" t="s">
         <v>8</v>
@@ -7626,40 +8279,43 @@
       <c r="E97" t="s">
         <v>131</v>
       </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
       <c r="G97">
         <v>1</v>
       </c>
-      <c r="I97">
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="J97">
         <v>0.57000000000000006</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>2013</v>
       </c>
-      <c r="K97">
+      <c r="L97">
         <v>2030</v>
       </c>
-      <c r="L97">
+      <c r="M97">
         <v>2013</v>
       </c>
-      <c r="M97">
+      <c r="N97">
+        <v>2024</v>
+      </c>
+      <c r="O97">
         <v>523303.09094109439</v>
       </c>
-      <c r="N97">
+      <c r="P97">
         <v>7548.309058905611</v>
       </c>
-      <c r="P97">
-        <v>1</v>
-      </c>
-      <c r="Q97" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17">
+      <c r="R97">
+        <v>1</v>
+      </c>
+      <c r="S97" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" hidden="1">
       <c r="A98" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B98" t="s">
         <v>12</v>
@@ -7670,37 +8326,40 @@
       <c r="E98" t="s">
         <v>140</v>
       </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="I98">
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="J98">
         <v>0.38</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>2013</v>
       </c>
-      <c r="K98">
+      <c r="L98">
         <v>2050</v>
       </c>
-      <c r="L98">
+      <c r="M98">
         <v>2017</v>
       </c>
-      <c r="M98">
+      <c r="N98">
+        <v>2019</v>
+      </c>
+      <c r="O98">
         <v>388368.40900136431</v>
       </c>
-      <c r="N98">
+      <c r="P98">
         <v>142482.99099863574</v>
       </c>
-      <c r="P98">
-        <v>1</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17">
+      <c r="R98">
+        <v>1</v>
+      </c>
+      <c r="S98" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" hidden="1">
       <c r="A99" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B99" t="s">
         <v>12</v>
@@ -7711,37 +8370,40 @@
       <c r="E99" t="s">
         <v>133</v>
       </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="I99">
+      <c r="H99">
         <v>1</v>
       </c>
       <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
         <v>2011</v>
       </c>
-      <c r="K99">
+      <c r="L99">
         <v>2020</v>
       </c>
-      <c r="L99">
+      <c r="M99">
         <v>2016</v>
       </c>
-      <c r="M99">
+      <c r="N99">
+        <v>2020</v>
+      </c>
+      <c r="O99">
         <v>19905.125464660872</v>
       </c>
-      <c r="N99">
+      <c r="P99">
         <v>18145.874535339128</v>
       </c>
-      <c r="P99">
+      <c r="R99">
         <v>0.82000000000000006</v>
       </c>
-      <c r="Q99" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17">
+      <c r="S99" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" hidden="1">
       <c r="A100" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B100" t="s">
         <v>15</v>
@@ -7755,40 +8417,43 @@
       <c r="E100" t="s">
         <v>131</v>
       </c>
-      <c r="F100">
-        <v>0.87</v>
-      </c>
       <c r="G100">
         <v>0.87</v>
       </c>
-      <c r="I100">
+      <c r="H100">
+        <v>0.87</v>
+      </c>
+      <c r="J100">
         <v>0.63</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>2011</v>
       </c>
-      <c r="K100">
+      <c r="L100">
         <v>2020</v>
       </c>
-      <c r="L100">
+      <c r="M100">
         <v>2016</v>
       </c>
-      <c r="M100">
+      <c r="N100">
+        <v>2021</v>
+      </c>
+      <c r="O100">
         <v>133558.90949356617</v>
       </c>
-      <c r="N100">
+      <c r="P100">
         <v>85549.090506433844</v>
       </c>
-      <c r="P100">
-        <v>1</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17">
+      <c r="R100">
+        <v>1</v>
+      </c>
+      <c r="S100" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" hidden="1">
       <c r="A101" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B101" t="s">
         <v>18</v>
@@ -7799,37 +8464,43 @@
       <c r="E101" t="s">
         <v>144</v>
       </c>
-      <c r="H101">
-        <v>1</v>
+      <c r="F101">
+        <v>6</v>
       </c>
       <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
         <v>0.79</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>2016</v>
       </c>
-      <c r="K101">
+      <c r="L101">
         <v>2019</v>
       </c>
-      <c r="L101">
+      <c r="M101">
         <v>2017</v>
       </c>
-      <c r="M101">
+      <c r="N101">
+        <v>2022</v>
+      </c>
+      <c r="O101">
         <v>103544.86251166406</v>
       </c>
-      <c r="N101">
+      <c r="P101">
         <v>153614.13748833592</v>
       </c>
-      <c r="P101">
-        <v>1</v>
-      </c>
-      <c r="Q101" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17">
+      <c r="R101">
+        <v>1</v>
+      </c>
+      <c r="S101" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" hidden="1">
       <c r="A102" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B102" t="s">
         <v>19</v>
@@ -7840,40 +8511,43 @@
       <c r="E102" t="s">
         <v>131</v>
       </c>
-      <c r="F102">
-        <v>0.27</v>
-      </c>
       <c r="G102">
         <v>0.27</v>
       </c>
-      <c r="I102">
+      <c r="H102">
+        <v>0.27</v>
+      </c>
+      <c r="J102">
         <v>0.68</v>
       </c>
-      <c r="J102">
+      <c r="K102">
         <v>2016</v>
       </c>
-      <c r="K102">
+      <c r="L102">
         <v>2019</v>
       </c>
-      <c r="L102">
+      <c r="M102">
         <v>2017</v>
       </c>
-      <c r="M102">
+      <c r="N102">
+        <v>2023</v>
+      </c>
+      <c r="O102">
         <v>0</v>
       </c>
-      <c r="N102">
+      <c r="P102">
         <v>0</v>
       </c>
-      <c r="P102">
-        <v>1</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17">
+      <c r="R102">
+        <v>1</v>
+      </c>
+      <c r="S102" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" hidden="1">
       <c r="A103" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B103" t="s">
         <v>21</v>
@@ -7887,40 +8561,43 @@
       <c r="E103" t="s">
         <v>131</v>
       </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
       <c r="G103">
         <v>1</v>
       </c>
-      <c r="I103">
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="J103">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <v>2016</v>
       </c>
-      <c r="K103">
+      <c r="L103">
         <v>2019</v>
       </c>
-      <c r="L103">
+      <c r="M103">
         <v>2017</v>
       </c>
-      <c r="M103">
-        <v>0</v>
-      </c>
       <c r="N103">
+        <v>2024</v>
+      </c>
+      <c r="O103">
         <v>0</v>
       </c>
       <c r="P103">
         <v>0</v>
       </c>
-      <c r="Q103" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17">
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" hidden="1">
       <c r="A104" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B104" t="s">
         <v>25</v>
@@ -7934,40 +8611,43 @@
       <c r="E104" t="s">
         <v>131</v>
       </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
       <c r="G104">
         <v>1</v>
       </c>
-      <c r="I104">
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="J104">
         <v>0.64</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <v>2016</v>
       </c>
-      <c r="K104">
+      <c r="L104">
         <v>2019</v>
       </c>
-      <c r="L104">
+      <c r="M104">
         <v>2017</v>
       </c>
-      <c r="M104">
+      <c r="N104">
+        <v>2019</v>
+      </c>
+      <c r="O104">
         <v>0</v>
       </c>
-      <c r="N104">
+      <c r="P104">
         <v>0</v>
       </c>
-      <c r="P104">
+      <c r="R104">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q104" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17">
+      <c r="S104" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" hidden="1">
       <c r="A105" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B105" t="s">
         <v>26</v>
@@ -7981,37 +8661,43 @@
       <c r="E105" t="s">
         <v>144</v>
       </c>
-      <c r="H105">
+      <c r="F105">
+        <v>11</v>
+      </c>
+      <c r="I105">
         <v>0.44</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>0.45</v>
       </c>
-      <c r="J105">
+      <c r="K105">
         <v>2012</v>
       </c>
-      <c r="K105">
+      <c r="L105">
         <v>2030</v>
       </c>
-      <c r="L105">
+      <c r="M105">
         <v>2015</v>
       </c>
-      <c r="M105">
+      <c r="N105">
+        <v>2020</v>
+      </c>
+      <c r="O105">
         <v>248965.63534281132</v>
       </c>
-      <c r="N105">
+      <c r="P105">
         <v>32411.364657188678</v>
       </c>
-      <c r="P105">
+      <c r="R105">
         <v>0.70000000000000007</v>
       </c>
-      <c r="Q105" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17">
+      <c r="S105" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" hidden="1">
       <c r="A106" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B106" t="s">
         <v>27</v>
@@ -8025,40 +8711,43 @@
       <c r="E106" t="s">
         <v>131</v>
       </c>
-      <c r="F106">
-        <v>1</v>
-      </c>
       <c r="G106">
         <v>1</v>
       </c>
-      <c r="I106">
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="J106">
         <v>0.65</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>2010</v>
       </c>
-      <c r="K106">
+      <c r="L106">
         <v>2030</v>
       </c>
-      <c r="L106">
+      <c r="M106">
         <v>2015</v>
       </c>
-      <c r="M106">
+      <c r="N106">
+        <v>2021</v>
+      </c>
+      <c r="O106">
         <v>0</v>
       </c>
-      <c r="N106">
+      <c r="P106">
         <v>0</v>
       </c>
-      <c r="P106">
+      <c r="R106">
         <v>0.61</v>
       </c>
-      <c r="Q106" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17">
+      <c r="S106" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" hidden="1">
       <c r="A107" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B107" t="s">
         <v>29</v>
@@ -8069,40 +8758,43 @@
       <c r="E107" t="s">
         <v>131</v>
       </c>
-      <c r="F107">
-        <v>0.94</v>
-      </c>
       <c r="G107">
         <v>0.94</v>
       </c>
-      <c r="I107">
+      <c r="H107">
+        <v>0.94</v>
+      </c>
+      <c r="J107">
         <v>0.27</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <v>2000</v>
       </c>
-      <c r="K107">
+      <c r="L107">
         <v>2020</v>
       </c>
-      <c r="L107">
+      <c r="M107">
         <v>2015</v>
       </c>
-      <c r="M107">
+      <c r="N107">
+        <v>2022</v>
+      </c>
+      <c r="O107">
         <v>542898.8931382685</v>
       </c>
-      <c r="N107">
+      <c r="P107">
         <v>903665.1068617315</v>
       </c>
-      <c r="P107">
+      <c r="R107">
         <v>0.69000000000000006</v>
       </c>
-      <c r="Q107" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17">
+      <c r="S107" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" hidden="1">
       <c r="A108" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B108" t="s">
         <v>30</v>
@@ -8113,40 +8805,43 @@
       <c r="E108" t="s">
         <v>131</v>
       </c>
-      <c r="F108">
-        <v>0.94</v>
-      </c>
       <c r="G108">
         <v>0.94</v>
       </c>
-      <c r="I108">
+      <c r="H108">
+        <v>0.94</v>
+      </c>
+      <c r="J108">
         <v>0.54</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <v>2000</v>
       </c>
-      <c r="K108">
+      <c r="L108">
         <v>2030</v>
       </c>
-      <c r="L108">
+      <c r="M108">
         <v>2015</v>
       </c>
-      <c r="M108">
+      <c r="N108">
+        <v>2023</v>
+      </c>
+      <c r="O108">
         <v>1738037.0663147885</v>
       </c>
-      <c r="N108">
+      <c r="P108">
         <v>2019021.9336852115</v>
       </c>
-      <c r="P108">
+      <c r="R108">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Q108" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17">
+      <c r="S108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" hidden="1">
       <c r="A109" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B109" t="s">
         <v>31</v>
@@ -8160,40 +8855,43 @@
       <c r="E109" t="s">
         <v>131</v>
       </c>
-      <c r="F109">
-        <v>0.94</v>
-      </c>
       <c r="G109">
         <v>0.94</v>
       </c>
-      <c r="I109">
+      <c r="H109">
+        <v>0.94</v>
+      </c>
+      <c r="J109">
         <v>0.43</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>2010</v>
       </c>
-      <c r="K109">
+      <c r="L109">
         <v>2020</v>
       </c>
-      <c r="L109">
+      <c r="M109">
         <v>2015</v>
       </c>
-      <c r="M109">
+      <c r="N109">
+        <v>2024</v>
+      </c>
+      <c r="O109">
         <v>1353813.9178252162</v>
       </c>
-      <c r="N109">
+      <c r="P109">
         <v>2403245.0821747836</v>
       </c>
-      <c r="P109">
+      <c r="R109">
         <v>0.57020000000000004</v>
       </c>
-      <c r="Q109" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17">
+      <c r="S109" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19">
       <c r="A110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B110" t="s">
         <v>33</v>
@@ -8207,37 +8905,43 @@
       <c r="E110" t="s">
         <v>144</v>
       </c>
-      <c r="H110">
-        <v>1</v>
+      <c r="F110">
+        <v>15</v>
       </c>
       <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
         <v>0.62</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <v>2010</v>
       </c>
-      <c r="K110">
+      <c r="L110">
         <v>2030</v>
       </c>
-      <c r="L110">
+      <c r="M110">
         <v>2015</v>
       </c>
-      <c r="M110">
+      <c r="N110">
+        <v>2019</v>
+      </c>
+      <c r="O110">
         <v>0</v>
       </c>
-      <c r="N110">
+      <c r="P110">
         <v>0</v>
       </c>
-      <c r="P110">
-        <v>1</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17">
+      <c r="R110">
+        <v>1</v>
+      </c>
+      <c r="S110" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" hidden="1">
       <c r="A111" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B111" t="s">
         <v>34</v>
@@ -8251,35 +8955,38 @@
       <c r="E111" t="s">
         <v>140</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>0.99</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>0.72</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>2014</v>
       </c>
-      <c r="K111">
+      <c r="L111">
         <v>2030</v>
       </c>
-      <c r="L111">
+      <c r="M111">
         <v>2016</v>
       </c>
-      <c r="M111">
+      <c r="N111">
+        <v>2020</v>
+      </c>
+      <c r="O111">
         <v>0</v>
       </c>
-      <c r="N111">
+      <c r="P111">
         <v>0</v>
       </c>
-      <c r="P111">
+      <c r="R111">
         <v>0.88300000000000001</v>
       </c>
-      <c r="Q111" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17">
+      <c r="S111" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" hidden="1">
       <c r="A112" t="s">
         <v>83</v>
       </c>
@@ -8292,38 +8999,41 @@
       <c r="E112" t="s">
         <v>131</v>
       </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
       <c r="G112">
         <v>1</v>
       </c>
-      <c r="I112">
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="J112">
         <v>0.59</v>
       </c>
-      <c r="J112">
+      <c r="K112">
         <v>2014</v>
       </c>
-      <c r="K112">
+      <c r="L112">
         <v>2020</v>
       </c>
-      <c r="L112">
+      <c r="M112">
         <v>2016</v>
       </c>
-      <c r="M112">
+      <c r="N112">
+        <v>2021</v>
+      </c>
+      <c r="O112">
         <v>4253357.6841606703</v>
       </c>
-      <c r="N112">
+      <c r="P112">
         <v>5127493.4858393297</v>
       </c>
-      <c r="P112">
-        <v>1</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17">
+      <c r="R112">
+        <v>1</v>
+      </c>
+      <c r="S112" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" hidden="1">
       <c r="A113" t="s">
         <v>85</v>
       </c>
@@ -8339,35 +9049,41 @@
       <c r="E113" t="s">
         <v>144</v>
       </c>
-      <c r="H113">
+      <c r="F113">
         <v>1</v>
       </c>
       <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J113">
+      <c r="K113">
         <v>2016</v>
       </c>
-      <c r="K113">
+      <c r="L113">
         <v>2019</v>
       </c>
-      <c r="L113">
+      <c r="M113">
         <v>2017</v>
       </c>
-      <c r="M113">
+      <c r="N113">
+        <v>2022</v>
+      </c>
+      <c r="O113">
         <v>0</v>
       </c>
-      <c r="N113">
+      <c r="P113">
         <v>0</v>
       </c>
-      <c r="P113">
-        <v>1</v>
-      </c>
-      <c r="Q113" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17">
+      <c r="R113">
+        <v>1</v>
+      </c>
+      <c r="S113" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" hidden="1">
       <c r="A114" t="s">
         <v>88</v>
       </c>
@@ -8380,38 +9096,41 @@
       <c r="E114" t="s">
         <v>131</v>
       </c>
-      <c r="F114">
-        <v>0.99</v>
-      </c>
       <c r="G114">
         <v>0.99</v>
       </c>
-      <c r="I114">
+      <c r="H114">
+        <v>0.99</v>
+      </c>
+      <c r="J114">
         <v>0.37</v>
       </c>
-      <c r="J114">
+      <c r="K114">
         <v>2017</v>
-      </c>
-      <c r="K114">
-        <v>2018</v>
       </c>
       <c r="L114">
         <v>2018</v>
       </c>
       <c r="M114">
+        <v>2018</v>
+      </c>
+      <c r="N114">
+        <v>2023</v>
+      </c>
+      <c r="O114">
         <v>0</v>
       </c>
-      <c r="N114">
+      <c r="P114">
         <v>0</v>
       </c>
-      <c r="P114">
+      <c r="R114">
         <v>1.52E-2</v>
       </c>
-      <c r="Q114" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17">
+      <c r="S114" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" hidden="1">
       <c r="A115" t="s">
         <v>90</v>
       </c>
@@ -8424,38 +9143,41 @@
       <c r="E115" t="s">
         <v>131</v>
       </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
       <c r="G115">
         <v>1</v>
       </c>
-      <c r="I115">
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="J115">
         <v>0.35000000000000003</v>
       </c>
-      <c r="J115">
+      <c r="K115">
         <v>2017</v>
-      </c>
-      <c r="K115">
-        <v>2018</v>
       </c>
       <c r="L115">
         <v>2018</v>
       </c>
       <c r="M115">
+        <v>2018</v>
+      </c>
+      <c r="N115">
+        <v>2024</v>
+      </c>
+      <c r="O115">
         <v>0</v>
       </c>
-      <c r="N115">
+      <c r="P115">
         <v>0</v>
       </c>
-      <c r="P115">
+      <c r="R115">
         <v>1.24E-2</v>
       </c>
-      <c r="Q115" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17">
+      <c r="S115" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" hidden="1">
       <c r="A116" t="s">
         <v>81</v>
       </c>
@@ -8468,38 +9190,41 @@
       <c r="E116" t="s">
         <v>131</v>
       </c>
-      <c r="F116">
-        <v>0.66839999999999999</v>
-      </c>
       <c r="G116">
         <v>0.66839999999999999</v>
       </c>
-      <c r="I116">
+      <c r="H116">
+        <v>0.66839999999999999</v>
+      </c>
+      <c r="J116">
         <v>0.81</v>
       </c>
-      <c r="J116">
+      <c r="K116">
         <v>2017</v>
       </c>
-      <c r="K116">
+      <c r="L116">
         <v>2027</v>
       </c>
-      <c r="L116">
+      <c r="M116">
         <v>2018</v>
       </c>
-      <c r="M116">
+      <c r="N116">
+        <v>2019</v>
+      </c>
+      <c r="O116">
         <v>0</v>
       </c>
-      <c r="N116">
+      <c r="P116">
         <v>0</v>
       </c>
-      <c r="P116">
+      <c r="R116">
         <v>0.25</v>
       </c>
-      <c r="Q116" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17">
+      <c r="S116" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" hidden="1">
       <c r="A117" t="s">
         <v>83</v>
       </c>
@@ -8515,38 +9240,41 @@
       <c r="E117" t="s">
         <v>131</v>
       </c>
-      <c r="F117">
-        <v>0.2024</v>
-      </c>
       <c r="G117">
         <v>0.2024</v>
       </c>
-      <c r="I117">
+      <c r="H117">
+        <v>0.2024</v>
+      </c>
+      <c r="J117">
         <v>0.67</v>
       </c>
-      <c r="J117">
+      <c r="K117">
         <v>2017</v>
       </c>
-      <c r="K117">
+      <c r="L117">
         <v>2027</v>
       </c>
-      <c r="L117">
+      <c r="M117">
         <v>2018</v>
       </c>
-      <c r="M117">
+      <c r="N117">
+        <v>2020</v>
+      </c>
+      <c r="O117">
         <v>0</v>
       </c>
-      <c r="N117">
+      <c r="P117">
         <v>0</v>
       </c>
-      <c r="P117">
+      <c r="R117">
         <v>0.154</v>
       </c>
-      <c r="Q117" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17">
+      <c r="S117" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" hidden="1">
       <c r="A118" t="s">
         <v>83</v>
       </c>
@@ -8562,38 +9290,41 @@
       <c r="E118" t="s">
         <v>131</v>
       </c>
-      <c r="F118">
-        <v>0.66900000000000004</v>
-      </c>
       <c r="G118">
         <v>0.66900000000000004</v>
       </c>
-      <c r="I118">
+      <c r="H118">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="J118">
         <v>0.2</v>
       </c>
-      <c r="J118">
+      <c r="K118">
         <v>2017</v>
       </c>
-      <c r="K118">
+      <c r="L118">
         <v>2025</v>
       </c>
-      <c r="L118">
+      <c r="M118">
         <v>2018</v>
       </c>
-      <c r="M118">
-        <v>0</v>
-      </c>
       <c r="N118">
+        <v>2021</v>
+      </c>
+      <c r="O118">
         <v>0</v>
       </c>
       <c r="P118">
         <v>0</v>
       </c>
-      <c r="Q118" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17">
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" hidden="1">
       <c r="A119" t="s">
         <v>83</v>
       </c>
@@ -8606,38 +9337,41 @@
       <c r="E119" t="s">
         <v>131</v>
       </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
       <c r="G119">
         <v>1</v>
       </c>
-      <c r="I119">
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="J119">
         <v>0.9</v>
       </c>
-      <c r="J119">
+      <c r="K119">
         <v>2009</v>
       </c>
-      <c r="K119">
+      <c r="L119">
         <v>2020</v>
       </c>
-      <c r="L119">
+      <c r="M119">
         <v>2010</v>
       </c>
-      <c r="M119">
+      <c r="N119">
+        <v>2022</v>
+      </c>
+      <c r="O119">
         <v>0</v>
       </c>
-      <c r="N119">
+      <c r="P119">
         <v>0</v>
       </c>
-      <c r="P119">
-        <v>1</v>
-      </c>
-      <c r="Q119" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17">
+      <c r="R119">
+        <v>1</v>
+      </c>
+      <c r="S119" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" hidden="1">
       <c r="A120" t="s">
         <v>83</v>
       </c>
@@ -8653,35 +9387,38 @@
       <c r="E120" t="s">
         <v>131</v>
       </c>
-      <c r="F120">
-        <v>0.6</v>
-      </c>
       <c r="G120">
         <v>0.6</v>
       </c>
-      <c r="I120">
+      <c r="H120">
+        <v>0.6</v>
+      </c>
+      <c r="J120">
         <v>0.46</v>
       </c>
-      <c r="J120">
+      <c r="K120">
         <v>2009</v>
       </c>
-      <c r="K120">
+      <c r="L120">
         <v>2020</v>
       </c>
-      <c r="L120">
+      <c r="M120">
         <v>2010</v>
       </c>
-      <c r="M120">
+      <c r="N120">
+        <v>2023</v>
+      </c>
+      <c r="O120">
         <v>65465.244156436005</v>
       </c>
-      <c r="N120">
+      <c r="P120">
         <v>2292.7558435639962</v>
       </c>
-      <c r="P120">
+      <c r="R120">
         <v>0.61</v>
       </c>
-      <c r="Q120" t="s">
-        <v>304</v>
+      <c r="S120" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/examples/data/data_provider_example.xlsx
+++ b/examples/data/data_provider_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27616"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\mountainrambler\ITR\ITR-tool\examples\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3CB0F8-88A0-48AA-9C1B-7B18F687CF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB14F332-A30A-4D8A-B483-E16A6C06F417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="23232" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40050" yWindow="1260" windowWidth="23070" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="345">
   <si>
     <t>company_name</t>
   </si>
@@ -1006,6 +1006,72 @@
   </si>
   <si>
     <t>ghg_s3_15</t>
+  </si>
+  <si>
+    <t>base_year_ts</t>
+  </si>
+  <si>
+    <t>end_year_ts</t>
+  </si>
+  <si>
+    <t>T_score</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>T_TS1</t>
+  </si>
+  <si>
+    <t>T_TS2</t>
+  </si>
+  <si>
+    <t>T120</t>
+  </si>
+  <si>
+    <t>T121</t>
+  </si>
+  <si>
+    <t>T122</t>
+  </si>
+  <si>
+    <t>T123</t>
+  </si>
+  <si>
+    <t>T124</t>
+  </si>
+  <si>
+    <t>T125</t>
+  </si>
+  <si>
+    <t>T126</t>
+  </si>
+  <si>
+    <t>T127</t>
+  </si>
+  <si>
+    <t>T128</t>
+  </si>
+  <si>
+    <t>T129</t>
+  </si>
+  <si>
+    <t>T130</t>
+  </si>
+  <si>
+    <t>T131</t>
+  </si>
+  <si>
+    <t>T132</t>
+  </si>
+  <si>
+    <t>T133</t>
+  </si>
+  <si>
+    <t>T134</t>
+  </si>
+  <si>
+    <t>T135</t>
   </si>
 </sst>
 </file>
@@ -1032,15 +1098,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1048,15 +1120,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1130,20 +1214,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:S120" totalsRowShown="0">
-  <autoFilter ref="A1:S120" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:U120" totalsRowShown="0">
+  <autoFilter ref="A1:U120" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="6">
       <filters>
-        <filter val="Company AV"/>
-        <filter val="Company B"/>
+        <filter val="S1+S2+S3"/>
+        <filter val="S3"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="19">
+  <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="company_name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="company_id"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="target_type"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="intensity_metric"/>
+    <tableColumn id="20" xr3:uid="{74EECA14-E8AE-4A56-8B47-3B011D57482A}" name="base_year_ts"/>
+    <tableColumn id="21" xr3:uid="{70938465-CC21-41E6-8151-CA7721995C55}" name="end_year_ts"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="scope"/>
     <tableColumn id="19" xr3:uid="{65CD73ED-15DA-434C-8DAC-0F88E592DCDB}" name="s3_category"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="coverage_s1"/>
@@ -1429,7 +1515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -3620,10 +3706,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S120"/>
+  <dimension ref="A1:U138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H139" sqref="H139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3631,16 +3717,18 @@
     <col min="1" max="1" width="17.109375" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" customWidth="1"/>
     <col min="3" max="4" width="21.109375" customWidth="1"/>
-    <col min="7" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" customWidth="1"/>
-    <col min="13" max="13" width="21" customWidth="1"/>
-    <col min="14" max="16" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="9" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="21" customWidth="1"/>
+    <col min="16" max="18" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3654,52 +3742,58 @@
         <v>157</v>
       </c>
       <c r="E1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G1" t="s">
         <v>158</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>307</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>159</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>160</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>161</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>125</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>126</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>127</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>128</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>304</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>162</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>163</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>164</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>129</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:19" hidden="1">
+    <row r="2" spans="1:21" hidden="1">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -3709,44 +3803,47 @@
       <c r="C2" t="s">
         <v>130</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>131</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
+      <c r="H2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>2018</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>2025</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>2020</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>2019</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>11000</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>1200</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>0.4</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:19" hidden="1">
+    <row r="3" spans="1:21" hidden="1">
       <c r="A3" t="s">
         <v>167</v>
       </c>
@@ -3759,44 +3856,47 @@
       <c r="D3" t="s">
         <v>137</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>133</v>
       </c>
-      <c r="H3">
-        <v>1</v>
+      <c r="H3" t="s">
+        <v>326</v>
       </c>
       <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0.4</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>2015</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>2030</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>2019</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>2020</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>1558</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>13333</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>1350</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>0.5</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="1:19" hidden="1">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>168</v>
       </c>
@@ -3809,44 +3909,44 @@
       <c r="D4" t="s">
         <v>137</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>144</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="I4">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>0.6</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.15</v>
-      </c>
-      <c r="K4">
-        <v>2018</v>
-      </c>
-      <c r="L4">
-        <v>2050</v>
       </c>
       <c r="M4">
         <v>2018</v>
       </c>
       <c r="N4">
+        <v>2050</v>
+      </c>
+      <c r="O4">
+        <v>2018</v>
+      </c>
+      <c r="P4">
         <v>2021</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>1209218.5863059745</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>2110267.4136940255</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>0.5</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>169</v>
       </c>
@@ -3859,50 +3959,50 @@
       <c r="D5" t="s">
         <v>137</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>134</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>6</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>0.95</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>0.95</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.5</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0.91</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>2018</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>2035</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>2020</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>2022</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>184098.81832046947</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>80204.181679530549</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>0.04</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:19" hidden="1">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>170</v>
       </c>
@@ -3915,50 +4015,50 @@
       <c r="D6" t="s">
         <v>137</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>134</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>6</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
       <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
         <v>0.7</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>0.93</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>2015</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>2025</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>2016</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>2023</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>27727.460283476539</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>236575.53971652346</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>0.03</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1">
+    <row r="7" spans="1:21" hidden="1">
       <c r="A7" t="s">
         <v>171</v>
       </c>
@@ -3971,44 +4071,47 @@
       <c r="D7" t="s">
         <v>137</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>131</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="H7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>0.76</v>
-      </c>
-      <c r="K7">
-        <v>2015</v>
-      </c>
-      <c r="L7">
-        <v>2025</v>
       </c>
       <c r="M7">
         <v>2015</v>
       </c>
       <c r="N7">
+        <v>2025</v>
+      </c>
+      <c r="O7">
+        <v>2015</v>
+      </c>
+      <c r="P7">
         <v>2024</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <v>0.08</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:19" hidden="1">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -4018,44 +4121,44 @@
       <c r="C8" t="s">
         <v>130</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>144</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="I8">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="K8">
         <v>0.8</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>0.21</v>
-      </c>
-      <c r="K8">
-        <v>2015</v>
-      </c>
-      <c r="L8">
-        <v>2030</v>
       </c>
       <c r="M8">
         <v>2015</v>
       </c>
       <c r="N8">
+        <v>2030</v>
+      </c>
+      <c r="O8">
+        <v>2015</v>
+      </c>
+      <c r="P8">
         <v>2019</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>545004.52801988786</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>1094846.4719801121</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>0.26</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:19" hidden="1">
+    <row r="9" spans="1:21" hidden="1">
       <c r="A9" t="s">
         <v>173</v>
       </c>
@@ -4068,23 +4171,20 @@
       <c r="D9" t="s">
         <v>137</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>131</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
+      <c r="H9" t="s">
+        <v>326</v>
+      </c>
+      <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.6</v>
-      </c>
-      <c r="K9">
-        <v>2015</v>
-      </c>
-      <c r="L9">
-        <v>2020</v>
       </c>
       <c r="M9">
         <v>2015</v>
@@ -4093,19 +4193,25 @@
         <v>2020</v>
       </c>
       <c r="O9">
+        <v>2015</v>
+      </c>
+      <c r="P9">
+        <v>2020</v>
+      </c>
+      <c r="Q9">
         <v>814592.7738002605</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>825258.2261997395</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:19" hidden="1">
+    <row r="10" spans="1:21" hidden="1">
       <c r="A10" t="s">
         <v>174</v>
       </c>
@@ -4118,44 +4224,47 @@
       <c r="D10" t="s">
         <v>137</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>131</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
+      <c r="H10" t="s">
+        <v>326</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>0.47000000000000003</v>
-      </c>
-      <c r="K10">
-        <v>2015</v>
-      </c>
-      <c r="L10">
-        <v>2020</v>
       </c>
       <c r="M10">
         <v>2015</v>
       </c>
       <c r="N10">
+        <v>2020</v>
+      </c>
+      <c r="O10">
+        <v>2015</v>
+      </c>
+      <c r="P10">
         <v>2021</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>37200.153761330155</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>10506.846238669841</v>
       </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:19" hidden="1">
+    <row r="11" spans="1:21" hidden="1">
       <c r="A11" t="s">
         <v>175</v>
       </c>
@@ -4168,44 +4277,47 @@
       <c r="D11" t="s">
         <v>137</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>131</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
+      <c r="H11" t="s">
+        <v>326</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.5</v>
-      </c>
-      <c r="K11">
-        <v>2015</v>
-      </c>
-      <c r="L11">
-        <v>2020</v>
       </c>
       <c r="M11">
         <v>2015</v>
       </c>
       <c r="N11">
+        <v>2020</v>
+      </c>
+      <c r="O11">
+        <v>2015</v>
+      </c>
+      <c r="P11">
         <v>2022</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>574771.14896427921</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>2744714.8510357207</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:19" hidden="1">
+    <row r="12" spans="1:21" hidden="1">
       <c r="A12" t="s">
         <v>176</v>
       </c>
@@ -4215,44 +4327,47 @@
       <c r="C12" t="s">
         <v>138</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>131</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
+      <c r="H12" t="s">
+        <v>326</v>
+      </c>
+      <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="K12">
-        <v>2017</v>
-      </c>
       <c r="L12">
-        <v>2030</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>2017</v>
       </c>
       <c r="N12">
+        <v>2030</v>
+      </c>
+      <c r="O12">
+        <v>2017</v>
+      </c>
+      <c r="P12">
         <v>2023</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>261254.34093679659</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>3048.6590632034122</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>0.15</v>
       </c>
-      <c r="S12" t="s">
+      <c r="U12" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1">
+    <row r="13" spans="1:21" hidden="1">
       <c r="A13" t="s">
         <v>177</v>
       </c>
@@ -4262,44 +4377,47 @@
       <c r="C13" t="s">
         <v>130</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>131</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
+      <c r="H13" t="s">
+        <v>326</v>
+      </c>
+      <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>0.94000000000000006</v>
-      </c>
-      <c r="K13">
-        <v>2017</v>
-      </c>
-      <c r="L13">
-        <v>2030</v>
       </c>
       <c r="M13">
         <v>2017</v>
       </c>
       <c r="N13">
+        <v>2030</v>
+      </c>
+      <c r="O13">
+        <v>2017</v>
+      </c>
+      <c r="P13">
         <v>2024</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>4529.3557815602426</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>259773.64421843976</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1">
+    <row r="14" spans="1:21" hidden="1">
       <c r="A14" t="s">
         <v>178</v>
       </c>
@@ -4309,44 +4427,47 @@
       <c r="C14" t="s">
         <v>130</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>131</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
+      <c r="H14" t="s">
+        <v>326</v>
+      </c>
+      <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>0.5</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>2005</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>2020</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>2006</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>2019</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
+      <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1">
+    <row r="15" spans="1:21" hidden="1">
       <c r="A15" t="s">
         <v>179</v>
       </c>
@@ -4356,44 +4477,47 @@
       <c r="C15" t="s">
         <v>130</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>131</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
+      <c r="H15" t="s">
+        <v>326</v>
+      </c>
+      <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>0.91</v>
-      </c>
-      <c r="K15">
-        <v>2018</v>
-      </c>
-      <c r="L15">
-        <v>2030</v>
       </c>
       <c r="M15">
         <v>2018</v>
       </c>
       <c r="N15">
+        <v>2030</v>
+      </c>
+      <c r="O15">
+        <v>2018</v>
+      </c>
+      <c r="P15">
         <v>2020</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>1623495.6235948068</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>16355.37640519335</v>
       </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1">
+    <row r="16" spans="1:21" hidden="1">
       <c r="A16" t="s">
         <v>180</v>
       </c>
@@ -4403,44 +4527,47 @@
       <c r="C16" t="s">
         <v>130</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>131</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
+      <c r="H16" t="s">
+        <v>326</v>
+      </c>
+      <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>0.93</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>2017</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>2019</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>2018</v>
       </c>
-      <c r="N16">
+      <c r="P16">
         <v>2021</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>109063.26891512153</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>1530787.7310848786</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="S16" t="s">
+      <c r="U16" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:21" hidden="1">
       <c r="A17" t="s">
         <v>181</v>
       </c>
@@ -4450,44 +4577,47 @@
       <c r="C17" t="s">
         <v>130</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>131</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
+      <c r="H17" t="s">
+        <v>326</v>
+      </c>
+      <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="L17">
         <v>0.76</v>
-      </c>
-      <c r="K17">
-        <v>2015</v>
-      </c>
-      <c r="L17">
-        <v>2020</v>
       </c>
       <c r="M17">
         <v>2015</v>
       </c>
       <c r="N17">
+        <v>2020</v>
+      </c>
+      <c r="O17">
+        <v>2015</v>
+      </c>
+      <c r="P17">
         <v>2022</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>28088.045032479266</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>19618.954967520734</v>
       </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>183</v>
       </c>
@@ -4497,44 +4627,44 @@
       <c r="C18" t="s">
         <v>130</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>144</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>11</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>0.12</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>0.21</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>2015</v>
       </c>
-      <c r="L18">
+      <c r="N18">
         <v>2030</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>2017</v>
       </c>
-      <c r="N18">
+      <c r="P18">
         <v>2023</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>2021033.4696043313</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>1298452.5303956687</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <v>0.08</v>
       </c>
-      <c r="S18" t="s">
+      <c r="U18" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:19" hidden="1">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -4544,44 +4674,44 @@
       <c r="C19" t="s">
         <v>130</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>144</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="I19">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="K19">
         <v>0.3</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>0.6</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>2015</v>
       </c>
-      <c r="L19">
+      <c r="N19">
         <v>2020</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>2016</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>2024</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>251813.3497402785</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>12489.650259721515</v>
       </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -4591,44 +4721,44 @@
       <c r="C20" t="s">
         <v>130</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>144</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>6</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>0.4</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>0.47000000000000003</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>2015</v>
       </c>
-      <c r="L20">
+      <c r="N20">
         <v>2030</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>2017</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>2019</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>29144.618624426188</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>235158.38137557381</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <v>0.1</v>
       </c>
-      <c r="S20" t="s">
+      <c r="U20" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -4638,44 +4768,44 @@
       <c r="C21" t="s">
         <v>130</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>144</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="I21">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="K21">
         <v>0.5</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>0.5</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>2018</v>
       </c>
-      <c r="L21">
+      <c r="N21">
         <v>2019</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>2019</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>2020</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <v>0.12</v>
       </c>
-      <c r="S21" t="s">
+      <c r="U21" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -4685,44 +4815,44 @@
       <c r="C22" t="s">
         <v>130</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>144</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="I22">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="K22">
         <v>0.6</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>0.3</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>2018</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>2030</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>2019</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>2021</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>1542974.817386897</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>96876.182613102996</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:19" hidden="1">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -4732,44 +4862,44 @@
       <c r="C23" t="s">
         <v>135</v>
       </c>
-      <c r="E23" t="s">
+      <c r="G23" t="s">
         <v>144</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="I23">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="K23">
         <v>0.8</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>0.94000000000000006</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>2018</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>2030</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>2019</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>2022</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>1258605.9073582559</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>381245.09264174401</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <v>0.88300000000000001</v>
       </c>
-      <c r="S23" t="s">
+      <c r="U23" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="24" spans="1:19" hidden="1">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -4782,44 +4912,44 @@
       <c r="D24" t="s">
         <v>137</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>144</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="I24">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="K24">
         <v>0.7</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>0.5</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>2018</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>2025</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>2019</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>2023</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>25476.428678700202</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>22230.571321299798</v>
       </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24" t="s">
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:19" hidden="1">
+    <row r="25" spans="1:21" hidden="1">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -4829,44 +4959,47 @@
       <c r="C25" t="s">
         <v>138</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>131</v>
       </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
+      <c r="H25" t="s">
+        <v>326</v>
+      </c>
+      <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="L25">
         <v>0.93</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>2005</v>
       </c>
-      <c r="L25">
+      <c r="N25">
         <v>2018</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>2018</v>
       </c>
-      <c r="N25">
+      <c r="P25">
         <v>2024</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>739349.11745452916</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>2580136.8825454707</v>
       </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25" t="s">
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:19" hidden="1">
+    <row r="26" spans="1:21" hidden="1">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -4876,44 +5009,47 @@
       <c r="C26" t="s">
         <v>138</v>
       </c>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>131</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
+      <c r="H26" t="s">
+        <v>326</v>
+      </c>
+      <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="L26">
         <v>0.76</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>2015</v>
       </c>
-      <c r="L26">
+      <c r="N26">
         <v>2030</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>2017</v>
       </c>
-      <c r="N26">
+      <c r="P26">
         <v>2019</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>140273.75037513993</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <v>124029.24962486007</v>
       </c>
-      <c r="R26">
-        <v>1</v>
-      </c>
-      <c r="S26" t="s">
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:19" hidden="1">
+    <row r="27" spans="1:21" hidden="1">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -4926,44 +5062,47 @@
       <c r="D27" t="s">
         <v>137</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>131</v>
       </c>
-      <c r="G27">
+      <c r="H27" t="s">
+        <v>326</v>
+      </c>
+      <c r="I27">
         <v>0.95</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>0.95</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>0.21</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>2015</v>
       </c>
-      <c r="L27">
+      <c r="N27">
         <v>2030</v>
       </c>
-      <c r="M27">
+      <c r="O27">
         <v>2017</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>2020</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>3562.2554504317172</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>260740.74454956828</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <v>0.5</v>
       </c>
-      <c r="S27" t="s">
+      <c r="U27" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:19" hidden="1">
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -4976,38 +5115,38 @@
       <c r="D28" t="s">
         <v>135</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>144</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="I28">
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="K28">
         <v>0.8</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>0.6</v>
-      </c>
-      <c r="K28">
-        <v>2015</v>
-      </c>
-      <c r="L28">
-        <v>2020</v>
       </c>
       <c r="M28">
         <v>2015</v>
       </c>
       <c r="N28">
+        <v>2020</v>
+      </c>
+      <c r="O28">
+        <v>2015</v>
+      </c>
+      <c r="P28">
         <v>2021</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <v>0.49600000000000005</v>
       </c>
-      <c r="S28" t="s">
+      <c r="U28" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:19" hidden="1">
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -5020,44 +5159,44 @@
       <c r="D29" t="s">
         <v>137</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>144</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="I29">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="K29">
         <v>0.9</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>0.47000000000000003</v>
-      </c>
-      <c r="K29">
-        <v>2015</v>
-      </c>
-      <c r="L29">
-        <v>2020</v>
       </c>
       <c r="M29">
         <v>2015</v>
       </c>
       <c r="N29">
+        <v>2020</v>
+      </c>
+      <c r="O29">
+        <v>2015</v>
+      </c>
+      <c r="P29">
         <v>2022</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>1527902.4738061246</v>
       </c>
-      <c r="P29">
+      <c r="R29">
         <v>111948.5261938753</v>
       </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
-      <c r="S29" t="s">
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="1:19" hidden="1">
+    <row r="30" spans="1:21" hidden="1">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -5067,44 +5206,47 @@
       <c r="C30" t="s">
         <v>138</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
         <v>131</v>
       </c>
-      <c r="G30">
+      <c r="H30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I30">
         <v>0.99</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>0.99</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>0.5</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>2013</v>
       </c>
-      <c r="L30">
+      <c r="N30">
         <v>2030</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>2017</v>
       </c>
-      <c r="N30">
+      <c r="P30">
         <v>2023</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>752485.53816878912</v>
       </c>
-      <c r="P30">
+      <c r="R30">
         <v>887365.46183121088</v>
       </c>
-      <c r="R30">
-        <v>1</v>
-      </c>
-      <c r="S30" t="s">
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:19" hidden="1">
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -5117,44 +5259,44 @@
       <c r="D31" t="s">
         <v>137</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>144</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="I31">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="K31">
         <v>0.81</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>0.3</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>2013</v>
       </c>
-      <c r="L31">
+      <c r="N31">
         <v>2021</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>2019</v>
       </c>
-      <c r="N31">
+      <c r="P31">
         <v>2024</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>13520.584701904279</v>
       </c>
-      <c r="P31">
+      <c r="R31">
         <v>34186.415298095722</v>
       </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31" t="s">
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:19" hidden="1">
+    <row r="32" spans="1:21" hidden="1">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -5164,44 +5306,47 @@
       <c r="C32" t="s">
         <v>138</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>131</v>
       </c>
-      <c r="G32">
+      <c r="H32" t="s">
+        <v>326</v>
+      </c>
+      <c r="I32">
         <v>0.85</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>0.85</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>0.94000000000000006</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>2017</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>2018</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>2018</v>
       </c>
-      <c r="N32">
+      <c r="P32">
         <v>2019</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>8714.9533087395212</v>
       </c>
-      <c r="P32">
+      <c r="R32">
         <v>192816.04669126048</v>
       </c>
-      <c r="R32">
-        <v>1</v>
-      </c>
-      <c r="S32" t="s">
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="1:19" hidden="1">
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -5211,44 +5356,44 @@
       <c r="C33" t="s">
         <v>138</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>144</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>5</v>
       </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
       <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
         <v>2016</v>
       </c>
-      <c r="L33">
+      <c r="N33">
         <v>2030</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>2017</v>
       </c>
-      <c r="N33">
+      <c r="P33">
         <v>2020</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <v>5030.1715149841002</v>
       </c>
-      <c r="P33">
+      <c r="R33">
         <v>70864.828485015896</v>
       </c>
-      <c r="R33">
+      <c r="T33">
         <v>0.39</v>
       </c>
-      <c r="S33" t="s">
+      <c r="U33" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1">
+    <row r="34" spans="1:21" hidden="1">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -5261,41 +5406,44 @@
       <c r="D34" t="s">
         <v>139</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>140</v>
       </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="J34">
+      <c r="H34" t="s">
+        <v>326</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="L34">
         <v>0.69000000000000006</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>2006</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>2020</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>2012</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <v>2021</v>
       </c>
-      <c r="O34">
+      <c r="Q34">
         <v>5030.1715149841002</v>
       </c>
-      <c r="P34">
+      <c r="R34">
         <v>70864.828485015896</v>
       </c>
-      <c r="R34">
+      <c r="T34">
         <v>0.1</v>
       </c>
-      <c r="S34" t="s">
+      <c r="U34" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:21" hidden="1">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -5305,38 +5453,41 @@
       <c r="C35" t="s">
         <v>138</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>131</v>
       </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
+      <c r="H35" t="s">
+        <v>326</v>
+      </c>
+      <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="L35">
         <v>0.82000000000000006</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>2017</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <v>2018</v>
       </c>
-      <c r="M35">
+      <c r="O35">
         <v>2018</v>
       </c>
-      <c r="N35">
+      <c r="P35">
         <v>2022</v>
       </c>
-      <c r="R35">
-        <v>1</v>
-      </c>
-      <c r="S35" t="s">
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:21" hidden="1">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -5346,44 +5497,47 @@
       <c r="C36" t="s">
         <v>138</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>131</v>
       </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
+      <c r="H36" t="s">
+        <v>326</v>
+      </c>
+      <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="L36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>2017</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <v>2025</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>2018</v>
       </c>
-      <c r="N36">
+      <c r="P36">
         <v>2023</v>
       </c>
-      <c r="O36">
+      <c r="Q36">
         <v>18420.103830501779</v>
       </c>
-      <c r="P36">
+      <c r="R36">
         <v>12437.896169498223</v>
       </c>
-      <c r="R36">
+      <c r="T36">
         <v>6.1699999999999998E-2</v>
       </c>
-      <c r="S36" t="s">
+      <c r="U36" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -5396,44 +5550,44 @@
       <c r="D37" t="s">
         <v>137</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
         <v>144</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>11</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>0.159</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>0.26</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>2010</v>
       </c>
-      <c r="L37">
+      <c r="N37">
         <v>2020</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>2012</v>
       </c>
-      <c r="N37">
+      <c r="P37">
         <v>2024</v>
       </c>
-      <c r="O37">
+      <c r="Q37">
         <v>21253.709283596334</v>
       </c>
-      <c r="P37">
+      <c r="R37">
         <v>9604.290716403666</v>
       </c>
-      <c r="R37">
-        <v>1</v>
-      </c>
-      <c r="S37" t="s">
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -5446,44 +5600,44 @@
       <c r="D38" t="s">
         <v>137</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
         <v>144</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>15</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>0.75</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>0.2</v>
-      </c>
-      <c r="K38">
-        <v>2017</v>
-      </c>
-      <c r="L38">
-        <v>2030</v>
       </c>
       <c r="M38">
         <v>2017</v>
       </c>
       <c r="N38">
+        <v>2030</v>
+      </c>
+      <c r="O38">
+        <v>2017</v>
+      </c>
+      <c r="P38">
         <v>2019</v>
       </c>
-      <c r="O38">
+      <c r="Q38">
         <v>260823.50223769023</v>
       </c>
-      <c r="P38">
+      <c r="R38">
         <v>12190.497762309758</v>
       </c>
-      <c r="R38">
-        <v>1</v>
-      </c>
-      <c r="S38" t="s">
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:21" hidden="1">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -5493,20 +5647,17 @@
       <c r="C39" t="s">
         <v>138</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
         <v>133</v>
       </c>
-      <c r="H39">
-        <v>1</v>
+      <c r="H39" t="s">
+        <v>326</v>
       </c>
       <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="L39">
         <v>0.39</v>
-      </c>
-      <c r="K39">
-        <v>2015</v>
-      </c>
-      <c r="L39">
-        <v>2020</v>
       </c>
       <c r="M39">
         <v>2015</v>
@@ -5515,19 +5666,25 @@
         <v>2020</v>
       </c>
       <c r="O39">
+        <v>2015</v>
+      </c>
+      <c r="P39">
+        <v>2020</v>
+      </c>
+      <c r="Q39">
         <v>260823.50223769023</v>
       </c>
-      <c r="P39">
+      <c r="R39">
         <v>12190.497762309758</v>
       </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39" t="s">
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1">
+    <row r="40" spans="1:21" hidden="1">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -5540,38 +5697,41 @@
       <c r="D40" t="s">
         <v>137</v>
       </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>131</v>
       </c>
-      <c r="G40">
+      <c r="H40" t="s">
+        <v>326</v>
+      </c>
+      <c r="I40">
         <v>0.71</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>0.71</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>0.86</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>2015</v>
-      </c>
-      <c r="L40">
-        <v>2021</v>
-      </c>
-      <c r="M40">
-        <v>2016</v>
       </c>
       <c r="N40">
         <v>2021</v>
       </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40" t="s">
+      <c r="O40">
+        <v>2016</v>
+      </c>
+      <c r="P40">
+        <v>2021</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="41" spans="1:19" hidden="1">
+    <row r="41" spans="1:21" hidden="1">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -5584,44 +5744,47 @@
       <c r="D41" t="s">
         <v>137</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>131</v>
       </c>
-      <c r="G41">
+      <c r="H41" t="s">
+        <v>326</v>
+      </c>
+      <c r="I41">
         <v>0.75</v>
       </c>
-      <c r="H41">
+      <c r="J41">
         <v>0.75</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>0.46</v>
-      </c>
-      <c r="K41">
-        <v>2018</v>
-      </c>
-      <c r="L41">
-        <v>2023</v>
       </c>
       <c r="M41">
         <v>2018</v>
       </c>
       <c r="N41">
+        <v>2023</v>
+      </c>
+      <c r="O41">
+        <v>2018</v>
+      </c>
+      <c r="P41">
         <v>2022</v>
       </c>
-      <c r="O41">
+      <c r="Q41">
         <v>2435.0792096809209</v>
       </c>
-      <c r="P41">
+      <c r="R41">
         <v>16574.110790319079</v>
       </c>
-      <c r="R41">
-        <v>1</v>
-      </c>
-      <c r="S41" t="s">
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="1:19" hidden="1">
+    <row r="42" spans="1:21" hidden="1">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -5634,44 +5797,47 @@
       <c r="D42" t="s">
         <v>137</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>131</v>
       </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
+      <c r="H42" t="s">
+        <v>326</v>
+      </c>
+      <c r="I42">
         <v>1</v>
       </c>
       <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="L42">
         <v>0.94000000000000006</v>
       </c>
-      <c r="K42">
+      <c r="M42">
         <v>2016</v>
       </c>
-      <c r="L42">
+      <c r="N42">
         <v>2017</v>
       </c>
-      <c r="M42">
+      <c r="O42">
         <v>2017</v>
       </c>
-      <c r="N42">
+      <c r="P42">
         <v>2023</v>
       </c>
-      <c r="O42">
+      <c r="Q42">
         <v>3577.0205410445274</v>
       </c>
-      <c r="P42">
+      <c r="R42">
         <v>15432.169458955472</v>
       </c>
-      <c r="R42">
+      <c r="T42">
         <v>0.79</v>
       </c>
-      <c r="S42" t="s">
+      <c r="U42" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="43" spans="1:19" hidden="1">
+    <row r="43" spans="1:21" hidden="1">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -5681,44 +5847,47 @@
       <c r="C43" t="s">
         <v>138</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>131</v>
       </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
+      <c r="H43" t="s">
+        <v>326</v>
+      </c>
+      <c r="I43">
         <v>1</v>
       </c>
       <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="L43">
         <v>0.69000000000000006</v>
-      </c>
-      <c r="K43">
-        <v>2015</v>
-      </c>
-      <c r="L43">
-        <v>2020</v>
       </c>
       <c r="M43">
         <v>2015</v>
       </c>
       <c r="N43">
+        <v>2020</v>
+      </c>
+      <c r="O43">
+        <v>2015</v>
+      </c>
+      <c r="P43">
         <v>2024</v>
       </c>
-      <c r="O43">
+      <c r="Q43">
         <v>45289.348484583432</v>
       </c>
-      <c r="P43">
+      <c r="R43">
         <v>32682.651515416568</v>
       </c>
-      <c r="R43">
+      <c r="T43">
         <v>0.42</v>
       </c>
-      <c r="S43" t="s">
+      <c r="U43" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:19" hidden="1">
+    <row r="44" spans="1:21" hidden="1">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -5728,44 +5897,47 @@
       <c r="C44" t="s">
         <v>138</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
         <v>131</v>
       </c>
-      <c r="G44">
+      <c r="H44" t="s">
+        <v>326</v>
+      </c>
+      <c r="I44">
         <v>0.86</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>0.86</v>
       </c>
-      <c r="J44">
+      <c r="L44">
         <v>0.42</v>
       </c>
-      <c r="K44">
+      <c r="M44">
         <v>2013</v>
       </c>
-      <c r="L44">
+      <c r="N44">
         <v>2030</v>
       </c>
-      <c r="M44">
+      <c r="O44">
         <v>2017</v>
       </c>
-      <c r="N44">
+      <c r="P44">
         <v>2019</v>
       </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
+      <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="T44">
         <v>0.74</v>
       </c>
-      <c r="S44" t="s">
+      <c r="U44" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="45" spans="1:19" hidden="1">
+    <row r="45" spans="1:21" hidden="1">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -5775,44 +5947,47 @@
       <c r="C45" t="s">
         <v>138</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
         <v>131</v>
       </c>
-      <c r="G45">
+      <c r="H45" t="s">
+        <v>326</v>
+      </c>
+      <c r="I45">
         <v>0.86</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>0.86</v>
       </c>
-      <c r="J45">
+      <c r="L45">
         <v>0.88</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <v>2013</v>
       </c>
-      <c r="L45">
+      <c r="N45">
         <v>2050</v>
       </c>
-      <c r="M45">
+      <c r="O45">
         <v>2017</v>
       </c>
-      <c r="N45">
+      <c r="P45">
         <v>2020</v>
       </c>
-      <c r="O45">
+      <c r="Q45">
         <v>303878.5938430645</v>
       </c>
-      <c r="P45">
+      <c r="R45">
         <v>501599.4061569355</v>
       </c>
-      <c r="R45">
-        <v>1</v>
-      </c>
-      <c r="S45" t="s">
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="46" spans="1:19" hidden="1">
+    <row r="46" spans="1:21" hidden="1">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -5825,44 +6000,47 @@
       <c r="D46" t="s">
         <v>137</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
         <v>131</v>
       </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
+      <c r="H46" t="s">
+        <v>326</v>
+      </c>
+      <c r="I46">
         <v>1</v>
       </c>
       <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="L46">
         <v>0.9</v>
       </c>
-      <c r="K46">
+      <c r="M46">
         <v>2011</v>
-      </c>
-      <c r="L46">
-        <v>2021</v>
-      </c>
-      <c r="M46">
-        <v>2018</v>
       </c>
       <c r="N46">
         <v>2021</v>
       </c>
       <c r="O46">
+        <v>2018</v>
+      </c>
+      <c r="P46">
+        <v>2021</v>
+      </c>
+      <c r="Q46">
         <v>451204.69109967712</v>
       </c>
-      <c r="P46">
+      <c r="R46">
         <v>354273.30890032288</v>
       </c>
-      <c r="R46">
+      <c r="T46">
         <v>0.86</v>
       </c>
-      <c r="S46" t="s">
+      <c r="U46" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="47" spans="1:19" hidden="1">
+    <row r="47" spans="1:21" hidden="1">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -5875,44 +6053,47 @@
       <c r="D47" t="s">
         <v>137</v>
       </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
         <v>131</v>
       </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
+      <c r="H47" t="s">
+        <v>326</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
       <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="L47">
         <v>0.96</v>
       </c>
-      <c r="K47">
+      <c r="M47">
         <v>2011</v>
       </c>
-      <c r="L47">
+      <c r="N47">
         <v>2021</v>
       </c>
-      <c r="M47">
+      <c r="O47">
         <v>2018</v>
       </c>
-      <c r="N47">
+      <c r="P47">
         <v>2022</v>
       </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
+      <c r="Q47">
         <v>0</v>
       </c>
       <c r="R47">
-        <v>1</v>
-      </c>
-      <c r="S47" t="s">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1">
+    <row r="48" spans="1:21" hidden="1">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -5922,44 +6103,47 @@
       <c r="C48" t="s">
         <v>138</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>131</v>
       </c>
-      <c r="G48">
+      <c r="H48" t="s">
+        <v>326</v>
+      </c>
+      <c r="I48">
         <v>0.65</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <v>0.65</v>
       </c>
-      <c r="J48">
+      <c r="L48">
         <v>0.43</v>
       </c>
-      <c r="K48">
+      <c r="M48">
         <v>2002</v>
       </c>
-      <c r="L48">
+      <c r="N48">
         <v>2020</v>
       </c>
-      <c r="M48">
+      <c r="O48">
         <v>2011</v>
       </c>
-      <c r="N48">
+      <c r="P48">
         <v>2023</v>
       </c>
-      <c r="O48">
+      <c r="Q48">
         <v>481657.87875209423</v>
       </c>
-      <c r="P48">
+      <c r="R48">
         <v>486942.12124790577</v>
       </c>
-      <c r="R48">
-        <v>1</v>
-      </c>
-      <c r="S48" t="s">
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="49" spans="1:19" hidden="1">
+    <row r="49" spans="1:21" hidden="1">
       <c r="A49" t="s">
         <v>171</v>
       </c>
@@ -5972,44 +6156,47 @@
       <c r="D49" t="s">
         <v>137</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
         <v>131</v>
       </c>
-      <c r="G49">
+      <c r="H49" t="s">
+        <v>326</v>
+      </c>
+      <c r="I49">
         <v>0.65</v>
       </c>
-      <c r="H49">
+      <c r="J49">
         <v>0.65</v>
       </c>
-      <c r="J49">
+      <c r="L49">
         <v>0.76</v>
       </c>
-      <c r="K49">
+      <c r="M49">
         <v>2006</v>
       </c>
-      <c r="L49">
+      <c r="N49">
         <v>2021</v>
       </c>
-      <c r="M49">
+      <c r="O49">
         <v>2011</v>
       </c>
-      <c r="N49">
+      <c r="P49">
         <v>2024</v>
       </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
+      <c r="Q49">
         <v>0</v>
       </c>
       <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="T49">
         <v>0.3</v>
       </c>
-      <c r="S49" t="s">
+      <c r="U49" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="50" spans="1:19" hidden="1">
+    <row r="50" spans="1:21" hidden="1">
       <c r="A50" t="s">
         <v>172</v>
       </c>
@@ -6022,47 +6209,50 @@
       <c r="D50" t="s">
         <v>137</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
         <v>131</v>
       </c>
-      <c r="G50">
+      <c r="H50" t="s">
+        <v>326</v>
+      </c>
+      <c r="I50">
         <v>0.65</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>0.65</v>
       </c>
-      <c r="J50">
+      <c r="L50">
         <v>0.25</v>
       </c>
-      <c r="K50">
+      <c r="M50">
         <v>2013</v>
       </c>
-      <c r="L50">
+      <c r="N50">
         <v>2025</v>
       </c>
-      <c r="M50">
+      <c r="O50">
         <v>2015</v>
       </c>
-      <c r="N50">
+      <c r="P50">
         <v>2019</v>
       </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
       <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
         <v>21752.5</v>
       </c>
-      <c r="R50">
+      <c r="T50">
         <v>0.35799999999999998</v>
       </c>
-      <c r="S50" t="s">
+      <c r="U50" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="51" spans="1:19" hidden="1">
+    <row r="51" spans="1:21" hidden="1">
       <c r="A51" t="s">
         <v>173</v>
       </c>
@@ -6072,44 +6262,47 @@
       <c r="C51" t="s">
         <v>138</v>
       </c>
-      <c r="E51" t="s">
+      <c r="G51" t="s">
         <v>131</v>
       </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
+      <c r="H51" t="s">
+        <v>326</v>
+      </c>
+      <c r="I51">
         <v>1</v>
       </c>
       <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="L51">
         <v>0.67</v>
       </c>
-      <c r="K51">
+      <c r="M51">
         <v>2015</v>
       </c>
-      <c r="L51">
+      <c r="N51">
         <v>2025</v>
       </c>
-      <c r="M51">
+      <c r="O51">
         <v>2016</v>
       </c>
-      <c r="N51">
+      <c r="P51">
         <v>2020</v>
       </c>
-      <c r="O51">
+      <c r="Q51">
         <v>32319.716640771392</v>
       </c>
-      <c r="P51">
+      <c r="R51">
         <v>364406.28335922863</v>
       </c>
-      <c r="R51">
-        <v>1</v>
-      </c>
-      <c r="S51" t="s">
+      <c r="T51">
+        <v>1</v>
+      </c>
+      <c r="U51" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="52" spans="1:19" hidden="1">
+    <row r="52" spans="1:21" hidden="1">
       <c r="A52" t="s">
         <v>174</v>
       </c>
@@ -6122,41 +6315,44 @@
       <c r="D52" t="s">
         <v>137</v>
       </c>
-      <c r="E52" t="s">
+      <c r="G52" t="s">
         <v>133</v>
       </c>
-      <c r="H52">
-        <v>1</v>
+      <c r="H52" t="s">
+        <v>326</v>
       </c>
       <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="L52">
         <v>0.34</v>
       </c>
-      <c r="K52">
+      <c r="M52">
         <v>2006</v>
       </c>
-      <c r="L52">
+      <c r="N52">
         <v>2030</v>
       </c>
-      <c r="M52">
+      <c r="O52">
         <v>2019</v>
       </c>
-      <c r="N52">
+      <c r="P52">
         <v>2021</v>
       </c>
-      <c r="O52">
+      <c r="Q52">
         <v>413573.83935666631</v>
       </c>
-      <c r="P52">
+      <c r="R52">
         <v>244312.16064333371</v>
       </c>
-      <c r="R52">
+      <c r="T52">
         <v>0.32600000000000001</v>
       </c>
-      <c r="S52" t="s">
+      <c r="U52" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="53" spans="1:19" hidden="1">
+    <row r="53" spans="1:21" hidden="1">
       <c r="A53" t="s">
         <v>175</v>
       </c>
@@ -6169,44 +6365,47 @@
       <c r="D53" t="s">
         <v>137</v>
       </c>
-      <c r="E53" t="s">
+      <c r="G53" t="s">
         <v>131</v>
       </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53">
+      <c r="H53" t="s">
+        <v>326</v>
+      </c>
+      <c r="I53">
         <v>1</v>
       </c>
       <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="L53">
         <v>0.43</v>
       </c>
-      <c r="K53">
+      <c r="M53">
         <v>2015</v>
       </c>
-      <c r="L53">
+      <c r="N53">
         <v>2020</v>
       </c>
-      <c r="M53">
+      <c r="O53">
         <v>2016</v>
       </c>
-      <c r="N53">
+      <c r="P53">
         <v>2022</v>
       </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
+      <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="T53">
         <v>5.4000000000000006E-2</v>
       </c>
-      <c r="S53" t="s">
+      <c r="U53" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="54" spans="1:19" hidden="1">
+    <row r="54" spans="1:21" hidden="1">
       <c r="A54" t="s">
         <v>176</v>
       </c>
@@ -6216,44 +6415,47 @@
       <c r="C54" t="s">
         <v>138</v>
       </c>
-      <c r="E54" t="s">
+      <c r="G54" t="s">
         <v>131</v>
       </c>
-      <c r="G54">
+      <c r="H54" t="s">
+        <v>326</v>
+      </c>
+      <c r="I54">
         <v>0.7</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>0.7</v>
       </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="K54">
-        <v>2015</v>
-      </c>
       <c r="L54">
-        <v>2033</v>
+        <v>1</v>
       </c>
       <c r="M54">
         <v>2015</v>
       </c>
       <c r="N54">
+        <v>2033</v>
+      </c>
+      <c r="O54">
+        <v>2015</v>
+      </c>
+      <c r="P54">
         <v>2023</v>
       </c>
-      <c r="O54">
+      <c r="Q54">
         <v>638079.70206497097</v>
       </c>
-      <c r="P54">
+      <c r="R54">
         <v>30833.297935029001</v>
       </c>
-      <c r="R54">
-        <v>1</v>
-      </c>
-      <c r="S54" t="s">
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="55" spans="1:19" hidden="1">
+    <row r="55" spans="1:21" hidden="1">
       <c r="A55" t="s">
         <v>177</v>
       </c>
@@ -6263,44 +6465,47 @@
       <c r="C55" t="s">
         <v>138</v>
       </c>
-      <c r="E55" t="s">
+      <c r="G55" t="s">
         <v>131</v>
       </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
+      <c r="H55" t="s">
+        <v>326</v>
+      </c>
+      <c r="I55">
         <v>1</v>
       </c>
       <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="L55">
         <v>0.84</v>
       </c>
-      <c r="K55">
+      <c r="M55">
         <v>2017</v>
       </c>
-      <c r="L55">
+      <c r="N55">
         <v>2027</v>
       </c>
-      <c r="M55">
+      <c r="O55">
         <v>2018</v>
       </c>
-      <c r="N55">
+      <c r="P55">
         <v>2024</v>
       </c>
-      <c r="O55">
+      <c r="Q55">
         <v>370051.54090144561</v>
       </c>
-      <c r="P55">
+      <c r="R55">
         <v>1034948.4590985543</v>
       </c>
-      <c r="R55">
+      <c r="T55">
         <v>0.30809999999999998</v>
       </c>
-      <c r="S55" t="s">
+      <c r="U55" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="56" spans="1:19" hidden="1">
+    <row r="56" spans="1:21" hidden="1">
       <c r="A56" t="s">
         <v>178</v>
       </c>
@@ -6310,44 +6515,47 @@
       <c r="C56" t="s">
         <v>138</v>
       </c>
-      <c r="E56" t="s">
+      <c r="G56" t="s">
         <v>131</v>
       </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
+      <c r="H56" t="s">
+        <v>326</v>
+      </c>
+      <c r="I56">
         <v>1</v>
       </c>
       <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="L56">
         <v>0.57999999999999996</v>
-      </c>
-      <c r="K56">
-        <v>2010</v>
-      </c>
-      <c r="L56">
-        <v>2020</v>
       </c>
       <c r="M56">
         <v>2010</v>
       </c>
       <c r="N56">
+        <v>2020</v>
+      </c>
+      <c r="O56">
+        <v>2010</v>
+      </c>
+      <c r="P56">
         <v>2019</v>
       </c>
-      <c r="O56">
+      <c r="Q56">
         <v>1349446.6608923262</v>
       </c>
-      <c r="P56">
+      <c r="R56">
         <v>94113.339107673848</v>
       </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="S56" t="s">
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1">
+    <row r="57" spans="1:21" hidden="1">
       <c r="A57" t="s">
         <v>179</v>
       </c>
@@ -6357,44 +6565,47 @@
       <c r="C57" t="s">
         <v>138</v>
       </c>
-      <c r="E57" t="s">
+      <c r="G57" t="s">
         <v>131</v>
       </c>
-      <c r="G57">
+      <c r="H57" t="s">
+        <v>326</v>
+      </c>
+      <c r="I57">
         <v>0.97</v>
       </c>
-      <c r="H57">
+      <c r="J57">
         <v>0.97</v>
       </c>
-      <c r="J57">
+      <c r="L57">
         <v>0.74</v>
       </c>
-      <c r="K57">
+      <c r="M57">
         <v>2017</v>
       </c>
-      <c r="L57">
+      <c r="N57">
         <v>2025</v>
       </c>
-      <c r="M57">
+      <c r="O57">
         <v>2018</v>
       </c>
-      <c r="N57">
+      <c r="P57">
         <v>2020</v>
       </c>
-      <c r="O57">
+      <c r="Q57">
         <v>10470.424093308253</v>
       </c>
-      <c r="P57">
+      <c r="R57">
         <v>58169.575906691745</v>
       </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="S57" t="s">
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="1:19" hidden="1">
+    <row r="58" spans="1:21" hidden="1">
       <c r="A58" t="s">
         <v>180</v>
       </c>
@@ -6404,44 +6615,47 @@
       <c r="C58" t="s">
         <v>138</v>
       </c>
-      <c r="E58" t="s">
+      <c r="G58" t="s">
         <v>131</v>
       </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
+      <c r="H58" t="s">
+        <v>326</v>
+      </c>
+      <c r="I58">
         <v>1</v>
       </c>
       <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="L58">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K58">
+      <c r="M58">
         <v>2017</v>
       </c>
-      <c r="L58">
+      <c r="N58">
         <v>2030</v>
       </c>
-      <c r="M58">
+      <c r="O58">
         <v>2019</v>
       </c>
-      <c r="N58">
+      <c r="P58">
         <v>2021</v>
       </c>
-      <c r="O58">
+      <c r="Q58">
         <v>7751.7100603643785</v>
       </c>
-      <c r="P58">
+      <c r="R58">
         <v>448181.28993963561</v>
       </c>
-      <c r="R58">
+      <c r="T58">
         <v>0.41000000000000003</v>
       </c>
-      <c r="S58" t="s">
+      <c r="U58" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:21" hidden="1">
       <c r="A59" t="s">
         <v>181</v>
       </c>
@@ -6449,49 +6663,55 @@
         <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>136</v>
-      </c>
-      <c r="D59" t="s">
-        <v>137</v>
-      </c>
-      <c r="E59" t="s">
+        <v>325</v>
+      </c>
+      <c r="E59">
+        <v>3.13</v>
+      </c>
+      <c r="F59">
+        <v>2.19</v>
+      </c>
+      <c r="G59" t="s">
         <v>131</v>
       </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59">
+      <c r="H59" t="s">
+        <v>326</v>
+      </c>
+      <c r="I59">
         <v>1</v>
       </c>
       <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="L59">
         <v>0.85</v>
-      </c>
-      <c r="K59">
-        <v>2017</v>
-      </c>
-      <c r="L59">
-        <v>2050</v>
       </c>
       <c r="M59">
         <v>2017</v>
       </c>
       <c r="N59">
+        <v>2030</v>
+      </c>
+      <c r="O59">
+        <v>2017</v>
+      </c>
+      <c r="P59">
         <v>2022</v>
       </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59">
+      <c r="Q59">
         <v>0</v>
       </c>
       <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="T59">
         <v>0.24</v>
       </c>
-      <c r="S59" t="s">
+      <c r="U59" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:19" hidden="1">
+    <row r="60" spans="1:21" hidden="1">
       <c r="A60" t="s">
         <v>183</v>
       </c>
@@ -6504,44 +6724,47 @@
       <c r="D60" t="s">
         <v>137</v>
       </c>
-      <c r="E60" t="s">
+      <c r="G60" t="s">
         <v>131</v>
       </c>
-      <c r="G60">
+      <c r="H60" t="s">
+        <v>326</v>
+      </c>
+      <c r="I60">
         <v>0.75</v>
       </c>
-      <c r="H60">
+      <c r="J60">
         <v>0.75</v>
       </c>
-      <c r="J60">
+      <c r="L60">
         <v>0.26</v>
-      </c>
-      <c r="K60">
-        <v>2016</v>
-      </c>
-      <c r="L60">
-        <v>2026</v>
       </c>
       <c r="M60">
         <v>2016</v>
       </c>
       <c r="N60">
+        <v>2026</v>
+      </c>
+      <c r="O60">
+        <v>2016</v>
+      </c>
+      <c r="P60">
         <v>2023</v>
       </c>
-      <c r="O60">
+      <c r="Q60">
         <v>78994.82719848564</v>
       </c>
-      <c r="P60">
+      <c r="R60">
         <v>272758.17280151439</v>
       </c>
-      <c r="R60">
-        <v>1</v>
-      </c>
-      <c r="S60" t="s">
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="61" spans="1:19" hidden="1">
+    <row r="61" spans="1:21" hidden="1">
       <c r="A61" t="s">
         <v>81</v>
       </c>
@@ -6554,44 +6777,47 @@
       <c r="D61" t="s">
         <v>135</v>
       </c>
-      <c r="E61" t="s">
+      <c r="G61" t="s">
         <v>131</v>
       </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
+      <c r="H61" t="s">
+        <v>326</v>
+      </c>
+      <c r="I61">
         <v>1</v>
       </c>
       <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="L61">
         <v>0.39</v>
       </c>
-      <c r="K61">
+      <c r="M61">
         <v>2015</v>
       </c>
-      <c r="L61">
+      <c r="N61">
         <v>2035</v>
       </c>
-      <c r="M61">
+      <c r="O61">
         <v>2016</v>
       </c>
-      <c r="N61">
+      <c r="P61">
         <v>2024</v>
       </c>
-      <c r="O61">
+      <c r="Q61">
         <v>498454.43322806311</v>
       </c>
-      <c r="P61">
+      <c r="R61">
         <v>217932.56677193692</v>
       </c>
-      <c r="R61">
-        <v>1</v>
-      </c>
-      <c r="S61" t="s">
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="62" spans="1:19" hidden="1">
+    <row r="62" spans="1:21" hidden="1">
       <c r="A62" t="s">
         <v>83</v>
       </c>
@@ -6601,44 +6827,47 @@
       <c r="C62" t="s">
         <v>138</v>
       </c>
-      <c r="E62" t="s">
+      <c r="G62" t="s">
         <v>131</v>
       </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62">
+      <c r="H62" t="s">
+        <v>326</v>
+      </c>
+      <c r="I62">
         <v>1</v>
       </c>
       <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="L62">
         <v>0.36</v>
       </c>
-      <c r="K62">
+      <c r="M62">
         <v>2015</v>
       </c>
-      <c r="L62">
+      <c r="N62">
         <v>2020</v>
       </c>
-      <c r="M62">
+      <c r="O62">
         <v>2016</v>
       </c>
-      <c r="N62">
+      <c r="P62">
         <v>2019</v>
       </c>
-      <c r="O62">
+      <c r="Q62">
         <v>741093.00013842876</v>
       </c>
-      <c r="P62">
+      <c r="R62">
         <v>1128906.9998615712</v>
       </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="S62" t="s">
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="63" spans="1:19" hidden="1">
+    <row r="63" spans="1:21" hidden="1">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -6648,44 +6877,47 @@
       <c r="C63" t="s">
         <v>138</v>
       </c>
-      <c r="E63" t="s">
+      <c r="G63" t="s">
         <v>131</v>
       </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63">
+      <c r="H63" t="s">
+        <v>326</v>
+      </c>
+      <c r="I63">
         <v>1</v>
       </c>
       <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="L63">
         <v>0.95000000000000007</v>
       </c>
-      <c r="K63">
+      <c r="M63">
         <v>2015</v>
-      </c>
-      <c r="L63">
-        <v>2020</v>
-      </c>
-      <c r="M63">
-        <v>2016</v>
       </c>
       <c r="N63">
         <v>2020</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>2016</v>
       </c>
       <c r="P63">
+        <v>2020</v>
+      </c>
+      <c r="Q63">
         <v>0</v>
       </c>
       <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="T63">
         <v>0.6</v>
       </c>
-      <c r="S63" t="s">
+      <c r="U63" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="64" spans="1:19" hidden="1">
+    <row r="64" spans="1:21" hidden="1">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -6695,44 +6927,47 @@
       <c r="C64" t="s">
         <v>138</v>
       </c>
-      <c r="E64" t="s">
+      <c r="G64" t="s">
         <v>131</v>
       </c>
-      <c r="G64">
+      <c r="H64" t="s">
+        <v>326</v>
+      </c>
+      <c r="I64">
         <v>0.95</v>
       </c>
-      <c r="H64">
+      <c r="J64">
         <v>0.95</v>
       </c>
-      <c r="J64">
+      <c r="L64">
         <v>0.34</v>
       </c>
-      <c r="K64">
+      <c r="M64">
         <v>2015</v>
       </c>
-      <c r="L64">
+      <c r="N64">
         <v>2020</v>
       </c>
-      <c r="M64">
+      <c r="O64">
         <v>2016</v>
       </c>
-      <c r="N64">
+      <c r="P64">
         <v>2021</v>
       </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
+      <c r="Q64">
         <v>0</v>
       </c>
       <c r="R64">
-        <v>1</v>
-      </c>
-      <c r="S64" t="s">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="65" spans="1:19" hidden="1">
+    <row r="65" spans="1:21" hidden="1">
       <c r="A65" t="s">
         <v>90</v>
       </c>
@@ -6745,44 +6980,47 @@
       <c r="D65" t="s">
         <v>137</v>
       </c>
-      <c r="E65" t="s">
+      <c r="G65" t="s">
         <v>131</v>
       </c>
-      <c r="G65">
+      <c r="H65" t="s">
+        <v>326</v>
+      </c>
+      <c r="I65">
         <v>0.95</v>
       </c>
-      <c r="H65">
+      <c r="J65">
         <v>0.95</v>
       </c>
-      <c r="J65">
+      <c r="L65">
         <v>0.91</v>
       </c>
-      <c r="K65">
+      <c r="M65">
         <v>2015</v>
       </c>
-      <c r="L65">
+      <c r="N65">
         <v>2020</v>
       </c>
-      <c r="M65">
+      <c r="O65">
         <v>2016</v>
       </c>
-      <c r="N65">
+      <c r="P65">
         <v>2022</v>
       </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
+      <c r="Q65">
         <v>0</v>
       </c>
       <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="T65">
         <v>0.47789999999999999</v>
       </c>
-      <c r="S65" t="s">
+      <c r="U65" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="66" spans="1:19" hidden="1">
+    <row r="66" spans="1:21" hidden="1">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -6795,44 +7033,47 @@
       <c r="D66" t="s">
         <v>141</v>
       </c>
-      <c r="E66" t="s">
+      <c r="G66" t="s">
         <v>131</v>
       </c>
-      <c r="G66">
+      <c r="H66" t="s">
+        <v>326</v>
+      </c>
+      <c r="I66">
         <v>0.93</v>
       </c>
-      <c r="H66">
+      <c r="J66">
         <v>0.93</v>
       </c>
-      <c r="J66">
+      <c r="L66">
         <v>0.91</v>
       </c>
-      <c r="K66">
+      <c r="M66">
         <v>2015</v>
       </c>
-      <c r="L66">
+      <c r="N66">
         <v>2020</v>
       </c>
-      <c r="M66">
+      <c r="O66">
         <v>2016</v>
       </c>
-      <c r="N66">
+      <c r="P66">
         <v>2023</v>
       </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
+      <c r="Q66">
         <v>0</v>
       </c>
       <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="T66">
         <v>0.56000000000000005</v>
       </c>
-      <c r="S66" t="s">
+      <c r="U66" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="67" spans="1:19" hidden="1">
+    <row r="67" spans="1:21" hidden="1">
       <c r="A67" t="s">
         <v>83</v>
       </c>
@@ -6842,44 +7083,47 @@
       <c r="C67" t="s">
         <v>138</v>
       </c>
-      <c r="E67" t="s">
+      <c r="G67" t="s">
         <v>131</v>
       </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67">
+      <c r="H67" t="s">
+        <v>326</v>
+      </c>
+      <c r="I67">
         <v>1</v>
       </c>
       <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="L67">
         <v>0.48</v>
       </c>
-      <c r="K67">
+      <c r="M67">
         <v>2010</v>
       </c>
-      <c r="L67">
+      <c r="N67">
         <v>2030</v>
       </c>
-      <c r="M67">
+      <c r="O67">
         <v>2018</v>
       </c>
-      <c r="N67">
+      <c r="P67">
         <v>2024</v>
       </c>
-      <c r="O67">
+      <c r="Q67">
         <v>26056783.910288956</v>
       </c>
-      <c r="P67">
+      <c r="R67">
         <v>879216.08971104492</v>
       </c>
-      <c r="R67">
+      <c r="T67">
         <v>0.79</v>
       </c>
-      <c r="S67" t="s">
+      <c r="U67" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="68" spans="1:19" hidden="1">
+    <row r="68" spans="1:21" hidden="1">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -6892,44 +7136,47 @@
       <c r="D68" t="s">
         <v>137</v>
       </c>
-      <c r="E68" t="s">
+      <c r="G68" t="s">
         <v>131</v>
       </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68">
+      <c r="H68" t="s">
+        <v>326</v>
+      </c>
+      <c r="I68">
         <v>1</v>
       </c>
       <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="L68">
         <v>0.99</v>
       </c>
-      <c r="K68">
+      <c r="M68">
         <v>2010</v>
       </c>
-      <c r="L68">
+      <c r="N68">
         <v>2030</v>
       </c>
-      <c r="M68">
+      <c r="O68">
         <v>2018</v>
       </c>
-      <c r="N68">
+      <c r="P68">
         <v>2019</v>
       </c>
-      <c r="O68">
+      <c r="Q68">
         <v>75011.418885668551</v>
       </c>
-      <c r="P68">
+      <c r="R68">
         <v>10188.581114331457</v>
       </c>
-      <c r="R68">
-        <v>1</v>
-      </c>
-      <c r="S68" t="s">
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="1:19" hidden="1">
+    <row r="69" spans="1:21" hidden="1">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -6939,41 +7186,44 @@
       <c r="C69" t="s">
         <v>138</v>
       </c>
-      <c r="E69" t="s">
+      <c r="G69" t="s">
         <v>140</v>
       </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="J69">
+      <c r="H69" t="s">
+        <v>326</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="L69">
         <v>0.84</v>
       </c>
-      <c r="K69">
+      <c r="M69">
         <v>2010</v>
       </c>
-      <c r="L69">
+      <c r="N69">
         <v>2030</v>
       </c>
-      <c r="M69">
+      <c r="O69">
         <v>2016</v>
       </c>
-      <c r="N69">
+      <c r="P69">
         <v>2020</v>
       </c>
-      <c r="O69">
+      <c r="Q69">
         <v>80105.165547396828</v>
       </c>
-      <c r="P69">
+      <c r="R69">
         <v>128381.83445260317</v>
       </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="S69" t="s">
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="1:19" hidden="1">
+    <row r="70" spans="1:21" hidden="1">
       <c r="A70" t="s">
         <v>90</v>
       </c>
@@ -6983,44 +7233,47 @@
       <c r="C70" t="s">
         <v>138</v>
       </c>
-      <c r="E70" t="s">
+      <c r="G70" t="s">
         <v>131</v>
       </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70">
+      <c r="H70" t="s">
+        <v>326</v>
+      </c>
+      <c r="I70">
         <v>1</v>
       </c>
       <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="L70">
         <v>0.28999999999999998</v>
-      </c>
-      <c r="K70">
-        <v>2018</v>
-      </c>
-      <c r="L70">
-        <v>2018</v>
       </c>
       <c r="M70">
         <v>2018</v>
       </c>
       <c r="N70">
+        <v>2018</v>
+      </c>
+      <c r="O70">
+        <v>2018</v>
+      </c>
+      <c r="P70">
         <v>2021</v>
       </c>
-      <c r="O70">
+      <c r="Q70">
         <v>52240.488471081924</v>
       </c>
-      <c r="P70">
+      <c r="R70">
         <v>78251.511528918083</v>
       </c>
-      <c r="R70">
+      <c r="T70">
         <v>0.1</v>
       </c>
-      <c r="S70" t="s">
+      <c r="U70" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="71" spans="1:19" hidden="1">
+    <row r="71" spans="1:21" hidden="1">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -7033,44 +7286,47 @@
       <c r="D71" t="s">
         <v>137</v>
       </c>
-      <c r="E71" t="s">
+      <c r="G71" t="s">
         <v>131</v>
       </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71">
+      <c r="H71" t="s">
+        <v>326</v>
+      </c>
+      <c r="I71">
         <v>1</v>
       </c>
       <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="L71">
         <v>0.56000000000000005</v>
       </c>
-      <c r="K71">
+      <c r="M71">
         <v>2016</v>
       </c>
-      <c r="L71">
+      <c r="N71">
         <v>2020</v>
       </c>
-      <c r="M71">
+      <c r="O71">
         <v>2017</v>
       </c>
-      <c r="N71">
+      <c r="P71">
         <v>2022</v>
       </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
+      <c r="Q71">
         <v>0</v>
       </c>
       <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="T71">
         <v>6.4100000000000004E-2</v>
       </c>
-      <c r="S71" t="s">
+      <c r="U71" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="72" spans="1:19" hidden="1">
+    <row r="72" spans="1:21">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -7083,41 +7339,44 @@
       <c r="D72" t="s">
         <v>137</v>
       </c>
-      <c r="E72" t="s">
+      <c r="G72" t="s">
         <v>144</v>
       </c>
-      <c r="I72">
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="K72">
         <v>0.7</v>
       </c>
-      <c r="J72">
+      <c r="L72">
         <v>0.44</v>
-      </c>
-      <c r="K72">
-        <v>2018</v>
-      </c>
-      <c r="L72">
-        <v>2020</v>
       </c>
       <c r="M72">
         <v>2018</v>
       </c>
       <c r="N72">
+        <v>2020</v>
+      </c>
+      <c r="O72">
+        <v>2018</v>
+      </c>
+      <c r="P72">
         <v>2023</v>
       </c>
-      <c r="O72">
+      <c r="Q72">
         <v>75067.919760266464</v>
       </c>
-      <c r="P72">
+      <c r="R72">
         <v>127151.08023973354</v>
       </c>
-      <c r="R72">
+      <c r="T72">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="S72" t="s">
+      <c r="U72" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="73" spans="1:19" hidden="1">
+    <row r="73" spans="1:21" hidden="1">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -7127,44 +7386,47 @@
       <c r="C73" t="s">
         <v>138</v>
       </c>
-      <c r="E73" t="s">
+      <c r="G73" t="s">
         <v>131</v>
       </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="H73">
+      <c r="H73" t="s">
+        <v>326</v>
+      </c>
+      <c r="I73">
         <v>1</v>
       </c>
       <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="L73">
         <v>0.8</v>
-      </c>
-      <c r="K73">
-        <v>2013</v>
-      </c>
-      <c r="L73">
-        <v>2040</v>
       </c>
       <c r="M73">
         <v>2013</v>
       </c>
       <c r="N73">
+        <v>2040</v>
+      </c>
+      <c r="O73">
+        <v>2013</v>
+      </c>
+      <c r="P73">
         <v>2024</v>
       </c>
-      <c r="O73">
+      <c r="Q73">
         <v>414564.67553031148</v>
       </c>
-      <c r="P73">
+      <c r="R73">
         <v>46637.324469688494</v>
       </c>
-      <c r="R73">
+      <c r="T73">
         <v>0.11220000000000001</v>
       </c>
-      <c r="S73" t="s">
+      <c r="U73" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="74" spans="1:19" hidden="1">
+    <row r="74" spans="1:21" hidden="1">
       <c r="A74" t="s">
         <v>88</v>
       </c>
@@ -7177,44 +7439,47 @@
       <c r="D74" t="s">
         <v>137</v>
       </c>
-      <c r="E74" t="s">
+      <c r="G74" t="s">
         <v>131</v>
       </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74">
+      <c r="H74" t="s">
+        <v>326</v>
+      </c>
+      <c r="I74">
         <v>1</v>
       </c>
       <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="L74">
         <v>0.31</v>
-      </c>
-      <c r="K74">
-        <v>2012</v>
-      </c>
-      <c r="L74">
-        <v>2040</v>
       </c>
       <c r="M74">
         <v>2012</v>
       </c>
       <c r="N74">
+        <v>2040</v>
+      </c>
+      <c r="O74">
+        <v>2012</v>
+      </c>
+      <c r="P74">
         <v>2019</v>
       </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74">
+      <c r="Q74">
         <v>0</v>
       </c>
       <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="T74">
         <v>0.22870000000000001</v>
       </c>
-      <c r="S74" t="s">
+      <c r="U74" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="75" spans="1:19" hidden="1">
+    <row r="75" spans="1:21" hidden="1">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -7224,23 +7489,20 @@
       <c r="C75" t="s">
         <v>138</v>
       </c>
-      <c r="E75" t="s">
+      <c r="G75" t="s">
         <v>131</v>
       </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75">
+      <c r="H75" t="s">
+        <v>326</v>
+      </c>
+      <c r="I75">
         <v>1</v>
       </c>
       <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="L75">
         <v>0.25</v>
-      </c>
-      <c r="K75">
-        <v>2013</v>
-      </c>
-      <c r="L75">
-        <v>2020</v>
       </c>
       <c r="M75">
         <v>2013</v>
@@ -7249,19 +7511,25 @@
         <v>2020</v>
       </c>
       <c r="O75">
+        <v>2013</v>
+      </c>
+      <c r="P75">
+        <v>2020</v>
+      </c>
+      <c r="Q75">
         <v>7639691.7527608704</v>
       </c>
-      <c r="P75">
+      <c r="R75">
         <v>10586808.24723913</v>
       </c>
-      <c r="R75">
+      <c r="T75">
         <v>0.28999999999999998</v>
       </c>
-      <c r="S75" t="s">
+      <c r="U75" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="76" spans="1:19" hidden="1">
+    <row r="76" spans="1:21" hidden="1">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -7274,44 +7542,47 @@
       <c r="D76" t="s">
         <v>137</v>
       </c>
-      <c r="E76" t="s">
+      <c r="G76" t="s">
         <v>131</v>
       </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76">
+      <c r="H76" t="s">
+        <v>326</v>
+      </c>
+      <c r="I76">
         <v>1</v>
       </c>
       <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="L76">
         <v>0.53</v>
-      </c>
-      <c r="K76">
-        <v>2012</v>
-      </c>
-      <c r="L76">
-        <v>2020</v>
       </c>
       <c r="M76">
         <v>2012</v>
       </c>
       <c r="N76">
+        <v>2020</v>
+      </c>
+      <c r="O76">
+        <v>2012</v>
+      </c>
+      <c r="P76">
         <v>2021</v>
       </c>
-      <c r="O76">
+      <c r="Q76">
         <v>69408.560333988455</v>
       </c>
-      <c r="P76">
+      <c r="R76">
         <v>101682.43966601155</v>
       </c>
-      <c r="R76">
+      <c r="T76">
         <v>0.28999999999999998</v>
       </c>
-      <c r="S76" t="s">
+      <c r="U76" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="77" spans="1:19" hidden="1">
+    <row r="77" spans="1:21" hidden="1">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -7324,44 +7595,47 @@
       <c r="D77" t="s">
         <v>137</v>
       </c>
-      <c r="E77" t="s">
+      <c r="G77" t="s">
         <v>131</v>
       </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
+      <c r="H77" t="s">
+        <v>326</v>
+      </c>
+      <c r="I77">
         <v>1</v>
       </c>
       <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="L77">
         <v>0.33</v>
       </c>
-      <c r="K77">
+      <c r="M77">
         <v>2014</v>
-      </c>
-      <c r="L77">
-        <v>2022</v>
-      </c>
-      <c r="M77">
-        <v>2015</v>
       </c>
       <c r="N77">
         <v>2022</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>2015</v>
       </c>
       <c r="P77">
+        <v>2022</v>
+      </c>
+      <c r="Q77">
         <v>0</v>
       </c>
       <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="T77">
         <v>0.34</v>
       </c>
-      <c r="S77" t="s">
+      <c r="U77" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:19" hidden="1">
+    <row r="78" spans="1:21" hidden="1">
       <c r="A78" t="s">
         <v>53</v>
       </c>
@@ -7374,44 +7648,47 @@
       <c r="D78" t="s">
         <v>137</v>
       </c>
-      <c r="E78" t="s">
+      <c r="G78" t="s">
         <v>131</v>
       </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
+      <c r="H78" t="s">
+        <v>326</v>
+      </c>
+      <c r="I78">
         <v>1</v>
       </c>
       <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="L78">
         <v>0.73</v>
       </c>
-      <c r="K78">
+      <c r="M78">
         <v>2014</v>
       </c>
-      <c r="L78">
+      <c r="N78">
         <v>2030</v>
       </c>
-      <c r="M78">
+      <c r="O78">
         <v>2018</v>
       </c>
-      <c r="N78">
+      <c r="P78">
         <v>2023</v>
       </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78">
+      <c r="Q78">
         <v>0</v>
       </c>
       <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="T78">
         <v>0.34</v>
       </c>
-      <c r="S78" t="s">
+      <c r="U78" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="79" spans="1:19" hidden="1">
+    <row r="79" spans="1:21">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -7421,41 +7698,44 @@
       <c r="C79" t="s">
         <v>138</v>
       </c>
-      <c r="E79" t="s">
+      <c r="G79" t="s">
         <v>144</v>
       </c>
-      <c r="I79">
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="K79">
         <v>0.95</v>
       </c>
-      <c r="J79">
+      <c r="L79">
         <v>0.97</v>
       </c>
-      <c r="K79">
+      <c r="M79">
         <v>2014</v>
       </c>
-      <c r="L79">
+      <c r="N79">
         <v>2022</v>
       </c>
-      <c r="M79">
+      <c r="O79">
         <v>2015</v>
       </c>
-      <c r="N79">
+      <c r="P79">
         <v>2024</v>
       </c>
-      <c r="O79">
+      <c r="Q79">
         <v>2794097.0730040986</v>
       </c>
-      <c r="P79">
+      <c r="R79">
         <v>544597.92699590151</v>
       </c>
-      <c r="R79">
+      <c r="T79">
         <v>0.84400000000000008</v>
       </c>
-      <c r="S79" t="s">
+      <c r="U79" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="80" spans="1:19" hidden="1">
+    <row r="80" spans="1:21">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -7468,47 +7748,50 @@
       <c r="D80" t="s">
         <v>137</v>
       </c>
-      <c r="E80" t="s">
+      <c r="G80" t="s">
         <v>134</v>
       </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
         <v>0.9</v>
       </c>
-      <c r="J80">
+      <c r="L80">
         <v>0.24</v>
       </c>
-      <c r="K80">
+      <c r="M80">
         <v>2014</v>
       </c>
-      <c r="L80">
+      <c r="N80">
         <v>2030</v>
       </c>
-      <c r="M80">
+      <c r="O80">
         <v>2018</v>
       </c>
-      <c r="N80">
+      <c r="P80">
         <v>2019</v>
       </c>
-      <c r="O80">
+      <c r="Q80">
         <v>2784330.1868065619</v>
       </c>
-      <c r="P80">
+      <c r="R80">
         <v>4565669.8131934376</v>
       </c>
-      <c r="R80">
+      <c r="T80">
         <v>0.85299999999999998</v>
       </c>
-      <c r="S80" t="s">
+      <c r="U80" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="81" spans="1:19" hidden="1">
+    <row r="81" spans="1:21" hidden="1">
       <c r="A81" t="s">
         <v>168</v>
       </c>
@@ -7521,44 +7804,47 @@
       <c r="D81" t="s">
         <v>137</v>
       </c>
-      <c r="E81" t="s">
+      <c r="G81" t="s">
         <v>131</v>
       </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
+      <c r="H81" t="s">
+        <v>326</v>
+      </c>
+      <c r="I81">
         <v>1</v>
       </c>
       <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="L81">
         <v>0.39</v>
       </c>
-      <c r="K81">
+      <c r="M81">
         <v>2016</v>
       </c>
-      <c r="L81">
+      <c r="N81">
         <v>2019</v>
       </c>
-      <c r="M81">
+      <c r="O81">
         <v>2017</v>
       </c>
-      <c r="N81">
+      <c r="P81">
         <v>2020</v>
       </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81">
+      <c r="Q81">
         <v>0</v>
       </c>
       <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="T81">
         <v>0.55670000000000008</v>
       </c>
-      <c r="S81" t="s">
+      <c r="U81" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="82" spans="1:19" hidden="1">
+    <row r="82" spans="1:21">
       <c r="A82" t="s">
         <v>169</v>
       </c>
@@ -7571,44 +7857,44 @@
       <c r="D82" t="s">
         <v>137</v>
       </c>
-      <c r="E82" t="s">
+      <c r="G82" t="s">
         <v>144</v>
       </c>
-      <c r="F82">
+      <c r="H82">
         <v>9</v>
       </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-      <c r="J82">
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
         <v>0.52</v>
       </c>
-      <c r="K82">
+      <c r="M82">
         <v>2016</v>
       </c>
-      <c r="L82">
+      <c r="N82">
         <v>2019</v>
       </c>
-      <c r="M82">
+      <c r="O82">
         <v>2017</v>
       </c>
-      <c r="N82">
+      <c r="P82">
         <v>2021</v>
       </c>
-      <c r="O82">
+      <c r="Q82">
         <v>89998.291471429999</v>
       </c>
-      <c r="P82">
+      <c r="R82">
         <v>75081.708528570001</v>
       </c>
-      <c r="R82">
-        <v>1</v>
-      </c>
-      <c r="S82" t="s">
+      <c r="T82">
+        <v>1</v>
+      </c>
+      <c r="U82" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="83" spans="1:19" hidden="1">
+    <row r="83" spans="1:21">
       <c r="A83" t="s">
         <v>170</v>
       </c>
@@ -7621,44 +7907,44 @@
       <c r="D83" t="s">
         <v>137</v>
       </c>
-      <c r="E83" t="s">
+      <c r="G83" t="s">
         <v>144</v>
       </c>
-      <c r="F83">
+      <c r="H83">
         <v>9</v>
       </c>
-      <c r="I83">
+      <c r="K83">
         <v>0.6</v>
       </c>
-      <c r="J83">
+      <c r="L83">
         <v>0.69000000000000006</v>
       </c>
-      <c r="K83">
+      <c r="M83">
         <v>2016</v>
       </c>
-      <c r="L83">
+      <c r="N83">
         <v>2021</v>
       </c>
-      <c r="M83">
+      <c r="O83">
         <v>2017</v>
       </c>
-      <c r="N83">
+      <c r="P83">
         <v>2022</v>
       </c>
-      <c r="O83">
+      <c r="Q83">
         <v>264761.8375622328</v>
       </c>
-      <c r="P83">
+      <c r="R83">
         <v>44578.162437767227</v>
       </c>
-      <c r="R83">
-        <v>1</v>
-      </c>
-      <c r="S83" t="s">
+      <c r="T83">
+        <v>1</v>
+      </c>
+      <c r="U83" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="84" spans="1:19" hidden="1">
+    <row r="84" spans="1:21">
       <c r="A84" t="s">
         <v>171</v>
       </c>
@@ -7671,44 +7957,44 @@
       <c r="D84" t="s">
         <v>137</v>
       </c>
-      <c r="E84" t="s">
+      <c r="G84" t="s">
         <v>144</v>
       </c>
-      <c r="F84">
+      <c r="H84">
         <v>9</v>
       </c>
-      <c r="I84">
+      <c r="K84">
         <v>0.95</v>
       </c>
-      <c r="J84">
+      <c r="L84">
         <v>0.78</v>
       </c>
-      <c r="K84">
+      <c r="M84">
         <v>2015</v>
       </c>
-      <c r="L84">
+      <c r="N84">
         <v>2019</v>
       </c>
-      <c r="M84">
+      <c r="O84">
         <v>2016</v>
       </c>
-      <c r="N84">
+      <c r="P84">
         <v>2023</v>
       </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84">
+      <c r="Q84">
         <v>0</v>
       </c>
       <c r="R84">
-        <v>1</v>
-      </c>
-      <c r="S84" t="s">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>1</v>
+      </c>
+      <c r="U84" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="85" spans="1:19" hidden="1">
+    <row r="85" spans="1:21" hidden="1">
       <c r="A85" t="s">
         <v>172</v>
       </c>
@@ -7718,44 +8004,47 @@
       <c r="C85" t="s">
         <v>138</v>
       </c>
-      <c r="E85" t="s">
+      <c r="G85" t="s">
         <v>131</v>
       </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
+      <c r="H85" t="s">
+        <v>326</v>
+      </c>
+      <c r="I85">
         <v>1</v>
       </c>
       <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="L85">
         <v>0.6</v>
       </c>
-      <c r="K85">
+      <c r="M85">
         <v>2005</v>
       </c>
-      <c r="L85">
+      <c r="N85">
         <v>2020</v>
       </c>
-      <c r="M85">
+      <c r="O85">
         <v>2015</v>
       </c>
-      <c r="N85">
+      <c r="P85">
         <v>2024</v>
       </c>
-      <c r="O85">
+      <c r="Q85">
         <v>6754871.390457835</v>
       </c>
-      <c r="P85">
+      <c r="R85">
         <v>595128.6095421646</v>
       </c>
-      <c r="R85">
-        <v>1</v>
-      </c>
-      <c r="S85" t="s">
+      <c r="T85">
+        <v>1</v>
+      </c>
+      <c r="U85" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="86" spans="1:19" hidden="1">
+    <row r="86" spans="1:21">
       <c r="A86" t="s">
         <v>173</v>
       </c>
@@ -7765,44 +8054,44 @@
       <c r="C86" t="s">
         <v>138</v>
       </c>
-      <c r="E86" t="s">
+      <c r="G86" t="s">
         <v>144</v>
       </c>
-      <c r="F86">
+      <c r="H86">
         <v>15</v>
       </c>
-      <c r="I86">
+      <c r="K86">
         <v>0.89270000000000005</v>
       </c>
-      <c r="J86">
+      <c r="L86">
         <v>0.70000000000000007</v>
       </c>
-      <c r="K86">
+      <c r="M86">
         <v>2005</v>
       </c>
-      <c r="L86">
+      <c r="N86">
         <v>2020</v>
       </c>
-      <c r="M86">
+      <c r="O86">
         <v>2015</v>
       </c>
-      <c r="N86">
+      <c r="P86">
         <v>2019</v>
       </c>
-      <c r="O86">
+      <c r="Q86">
         <v>25276.982031206586</v>
       </c>
-      <c r="P86">
+      <c r="R86">
         <v>87553.017968793414</v>
       </c>
-      <c r="R86">
-        <v>1</v>
-      </c>
-      <c r="S86" t="s">
+      <c r="T86">
+        <v>1</v>
+      </c>
+      <c r="U86" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="87" spans="1:19" hidden="1">
+    <row r="87" spans="1:21" hidden="1">
       <c r="A87" t="s">
         <v>174</v>
       </c>
@@ -7815,44 +8104,47 @@
       <c r="D87" t="s">
         <v>135</v>
       </c>
-      <c r="E87" t="s">
+      <c r="G87" t="s">
         <v>131</v>
       </c>
-      <c r="G87">
+      <c r="H87" t="s">
+        <v>326</v>
+      </c>
+      <c r="I87">
         <v>0.93100000000000005</v>
       </c>
-      <c r="H87">
+      <c r="J87">
         <v>0.93100000000000005</v>
       </c>
-      <c r="J87">
+      <c r="L87">
         <v>0.32</v>
       </c>
-      <c r="K87">
+      <c r="M87">
         <v>2013</v>
-      </c>
-      <c r="L87">
-        <v>2020</v>
-      </c>
-      <c r="M87">
-        <v>2014</v>
       </c>
       <c r="N87">
         <v>2020</v>
       </c>
       <c r="O87">
+        <v>2014</v>
+      </c>
+      <c r="P87">
+        <v>2020</v>
+      </c>
+      <c r="Q87">
         <v>4995419.6435817536</v>
       </c>
-      <c r="P87">
+      <c r="R87">
         <v>9904580.3564182464</v>
       </c>
-      <c r="R87">
-        <v>1</v>
-      </c>
-      <c r="S87" t="s">
+      <c r="T87">
+        <v>1</v>
+      </c>
+      <c r="U87" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="88" spans="1:19" hidden="1">
+    <row r="88" spans="1:21" hidden="1">
       <c r="A88" t="s">
         <v>175</v>
       </c>
@@ -7862,41 +8154,44 @@
       <c r="C88" t="s">
         <v>138</v>
       </c>
-      <c r="E88" t="s">
+      <c r="G88" t="s">
         <v>133</v>
       </c>
-      <c r="H88">
+      <c r="H88" t="s">
+        <v>326</v>
+      </c>
+      <c r="J88">
         <v>0.04</v>
       </c>
-      <c r="J88">
+      <c r="L88">
         <v>0.46</v>
       </c>
-      <c r="K88">
+      <c r="M88">
         <v>2010</v>
       </c>
-      <c r="L88">
+      <c r="N88">
         <v>2018</v>
       </c>
-      <c r="M88">
+      <c r="O88">
         <v>2011</v>
       </c>
-      <c r="N88">
+      <c r="P88">
         <v>2021</v>
       </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="P88">
+      <c r="Q88">
         <v>0</v>
       </c>
       <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="T88">
         <v>0.36700000000000005</v>
       </c>
-      <c r="S88" t="s">
+      <c r="U88" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="89" spans="1:19" hidden="1">
+    <row r="89" spans="1:21" hidden="1">
       <c r="A89" t="s">
         <v>177</v>
       </c>
@@ -7909,41 +8204,44 @@
       <c r="D89" t="s">
         <v>137</v>
       </c>
-      <c r="E89" t="s">
+      <c r="G89" t="s">
         <v>133</v>
       </c>
-      <c r="H89">
+      <c r="H89" t="s">
+        <v>326</v>
+      </c>
+      <c r="J89">
         <v>0.7</v>
       </c>
-      <c r="J89">
+      <c r="L89">
         <v>0.63</v>
       </c>
-      <c r="K89">
+      <c r="M89">
         <v>2010</v>
       </c>
-      <c r="L89">
+      <c r="N89">
         <v>2030</v>
       </c>
-      <c r="M89">
+      <c r="O89">
         <v>2015</v>
       </c>
-      <c r="N89">
+      <c r="P89">
         <v>2022</v>
       </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89">
+      <c r="Q89">
         <v>0</v>
       </c>
       <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="T89">
         <v>0.93</v>
       </c>
-      <c r="S89" t="s">
+      <c r="U89" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="90" spans="1:19" hidden="1">
+    <row r="90" spans="1:21" hidden="1">
       <c r="A90" t="s">
         <v>179</v>
       </c>
@@ -7953,41 +8251,44 @@
       <c r="C90" t="s">
         <v>138</v>
       </c>
-      <c r="E90" t="s">
+      <c r="G90" t="s">
         <v>140</v>
       </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="J90">
+      <c r="H90" t="s">
+        <v>326</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="L90">
         <v>0.57000000000000006</v>
       </c>
-      <c r="K90">
+      <c r="M90">
         <v>2010</v>
       </c>
-      <c r="L90">
+      <c r="N90">
         <v>2050</v>
       </c>
-      <c r="M90">
+      <c r="O90">
         <v>2015</v>
       </c>
-      <c r="N90">
+      <c r="P90">
         <v>2023</v>
       </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-      <c r="P90">
+      <c r="Q90">
         <v>0</v>
       </c>
       <c r="R90">
-        <v>1</v>
-      </c>
-      <c r="S90" t="s">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>1</v>
+      </c>
+      <c r="U90" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="91" spans="1:19" hidden="1">
+    <row r="91" spans="1:21" hidden="1">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -7997,41 +8298,44 @@
       <c r="C91" t="s">
         <v>138</v>
       </c>
-      <c r="E91" t="s">
+      <c r="G91" t="s">
         <v>133</v>
       </c>
-      <c r="H91">
-        <v>1</v>
+      <c r="H91" t="s">
+        <v>326</v>
       </c>
       <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="L91">
         <v>0.23</v>
       </c>
-      <c r="K91">
+      <c r="M91">
         <v>2005</v>
       </c>
-      <c r="L91">
+      <c r="N91">
         <v>2019</v>
       </c>
-      <c r="M91">
+      <c r="O91">
         <v>2015</v>
       </c>
-      <c r="N91">
+      <c r="P91">
         <v>2024</v>
       </c>
-      <c r="O91">
+      <c r="Q91">
         <v>86188.973721744012</v>
       </c>
-      <c r="P91">
+      <c r="R91">
         <v>24078.026278255991</v>
       </c>
-      <c r="R91">
-        <v>1</v>
-      </c>
-      <c r="S91" t="s">
+      <c r="T91">
+        <v>1</v>
+      </c>
+      <c r="U91" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="92" spans="1:19" hidden="1">
+    <row r="92" spans="1:21" hidden="1">
       <c r="A92" t="s">
         <v>180</v>
       </c>
@@ -8041,41 +8345,44 @@
       <c r="C92" t="s">
         <v>138</v>
       </c>
-      <c r="E92" t="s">
+      <c r="G92" t="s">
         <v>140</v>
       </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="J92">
+      <c r="H92" t="s">
+        <v>326</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="L92">
         <v>0.52</v>
       </c>
-      <c r="K92">
+      <c r="M92">
         <v>2006</v>
-      </c>
-      <c r="L92">
-        <v>2019</v>
-      </c>
-      <c r="M92">
-        <v>2015</v>
       </c>
       <c r="N92">
         <v>2019</v>
       </c>
       <c r="O92">
+        <v>2015</v>
+      </c>
+      <c r="P92">
+        <v>2019</v>
+      </c>
+      <c r="Q92">
         <v>157300.227918088</v>
       </c>
-      <c r="P92">
+      <c r="R92">
         <v>256065.772081912</v>
       </c>
-      <c r="R92">
-        <v>1</v>
-      </c>
-      <c r="S92" t="s">
+      <c r="T92">
+        <v>1</v>
+      </c>
+      <c r="U92" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="93" spans="1:19" hidden="1">
+    <row r="93" spans="1:21" hidden="1">
       <c r="A93" t="s">
         <v>180</v>
       </c>
@@ -8085,41 +8392,44 @@
       <c r="C93" t="s">
         <v>138</v>
       </c>
-      <c r="E93" t="s">
+      <c r="G93" t="s">
         <v>133</v>
       </c>
-      <c r="H93">
-        <v>1</v>
+      <c r="H93" t="s">
+        <v>326</v>
       </c>
       <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="L93">
         <v>0.71</v>
       </c>
-      <c r="K93">
+      <c r="M93">
         <v>2017</v>
       </c>
-      <c r="L93">
+      <c r="N93">
         <v>2018</v>
       </c>
-      <c r="M93">
+      <c r="O93">
         <v>2018</v>
       </c>
-      <c r="N93">
+      <c r="P93">
         <v>2020</v>
       </c>
-      <c r="O93">
+      <c r="Q93">
         <v>76119.155977881208</v>
       </c>
-      <c r="P93">
+      <c r="R93">
         <v>34147.844022118792</v>
       </c>
-      <c r="R93">
+      <c r="T93">
         <v>0.13</v>
       </c>
-      <c r="S93" t="s">
+      <c r="U93" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="94" spans="1:19" hidden="1">
+    <row r="94" spans="1:21" hidden="1">
       <c r="A94" t="s">
         <v>183</v>
       </c>
@@ -8129,44 +8439,47 @@
       <c r="C94" t="s">
         <v>138</v>
       </c>
-      <c r="E94" t="s">
+      <c r="G94" t="s">
         <v>131</v>
       </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94">
+      <c r="H94" t="s">
+        <v>326</v>
+      </c>
+      <c r="I94">
         <v>1</v>
       </c>
       <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="L94">
         <v>0.66</v>
       </c>
-      <c r="K94">
+      <c r="M94">
         <v>2005</v>
-      </c>
-      <c r="L94">
-        <v>2021</v>
-      </c>
-      <c r="M94">
-        <v>2016</v>
       </c>
       <c r="N94">
         <v>2021</v>
       </c>
       <c r="O94">
+        <v>2016</v>
+      </c>
+      <c r="P94">
+        <v>2021</v>
+      </c>
+      <c r="Q94">
         <v>50287.328437504606</v>
       </c>
-      <c r="P94">
+      <c r="R94">
         <v>363078.67156249541</v>
       </c>
-      <c r="R94">
-        <v>1</v>
-      </c>
-      <c r="S94" t="s">
+      <c r="T94">
+        <v>1</v>
+      </c>
+      <c r="U94" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="95" spans="1:19" hidden="1">
+    <row r="95" spans="1:21" hidden="1">
       <c r="A95" t="s">
         <v>121</v>
       </c>
@@ -8176,44 +8489,47 @@
       <c r="C95" t="s">
         <v>138</v>
       </c>
-      <c r="E95" t="s">
+      <c r="G95" t="s">
         <v>131</v>
       </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-      <c r="H95">
+      <c r="H95" t="s">
+        <v>326</v>
+      </c>
+      <c r="I95">
         <v>1</v>
       </c>
       <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="L95">
         <v>0.3</v>
-      </c>
-      <c r="K95">
-        <v>2015</v>
-      </c>
-      <c r="L95">
-        <v>2020</v>
       </c>
       <c r="M95">
         <v>2015</v>
       </c>
       <c r="N95">
+        <v>2020</v>
+      </c>
+      <c r="O95">
+        <v>2015</v>
+      </c>
+      <c r="P95">
         <v>2022</v>
       </c>
-      <c r="O95">
+      <c r="Q95">
         <v>220221.12183529223</v>
       </c>
-      <c r="P95">
+      <c r="R95">
         <v>310630.27816470782</v>
       </c>
-      <c r="R95">
-        <v>0</v>
-      </c>
-      <c r="S95" t="s">
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="96" spans="1:19" hidden="1">
+    <row r="96" spans="1:21" hidden="1">
       <c r="A96" t="s">
         <v>167</v>
       </c>
@@ -8226,44 +8542,47 @@
       <c r="D96" t="s">
         <v>137</v>
       </c>
-      <c r="E96" t="s">
+      <c r="G96" t="s">
         <v>131</v>
       </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-      <c r="H96">
+      <c r="H96" t="s">
+        <v>326</v>
+      </c>
+      <c r="I96">
         <v>1</v>
       </c>
       <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="L96">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K96">
+      <c r="M96">
         <v>2008</v>
       </c>
-      <c r="L96">
+      <c r="N96">
         <v>2030</v>
       </c>
-      <c r="M96">
+      <c r="O96">
         <v>2015</v>
       </c>
-      <c r="N96">
+      <c r="P96">
         <v>2023</v>
       </c>
-      <c r="O96">
+      <c r="Q96">
         <v>152767.86090478685</v>
       </c>
-      <c r="P96">
+      <c r="R96">
         <v>378083.53909521317</v>
       </c>
-      <c r="R96">
-        <v>0</v>
-      </c>
-      <c r="S96" t="s">
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="97" spans="1:19" hidden="1">
+    <row r="97" spans="1:21" hidden="1">
       <c r="A97" t="s">
         <v>168</v>
       </c>
@@ -8276,44 +8595,47 @@
       <c r="D97" t="s">
         <v>137</v>
       </c>
-      <c r="E97" t="s">
+      <c r="G97" t="s">
         <v>131</v>
       </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97">
+      <c r="H97" t="s">
+        <v>326</v>
+      </c>
+      <c r="I97">
         <v>1</v>
       </c>
       <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="L97">
         <v>0.57000000000000006</v>
-      </c>
-      <c r="K97">
-        <v>2013</v>
-      </c>
-      <c r="L97">
-        <v>2030</v>
       </c>
       <c r="M97">
         <v>2013</v>
       </c>
       <c r="N97">
+        <v>2030</v>
+      </c>
+      <c r="O97">
+        <v>2013</v>
+      </c>
+      <c r="P97">
         <v>2024</v>
       </c>
-      <c r="O97">
+      <c r="Q97">
         <v>523303.09094109439</v>
       </c>
-      <c r="P97">
+      <c r="R97">
         <v>7548.309058905611</v>
       </c>
-      <c r="R97">
-        <v>1</v>
-      </c>
-      <c r="S97" t="s">
+      <c r="T97">
+        <v>1</v>
+      </c>
+      <c r="U97" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="98" spans="1:19" hidden="1">
+    <row r="98" spans="1:21" hidden="1">
       <c r="A98" t="s">
         <v>169</v>
       </c>
@@ -8323,41 +8645,44 @@
       <c r="C98" t="s">
         <v>138</v>
       </c>
-      <c r="E98" t="s">
+      <c r="G98" t="s">
         <v>140</v>
       </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="J98">
+      <c r="H98" t="s">
+        <v>326</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="L98">
         <v>0.38</v>
       </c>
-      <c r="K98">
+      <c r="M98">
         <v>2013</v>
       </c>
-      <c r="L98">
+      <c r="N98">
         <v>2050</v>
       </c>
-      <c r="M98">
+      <c r="O98">
         <v>2017</v>
       </c>
-      <c r="N98">
+      <c r="P98">
         <v>2019</v>
       </c>
-      <c r="O98">
+      <c r="Q98">
         <v>388368.40900136431</v>
       </c>
-      <c r="P98">
+      <c r="R98">
         <v>142482.99099863574</v>
       </c>
-      <c r="R98">
-        <v>1</v>
-      </c>
-      <c r="S98" t="s">
+      <c r="T98">
+        <v>1</v>
+      </c>
+      <c r="U98" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="99" spans="1:19" hidden="1">
+    <row r="99" spans="1:21" hidden="1">
       <c r="A99" t="s">
         <v>169</v>
       </c>
@@ -8367,41 +8692,44 @@
       <c r="C99" t="s">
         <v>138</v>
       </c>
-      <c r="E99" t="s">
+      <c r="G99" t="s">
         <v>133</v>
       </c>
-      <c r="H99">
-        <v>1</v>
+      <c r="H99" t="s">
+        <v>326</v>
       </c>
       <c r="J99">
         <v>1</v>
       </c>
-      <c r="K99">
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
         <v>2011</v>
-      </c>
-      <c r="L99">
-        <v>2020</v>
-      </c>
-      <c r="M99">
-        <v>2016</v>
       </c>
       <c r="N99">
         <v>2020</v>
       </c>
       <c r="O99">
+        <v>2016</v>
+      </c>
+      <c r="P99">
+        <v>2020</v>
+      </c>
+      <c r="Q99">
         <v>19905.125464660872</v>
       </c>
-      <c r="P99">
+      <c r="R99">
         <v>18145.874535339128</v>
       </c>
-      <c r="R99">
+      <c r="T99">
         <v>0.82000000000000006</v>
       </c>
-      <c r="S99" t="s">
+      <c r="U99" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="100" spans="1:19" hidden="1">
+    <row r="100" spans="1:21" hidden="1">
       <c r="A100" t="s">
         <v>171</v>
       </c>
@@ -8414,44 +8742,47 @@
       <c r="D100" t="s">
         <v>137</v>
       </c>
-      <c r="E100" t="s">
+      <c r="G100" t="s">
         <v>131</v>
       </c>
-      <c r="G100">
+      <c r="H100" t="s">
+        <v>326</v>
+      </c>
+      <c r="I100">
         <v>0.87</v>
       </c>
-      <c r="H100">
+      <c r="J100">
         <v>0.87</v>
       </c>
-      <c r="J100">
+      <c r="L100">
         <v>0.63</v>
       </c>
-      <c r="K100">
+      <c r="M100">
         <v>2011</v>
       </c>
-      <c r="L100">
+      <c r="N100">
         <v>2020</v>
       </c>
-      <c r="M100">
+      <c r="O100">
         <v>2016</v>
       </c>
-      <c r="N100">
+      <c r="P100">
         <v>2021</v>
       </c>
-      <c r="O100">
+      <c r="Q100">
         <v>133558.90949356617</v>
       </c>
-      <c r="P100">
+      <c r="R100">
         <v>85549.090506433844</v>
       </c>
-      <c r="R100">
-        <v>1</v>
-      </c>
-      <c r="S100" t="s">
+      <c r="T100">
+        <v>1</v>
+      </c>
+      <c r="U100" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="101" spans="1:19" hidden="1">
+    <row r="101" spans="1:21">
       <c r="A101" t="s">
         <v>172</v>
       </c>
@@ -8461,44 +8792,44 @@
       <c r="C101" t="s">
         <v>136</v>
       </c>
-      <c r="E101" t="s">
+      <c r="G101" t="s">
         <v>144</v>
       </c>
-      <c r="F101">
+      <c r="H101">
         <v>6</v>
       </c>
-      <c r="I101">
-        <v>1</v>
-      </c>
-      <c r="J101">
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
         <v>0.79</v>
       </c>
-      <c r="K101">
+      <c r="M101">
         <v>2016</v>
       </c>
-      <c r="L101">
+      <c r="N101">
         <v>2019</v>
       </c>
-      <c r="M101">
+      <c r="O101">
         <v>2017</v>
       </c>
-      <c r="N101">
+      <c r="P101">
         <v>2022</v>
       </c>
-      <c r="O101">
+      <c r="Q101">
         <v>103544.86251166406</v>
       </c>
-      <c r="P101">
+      <c r="R101">
         <v>153614.13748833592</v>
       </c>
-      <c r="R101">
-        <v>1</v>
-      </c>
-      <c r="S101" t="s">
+      <c r="T101">
+        <v>1</v>
+      </c>
+      <c r="U101" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="102" spans="1:19" hidden="1">
+    <row r="102" spans="1:21" hidden="1">
       <c r="A102" t="s">
         <v>173</v>
       </c>
@@ -8508,44 +8839,47 @@
       <c r="C102" t="s">
         <v>138</v>
       </c>
-      <c r="E102" t="s">
+      <c r="G102" t="s">
         <v>131</v>
       </c>
-      <c r="G102">
+      <c r="H102" t="s">
+        <v>326</v>
+      </c>
+      <c r="I102">
         <v>0.27</v>
       </c>
-      <c r="H102">
+      <c r="J102">
         <v>0.27</v>
       </c>
-      <c r="J102">
+      <c r="L102">
         <v>0.68</v>
       </c>
-      <c r="K102">
+      <c r="M102">
         <v>2016</v>
       </c>
-      <c r="L102">
+      <c r="N102">
         <v>2019</v>
       </c>
-      <c r="M102">
+      <c r="O102">
         <v>2017</v>
       </c>
-      <c r="N102">
+      <c r="P102">
         <v>2023</v>
       </c>
-      <c r="O102">
-        <v>0</v>
-      </c>
-      <c r="P102">
+      <c r="Q102">
         <v>0</v>
       </c>
       <c r="R102">
-        <v>1</v>
-      </c>
-      <c r="S102" t="s">
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <v>1</v>
+      </c>
+      <c r="U102" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="103" spans="1:19" hidden="1">
+    <row r="103" spans="1:21" hidden="1">
       <c r="A103" t="s">
         <v>174</v>
       </c>
@@ -8558,44 +8892,47 @@
       <c r="D103" t="s">
         <v>137</v>
       </c>
-      <c r="E103" t="s">
+      <c r="G103" t="s">
         <v>131</v>
       </c>
-      <c r="G103">
-        <v>1</v>
-      </c>
-      <c r="H103">
+      <c r="H103" t="s">
+        <v>326</v>
+      </c>
+      <c r="I103">
         <v>1</v>
       </c>
       <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="L103">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K103">
+      <c r="M103">
         <v>2016</v>
       </c>
-      <c r="L103">
+      <c r="N103">
         <v>2019</v>
       </c>
-      <c r="M103">
+      <c r="O103">
         <v>2017</v>
       </c>
-      <c r="N103">
+      <c r="P103">
         <v>2024</v>
       </c>
-      <c r="O103">
-        <v>0</v>
-      </c>
-      <c r="P103">
+      <c r="Q103">
         <v>0</v>
       </c>
       <c r="R103">
         <v>0</v>
       </c>
-      <c r="S103" t="s">
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="104" spans="1:19" hidden="1">
+    <row r="104" spans="1:21" hidden="1">
       <c r="A104" t="s">
         <v>175</v>
       </c>
@@ -8608,44 +8945,47 @@
       <c r="D104" t="s">
         <v>137</v>
       </c>
-      <c r="E104" t="s">
+      <c r="G104" t="s">
         <v>131</v>
       </c>
-      <c r="G104">
-        <v>1</v>
-      </c>
-      <c r="H104">
+      <c r="H104" t="s">
+        <v>326</v>
+      </c>
+      <c r="I104">
         <v>1</v>
       </c>
       <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="L104">
         <v>0.64</v>
       </c>
-      <c r="K104">
+      <c r="M104">
         <v>2016</v>
-      </c>
-      <c r="L104">
-        <v>2019</v>
-      </c>
-      <c r="M104">
-        <v>2017</v>
       </c>
       <c r="N104">
         <v>2019</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>2017</v>
       </c>
       <c r="P104">
+        <v>2019</v>
+      </c>
+      <c r="Q104">
         <v>0</v>
       </c>
       <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="T104">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="S104" t="s">
+      <c r="U104" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="105" spans="1:19" hidden="1">
+    <row r="105" spans="1:21">
       <c r="A105" t="s">
         <v>176</v>
       </c>
@@ -8658,44 +8998,44 @@
       <c r="D105" t="s">
         <v>137</v>
       </c>
-      <c r="E105" t="s">
+      <c r="G105" t="s">
         <v>144</v>
       </c>
-      <c r="F105">
+      <c r="H105">
         <v>11</v>
       </c>
-      <c r="I105">
+      <c r="K105">
         <v>0.44</v>
       </c>
-      <c r="J105">
+      <c r="L105">
         <v>0.45</v>
       </c>
-      <c r="K105">
+      <c r="M105">
         <v>2012</v>
       </c>
-      <c r="L105">
+      <c r="N105">
         <v>2030</v>
       </c>
-      <c r="M105">
+      <c r="O105">
         <v>2015</v>
       </c>
-      <c r="N105">
+      <c r="P105">
         <v>2020</v>
       </c>
-      <c r="O105">
+      <c r="Q105">
         <v>248965.63534281132</v>
       </c>
-      <c r="P105">
+      <c r="R105">
         <v>32411.364657188678</v>
       </c>
-      <c r="R105">
+      <c r="T105">
         <v>0.70000000000000007</v>
       </c>
-      <c r="S105" t="s">
+      <c r="U105" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="106" spans="1:19" hidden="1">
+    <row r="106" spans="1:21" hidden="1">
       <c r="A106" t="s">
         <v>177</v>
       </c>
@@ -8708,44 +9048,47 @@
       <c r="D106" t="s">
         <v>137</v>
       </c>
-      <c r="E106" t="s">
+      <c r="G106" t="s">
         <v>131</v>
       </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
-      <c r="H106">
+      <c r="H106" t="s">
+        <v>326</v>
+      </c>
+      <c r="I106">
         <v>1</v>
       </c>
       <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="L106">
         <v>0.65</v>
       </c>
-      <c r="K106">
+      <c r="M106">
         <v>2010</v>
       </c>
-      <c r="L106">
+      <c r="N106">
         <v>2030</v>
       </c>
-      <c r="M106">
+      <c r="O106">
         <v>2015</v>
       </c>
-      <c r="N106">
+      <c r="P106">
         <v>2021</v>
       </c>
-      <c r="O106">
-        <v>0</v>
-      </c>
-      <c r="P106">
+      <c r="Q106">
         <v>0</v>
       </c>
       <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="T106">
         <v>0.61</v>
       </c>
-      <c r="S106" t="s">
+      <c r="U106" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="107" spans="1:19" hidden="1">
+    <row r="107" spans="1:21" hidden="1">
       <c r="A107" t="s">
         <v>178</v>
       </c>
@@ -8755,44 +9098,47 @@
       <c r="C107" t="s">
         <v>138</v>
       </c>
-      <c r="E107" t="s">
+      <c r="G107" t="s">
         <v>131</v>
       </c>
-      <c r="G107">
+      <c r="H107" t="s">
+        <v>326</v>
+      </c>
+      <c r="I107">
         <v>0.94</v>
       </c>
-      <c r="H107">
+      <c r="J107">
         <v>0.94</v>
       </c>
-      <c r="J107">
+      <c r="L107">
         <v>0.27</v>
       </c>
-      <c r="K107">
+      <c r="M107">
         <v>2000</v>
       </c>
-      <c r="L107">
+      <c r="N107">
         <v>2020</v>
       </c>
-      <c r="M107">
+      <c r="O107">
         <v>2015</v>
       </c>
-      <c r="N107">
+      <c r="P107">
         <v>2022</v>
       </c>
-      <c r="O107">
+      <c r="Q107">
         <v>542898.8931382685</v>
       </c>
-      <c r="P107">
+      <c r="R107">
         <v>903665.1068617315</v>
       </c>
-      <c r="R107">
+      <c r="T107">
         <v>0.69000000000000006</v>
       </c>
-      <c r="S107" t="s">
+      <c r="U107" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="108" spans="1:19" hidden="1">
+    <row r="108" spans="1:21" hidden="1">
       <c r="A108" t="s">
         <v>179</v>
       </c>
@@ -8802,44 +9148,47 @@
       <c r="C108" t="s">
         <v>138</v>
       </c>
-      <c r="E108" t="s">
+      <c r="G108" t="s">
         <v>131</v>
       </c>
-      <c r="G108">
+      <c r="H108" t="s">
+        <v>326</v>
+      </c>
+      <c r="I108">
         <v>0.94</v>
       </c>
-      <c r="H108">
+      <c r="J108">
         <v>0.94</v>
       </c>
-      <c r="J108">
+      <c r="L108">
         <v>0.54</v>
       </c>
-      <c r="K108">
+      <c r="M108">
         <v>2000</v>
       </c>
-      <c r="L108">
+      <c r="N108">
         <v>2030</v>
       </c>
-      <c r="M108">
+      <c r="O108">
         <v>2015</v>
       </c>
-      <c r="N108">
+      <c r="P108">
         <v>2023</v>
       </c>
-      <c r="O108">
+      <c r="Q108">
         <v>1738037.0663147885</v>
       </c>
-      <c r="P108">
+      <c r="R108">
         <v>2019021.9336852115</v>
       </c>
-      <c r="R108">
+      <c r="T108">
         <v>0.55000000000000004</v>
       </c>
-      <c r="S108" t="s">
+      <c r="U108" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="109" spans="1:19" hidden="1">
+    <row r="109" spans="1:21" hidden="1">
       <c r="A109" t="s">
         <v>180</v>
       </c>
@@ -8852,44 +9201,47 @@
       <c r="D109" t="s">
         <v>137</v>
       </c>
-      <c r="E109" t="s">
+      <c r="G109" t="s">
         <v>131</v>
       </c>
-      <c r="G109">
+      <c r="H109" t="s">
+        <v>326</v>
+      </c>
+      <c r="I109">
         <v>0.94</v>
       </c>
-      <c r="H109">
+      <c r="J109">
         <v>0.94</v>
       </c>
-      <c r="J109">
+      <c r="L109">
         <v>0.43</v>
       </c>
-      <c r="K109">
+      <c r="M109">
         <v>2010</v>
       </c>
-      <c r="L109">
+      <c r="N109">
         <v>2020</v>
       </c>
-      <c r="M109">
+      <c r="O109">
         <v>2015</v>
       </c>
-      <c r="N109">
+      <c r="P109">
         <v>2024</v>
       </c>
-      <c r="O109">
+      <c r="Q109">
         <v>1353813.9178252162</v>
       </c>
-      <c r="P109">
+      <c r="R109">
         <v>2403245.0821747836</v>
       </c>
-      <c r="R109">
+      <c r="T109">
         <v>0.57020000000000004</v>
       </c>
-      <c r="S109" t="s">
+      <c r="U109" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:21">
       <c r="A110" t="s">
         <v>181</v>
       </c>
@@ -8902,44 +9254,44 @@
       <c r="D110" t="s">
         <v>137</v>
       </c>
-      <c r="E110" t="s">
+      <c r="G110" t="s">
         <v>144</v>
       </c>
-      <c r="F110">
+      <c r="H110">
         <v>15</v>
       </c>
-      <c r="I110">
-        <v>1</v>
-      </c>
-      <c r="J110">
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
         <v>0.62</v>
       </c>
-      <c r="K110">
+      <c r="M110">
         <v>2010</v>
       </c>
-      <c r="L110">
+      <c r="N110">
         <v>2030</v>
       </c>
-      <c r="M110">
+      <c r="O110">
         <v>2015</v>
       </c>
-      <c r="N110">
+      <c r="P110">
         <v>2019</v>
       </c>
-      <c r="O110">
-        <v>0</v>
-      </c>
-      <c r="P110">
+      <c r="Q110">
         <v>0</v>
       </c>
       <c r="R110">
-        <v>1</v>
-      </c>
-      <c r="S110" t="s">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>1</v>
+      </c>
+      <c r="U110" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="111" spans="1:19" hidden="1">
+    <row r="111" spans="1:21" hidden="1">
       <c r="A111" t="s">
         <v>183</v>
       </c>
@@ -8952,41 +9304,44 @@
       <c r="D111" t="s">
         <v>135</v>
       </c>
-      <c r="E111" t="s">
+      <c r="G111" t="s">
         <v>140</v>
       </c>
-      <c r="G111">
+      <c r="H111" t="s">
+        <v>326</v>
+      </c>
+      <c r="I111">
         <v>0.99</v>
       </c>
-      <c r="J111">
+      <c r="L111">
         <v>0.72</v>
       </c>
-      <c r="K111">
+      <c r="M111">
         <v>2014</v>
       </c>
-      <c r="L111">
+      <c r="N111">
         <v>2030</v>
       </c>
-      <c r="M111">
+      <c r="O111">
         <v>2016</v>
       </c>
-      <c r="N111">
+      <c r="P111">
         <v>2020</v>
       </c>
-      <c r="O111">
-        <v>0</v>
-      </c>
-      <c r="P111">
+      <c r="Q111">
         <v>0</v>
       </c>
       <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="T111">
         <v>0.88300000000000001</v>
       </c>
-      <c r="S111" t="s">
+      <c r="U111" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="112" spans="1:19" hidden="1">
+    <row r="112" spans="1:21" hidden="1">
       <c r="A112" t="s">
         <v>83</v>
       </c>
@@ -8996,44 +9351,47 @@
       <c r="C112" t="s">
         <v>138</v>
       </c>
-      <c r="E112" t="s">
+      <c r="G112" t="s">
         <v>131</v>
       </c>
-      <c r="G112">
-        <v>1</v>
-      </c>
-      <c r="H112">
+      <c r="H112" t="s">
+        <v>326</v>
+      </c>
+      <c r="I112">
         <v>1</v>
       </c>
       <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="L112">
         <v>0.59</v>
       </c>
-      <c r="K112">
+      <c r="M112">
         <v>2014</v>
       </c>
-      <c r="L112">
+      <c r="N112">
         <v>2020</v>
       </c>
-      <c r="M112">
+      <c r="O112">
         <v>2016</v>
       </c>
-      <c r="N112">
+      <c r="P112">
         <v>2021</v>
       </c>
-      <c r="O112">
+      <c r="Q112">
         <v>4253357.6841606703</v>
       </c>
-      <c r="P112">
+      <c r="R112">
         <v>5127493.4858393297</v>
       </c>
-      <c r="R112">
-        <v>1</v>
-      </c>
-      <c r="S112" t="s">
+      <c r="T112">
+        <v>1</v>
+      </c>
+      <c r="U112" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="113" spans="1:19" hidden="1">
+    <row r="113" spans="1:21">
       <c r="A113" t="s">
         <v>85</v>
       </c>
@@ -9046,44 +9404,44 @@
       <c r="D113" t="s">
         <v>135</v>
       </c>
-      <c r="E113" t="s">
+      <c r="G113" t="s">
         <v>144</v>
       </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
-      <c r="J113">
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
         <v>0.56000000000000005</v>
       </c>
-      <c r="K113">
+      <c r="M113">
         <v>2016</v>
       </c>
-      <c r="L113">
+      <c r="N113">
         <v>2019</v>
       </c>
-      <c r="M113">
+      <c r="O113">
         <v>2017</v>
       </c>
-      <c r="N113">
+      <c r="P113">
         <v>2022</v>
       </c>
-      <c r="O113">
-        <v>0</v>
-      </c>
-      <c r="P113">
+      <c r="Q113">
         <v>0</v>
       </c>
       <c r="R113">
-        <v>1</v>
-      </c>
-      <c r="S113" t="s">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>1</v>
+      </c>
+      <c r="U113" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="114" spans="1:19" hidden="1">
+    <row r="114" spans="1:21" hidden="1">
       <c r="A114" t="s">
         <v>88</v>
       </c>
@@ -9093,44 +9451,47 @@
       <c r="C114" t="s">
         <v>138</v>
       </c>
-      <c r="E114" t="s">
+      <c r="G114" t="s">
         <v>131</v>
       </c>
-      <c r="G114">
+      <c r="H114" t="s">
+        <v>326</v>
+      </c>
+      <c r="I114">
         <v>0.99</v>
       </c>
-      <c r="H114">
+      <c r="J114">
         <v>0.99</v>
       </c>
-      <c r="J114">
+      <c r="L114">
         <v>0.37</v>
       </c>
-      <c r="K114">
+      <c r="M114">
         <v>2017</v>
       </c>
-      <c r="L114">
+      <c r="N114">
         <v>2018</v>
       </c>
-      <c r="M114">
+      <c r="O114">
         <v>2018</v>
       </c>
-      <c r="N114">
+      <c r="P114">
         <v>2023</v>
       </c>
-      <c r="O114">
-        <v>0</v>
-      </c>
-      <c r="P114">
+      <c r="Q114">
         <v>0</v>
       </c>
       <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="T114">
         <v>1.52E-2</v>
       </c>
-      <c r="S114" t="s">
+      <c r="U114" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="115" spans="1:19" hidden="1">
+    <row r="115" spans="1:21" hidden="1">
       <c r="A115" t="s">
         <v>90</v>
       </c>
@@ -9140,44 +9501,47 @@
       <c r="C115" t="s">
         <v>138</v>
       </c>
-      <c r="E115" t="s">
+      <c r="G115" t="s">
         <v>131</v>
       </c>
-      <c r="G115">
-        <v>1</v>
-      </c>
-      <c r="H115">
+      <c r="H115" t="s">
+        <v>326</v>
+      </c>
+      <c r="I115">
         <v>1</v>
       </c>
       <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="L115">
         <v>0.35000000000000003</v>
       </c>
-      <c r="K115">
+      <c r="M115">
         <v>2017</v>
       </c>
-      <c r="L115">
+      <c r="N115">
         <v>2018</v>
       </c>
-      <c r="M115">
+      <c r="O115">
         <v>2018</v>
       </c>
-      <c r="N115">
+      <c r="P115">
         <v>2024</v>
       </c>
-      <c r="O115">
-        <v>0</v>
-      </c>
-      <c r="P115">
+      <c r="Q115">
         <v>0</v>
       </c>
       <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="T115">
         <v>1.24E-2</v>
       </c>
-      <c r="S115" t="s">
+      <c r="U115" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="116" spans="1:19" hidden="1">
+    <row r="116" spans="1:21" hidden="1">
       <c r="A116" t="s">
         <v>81</v>
       </c>
@@ -9187,44 +9551,47 @@
       <c r="C116" t="s">
         <v>138</v>
       </c>
-      <c r="E116" t="s">
+      <c r="G116" t="s">
         <v>131</v>
       </c>
-      <c r="G116">
+      <c r="H116" t="s">
+        <v>326</v>
+      </c>
+      <c r="I116">
         <v>0.66839999999999999</v>
       </c>
-      <c r="H116">
+      <c r="J116">
         <v>0.66839999999999999</v>
       </c>
-      <c r="J116">
+      <c r="L116">
         <v>0.81</v>
       </c>
-      <c r="K116">
+      <c r="M116">
         <v>2017</v>
       </c>
-      <c r="L116">
+      <c r="N116">
         <v>2027</v>
       </c>
-      <c r="M116">
+      <c r="O116">
         <v>2018</v>
       </c>
-      <c r="N116">
+      <c r="P116">
         <v>2019</v>
       </c>
-      <c r="O116">
-        <v>0</v>
-      </c>
-      <c r="P116">
+      <c r="Q116">
         <v>0</v>
       </c>
       <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="T116">
         <v>0.25</v>
       </c>
-      <c r="S116" t="s">
+      <c r="U116" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="117" spans="1:19" hidden="1">
+    <row r="117" spans="1:21" hidden="1">
       <c r="A117" t="s">
         <v>83</v>
       </c>
@@ -9237,44 +9604,47 @@
       <c r="D117" t="s">
         <v>135</v>
       </c>
-      <c r="E117" t="s">
+      <c r="G117" t="s">
         <v>131</v>
       </c>
-      <c r="G117">
+      <c r="H117" t="s">
+        <v>326</v>
+      </c>
+      <c r="I117">
         <v>0.2024</v>
       </c>
-      <c r="H117">
+      <c r="J117">
         <v>0.2024</v>
       </c>
-      <c r="J117">
+      <c r="L117">
         <v>0.67</v>
       </c>
-      <c r="K117">
+      <c r="M117">
         <v>2017</v>
       </c>
-      <c r="L117">
+      <c r="N117">
         <v>2027</v>
       </c>
-      <c r="M117">
+      <c r="O117">
         <v>2018</v>
       </c>
-      <c r="N117">
+      <c r="P117">
         <v>2020</v>
       </c>
-      <c r="O117">
-        <v>0</v>
-      </c>
-      <c r="P117">
+      <c r="Q117">
         <v>0</v>
       </c>
       <c r="R117">
+        <v>0</v>
+      </c>
+      <c r="T117">
         <v>0.154</v>
       </c>
-      <c r="S117" t="s">
+      <c r="U117" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="118" spans="1:19" hidden="1">
+    <row r="118" spans="1:21" hidden="1">
       <c r="A118" t="s">
         <v>83</v>
       </c>
@@ -9287,44 +9657,47 @@
       <c r="D118" t="s">
         <v>135</v>
       </c>
-      <c r="E118" t="s">
+      <c r="G118" t="s">
         <v>131</v>
       </c>
-      <c r="G118">
+      <c r="H118" t="s">
+        <v>326</v>
+      </c>
+      <c r="I118">
         <v>0.66900000000000004</v>
       </c>
-      <c r="H118">
+      <c r="J118">
         <v>0.66900000000000004</v>
       </c>
-      <c r="J118">
+      <c r="L118">
         <v>0.2</v>
       </c>
-      <c r="K118">
+      <c r="M118">
         <v>2017</v>
       </c>
-      <c r="L118">
+      <c r="N118">
         <v>2025</v>
       </c>
-      <c r="M118">
+      <c r="O118">
         <v>2018</v>
       </c>
-      <c r="N118">
+      <c r="P118">
         <v>2021</v>
       </c>
-      <c r="O118">
-        <v>0</v>
-      </c>
-      <c r="P118">
+      <c r="Q118">
         <v>0</v>
       </c>
       <c r="R118">
         <v>0</v>
       </c>
-      <c r="S118" t="s">
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="119" spans="1:19" hidden="1">
+    <row r="119" spans="1:21" hidden="1">
       <c r="A119" t="s">
         <v>83</v>
       </c>
@@ -9334,44 +9707,47 @@
       <c r="C119" t="s">
         <v>138</v>
       </c>
-      <c r="E119" t="s">
+      <c r="G119" t="s">
         <v>131</v>
       </c>
-      <c r="G119">
-        <v>1</v>
-      </c>
-      <c r="H119">
+      <c r="H119" t="s">
+        <v>326</v>
+      </c>
+      <c r="I119">
         <v>1</v>
       </c>
       <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="L119">
         <v>0.9</v>
       </c>
-      <c r="K119">
+      <c r="M119">
         <v>2009</v>
       </c>
-      <c r="L119">
+      <c r="N119">
         <v>2020</v>
       </c>
-      <c r="M119">
+      <c r="O119">
         <v>2010</v>
       </c>
-      <c r="N119">
+      <c r="P119">
         <v>2022</v>
       </c>
-      <c r="O119">
-        <v>0</v>
-      </c>
-      <c r="P119">
+      <c r="Q119">
         <v>0</v>
       </c>
       <c r="R119">
-        <v>1</v>
-      </c>
-      <c r="S119" t="s">
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <v>1</v>
+      </c>
+      <c r="U119" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="120" spans="1:19" hidden="1">
+    <row r="120" spans="1:21" hidden="1">
       <c r="A120" t="s">
         <v>83</v>
       </c>
@@ -9384,41 +9760,944 @@
       <c r="D120" t="s">
         <v>142</v>
       </c>
-      <c r="E120" t="s">
+      <c r="G120" t="s">
         <v>131</v>
       </c>
-      <c r="G120">
+      <c r="H120" t="s">
+        <v>326</v>
+      </c>
+      <c r="I120">
         <v>0.6</v>
       </c>
-      <c r="H120">
+      <c r="J120">
         <v>0.6</v>
       </c>
-      <c r="J120">
+      <c r="L120">
         <v>0.46</v>
       </c>
-      <c r="K120">
+      <c r="M120">
         <v>2009</v>
       </c>
-      <c r="L120">
+      <c r="N120">
         <v>2020</v>
       </c>
-      <c r="M120">
+      <c r="O120">
         <v>2010</v>
       </c>
-      <c r="N120">
+      <c r="P120">
         <v>2023</v>
       </c>
-      <c r="O120">
+      <c r="Q120">
         <v>65465.244156436005</v>
       </c>
-      <c r="P120">
+      <c r="R120">
         <v>2292.7558435639962</v>
       </c>
-      <c r="R120">
+      <c r="T120">
         <v>0.61</v>
       </c>
-      <c r="S120" t="s">
+      <c r="U120" t="s">
         <v>303</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" t="s">
+        <v>130</v>
+      </c>
+      <c r="G121" t="s">
+        <v>131</v>
+      </c>
+      <c r="H121" t="s">
+        <v>326</v>
+      </c>
+      <c r="I121">
+        <v>0.5</v>
+      </c>
+      <c r="J121">
+        <v>0.5</v>
+      </c>
+      <c r="K121">
+        <v>0.3</v>
+      </c>
+      <c r="L121">
+        <v>0.75</v>
+      </c>
+      <c r="M121">
+        <v>2018</v>
+      </c>
+      <c r="N121">
+        <v>2025</v>
+      </c>
+      <c r="O121">
+        <v>2020</v>
+      </c>
+      <c r="P121">
+        <v>2023</v>
+      </c>
+      <c r="Q121">
+        <v>11000</v>
+      </c>
+      <c r="R121">
+        <v>1200</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+      <c r="U121" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>130</v>
+      </c>
+      <c r="G122" t="s">
+        <v>144</v>
+      </c>
+      <c r="H122">
+        <v>15</v>
+      </c>
+      <c r="I122">
+        <v>0.5</v>
+      </c>
+      <c r="J122">
+        <v>0.5</v>
+      </c>
+      <c r="K122">
+        <v>0.2</v>
+      </c>
+      <c r="L122">
+        <v>0.75</v>
+      </c>
+      <c r="M122">
+        <v>2018</v>
+      </c>
+      <c r="N122">
+        <v>2025</v>
+      </c>
+      <c r="O122">
+        <v>2020</v>
+      </c>
+      <c r="P122">
+        <v>2023</v>
+      </c>
+      <c r="Q122">
+        <v>11000</v>
+      </c>
+      <c r="R122">
+        <v>1200</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21">
+      <c r="A123" t="s">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" t="s">
+        <v>130</v>
+      </c>
+      <c r="G123" t="s">
+        <v>144</v>
+      </c>
+      <c r="H123">
+        <v>15</v>
+      </c>
+      <c r="K123">
+        <v>0.2</v>
+      </c>
+      <c r="L123">
+        <v>0.75</v>
+      </c>
+      <c r="M123">
+        <v>2018</v>
+      </c>
+      <c r="N123">
+        <v>2025</v>
+      </c>
+      <c r="O123">
+        <v>2020</v>
+      </c>
+      <c r="P123">
+        <v>2023</v>
+      </c>
+      <c r="Q123">
+        <v>11000</v>
+      </c>
+      <c r="R123">
+        <v>1200</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21">
+      <c r="A124" t="s">
+        <v>121</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" t="s">
+        <v>130</v>
+      </c>
+      <c r="G124" t="s">
+        <v>144</v>
+      </c>
+      <c r="H124">
+        <v>11</v>
+      </c>
+      <c r="K124">
+        <v>0.2</v>
+      </c>
+      <c r="L124">
+        <v>0.75</v>
+      </c>
+      <c r="M124">
+        <v>2018</v>
+      </c>
+      <c r="N124">
+        <v>2025</v>
+      </c>
+      <c r="O124">
+        <v>2020</v>
+      </c>
+      <c r="P124">
+        <v>2023</v>
+      </c>
+      <c r="Q124">
+        <v>11000</v>
+      </c>
+      <c r="R124">
+        <v>1200</v>
+      </c>
+      <c r="T124">
+        <v>0</v>
+      </c>
+      <c r="U124" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21">
+      <c r="A125" t="s">
+        <v>121</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" t="s">
+        <v>130</v>
+      </c>
+      <c r="G125" t="s">
+        <v>144</v>
+      </c>
+      <c r="H125">
+        <v>2</v>
+      </c>
+      <c r="K125">
+        <v>0.2</v>
+      </c>
+      <c r="L125">
+        <v>0.75</v>
+      </c>
+      <c r="M125">
+        <v>2018</v>
+      </c>
+      <c r="N125">
+        <v>2025</v>
+      </c>
+      <c r="O125">
+        <v>2020</v>
+      </c>
+      <c r="P125">
+        <v>2023</v>
+      </c>
+      <c r="Q125">
+        <v>11000</v>
+      </c>
+      <c r="R125">
+        <v>1200</v>
+      </c>
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21">
+      <c r="A126" t="s">
+        <v>121</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" t="s">
+        <v>130</v>
+      </c>
+      <c r="G126" t="s">
+        <v>144</v>
+      </c>
+      <c r="H126">
+        <v>3</v>
+      </c>
+      <c r="K126">
+        <v>0.2</v>
+      </c>
+      <c r="L126">
+        <v>0.75</v>
+      </c>
+      <c r="M126">
+        <v>2018</v>
+      </c>
+      <c r="N126">
+        <v>2025</v>
+      </c>
+      <c r="O126">
+        <v>2020</v>
+      </c>
+      <c r="P126">
+        <v>2023</v>
+      </c>
+      <c r="Q126">
+        <v>11000</v>
+      </c>
+      <c r="R126">
+        <v>1200</v>
+      </c>
+      <c r="T126">
+        <v>0</v>
+      </c>
+      <c r="U126" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21">
+      <c r="A127" t="s">
+        <v>167</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s">
+        <v>130</v>
+      </c>
+      <c r="G127" t="s">
+        <v>144</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>0.4</v>
+      </c>
+      <c r="M127">
+        <v>2018</v>
+      </c>
+      <c r="N127">
+        <v>2025</v>
+      </c>
+      <c r="O127">
+        <v>2020</v>
+      </c>
+      <c r="P127">
+        <v>2023</v>
+      </c>
+      <c r="Q127">
+        <v>1558</v>
+      </c>
+      <c r="R127">
+        <v>13333</v>
+      </c>
+      <c r="S127">
+        <v>1350</v>
+      </c>
+      <c r="T127">
+        <v>0.5</v>
+      </c>
+      <c r="U127" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21">
+      <c r="A128" t="s">
+        <v>167</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>130</v>
+      </c>
+      <c r="G128" t="s">
+        <v>144</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
+      </c>
+      <c r="I128">
+        <v>0.86</v>
+      </c>
+      <c r="J128">
+        <v>0.86</v>
+      </c>
+      <c r="L128">
+        <v>0.88</v>
+      </c>
+      <c r="M128">
+        <v>2018</v>
+      </c>
+      <c r="N128">
+        <v>2025</v>
+      </c>
+      <c r="O128">
+        <v>2020</v>
+      </c>
+      <c r="P128">
+        <v>2023</v>
+      </c>
+      <c r="Q128">
+        <v>303878.5938430645</v>
+      </c>
+      <c r="R128">
+        <v>501599.4061569355</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21">
+      <c r="A129" t="s">
+        <v>167</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" t="s">
+        <v>130</v>
+      </c>
+      <c r="G129" t="s">
+        <v>144</v>
+      </c>
+      <c r="H129">
+        <v>15</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>0.9</v>
+      </c>
+      <c r="L129">
+        <v>0.24</v>
+      </c>
+      <c r="M129">
+        <v>2018</v>
+      </c>
+      <c r="N129">
+        <v>2025</v>
+      </c>
+      <c r="O129">
+        <v>2020</v>
+      </c>
+      <c r="P129">
+        <v>2023</v>
+      </c>
+      <c r="Q129">
+        <v>2784330.1868065619</v>
+      </c>
+      <c r="R129">
+        <v>4565669.8131934376</v>
+      </c>
+      <c r="T129">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="U129" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21">
+      <c r="A130" t="s">
+        <v>167</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" t="s">
+        <v>130</v>
+      </c>
+      <c r="G130" t="s">
+        <v>144</v>
+      </c>
+      <c r="H130">
+        <v>15</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M130">
+        <v>2018</v>
+      </c>
+      <c r="N130">
+        <v>2025</v>
+      </c>
+      <c r="O130">
+        <v>2020</v>
+      </c>
+      <c r="P130">
+        <v>2023</v>
+      </c>
+      <c r="Q130">
+        <v>152767.86090478685</v>
+      </c>
+      <c r="R130">
+        <v>378083.53909521317</v>
+      </c>
+      <c r="T130">
+        <v>0</v>
+      </c>
+      <c r="U130" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21">
+      <c r="A131" t="s">
+        <v>168</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" t="s">
+        <v>130</v>
+      </c>
+      <c r="G131" t="s">
+        <v>144</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>0.6</v>
+      </c>
+      <c r="L131">
+        <v>0.15</v>
+      </c>
+      <c r="M131">
+        <v>2018</v>
+      </c>
+      <c r="N131">
+        <v>2025</v>
+      </c>
+      <c r="O131">
+        <v>2020</v>
+      </c>
+      <c r="P131">
+        <v>2023</v>
+      </c>
+      <c r="Q131">
+        <v>1209218.5863059745</v>
+      </c>
+      <c r="R131">
+        <v>2110267.4136940255</v>
+      </c>
+      <c r="T131">
+        <v>0.5</v>
+      </c>
+      <c r="U131" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21">
+      <c r="A132" t="s">
+        <v>168</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>130</v>
+      </c>
+      <c r="G132" t="s">
+        <v>144</v>
+      </c>
+      <c r="H132">
+        <v>2</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>0.9</v>
+      </c>
+      <c r="M132">
+        <v>2018</v>
+      </c>
+      <c r="N132">
+        <v>2025</v>
+      </c>
+      <c r="O132">
+        <v>2020</v>
+      </c>
+      <c r="P132">
+        <v>2023</v>
+      </c>
+      <c r="Q132">
+        <v>451204.69109967712</v>
+      </c>
+      <c r="R132">
+        <v>354273.30890032288</v>
+      </c>
+      <c r="T132">
+        <v>0.86</v>
+      </c>
+      <c r="U132" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21">
+      <c r="A133" t="s">
+        <v>168</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>130</v>
+      </c>
+      <c r="G133" t="s">
+        <v>144</v>
+      </c>
+      <c r="H133">
+        <v>3</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>0.39</v>
+      </c>
+      <c r="M133">
+        <v>2018</v>
+      </c>
+      <c r="N133">
+        <v>2025</v>
+      </c>
+      <c r="O133">
+        <v>2020</v>
+      </c>
+      <c r="P133">
+        <v>2023</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>0</v>
+      </c>
+      <c r="T133">
+        <v>0.55670000000000008</v>
+      </c>
+      <c r="U133" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21">
+      <c r="A134" t="s">
+        <v>168</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
+        <v>130</v>
+      </c>
+      <c r="G134" t="s">
+        <v>144</v>
+      </c>
+      <c r="H134">
+        <v>4</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="M134">
+        <v>2018</v>
+      </c>
+      <c r="N134">
+        <v>2025</v>
+      </c>
+      <c r="O134">
+        <v>2020</v>
+      </c>
+      <c r="P134">
+        <v>2023</v>
+      </c>
+      <c r="Q134">
+        <v>523303.09094109439</v>
+      </c>
+      <c r="R134">
+        <v>7548.309058905611</v>
+      </c>
+      <c r="T134">
+        <v>0</v>
+      </c>
+      <c r="U134" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21">
+      <c r="A135" t="s">
+        <v>168</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" t="s">
+        <v>325</v>
+      </c>
+      <c r="E135">
+        <v>3.19</v>
+      </c>
+      <c r="F135">
+        <v>2.17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>131</v>
+      </c>
+      <c r="H135" t="s">
+        <v>326</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>2018</v>
+      </c>
+      <c r="N135">
+        <v>2025</v>
+      </c>
+      <c r="O135">
+        <v>2020</v>
+      </c>
+      <c r="P135">
+        <v>2023</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <v>0</v>
+      </c>
+      <c r="S135">
+        <v>0</v>
+      </c>
+      <c r="U135" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21">
+      <c r="A136" t="s">
+        <v>168</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" t="s">
+        <v>130</v>
+      </c>
+      <c r="G136" t="s">
+        <v>131</v>
+      </c>
+      <c r="H136">
+        <v>3</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>0.6</v>
+      </c>
+      <c r="M136">
+        <v>2018</v>
+      </c>
+      <c r="N136">
+        <v>2025</v>
+      </c>
+      <c r="O136">
+        <v>2020</v>
+      </c>
+      <c r="P136">
+        <v>2023</v>
+      </c>
+      <c r="Q136" s="2">
+        <v>1209218.5863059745</v>
+      </c>
+      <c r="R136" s="2">
+        <v>2110267.4136940255</v>
+      </c>
+      <c r="T136">
+        <v>0.55670000000000008</v>
+      </c>
+      <c r="U136" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21">
+      <c r="A137" t="s">
+        <v>168</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" t="s">
+        <v>130</v>
+      </c>
+      <c r="G137" t="s">
+        <v>144</v>
+      </c>
+      <c r="H137">
+        <v>2</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="M137">
+        <v>2018</v>
+      </c>
+      <c r="N137">
+        <v>2025</v>
+      </c>
+      <c r="O137">
+        <v>2020</v>
+      </c>
+      <c r="P137">
+        <v>2023</v>
+      </c>
+      <c r="Q137">
+        <v>523303.09094109439</v>
+      </c>
+      <c r="R137">
+        <v>7548.309058905611</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21">
+      <c r="A138" t="s">
+        <v>168</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" t="s">
+        <v>325</v>
+      </c>
+      <c r="E138">
+        <v>2.8</v>
+      </c>
+      <c r="F138">
+        <v>1.9</v>
+      </c>
+      <c r="G138" t="s">
+        <v>134</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>2018</v>
+      </c>
+      <c r="N138">
+        <v>2030</v>
+      </c>
+      <c r="O138">
+        <v>2020</v>
+      </c>
+      <c r="P138">
+        <v>2023</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>0</v>
+      </c>
+      <c r="S138">
+        <v>0</v>
+      </c>
+      <c r="U138" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/examples/data/data_provider_example.xlsx
+++ b/examples/data/data_provider_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\mountainrambler\ITR\ITR-tool\examples\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB14F332-A30A-4D8A-B483-E16A6C06F417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFD4959-2F0D-40CA-9677-F573F6591675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40050" yWindow="1260" windowWidth="23070" windowHeight="15660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35685" yWindow="4005" windowWidth="27120" windowHeight="13680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
@@ -1215,14 +1215,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:U120" totalsRowShown="0">
-  <autoFilter ref="A1:U120" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="S1+S2+S3"/>
-        <filter val="S3"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:U120" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="company_name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="company_id"/>
@@ -3708,7 +3701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H139" sqref="H139"/>
     </sheetView>
   </sheetViews>
@@ -3793,7 +3786,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -3843,7 +3836,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>167</v>
       </c>
@@ -4058,7 +4051,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>171</v>
       </c>
@@ -4158,7 +4151,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>173</v>
       </c>
@@ -4211,7 +4204,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>174</v>
       </c>
@@ -4264,7 +4257,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>175</v>
       </c>
@@ -4317,7 +4310,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>176</v>
       </c>
@@ -4367,7 +4360,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>177</v>
       </c>
@@ -4417,7 +4410,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>178</v>
       </c>
@@ -4467,7 +4460,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>179</v>
       </c>
@@ -4517,7 +4510,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>180</v>
       </c>
@@ -4567,7 +4560,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:21" hidden="1">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>181</v>
       </c>
@@ -4949,7 +4942,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:21" hidden="1">
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -4999,7 +4992,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:21" hidden="1">
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -5049,7 +5042,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:21" hidden="1">
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -5196,7 +5189,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="1:21" hidden="1">
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -5296,7 +5289,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="1:21" hidden="1">
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -5393,7 +5386,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:21" hidden="1">
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -5443,7 +5436,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="35" spans="1:21" hidden="1">
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -5487,7 +5480,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="36" spans="1:21" hidden="1">
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -5637,7 +5630,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:21" hidden="1">
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -5684,7 +5677,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="1:21" hidden="1">
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -5731,7 +5724,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="41" spans="1:21" hidden="1">
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -5784,7 +5777,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="1:21" hidden="1">
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -5837,7 +5830,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="43" spans="1:21" hidden="1">
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -5887,7 +5880,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:21" hidden="1">
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -5937,7 +5930,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="45" spans="1:21" hidden="1">
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -5987,7 +5980,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="46" spans="1:21" hidden="1">
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
         <v>168</v>
       </c>
@@ -6040,7 +6033,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="47" spans="1:21" hidden="1">
+    <row r="47" spans="1:21">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -6093,7 +6086,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:21" hidden="1">
+    <row r="48" spans="1:21">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -6143,7 +6136,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="49" spans="1:21" hidden="1">
+    <row r="49" spans="1:21">
       <c r="A49" t="s">
         <v>171</v>
       </c>
@@ -6196,7 +6189,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="50" spans="1:21" hidden="1">
+    <row r="50" spans="1:21">
       <c r="A50" t="s">
         <v>172</v>
       </c>
@@ -6252,7 +6245,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="51" spans="1:21" hidden="1">
+    <row r="51" spans="1:21">
       <c r="A51" t="s">
         <v>173</v>
       </c>
@@ -6302,7 +6295,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="52" spans="1:21" hidden="1">
+    <row r="52" spans="1:21">
       <c r="A52" t="s">
         <v>174</v>
       </c>
@@ -6352,7 +6345,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="53" spans="1:21" hidden="1">
+    <row r="53" spans="1:21">
       <c r="A53" t="s">
         <v>175</v>
       </c>
@@ -6405,7 +6398,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="54" spans="1:21" hidden="1">
+    <row r="54" spans="1:21">
       <c r="A54" t="s">
         <v>176</v>
       </c>
@@ -6455,7 +6448,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="55" spans="1:21" hidden="1">
+    <row r="55" spans="1:21">
       <c r="A55" t="s">
         <v>177</v>
       </c>
@@ -6505,7 +6498,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="56" spans="1:21" hidden="1">
+    <row r="56" spans="1:21">
       <c r="A56" t="s">
         <v>178</v>
       </c>
@@ -6555,7 +6548,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="1:21" hidden="1">
+    <row r="57" spans="1:21">
       <c r="A57" t="s">
         <v>179</v>
       </c>
@@ -6605,7 +6598,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="58" spans="1:21" hidden="1">
+    <row r="58" spans="1:21">
       <c r="A58" t="s">
         <v>180</v>
       </c>
@@ -6655,7 +6648,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="59" spans="1:21" hidden="1">
+    <row r="59" spans="1:21">
       <c r="A59" t="s">
         <v>181</v>
       </c>
@@ -6711,7 +6704,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="60" spans="1:21" hidden="1">
+    <row r="60" spans="1:21">
       <c r="A60" t="s">
         <v>183</v>
       </c>
@@ -6764,7 +6757,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="61" spans="1:21" hidden="1">
+    <row r="61" spans="1:21">
       <c r="A61" t="s">
         <v>81</v>
       </c>
@@ -6817,7 +6810,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="62" spans="1:21" hidden="1">
+    <row r="62" spans="1:21">
       <c r="A62" t="s">
         <v>83</v>
       </c>
@@ -6867,7 +6860,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="63" spans="1:21" hidden="1">
+    <row r="63" spans="1:21">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -6917,7 +6910,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="64" spans="1:21" hidden="1">
+    <row r="64" spans="1:21">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -6967,7 +6960,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="65" spans="1:21" hidden="1">
+    <row r="65" spans="1:21">
       <c r="A65" t="s">
         <v>90</v>
       </c>
@@ -7020,7 +7013,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="66" spans="1:21" hidden="1">
+    <row r="66" spans="1:21">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -7073,7 +7066,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="67" spans="1:21" hidden="1">
+    <row r="67" spans="1:21">
       <c r="A67" t="s">
         <v>83</v>
       </c>
@@ -7123,7 +7116,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="68" spans="1:21" hidden="1">
+    <row r="68" spans="1:21">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -7176,7 +7169,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="1:21" hidden="1">
+    <row r="69" spans="1:21">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -7223,7 +7216,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="1:21" hidden="1">
+    <row r="70" spans="1:21">
       <c r="A70" t="s">
         <v>90</v>
       </c>
@@ -7273,7 +7266,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="71" spans="1:21" hidden="1">
+    <row r="71" spans="1:21">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -7376,7 +7369,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="73" spans="1:21" hidden="1">
+    <row r="73" spans="1:21">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -7426,7 +7419,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="74" spans="1:21" hidden="1">
+    <row r="74" spans="1:21">
       <c r="A74" t="s">
         <v>88</v>
       </c>
@@ -7479,7 +7472,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="75" spans="1:21" hidden="1">
+    <row r="75" spans="1:21">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -7529,7 +7522,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="76" spans="1:21" hidden="1">
+    <row r="76" spans="1:21">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -7582,7 +7575,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="77" spans="1:21" hidden="1">
+    <row r="77" spans="1:21">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -7635,7 +7628,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="78" spans="1:21" hidden="1">
+    <row r="78" spans="1:21">
       <c r="A78" t="s">
         <v>53</v>
       </c>
@@ -7791,7 +7784,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="81" spans="1:21" hidden="1">
+    <row r="81" spans="1:21">
       <c r="A81" t="s">
         <v>168</v>
       </c>
@@ -7994,7 +7987,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="85" spans="1:21" hidden="1">
+    <row r="85" spans="1:21">
       <c r="A85" t="s">
         <v>172</v>
       </c>
@@ -8091,7 +8084,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="87" spans="1:21" hidden="1">
+    <row r="87" spans="1:21">
       <c r="A87" t="s">
         <v>174</v>
       </c>
@@ -8144,7 +8137,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="88" spans="1:21" hidden="1">
+    <row r="88" spans="1:21">
       <c r="A88" t="s">
         <v>175</v>
       </c>
@@ -8191,7 +8184,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="89" spans="1:21" hidden="1">
+    <row r="89" spans="1:21">
       <c r="A89" t="s">
         <v>177</v>
       </c>
@@ -8241,7 +8234,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="90" spans="1:21" hidden="1">
+    <row r="90" spans="1:21">
       <c r="A90" t="s">
         <v>179</v>
       </c>
@@ -8288,7 +8281,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="91" spans="1:21" hidden="1">
+    <row r="91" spans="1:21">
       <c r="A91" t="s">
         <v>179</v>
       </c>
@@ -8335,7 +8328,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="92" spans="1:21" hidden="1">
+    <row r="92" spans="1:21">
       <c r="A92" t="s">
         <v>180</v>
       </c>
@@ -8382,7 +8375,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="93" spans="1:21" hidden="1">
+    <row r="93" spans="1:21">
       <c r="A93" t="s">
         <v>180</v>
       </c>
@@ -8429,7 +8422,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="94" spans="1:21" hidden="1">
+    <row r="94" spans="1:21">
       <c r="A94" t="s">
         <v>183</v>
       </c>
@@ -8479,7 +8472,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="95" spans="1:21" hidden="1">
+    <row r="95" spans="1:21">
       <c r="A95" t="s">
         <v>121</v>
       </c>
@@ -8529,7 +8522,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="96" spans="1:21" hidden="1">
+    <row r="96" spans="1:21">
       <c r="A96" t="s">
         <v>167</v>
       </c>
@@ -8582,7 +8575,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="97" spans="1:21" hidden="1">
+    <row r="97" spans="1:21">
       <c r="A97" t="s">
         <v>168</v>
       </c>
@@ -8635,7 +8628,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="98" spans="1:21" hidden="1">
+    <row r="98" spans="1:21">
       <c r="A98" t="s">
         <v>169</v>
       </c>
@@ -8682,7 +8675,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="99" spans="1:21" hidden="1">
+    <row r="99" spans="1:21">
       <c r="A99" t="s">
         <v>169</v>
       </c>
@@ -8729,7 +8722,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="100" spans="1:21" hidden="1">
+    <row r="100" spans="1:21">
       <c r="A100" t="s">
         <v>171</v>
       </c>
@@ -8829,7 +8822,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="102" spans="1:21" hidden="1">
+    <row r="102" spans="1:21">
       <c r="A102" t="s">
         <v>173</v>
       </c>
@@ -8879,7 +8872,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="103" spans="1:21" hidden="1">
+    <row r="103" spans="1:21">
       <c r="A103" t="s">
         <v>174</v>
       </c>
@@ -8932,7 +8925,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="104" spans="1:21" hidden="1">
+    <row r="104" spans="1:21">
       <c r="A104" t="s">
         <v>175</v>
       </c>
@@ -9035,7 +9028,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="106" spans="1:21" hidden="1">
+    <row r="106" spans="1:21">
       <c r="A106" t="s">
         <v>177</v>
       </c>
@@ -9088,7 +9081,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="107" spans="1:21" hidden="1">
+    <row r="107" spans="1:21">
       <c r="A107" t="s">
         <v>178</v>
       </c>
@@ -9138,7 +9131,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="108" spans="1:21" hidden="1">
+    <row r="108" spans="1:21">
       <c r="A108" t="s">
         <v>179</v>
       </c>
@@ -9188,7 +9181,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="109" spans="1:21" hidden="1">
+    <row r="109" spans="1:21">
       <c r="A109" t="s">
         <v>180</v>
       </c>
@@ -9291,7 +9284,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="111" spans="1:21" hidden="1">
+    <row r="111" spans="1:21">
       <c r="A111" t="s">
         <v>183</v>
       </c>
@@ -9341,7 +9334,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="112" spans="1:21" hidden="1">
+    <row r="112" spans="1:21">
       <c r="A112" t="s">
         <v>83</v>
       </c>
@@ -9441,7 +9434,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="114" spans="1:21" hidden="1">
+    <row r="114" spans="1:21">
       <c r="A114" t="s">
         <v>88</v>
       </c>
@@ -9491,7 +9484,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="115" spans="1:21" hidden="1">
+    <row r="115" spans="1:21">
       <c r="A115" t="s">
         <v>90</v>
       </c>
@@ -9541,7 +9534,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="116" spans="1:21" hidden="1">
+    <row r="116" spans="1:21">
       <c r="A116" t="s">
         <v>81</v>
       </c>
@@ -9591,7 +9584,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="117" spans="1:21" hidden="1">
+    <row r="117" spans="1:21">
       <c r="A117" t="s">
         <v>83</v>
       </c>
@@ -9644,7 +9637,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="118" spans="1:21" hidden="1">
+    <row r="118" spans="1:21">
       <c r="A118" t="s">
         <v>83</v>
       </c>
@@ -9697,7 +9690,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="119" spans="1:21" hidden="1">
+    <row r="119" spans="1:21">
       <c r="A119" t="s">
         <v>83</v>
       </c>
@@ -9747,7 +9740,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="120" spans="1:21" hidden="1">
+    <row r="120" spans="1:21">
       <c r="A120" t="s">
         <v>83</v>
       </c>

--- a/examples/data/data_provider_example.xlsx
+++ b/examples/data/data_provider_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27716"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\mountainrambler\ITR\ITR-tool\examples\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFD4959-2F0D-40CA-9677-F573F6591675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F67917A-CBE9-4716-BF45-1A6E9410D02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35685" yWindow="4005" windowWidth="27120" windowHeight="13680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30375" yWindow="2925" windowWidth="27120" windowHeight="13680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
@@ -1214,8 +1214,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:U120" totalsRowShown="0">
-  <autoFilter ref="A1:U120" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:U138" totalsRowShown="0">
+  <autoFilter ref="A1:U138" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="company_name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="company_id"/>
@@ -3701,7 +3701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I111" workbookViewId="0">
       <selection activeCell="H139" sqref="H139"/>
     </sheetView>
   </sheetViews>

--- a/examples/data/data_provider_example.xlsx
+++ b/examples/data/data_provider_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27716"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27723"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\mountainrambler\ITR\ITR-tool\examples\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F67917A-CBE9-4716-BF45-1A6E9410D02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F70A8D-379B-461A-AF1F-66718072A29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30375" yWindow="2925" windowWidth="27120" windowHeight="13680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="323">
   <si>
     <t>company_name</t>
   </si>
@@ -456,18 +456,12 @@
     <t>absolute</t>
   </si>
   <si>
-    <t>Power Generation</t>
-  </si>
-  <si>
     <t>S1</t>
   </si>
   <si>
     <t>Cement</t>
   </si>
   <si>
-    <t>Oil</t>
-  </si>
-  <si>
     <t>company_id</t>
   </si>
   <si>
@@ -630,9 +624,6 @@
     <t>T12</t>
   </si>
   <si>
-    <t>T13</t>
-  </si>
-  <si>
     <t>T14</t>
   </si>
   <si>
@@ -663,9 +654,6 @@
     <t>T23</t>
   </si>
   <si>
-    <t>T24</t>
-  </si>
-  <si>
     <t>T25</t>
   </si>
   <si>
@@ -684,18 +672,9 @@
     <t>T30</t>
   </si>
   <si>
-    <t>T31</t>
-  </si>
-  <si>
     <t>T32</t>
   </si>
   <si>
-    <t>T33</t>
-  </si>
-  <si>
-    <t>T34</t>
-  </si>
-  <si>
     <t>T35</t>
   </si>
   <si>
@@ -714,9 +693,6 @@
     <t>T40</t>
   </si>
   <si>
-    <t>T41</t>
-  </si>
-  <si>
     <t>T42</t>
   </si>
   <si>
@@ -726,18 +702,6 @@
     <t>T44</t>
   </si>
   <si>
-    <t>T45</t>
-  </si>
-  <si>
-    <t>T46</t>
-  </si>
-  <si>
-    <t>T47</t>
-  </si>
-  <si>
-    <t>T48</t>
-  </si>
-  <si>
     <t>T49</t>
   </si>
   <si>
@@ -798,9 +762,6 @@
     <t>T68</t>
   </si>
   <si>
-    <t>T69</t>
-  </si>
-  <si>
     <t>T70</t>
   </si>
   <si>
@@ -816,9 +777,6 @@
     <t>T74</t>
   </si>
   <si>
-    <t>T75</t>
-  </si>
-  <si>
     <t>T76</t>
   </si>
   <si>
@@ -843,18 +801,9 @@
     <t>T83</t>
   </si>
   <si>
-    <t>T84</t>
-  </si>
-  <si>
-    <t>T85</t>
-  </si>
-  <si>
     <t>T86</t>
   </si>
   <si>
-    <t>T87</t>
-  </si>
-  <si>
     <t>T88</t>
   </si>
   <si>
@@ -867,9 +816,6 @@
     <t>T91</t>
   </si>
   <si>
-    <t>T92</t>
-  </si>
-  <si>
     <t>T93</t>
   </si>
   <si>
@@ -930,12 +876,6 @@
     <t>T112</t>
   </si>
   <si>
-    <t>T113</t>
-  </si>
-  <si>
-    <t>T114</t>
-  </si>
-  <si>
     <t>T115</t>
   </si>
   <si>
@@ -943,12 +883,6 @@
   </si>
   <si>
     <t>T117</t>
-  </si>
-  <si>
-    <t>T118</t>
-  </si>
-  <si>
-    <t>T119</t>
   </si>
   <si>
     <t>statement_date</t>
@@ -1214,8 +1148,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:U138" totalsRowShown="0">
-  <autoFilter ref="A1:U138" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:U118" totalsRowShown="0">
+  <autoFilter ref="A1:U118" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="company_name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="company_id"/>
@@ -1530,100 +1464,100 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>283</v>
+      </c>
+      <c r="L1" t="s">
+        <v>284</v>
+      </c>
+      <c r="M1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="P1" t="s">
         <v>143</v>
       </c>
-      <c r="C1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
-        <v>305</v>
-      </c>
-      <c r="L1" t="s">
-        <v>306</v>
-      </c>
-      <c r="M1" t="s">
-        <v>154</v>
-      </c>
-      <c r="N1" t="s">
-        <v>155</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="P1" t="s">
-        <v>145</v>
-      </c>
       <c r="Q1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S1" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="T1" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="U1" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="V1" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="W1" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="X1" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="Y1" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="Z1" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="AA1" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="AB1" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="AC1" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="AD1" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="AE1" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="AF1" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="AG1" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -1681,7 +1615,7 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1722,7 +1656,7 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1763,7 +1697,7 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -1804,7 +1738,7 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -1845,7 +1779,7 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -1886,7 +1820,7 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -1927,7 +1861,7 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -1968,7 +1902,7 @@
     </row>
     <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -2009,7 +1943,7 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -2050,7 +1984,7 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -2091,7 +2025,7 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -2132,7 +2066,7 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -2173,7 +2107,7 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -2214,7 +2148,7 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -2255,7 +2189,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
@@ -2296,7 +2230,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -3649,7 +3583,7 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B51" t="s">
         <v>122</v>
@@ -3699,10 +3633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U138"/>
+  <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I111" workbookViewId="0">
-      <selection activeCell="H139" sqref="H139"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3726,34 +3660,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1" t="s">
         <v>156</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
+        <v>285</v>
+      </c>
+      <c r="I1" t="s">
         <v>157</v>
       </c>
-      <c r="E1" t="s">
-        <v>323</v>
-      </c>
-      <c r="F1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>158</v>
       </c>
-      <c r="H1" t="s">
-        <v>307</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>159</v>
-      </c>
-      <c r="J1" t="s">
-        <v>160</v>
-      </c>
-      <c r="K1" t="s">
-        <v>161</v>
       </c>
       <c r="L1" t="s">
         <v>125</v>
@@ -3768,22 +3702,22 @@
         <v>128</v>
       </c>
       <c r="P1" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="Q1" t="s">
+        <v>160</v>
+      </c>
+      <c r="R1" t="s">
+        <v>161</v>
+      </c>
+      <c r="S1" t="s">
         <v>162</v>
-      </c>
-      <c r="R1" t="s">
-        <v>163</v>
-      </c>
-      <c r="S1" t="s">
-        <v>164</v>
       </c>
       <c r="T1" t="s">
         <v>129</v>
       </c>
       <c r="U1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -3800,7 +3734,7 @@
         <v>131</v>
       </c>
       <c r="H2" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -3833,12 +3767,12 @@
         <v>0.4</v>
       </c>
       <c r="U2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -3853,7 +3787,7 @@
         <v>133</v>
       </c>
       <c r="H3" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -3886,12 +3820,12 @@
         <v>0.5</v>
       </c>
       <c r="U3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -3903,7 +3837,7 @@
         <v>137</v>
       </c>
       <c r="G4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -3936,12 +3870,12 @@
         <v>0.5</v>
       </c>
       <c r="U4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -3992,12 +3926,12 @@
         <v>0.04</v>
       </c>
       <c r="U5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -4048,12 +3982,12 @@
         <v>0.03</v>
       </c>
       <c r="U6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -4068,7 +4002,7 @@
         <v>131</v>
       </c>
       <c r="H7" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -4101,12 +4035,12 @@
         <v>0.08</v>
       </c>
       <c r="U7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -4115,7 +4049,7 @@
         <v>130</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -4148,12 +4082,12 @@
         <v>0.26</v>
       </c>
       <c r="U8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -4168,7 +4102,7 @@
         <v>131</v>
       </c>
       <c r="H9" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -4183,7 +4117,7 @@
         <v>2015</v>
       </c>
       <c r="N9">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="O9">
         <v>2015</v>
@@ -4201,12 +4135,12 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -4221,7 +4155,7 @@
         <v>131</v>
       </c>
       <c r="H10" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -4236,7 +4170,7 @@
         <v>2015</v>
       </c>
       <c r="N10">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="O10">
         <v>2015</v>
@@ -4254,12 +4188,12 @@
         <v>1</v>
       </c>
       <c r="U10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -4274,7 +4208,7 @@
         <v>131</v>
       </c>
       <c r="H11" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -4289,7 +4223,7 @@
         <v>2015</v>
       </c>
       <c r="N11">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="O11">
         <v>2015</v>
@@ -4307,12 +4241,12 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -4324,7 +4258,7 @@
         <v>131</v>
       </c>
       <c r="H12" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -4357,12 +4291,12 @@
         <v>0.15</v>
       </c>
       <c r="U12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
@@ -4374,7 +4308,7 @@
         <v>131</v>
       </c>
       <c r="H13" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4407,15 +4341,15 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>130</v>
@@ -4424,7 +4358,7 @@
         <v>131</v>
       </c>
       <c r="H14" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4433,39 +4367,39 @@
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="M14">
-        <v>2005</v>
+        <v>2018</v>
       </c>
       <c r="N14">
+        <v>2030</v>
+      </c>
+      <c r="O14">
+        <v>2018</v>
+      </c>
+      <c r="P14">
         <v>2020</v>
       </c>
-      <c r="O14">
-        <v>2006</v>
-      </c>
-      <c r="P14">
-        <v>2019</v>
-      </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1623495.6235948068</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>16355.37640519335</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>130</v>
@@ -4474,7 +4408,7 @@
         <v>131</v>
       </c>
       <c r="H15" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4483,39 +4417,39 @@
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="M15">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="N15">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="O15">
         <v>2018</v>
       </c>
       <c r="P15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="Q15">
-        <v>1623495.6235948068</v>
+        <v>109063.26891512153</v>
       </c>
       <c r="R15">
-        <v>16355.37640519335</v>
+        <v>1530787.7310848786</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="U15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>130</v>
@@ -4524,7 +4458,7 @@
         <v>131</v>
       </c>
       <c r="H16" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -4533,31 +4467,31 @@
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0.93</v>
+        <v>0.76</v>
       </c>
       <c r="M16">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="N16">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="O16">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="P16">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q16">
-        <v>109063.26891512153</v>
+        <v>28088.045032479266</v>
       </c>
       <c r="R16">
-        <v>1530787.7310848786</v>
+        <v>19618.954967520734</v>
       </c>
       <c r="T16">
-        <v>0.57999999999999996</v>
+        <v>1</v>
       </c>
       <c r="U16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -4565,260 +4499,257 @@
         <v>181</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
         <v>130</v>
       </c>
       <c r="G17" t="s">
-        <v>131</v>
-      </c>
-      <c r="H17" t="s">
-        <v>326</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
+        <v>142</v>
+      </c>
+      <c r="H17">
+        <v>11</v>
+      </c>
+      <c r="K17">
+        <v>0.12</v>
       </c>
       <c r="L17">
-        <v>0.76</v>
+        <v>0.21</v>
       </c>
       <c r="M17">
         <v>2015</v>
       </c>
       <c r="N17">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="O17">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="P17">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="Q17">
-        <v>28088.045032479266</v>
+        <v>2021033.4696043313</v>
       </c>
       <c r="R17">
-        <v>19618.954967520734</v>
+        <v>1298452.5303956687</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="U17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>130</v>
       </c>
       <c r="G18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="L18">
-        <v>0.21</v>
+        <v>0.6</v>
       </c>
       <c r="M18">
         <v>2015</v>
       </c>
       <c r="N18">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="O18">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="P18">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="Q18">
-        <v>2021033.4696043313</v>
+        <v>251813.3497402785</v>
       </c>
       <c r="R18">
-        <v>1298452.5303956687</v>
+        <v>12489.650259721515</v>
       </c>
       <c r="T18">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
         <v>130</v>
       </c>
       <c r="G19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K19">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="L19">
-        <v>0.6</v>
+        <v>0.47000000000000003</v>
       </c>
       <c r="M19">
         <v>2015</v>
       </c>
       <c r="N19">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="O19">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="P19">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="Q19">
-        <v>251813.3497402785</v>
+        <v>29144.618624426188</v>
       </c>
       <c r="R19">
-        <v>12489.650259721515</v>
+        <v>235158.38137557381</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
         <v>130</v>
       </c>
       <c r="G20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="L20">
-        <v>0.47000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="N20">
         <v>2030</v>
       </c>
       <c r="O20">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="P20">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="Q20">
-        <v>29144.618624426188</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>235158.38137557381</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="U20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>130</v>
       </c>
       <c r="G21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="K21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L21">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M21">
         <v>2018</v>
       </c>
       <c r="N21">
-        <v>2019</v>
+        <v>2030</v>
       </c>
       <c r="O21">
         <v>2019</v>
       </c>
       <c r="P21">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="Q21">
+        <v>1542974.817386897</v>
+      </c>
+      <c r="R21">
+        <v>96876.182613102996</v>
+      </c>
+      <c r="T21">
         <v>0</v>
       </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0.12</v>
-      </c>
       <c r="U21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="K22">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="L22">
-        <v>0.3</v>
+        <v>0.94000000000000006</v>
       </c>
       <c r="M22">
         <v>2018</v>
@@ -4830,192 +4761,198 @@
         <v>2019</v>
       </c>
       <c r="P22">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q22">
-        <v>1542974.817386897</v>
+        <v>1258605.9073582559</v>
       </c>
       <c r="R22">
-        <v>96876.182613102996</v>
+        <v>381245.09264174401</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="U22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="D23" t="s">
+        <v>137</v>
       </c>
       <c r="G23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="K23">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="L23">
-        <v>0.94000000000000006</v>
+        <v>0.5</v>
       </c>
       <c r="M23">
         <v>2018</v>
       </c>
       <c r="N23">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="O23">
         <v>2019</v>
       </c>
       <c r="P23">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="Q23">
-        <v>1258605.9073582559</v>
+        <v>25476.428678700202</v>
       </c>
       <c r="R23">
-        <v>381245.09264174401</v>
+        <v>22230.571321299798</v>
       </c>
       <c r="T23">
-        <v>0.88300000000000001</v>
+        <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G24" t="s">
-        <v>144</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>0.7</v>
+        <v>131</v>
+      </c>
+      <c r="H24" t="s">
+        <v>304</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0.5</v>
+        <v>0.76</v>
       </c>
       <c r="M24">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="N24">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="O24">
+        <v>2017</v>
+      </c>
+      <c r="P24">
         <v>2019</v>
       </c>
-      <c r="P24">
-        <v>2023</v>
-      </c>
       <c r="Q24">
-        <v>25476.428678700202</v>
+        <v>140273.75037513993</v>
       </c>
       <c r="R24">
-        <v>22230.571321299798</v>
+        <v>124029.24962486007</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="D25" t="s">
+        <v>137</v>
       </c>
       <c r="G25" t="s">
         <v>131</v>
       </c>
       <c r="H25" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="L25">
-        <v>0.93</v>
+        <v>0.21</v>
       </c>
       <c r="M25">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="N25">
-        <v>2018</v>
+        <v>2030</v>
       </c>
       <c r="O25">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="P25">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="Q25">
-        <v>739349.11745452916</v>
+        <v>3562.2554504317172</v>
       </c>
       <c r="R25">
-        <v>2580136.8825454707</v>
+        <v>260740.74454956828</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="D26" t="s">
+        <v>135</v>
       </c>
       <c r="G26" t="s">
-        <v>131</v>
-      </c>
-      <c r="H26" t="s">
-        <v>326</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
+        <v>142</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0.8</v>
       </c>
       <c r="L26">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
       <c r="M26">
         <v>2015</v>
@@ -5024,30 +4961,24 @@
         <v>2030</v>
       </c>
       <c r="O26">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="P26">
-        <v>2019</v>
-      </c>
-      <c r="Q26">
-        <v>140273.75037513993</v>
-      </c>
-      <c r="R26">
-        <v>124029.24962486007</v>
+        <v>2021</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>0.49600000000000005</v>
       </c>
       <c r="U26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
         <v>136</v>
@@ -5056,19 +4987,16 @@
         <v>137</v>
       </c>
       <c r="G27" t="s">
-        <v>131</v>
-      </c>
-      <c r="H27" t="s">
-        <v>326</v>
-      </c>
-      <c r="I27">
-        <v>0.95</v>
-      </c>
-      <c r="J27">
-        <v>0.95</v>
+        <v>142</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0.9</v>
       </c>
       <c r="L27">
-        <v>0.21</v>
+        <v>0.47000000000000003</v>
       </c>
       <c r="M27">
         <v>2015</v>
@@ -5077,66 +5005,72 @@
         <v>2030</v>
       </c>
       <c r="O27">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="P27">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="Q27">
-        <v>3562.2554504317172</v>
+        <v>1527902.4738061246</v>
       </c>
       <c r="R27">
-        <v>260740.74454956828</v>
+        <v>111948.5261938753</v>
       </c>
       <c r="T27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>0.8</v>
+        <v>131</v>
+      </c>
+      <c r="H28" t="s">
+        <v>304</v>
+      </c>
+      <c r="I28">
+        <v>0.99</v>
+      </c>
+      <c r="J28">
+        <v>0.99</v>
       </c>
       <c r="L28">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="M28">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="N28">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="O28">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="P28">
-        <v>2021</v>
+        <v>2023</v>
+      </c>
+      <c r="Q28">
+        <v>752485.53816878912</v>
+      </c>
+      <c r="R28">
+        <v>887365.46183121088</v>
       </c>
       <c r="T28">
-        <v>0.49600000000000005</v>
+        <v>1</v>
       </c>
       <c r="U28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -5153,40 +5087,40 @@
         <v>137</v>
       </c>
       <c r="G29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="K29">
-        <v>0.9</v>
+        <v>0.81</v>
       </c>
       <c r="L29">
-        <v>0.47000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="M29">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="N29">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="O29">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="P29">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="Q29">
-        <v>1527902.4738061246</v>
+        <v>13520.584701904279</v>
       </c>
       <c r="R29">
-        <v>111948.5261938753</v>
+        <v>34186.415298095722</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -5200,22 +5134,19 @@
         <v>138</v>
       </c>
       <c r="G30" t="s">
-        <v>131</v>
-      </c>
-      <c r="H30" t="s">
-        <v>326</v>
-      </c>
-      <c r="I30">
-        <v>0.99</v>
-      </c>
-      <c r="J30">
-        <v>0.99</v>
+        <v>142</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="N30">
         <v>2030</v>
@@ -5224,145 +5155,148 @@
         <v>2017</v>
       </c>
       <c r="P30">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="Q30">
-        <v>752485.53816878912</v>
+        <v>5030.1715149841002</v>
       </c>
       <c r="R30">
-        <v>887365.46183121088</v>
+        <v>70864.828485015896</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>0.39</v>
       </c>
       <c r="U30" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G31" t="s">
-        <v>144</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>0.81</v>
+        <v>131</v>
+      </c>
+      <c r="H31" t="s">
+        <v>304</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0.3</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="M31">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="N31">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="O31">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="P31">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="Q31">
-        <v>13520.584701904279</v>
+        <v>18420.103830501779</v>
       </c>
       <c r="R31">
-        <v>34186.415298095722</v>
+        <v>12437.896169498223</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>6.1699999999999998E-2</v>
       </c>
       <c r="U31" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="D32" t="s">
+        <v>137</v>
       </c>
       <c r="G32" t="s">
-        <v>131</v>
-      </c>
-      <c r="H32" t="s">
-        <v>326</v>
-      </c>
-      <c r="I32">
-        <v>0.85</v>
-      </c>
-      <c r="J32">
-        <v>0.85</v>
+        <v>142</v>
+      </c>
+      <c r="H32">
+        <v>11</v>
+      </c>
+      <c r="K32">
+        <v>0.159</v>
       </c>
       <c r="L32">
-        <v>0.94000000000000006</v>
+        <v>0.26</v>
       </c>
       <c r="M32">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="N32">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="O32">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="P32">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="Q32">
-        <v>8714.9533087395212</v>
+        <v>21253.709283596334</v>
       </c>
       <c r="R32">
-        <v>192816.04669126048</v>
+        <v>9604.290716403666</v>
       </c>
       <c r="T32">
         <v>1</v>
       </c>
       <c r="U32" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="D33" t="s">
+        <v>137</v>
       </c>
       <c r="G33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="M33">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="N33">
         <v>2030</v>
@@ -5371,242 +5305,245 @@
         <v>2017</v>
       </c>
       <c r="P33">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="Q33">
-        <v>5030.1715149841002</v>
+        <v>260823.50223769023</v>
       </c>
       <c r="R33">
-        <v>70864.828485015896</v>
+        <v>12190.497762309758</v>
       </c>
       <c r="T33">
-        <v>0.39</v>
+        <v>1</v>
       </c>
       <c r="U33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>136</v>
-      </c>
-      <c r="D34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G34" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H34" t="s">
-        <v>326</v>
-      </c>
-      <c r="I34">
+        <v>304</v>
+      </c>
+      <c r="J34">
         <v>1</v>
       </c>
       <c r="L34">
-        <v>0.69000000000000006</v>
+        <v>0.39</v>
       </c>
       <c r="M34">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="N34">
+        <v>2025</v>
+      </c>
+      <c r="O34">
+        <v>2015</v>
+      </c>
+      <c r="P34">
         <v>2020</v>
       </c>
-      <c r="O34">
-        <v>2012</v>
-      </c>
-      <c r="P34">
-        <v>2021</v>
-      </c>
       <c r="Q34">
-        <v>5030.1715149841002</v>
+        <v>260823.50223769023</v>
       </c>
       <c r="R34">
-        <v>70864.828485015896</v>
+        <v>12190.497762309758</v>
       </c>
       <c r="T34">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="D35" t="s">
+        <v>137</v>
       </c>
       <c r="G35" t="s">
         <v>131</v>
       </c>
       <c r="H35" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="L35">
-        <v>0.82000000000000006</v>
+        <v>0.86</v>
       </c>
       <c r="M35">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="N35">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="O35">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="P35">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="T35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="D36" t="s">
+        <v>137</v>
       </c>
       <c r="G36" t="s">
         <v>131</v>
       </c>
       <c r="H36" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L36">
-        <v>0.57999999999999996</v>
+        <v>0.46</v>
       </c>
       <c r="M36">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N36">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="O36">
         <v>2018</v>
       </c>
       <c r="P36">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="Q36">
-        <v>18420.103830501779</v>
+        <v>2435.0792096809209</v>
       </c>
       <c r="R36">
-        <v>12437.896169498223</v>
+        <v>16574.110790319079</v>
       </c>
       <c r="T36">
-        <v>6.1699999999999998E-2</v>
+        <v>1</v>
       </c>
       <c r="U36" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G37" t="s">
-        <v>144</v>
-      </c>
-      <c r="H37">
-        <v>11</v>
-      </c>
-      <c r="K37">
-        <v>0.159</v>
+        <v>131</v>
+      </c>
+      <c r="H37" t="s">
+        <v>304</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>0.26</v>
+        <v>0.69000000000000006</v>
       </c>
       <c r="M37">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="N37">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="O37">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="P37">
         <v>2024</v>
       </c>
       <c r="Q37">
-        <v>21253.709283596334</v>
+        <v>45289.348484583432</v>
       </c>
       <c r="R37">
-        <v>9604.290716403666</v>
+        <v>32682.651515416568</v>
       </c>
       <c r="T37">
-        <v>1</v>
+        <v>0.42</v>
       </c>
       <c r="U37" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
-      </c>
-      <c r="D38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G38" t="s">
-        <v>144</v>
-      </c>
-      <c r="H38">
-        <v>15</v>
-      </c>
-      <c r="K38">
-        <v>0.75</v>
+        <v>131</v>
+      </c>
+      <c r="H38" t="s">
+        <v>304</v>
+      </c>
+      <c r="I38">
+        <v>0.86</v>
+      </c>
+      <c r="J38">
+        <v>0.86</v>
       </c>
       <c r="L38">
-        <v>0.2</v>
+        <v>0.42</v>
       </c>
       <c r="M38">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="N38">
         <v>2030</v>
@@ -5618,71 +5555,74 @@
         <v>2019</v>
       </c>
       <c r="Q38">
-        <v>260823.50223769023</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>12190.497762309758</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="U38" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>138</v>
       </c>
       <c r="G39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H39" t="s">
-        <v>326</v>
+        <v>304</v>
+      </c>
+      <c r="I39">
+        <v>0.86</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="L39">
-        <v>0.39</v>
+        <v>0.88</v>
       </c>
       <c r="M39">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="N39">
-        <v>2020</v>
+        <v>2050</v>
       </c>
       <c r="O39">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="P39">
         <v>2020</v>
       </c>
       <c r="Q39">
-        <v>260823.50223769023</v>
+        <v>303878.5938430645</v>
       </c>
       <c r="R39">
-        <v>12190.497762309758</v>
+        <v>501599.4061569355</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
         <v>136</v>
@@ -5694,95 +5634,101 @@
         <v>131</v>
       </c>
       <c r="H40" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I40">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="J40">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="L40">
-        <v>0.86</v>
+        <v>0.25</v>
       </c>
       <c r="M40">
+        <v>2013</v>
+      </c>
+      <c r="N40">
+        <v>2025</v>
+      </c>
+      <c r="O40">
         <v>2015</v>
       </c>
-      <c r="N40">
-        <v>2021</v>
-      </c>
-      <c r="O40">
-        <v>2016</v>
-      </c>
       <c r="P40">
-        <v>2021</v>
+        <v>2019</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>21752.5</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="U40" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>136</v>
-      </c>
-      <c r="D41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G41" t="s">
         <v>131</v>
       </c>
       <c r="H41" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I41">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>0.46</v>
+        <v>0.67</v>
       </c>
       <c r="M41">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="N41">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="O41">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="P41">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="Q41">
-        <v>2435.0792096809209</v>
+        <v>32319.716640771392</v>
       </c>
       <c r="R41">
-        <v>16574.110790319079</v>
+        <v>364406.28335922863</v>
       </c>
       <c r="T41">
         <v>1</v>
       </c>
       <c r="U41" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:21">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>172</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
         <v>136</v>
@@ -5791,60 +5737,60 @@
         <v>137</v>
       </c>
       <c r="G42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H42" t="s">
-        <v>326</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
+        <v>304</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="L42">
-        <v>0.94000000000000006</v>
+        <v>0.34</v>
       </c>
       <c r="M42">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="N42">
-        <v>2017</v>
+        <v>2030</v>
       </c>
       <c r="O42">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="P42">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="Q42">
-        <v>3577.0205410445274</v>
+        <v>413573.83935666631</v>
       </c>
       <c r="R42">
-        <v>15432.169458955472</v>
+        <v>244312.16064333371</v>
       </c>
       <c r="T42">
-        <v>0.79</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="U42" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:21">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="D43" t="s">
+        <v>137</v>
       </c>
       <c r="G43" t="s">
         <v>131</v>
       </c>
       <c r="H43" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -5853,39 +5799,39 @@
         <v>1</v>
       </c>
       <c r="L43">
-        <v>0.69000000000000006</v>
+        <v>0.43</v>
       </c>
       <c r="M43">
         <v>2015</v>
       </c>
       <c r="N43">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="O43">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="P43">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="Q43">
-        <v>45289.348484583432</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>32682.651515416568</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>0.42</v>
+        <v>5.4000000000000006E-2</v>
       </c>
       <c r="U43" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
         <v>138</v>
@@ -5894,48 +5840,48 @@
         <v>131</v>
       </c>
       <c r="H44" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I44">
-        <v>0.86</v>
+        <v>0.7</v>
       </c>
       <c r="J44">
-        <v>0.86</v>
+        <v>0.7</v>
       </c>
       <c r="L44">
-        <v>0.42</v>
+        <v>1</v>
       </c>
       <c r="M44">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="N44">
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="O44">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="P44">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>638079.70206497097</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>30833.297935029001</v>
       </c>
       <c r="T44">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="U44" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:21">
       <c r="A45" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C45" t="s">
         <v>138</v>
@@ -5944,60 +5890,57 @@
         <v>131</v>
       </c>
       <c r="H45" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I45">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="J45">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="L45">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="M45">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="N45">
-        <v>2050</v>
+        <v>2027</v>
       </c>
       <c r="O45">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="P45">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="Q45">
-        <v>303878.5938430645</v>
+        <v>370051.54090144561</v>
       </c>
       <c r="R45">
-        <v>501599.4061569355</v>
+        <v>1034948.4590985543</v>
       </c>
       <c r="T45">
-        <v>1</v>
+        <v>0.30809999999999998</v>
       </c>
       <c r="U45" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:21">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
-      </c>
-      <c r="D46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G46" t="s">
         <v>131</v>
       </c>
       <c r="H46" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -6006,92 +5949,89 @@
         <v>1</v>
       </c>
       <c r="L46">
-        <v>0.9</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="M46">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="N46">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="O46">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="P46">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="Q46">
-        <v>451204.69109967712</v>
+        <v>1349446.6608923262</v>
       </c>
       <c r="R46">
-        <v>354273.30890032288</v>
+        <v>94113.339107673848</v>
       </c>
       <c r="T46">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="U46" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:21">
       <c r="A47" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>136</v>
-      </c>
-      <c r="D47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G47" t="s">
         <v>131</v>
       </c>
       <c r="H47" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="L47">
-        <v>0.96</v>
+        <v>0.74</v>
       </c>
       <c r="M47">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="N47">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="O47">
         <v>2018</v>
       </c>
       <c r="P47">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="Q47">
+        <v>10470.424093308253</v>
+      </c>
+      <c r="R47">
+        <v>58169.575906691745</v>
+      </c>
+      <c r="T47">
         <v>0</v>
       </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>1</v>
-      </c>
       <c r="U47" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
         <v>138</v>
@@ -6100,78 +6040,81 @@
         <v>131</v>
       </c>
       <c r="H48" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I48">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="L48">
-        <v>0.43</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M48">
-        <v>2002</v>
+        <v>2017</v>
       </c>
       <c r="N48">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="O48">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="P48">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="Q48">
-        <v>481657.87875209423</v>
+        <v>7751.7100603643785</v>
       </c>
       <c r="R48">
-        <v>486942.12124790577</v>
+        <v>448181.28993963561</v>
       </c>
       <c r="T48">
-        <v>1</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="U48" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" t="s">
-        <v>137</v>
+        <v>303</v>
+      </c>
+      <c r="E49">
+        <v>3.13</v>
+      </c>
+      <c r="F49">
+        <v>2.19</v>
       </c>
       <c r="G49" t="s">
         <v>131</v>
       </c>
       <c r="H49" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I49">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="L49">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
       <c r="M49">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="N49">
-        <v>2021</v>
+        <v>2030</v>
       </c>
       <c r="O49">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="P49">
         <v>2024</v>
@@ -6183,18 +6126,18 @@
         <v>0</v>
       </c>
       <c r="T49">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="U49" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:21">
       <c r="A50" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C50" t="s">
         <v>136</v>
@@ -6206,60 +6149,60 @@
         <v>131</v>
       </c>
       <c r="H50" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I50">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="J50">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="L50">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="M50">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="N50">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="O50">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="P50">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>78994.82719848564</v>
       </c>
       <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>21752.5</v>
+        <v>272758.17280151439</v>
       </c>
       <c r="T50">
-        <v>0.35799999999999998</v>
+        <v>1</v>
       </c>
       <c r="U50" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="D51" t="s">
+        <v>135</v>
       </c>
       <c r="G51" t="s">
         <v>131</v>
       </c>
       <c r="H51" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -6268,101 +6211,98 @@
         <v>1</v>
       </c>
       <c r="L51">
-        <v>0.67</v>
+        <v>0.39</v>
       </c>
       <c r="M51">
         <v>2015</v>
       </c>
       <c r="N51">
-        <v>2025</v>
+        <v>2035</v>
       </c>
       <c r="O51">
         <v>2016</v>
       </c>
       <c r="P51">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="Q51">
-        <v>32319.716640771392</v>
+        <v>498454.43322806311</v>
       </c>
       <c r="R51">
-        <v>364406.28335922863</v>
+        <v>217932.56677193692</v>
       </c>
       <c r="T51">
         <v>1</v>
       </c>
       <c r="U51" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" t="s">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
-      </c>
-      <c r="D52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H52" t="s">
-        <v>326</v>
+        <v>304</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
       <c r="L52">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="M52">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="N52">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="O52">
+        <v>2016</v>
+      </c>
+      <c r="P52">
         <v>2019</v>
       </c>
-      <c r="P52">
-        <v>2021</v>
-      </c>
       <c r="Q52">
-        <v>413573.83935666631</v>
+        <v>741093.00013842876</v>
       </c>
       <c r="R52">
-        <v>244312.16064333371</v>
+        <v>1128906.9998615712</v>
       </c>
       <c r="T52">
-        <v>0.32600000000000001</v>
+        <v>0</v>
       </c>
       <c r="U52" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:21">
       <c r="A53" t="s">
-        <v>175</v>
+        <v>85</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
-      </c>
-      <c r="D53" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G53" t="s">
         <v>131</v>
       </c>
       <c r="H53" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -6371,19 +6311,19 @@
         <v>1</v>
       </c>
       <c r="L53">
-        <v>0.43</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="M53">
         <v>2015</v>
       </c>
       <c r="N53">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="O53">
         <v>2016</v>
       </c>
       <c r="P53">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -6392,18 +6332,18 @@
         <v>0</v>
       </c>
       <c r="T53">
-        <v>5.4000000000000006E-2</v>
+        <v>0.6</v>
       </c>
       <c r="U53" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:21">
       <c r="A54" t="s">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="C54" t="s">
         <v>138</v>
@@ -6412,148 +6352,154 @@
         <v>131</v>
       </c>
       <c r="H54" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I54">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="J54">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>0.34</v>
       </c>
       <c r="M54">
         <v>2015</v>
       </c>
       <c r="N54">
-        <v>2033</v>
+        <v>2025</v>
       </c>
       <c r="O54">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="P54">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="Q54">
-        <v>638079.70206497097</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>30833.297935029001</v>
+        <v>0</v>
       </c>
       <c r="T54">
         <v>1</v>
       </c>
       <c r="U54" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:21">
       <c r="A55" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="D55" t="s">
+        <v>137</v>
       </c>
       <c r="G55" t="s">
         <v>131</v>
       </c>
       <c r="H55" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="L55">
-        <v>0.84</v>
+        <v>0.91</v>
       </c>
       <c r="M55">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="N55">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="O55">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="P55">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="Q55">
-        <v>370051.54090144561</v>
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>1034948.4590985543</v>
+        <v>0</v>
       </c>
       <c r="T55">
-        <v>0.30809999999999998</v>
+        <v>0.47789999999999999</v>
       </c>
       <c r="U55" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:21">
       <c r="A56" t="s">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="D56" t="s">
+        <v>140</v>
       </c>
       <c r="G56" t="s">
         <v>131</v>
       </c>
       <c r="H56" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="J56">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="L56">
-        <v>0.57999999999999996</v>
+        <v>0.91</v>
       </c>
       <c r="M56">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="N56">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="O56">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="P56">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="Q56">
-        <v>1349446.6608923262</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>94113.339107673848</v>
+        <v>0</v>
       </c>
       <c r="T56">
-        <v>0</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="U56" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:21">
       <c r="A57" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
         <v>138</v>
@@ -6562,57 +6508,60 @@
         <v>131</v>
       </c>
       <c r="H57" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I57">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="J57">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="L57">
-        <v>0.74</v>
+        <v>0.48</v>
       </c>
       <c r="M57">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="N57">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="O57">
         <v>2018</v>
       </c>
       <c r="P57">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="Q57">
-        <v>10470.424093308253</v>
+        <v>26056783.910288956</v>
       </c>
       <c r="R57">
-        <v>58169.575906691745</v>
+        <v>879216.08971104492</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="U57" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="58" spans="1:21">
       <c r="A58" t="s">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="D58" t="s">
+        <v>137</v>
       </c>
       <c r="G58" t="s">
         <v>131</v>
       </c>
       <c r="H58" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -6621,95 +6570,86 @@
         <v>1</v>
       </c>
       <c r="L58">
-        <v>0.28999999999999998</v>
+        <v>0.99</v>
       </c>
       <c r="M58">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="N58">
         <v>2030</v>
       </c>
       <c r="O58">
+        <v>2018</v>
+      </c>
+      <c r="P58">
         <v>2019</v>
       </c>
-      <c r="P58">
-        <v>2021</v>
-      </c>
       <c r="Q58">
-        <v>7751.7100603643785</v>
+        <v>75011.418885668551</v>
       </c>
       <c r="R58">
-        <v>448181.28993963561</v>
+        <v>10188.581114331457</v>
       </c>
       <c r="T58">
-        <v>0.41000000000000003</v>
+        <v>1</v>
       </c>
       <c r="U58" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:21">
       <c r="A59" t="s">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="C59" t="s">
-        <v>325</v>
-      </c>
-      <c r="E59">
-        <v>3.13</v>
-      </c>
-      <c r="F59">
-        <v>2.19</v>
+        <v>138</v>
       </c>
       <c r="G59" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H59" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
       <c r="L59">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="M59">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="N59">
         <v>2030</v>
       </c>
       <c r="O59">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="P59">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="Q59">
+        <v>80105.165547396828</v>
+      </c>
+      <c r="R59">
+        <v>128381.83445260317</v>
+      </c>
+      <c r="T59">
         <v>0</v>
       </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="T59">
-        <v>0.24</v>
-      </c>
       <c r="U59" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="60" spans="1:21">
       <c r="A60" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s">
         <v>136</v>
@@ -6721,101 +6661,98 @@
         <v>131</v>
       </c>
       <c r="H60" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I60">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J60">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L60">
-        <v>0.26</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="M60">
         <v>2016</v>
       </c>
       <c r="N60">
-        <v>2026</v>
+        <v>2030</v>
       </c>
       <c r="O60">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="P60">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="Q60">
-        <v>78994.82719848564</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>272758.17280151439</v>
+        <v>0</v>
       </c>
       <c r="T60">
-        <v>1</v>
+        <v>6.4100000000000004E-2</v>
       </c>
       <c r="U60" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="61" spans="1:21">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
         <v>136</v>
       </c>
       <c r="D61" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G61" t="s">
-        <v>131</v>
-      </c>
-      <c r="H61" t="s">
-        <v>326</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
+        <v>142</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>0.7</v>
       </c>
       <c r="L61">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
       <c r="M61">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="N61">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="O61">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="P61">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="Q61">
-        <v>498454.43322806311</v>
+        <v>75067.919760266464</v>
       </c>
       <c r="R61">
-        <v>217932.56677193692</v>
+        <v>127151.08023973354</v>
       </c>
       <c r="T61">
-        <v>1</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="U61" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:21">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C62" t="s">
         <v>138</v>
@@ -6824,7 +6761,7 @@
         <v>131</v>
       </c>
       <c r="H62" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -6833,48 +6770,51 @@
         <v>1</v>
       </c>
       <c r="L62">
-        <v>0.36</v>
+        <v>0.8</v>
       </c>
       <c r="M62">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="N62">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="O62">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="P62">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="Q62">
-        <v>741093.00013842876</v>
+        <v>414564.67553031148</v>
       </c>
       <c r="R62">
-        <v>1128906.9998615712</v>
+        <v>46637.324469688494</v>
       </c>
       <c r="T62">
-        <v>0</v>
+        <v>0.11220000000000001</v>
       </c>
       <c r="U62" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:21">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="D63" t="s">
+        <v>137</v>
       </c>
       <c r="G63" t="s">
         <v>131</v>
       </c>
       <c r="H63" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -6883,19 +6823,19 @@
         <v>1</v>
       </c>
       <c r="L63">
-        <v>0.95000000000000007</v>
+        <v>0.31</v>
       </c>
       <c r="M63">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="N63">
-        <v>2020</v>
+        <v>2040</v>
       </c>
       <c r="O63">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="P63">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -6904,18 +6844,18 @@
         <v>0</v>
       </c>
       <c r="T63">
-        <v>0.6</v>
+        <v>0.22870000000000001</v>
       </c>
       <c r="U63" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="1:21">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
         <v>138</v>
@@ -6924,48 +6864,48 @@
         <v>131</v>
       </c>
       <c r="H64" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I64">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="J64">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="L64">
-        <v>0.34</v>
+        <v>0.25</v>
       </c>
       <c r="M64">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="N64">
+        <v>2025</v>
+      </c>
+      <c r="O64">
+        <v>2013</v>
+      </c>
+      <c r="P64">
         <v>2020</v>
       </c>
-      <c r="O64">
-        <v>2016</v>
-      </c>
-      <c r="P64">
-        <v>2021</v>
-      </c>
       <c r="Q64">
-        <v>0</v>
+        <v>7639691.7527608704</v>
       </c>
       <c r="R64">
-        <v>0</v>
+        <v>10586808.24723913</v>
       </c>
       <c r="T64">
-        <v>1</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="U64" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="65" spans="1:21">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="C65" t="s">
         <v>136</v>
@@ -6977,25 +6917,25 @@
         <v>131</v>
       </c>
       <c r="H65" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I65">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="J65">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="L65">
-        <v>0.91</v>
+        <v>0.33</v>
       </c>
       <c r="M65">
+        <v>2014</v>
+      </c>
+      <c r="N65">
+        <v>2022</v>
+      </c>
+      <c r="O65">
         <v>2015</v>
-      </c>
-      <c r="N65">
-        <v>2020</v>
-      </c>
-      <c r="O65">
-        <v>2016</v>
       </c>
       <c r="P65">
         <v>2022</v>
@@ -7007,48 +6947,48 @@
         <v>0</v>
       </c>
       <c r="T65">
-        <v>0.47789999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="U65" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" spans="1:21">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="C66" t="s">
         <v>136</v>
       </c>
       <c r="D66" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G66" t="s">
         <v>131</v>
       </c>
       <c r="H66" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I66">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="L66">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
       <c r="M66">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="N66">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="O66">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="P66">
         <v>2023</v>
@@ -7060,68 +7000,65 @@
         <v>0</v>
       </c>
       <c r="T66">
-        <v>0.56000000000000005</v>
+        <v>0.34</v>
       </c>
       <c r="U66" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="67" spans="1:21">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
         <v>138</v>
       </c>
       <c r="G67" t="s">
-        <v>131</v>
-      </c>
-      <c r="H67" t="s">
-        <v>326</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
+        <v>142</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>0.95</v>
       </c>
       <c r="L67">
-        <v>0.48</v>
+        <v>0.97</v>
       </c>
       <c r="M67">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="N67">
-        <v>2030</v>
+        <v>2022</v>
       </c>
       <c r="O67">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="P67">
         <v>2024</v>
       </c>
       <c r="Q67">
-        <v>26056783.910288956</v>
+        <v>2794097.0730040986</v>
       </c>
       <c r="R67">
-        <v>879216.08971104492</v>
+        <v>544597.92699590151</v>
       </c>
       <c r="T67">
-        <v>0.79</v>
+        <v>0.84400000000000008</v>
       </c>
       <c r="U67" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:21">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>136</v>
@@ -7130,10 +7067,10 @@
         <v>137</v>
       </c>
       <c r="G68" t="s">
-        <v>131</v>
-      </c>
-      <c r="H68" t="s">
-        <v>326</v>
+        <v>134</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -7141,11 +7078,14 @@
       <c r="J68">
         <v>1</v>
       </c>
+      <c r="K68">
+        <v>0.9</v>
+      </c>
       <c r="L68">
-        <v>0.99</v>
+        <v>0.24</v>
       </c>
       <c r="M68">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="N68">
         <v>2030</v>
@@ -7157,121 +7097,127 @@
         <v>2019</v>
       </c>
       <c r="Q68">
-        <v>75011.418885668551</v>
+        <v>2784330.1868065619</v>
       </c>
       <c r="R68">
-        <v>10188.581114331457</v>
+        <v>4565669.8131934376</v>
       </c>
       <c r="T68">
-        <v>1</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="U68" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:21">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="B69" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="D69" t="s">
+        <v>137</v>
       </c>
       <c r="G69" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H69" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
       <c r="L69">
-        <v>0.84</v>
+        <v>0.39</v>
       </c>
       <c r="M69">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="N69">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="O69">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="P69">
         <v>2020</v>
       </c>
       <c r="Q69">
-        <v>80105.165547396828</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>128381.83445260317</v>
+        <v>0</v>
       </c>
       <c r="T69">
-        <v>0</v>
+        <v>0.55670000000000008</v>
       </c>
       <c r="U69" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:21">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="B70" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="D70" t="s">
+        <v>137</v>
       </c>
       <c r="G70" t="s">
-        <v>131</v>
-      </c>
-      <c r="H70" t="s">
-        <v>326</v>
-      </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-      <c r="J70">
+        <v>142</v>
+      </c>
+      <c r="H70">
+        <v>9</v>
+      </c>
+      <c r="K70">
         <v>1</v>
       </c>
       <c r="L70">
-        <v>0.28999999999999998</v>
+        <v>0.52</v>
       </c>
       <c r="M70">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="N70">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="O70">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="P70">
         <v>2021</v>
       </c>
       <c r="Q70">
-        <v>52240.488471081924</v>
+        <v>89998.291471429999</v>
       </c>
       <c r="R70">
-        <v>78251.511528918083</v>
+        <v>75081.708528570001</v>
       </c>
       <c r="T70">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="U70" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:21">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
         <v>136</v>
@@ -7280,25 +7226,22 @@
         <v>137</v>
       </c>
       <c r="G71" t="s">
-        <v>131</v>
-      </c>
-      <c r="H71" t="s">
-        <v>326</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-      <c r="J71">
-        <v>1</v>
+        <v>142</v>
+      </c>
+      <c r="H71">
+        <v>9</v>
+      </c>
+      <c r="K71">
+        <v>0.6</v>
       </c>
       <c r="L71">
-        <v>0.56000000000000005</v>
+        <v>0.69000000000000006</v>
       </c>
       <c r="M71">
         <v>2016</v>
       </c>
       <c r="N71">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="O71">
         <v>2017</v>
@@ -7307,24 +7250,24 @@
         <v>2022</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>264761.8375622328</v>
       </c>
       <c r="R71">
-        <v>0</v>
+        <v>44578.162437767227</v>
       </c>
       <c r="T71">
-        <v>6.4100000000000004E-2</v>
+        <v>1</v>
       </c>
       <c r="U71" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:21">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
         <v>136</v>
@@ -7333,98 +7276,101 @@
         <v>137</v>
       </c>
       <c r="G72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K72">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="L72">
-        <v>0.44</v>
+        <v>0.78</v>
       </c>
       <c r="M72">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="N72">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="O72">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="P72">
         <v>2023</v>
       </c>
       <c r="Q72">
-        <v>75067.919760266464</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>127151.08023973354</v>
+        <v>0</v>
       </c>
       <c r="T72">
-        <v>9.8000000000000004E-2</v>
+        <v>1</v>
       </c>
       <c r="U72" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:21">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="D73" t="s">
+        <v>135</v>
       </c>
       <c r="G73" t="s">
         <v>131</v>
       </c>
       <c r="H73" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="J73">
-        <v>1</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="L73">
-        <v>0.8</v>
+        <v>0.32</v>
       </c>
       <c r="M73">
         <v>2013</v>
       </c>
       <c r="N73">
-        <v>2040</v>
+        <v>2020</v>
       </c>
       <c r="O73">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="P73">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="Q73">
-        <v>414564.67553031148</v>
+        <v>4995419.6435817536</v>
       </c>
       <c r="R73">
-        <v>46637.324469688494</v>
+        <v>9904580.3564182464</v>
       </c>
       <c r="T73">
-        <v>0.11220000000000001</v>
+        <v>1</v>
       </c>
       <c r="U73" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:21">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="B74" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="C74" t="s">
         <v>136</v>
@@ -7433,31 +7379,28 @@
         <v>137</v>
       </c>
       <c r="G74" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H74" t="s">
-        <v>326</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
+        <v>304</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L74">
-        <v>0.31</v>
+        <v>0.63</v>
       </c>
       <c r="M74">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="N74">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="O74">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="P74">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -7466,186 +7409,168 @@
         <v>0</v>
       </c>
       <c r="T74">
-        <v>0.22870000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="U74" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:21">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="B75" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="C75" t="s">
         <v>138</v>
       </c>
       <c r="G75" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H75" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
       <c r="L75">
-        <v>0.25</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="M75">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="N75">
-        <v>2020</v>
+        <v>2050</v>
       </c>
       <c r="O75">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="P75">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="Q75">
-        <v>7639691.7527608704</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>10586808.24723913</v>
+        <v>0</v>
       </c>
       <c r="T75">
-        <v>0.28999999999999998</v>
+        <v>1</v>
       </c>
       <c r="U75" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" spans="1:21">
       <c r="A76" t="s">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C76" t="s">
-        <v>136</v>
-      </c>
-      <c r="D76" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G76" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H76" t="s">
-        <v>326</v>
-      </c>
-      <c r="I76">
-        <v>1</v>
+        <v>304</v>
       </c>
       <c r="J76">
         <v>1</v>
       </c>
       <c r="L76">
-        <v>0.53</v>
+        <v>0.23</v>
       </c>
       <c r="M76">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="N76">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="O76">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="P76">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="Q76">
-        <v>69408.560333988455</v>
+        <v>86188.973721744012</v>
       </c>
       <c r="R76">
-        <v>101682.43966601155</v>
+        <v>24078.026278255991</v>
       </c>
       <c r="T76">
-        <v>0.28999999999999998</v>
+        <v>1</v>
       </c>
       <c r="U76" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:21">
       <c r="A77" t="s">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="B77" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C77" t="s">
-        <v>136</v>
-      </c>
-      <c r="D77" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G77" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H77" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
       <c r="L77">
-        <v>0.33</v>
+        <v>0.52</v>
       </c>
       <c r="M77">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="N77">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="O77">
         <v>2015</v>
       </c>
       <c r="P77">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>157300.227918088</v>
       </c>
       <c r="R77">
-        <v>0</v>
+        <v>256065.772081912</v>
       </c>
       <c r="T77">
-        <v>0.34</v>
+        <v>1</v>
       </c>
       <c r="U77" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:21">
       <c r="A78" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="B78" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C78" t="s">
-        <v>136</v>
-      </c>
-      <c r="D78" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G78" t="s">
         <v>131</v>
       </c>
       <c r="H78" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -7654,31 +7579,31 @@
         <v>1</v>
       </c>
       <c r="L78">
-        <v>0.73</v>
+        <v>0.66</v>
       </c>
       <c r="M78">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="N78">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="O78">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="P78">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>50287.328437504606</v>
       </c>
       <c r="R78">
-        <v>0</v>
+        <v>363078.67156249541</v>
       </c>
       <c r="T78">
-        <v>0.34</v>
+        <v>1</v>
       </c>
       <c r="U78" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -7692,45 +7617,48 @@
         <v>138</v>
       </c>
       <c r="G79" t="s">
-        <v>144</v>
-      </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-      <c r="K79">
-        <v>0.95</v>
+        <v>131</v>
+      </c>
+      <c r="H79" t="s">
+        <v>304</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
       </c>
       <c r="L79">
-        <v>0.97</v>
+        <v>0.3</v>
       </c>
       <c r="M79">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="N79">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="O79">
         <v>2015</v>
       </c>
       <c r="P79">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="Q79">
-        <v>2794097.0730040986</v>
+        <v>220221.12183529223</v>
       </c>
       <c r="R79">
-        <v>544597.92699590151</v>
+        <v>310630.27816470782</v>
       </c>
       <c r="T79">
-        <v>0.84400000000000008</v>
+        <v>0</v>
       </c>
       <c r="U79" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" spans="1:21">
       <c r="A80" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
@@ -7742,10 +7670,10 @@
         <v>137</v>
       </c>
       <c r="G80" t="s">
-        <v>134</v>
-      </c>
-      <c r="H80">
-        <v>1</v>
+        <v>131</v>
+      </c>
+      <c r="H80" t="s">
+        <v>304</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -7753,40 +7681,37 @@
       <c r="J80">
         <v>1</v>
       </c>
-      <c r="K80">
-        <v>0.9</v>
-      </c>
       <c r="L80">
-        <v>0.24</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="M80">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="N80">
         <v>2030</v>
       </c>
       <c r="O80">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="P80">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="Q80">
-        <v>2784330.1868065619</v>
+        <v>152767.86090478685</v>
       </c>
       <c r="R80">
-        <v>4565669.8131934376</v>
+        <v>378083.53909521317</v>
       </c>
       <c r="T80">
-        <v>0.85299999999999998</v>
+        <v>0</v>
       </c>
       <c r="U80" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:21">
       <c r="A81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
@@ -7801,7 +7726,7 @@
         <v>131</v>
       </c>
       <c r="H81" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -7810,136 +7735,130 @@
         <v>1</v>
       </c>
       <c r="L81">
-        <v>0.39</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="M81">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="N81">
-        <v>2019</v>
+        <v>2030</v>
       </c>
       <c r="O81">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="P81">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>523303.09094109439</v>
       </c>
       <c r="R81">
-        <v>0</v>
+        <v>7548.309058905611</v>
       </c>
       <c r="T81">
-        <v>0.55670000000000008</v>
+        <v>1</v>
       </c>
       <c r="U81" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:21">
       <c r="A82" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B82" t="s">
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>136</v>
-      </c>
-      <c r="D82" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G82" t="s">
-        <v>144</v>
-      </c>
-      <c r="H82">
-        <v>9</v>
-      </c>
-      <c r="K82">
+        <v>139</v>
+      </c>
+      <c r="H82" t="s">
+        <v>304</v>
+      </c>
+      <c r="I82">
         <v>1</v>
       </c>
       <c r="L82">
-        <v>0.52</v>
+        <v>0.38</v>
       </c>
       <c r="M82">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="N82">
-        <v>2019</v>
+        <v>2050</v>
       </c>
       <c r="O82">
         <v>2017</v>
       </c>
       <c r="P82">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="Q82">
-        <v>89998.291471429999</v>
+        <v>388368.40900136431</v>
       </c>
       <c r="R82">
-        <v>75081.708528570001</v>
+        <v>142482.99099863574</v>
       </c>
       <c r="T82">
         <v>1</v>
       </c>
       <c r="U82" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:21">
       <c r="A83" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>136</v>
-      </c>
-      <c r="D83" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G83" t="s">
-        <v>144</v>
-      </c>
-      <c r="H83">
-        <v>9</v>
-      </c>
-      <c r="K83">
-        <v>0.6</v>
+        <v>133</v>
+      </c>
+      <c r="H83" t="s">
+        <v>304</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
       </c>
       <c r="L83">
-        <v>0.69000000000000006</v>
+        <v>1</v>
       </c>
       <c r="M83">
+        <v>2011</v>
+      </c>
+      <c r="N83">
+        <v>2020</v>
+      </c>
+      <c r="O83">
         <v>2016</v>
       </c>
-      <c r="N83">
-        <v>2021</v>
-      </c>
-      <c r="O83">
-        <v>2017</v>
-      </c>
       <c r="P83">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="Q83">
-        <v>264761.8375622328</v>
+        <v>19905.125464660872</v>
       </c>
       <c r="R83">
-        <v>44578.162437767227</v>
+        <v>18145.874535339128</v>
       </c>
       <c r="T83">
-        <v>1</v>
+        <v>0.82000000000000006</v>
       </c>
       <c r="U83" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" spans="1:21">
       <c r="A84" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
@@ -7951,95 +7870,95 @@
         <v>137</v>
       </c>
       <c r="G84" t="s">
-        <v>144</v>
-      </c>
-      <c r="H84">
-        <v>9</v>
-      </c>
-      <c r="K84">
-        <v>0.95</v>
+        <v>131</v>
+      </c>
+      <c r="H84" t="s">
+        <v>304</v>
+      </c>
+      <c r="I84">
+        <v>0.87</v>
+      </c>
+      <c r="J84">
+        <v>0.87</v>
       </c>
       <c r="L84">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
       <c r="M84">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="N84">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="O84">
         <v>2016</v>
       </c>
       <c r="P84">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>133558.90949356617</v>
       </c>
       <c r="R84">
-        <v>0</v>
+        <v>85549.090506433844</v>
       </c>
       <c r="T84">
         <v>1</v>
       </c>
       <c r="U84" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:21">
       <c r="A85" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B85" t="s">
         <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G85" t="s">
-        <v>131</v>
-      </c>
-      <c r="H85" t="s">
-        <v>326</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-      <c r="J85">
+        <v>142</v>
+      </c>
+      <c r="H85">
+        <v>6</v>
+      </c>
+      <c r="K85">
         <v>1</v>
       </c>
       <c r="L85">
-        <v>0.6</v>
+        <v>0.79</v>
       </c>
       <c r="M85">
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="N85">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="O85">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="P85">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="Q85">
-        <v>6754871.390457835</v>
+        <v>103544.86251166406</v>
       </c>
       <c r="R85">
-        <v>595128.6095421646</v>
+        <v>153614.13748833592</v>
       </c>
       <c r="T85">
         <v>1</v>
       </c>
       <c r="U85" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="86" spans="1:21">
       <c r="A86" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B86" t="s">
         <v>19</v>
@@ -8048,45 +7967,48 @@
         <v>138</v>
       </c>
       <c r="G86" t="s">
-        <v>144</v>
-      </c>
-      <c r="H86">
-        <v>15</v>
-      </c>
-      <c r="K86">
-        <v>0.89270000000000005</v>
+        <v>131</v>
+      </c>
+      <c r="H86" t="s">
+        <v>304</v>
+      </c>
+      <c r="I86">
+        <v>0.27</v>
+      </c>
+      <c r="J86">
+        <v>0.27</v>
       </c>
       <c r="L86">
-        <v>0.70000000000000007</v>
+        <v>0.68</v>
       </c>
       <c r="M86">
-        <v>2005</v>
+        <v>2016</v>
       </c>
       <c r="N86">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="O86">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="P86">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="Q86">
-        <v>25276.982031206586</v>
+        <v>0</v>
       </c>
       <c r="R86">
-        <v>87553.017968793414</v>
+        <v>0</v>
       </c>
       <c r="T86">
         <v>1</v>
       </c>
       <c r="U86" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:21">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B87" t="s">
         <v>21</v>
@@ -8095,81 +8017,87 @@
         <v>136</v>
       </c>
       <c r="D87" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G87" t="s">
         <v>131</v>
       </c>
       <c r="H87" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I87">
-        <v>0.93100000000000005</v>
+        <v>1</v>
       </c>
       <c r="J87">
-        <v>0.93100000000000005</v>
+        <v>1</v>
       </c>
       <c r="L87">
-        <v>0.32</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M87">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="N87">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="O87">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="P87">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="Q87">
-        <v>4995419.6435817536</v>
+        <v>0</v>
       </c>
       <c r="R87">
-        <v>9904580.3564182464</v>
+        <v>0</v>
       </c>
       <c r="T87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U87" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:21">
       <c r="A88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B88" t="s">
         <v>25</v>
       </c>
       <c r="C88" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="D88" t="s">
+        <v>137</v>
       </c>
       <c r="G88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H88" t="s">
-        <v>326</v>
+        <v>304</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
       </c>
       <c r="J88">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="L88">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="M88">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="N88">
-        <v>2018</v>
+        <v>2030</v>
       </c>
       <c r="O88">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="P88">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="Q88">
         <v>0</v>
@@ -8178,18 +8106,18 @@
         <v>0</v>
       </c>
       <c r="T88">
-        <v>0.36700000000000005</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="U88" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="89" spans="1:21">
       <c r="A89" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C89" t="s">
         <v>136</v>
@@ -8198,19 +8126,19 @@
         <v>137</v>
       </c>
       <c r="G89" t="s">
-        <v>133</v>
-      </c>
-      <c r="H89" t="s">
-        <v>326</v>
-      </c>
-      <c r="J89">
-        <v>0.7</v>
+        <v>142</v>
+      </c>
+      <c r="H89">
+        <v>11</v>
+      </c>
+      <c r="K89">
+        <v>0.44</v>
       </c>
       <c r="L89">
-        <v>0.63</v>
+        <v>0.45</v>
       </c>
       <c r="M89">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="N89">
         <v>2030</v>
@@ -8219,54 +8147,60 @@
         <v>2015</v>
       </c>
       <c r="P89">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>248965.63534281132</v>
       </c>
       <c r="R89">
-        <v>0</v>
+        <v>32411.364657188678</v>
       </c>
       <c r="T89">
-        <v>0.93</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="U89" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:21">
       <c r="A90" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B90" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C90" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="D90" t="s">
+        <v>137</v>
       </c>
       <c r="G90" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H90" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
       <c r="L90">
-        <v>0.57000000000000006</v>
+        <v>0.65</v>
       </c>
       <c r="M90">
         <v>2010</v>
       </c>
       <c r="N90">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="O90">
         <v>2015</v>
       </c>
       <c r="P90">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -8275,271 +8209,280 @@
         <v>0</v>
       </c>
       <c r="T90">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="U90" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91" spans="1:21">
       <c r="A91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C91" t="s">
         <v>138</v>
       </c>
       <c r="G91" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H91" t="s">
-        <v>326</v>
+        <v>304</v>
+      </c>
+      <c r="I91">
+        <v>0.94</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="L91">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="M91">
-        <v>2005</v>
+        <v>2019</v>
       </c>
       <c r="N91">
+        <v>2030</v>
+      </c>
+      <c r="O91">
         <v>2019</v>
       </c>
-      <c r="O91">
-        <v>2015</v>
-      </c>
       <c r="P91">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="Q91">
-        <v>86188.973721744012</v>
+        <v>542898.8931382685</v>
       </c>
       <c r="R91">
-        <v>24078.026278255991</v>
+        <v>903665.1068617315</v>
       </c>
       <c r="T91">
-        <v>1</v>
+        <v>0.69000000000000006</v>
       </c>
       <c r="U91" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:21">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C92" t="s">
         <v>138</v>
       </c>
       <c r="G92" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H92" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0.94</v>
+      </c>
+      <c r="J92">
+        <v>0.94</v>
       </c>
       <c r="L92">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="M92">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="N92">
-        <v>2019</v>
+        <v>2030</v>
       </c>
       <c r="O92">
         <v>2015</v>
       </c>
       <c r="P92">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="Q92">
-        <v>157300.227918088</v>
+        <v>1738037.0663147885</v>
       </c>
       <c r="R92">
-        <v>256065.772081912</v>
+        <v>2019021.9336852115</v>
       </c>
       <c r="T92">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="U92" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:21">
       <c r="A93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B93" t="s">
         <v>31</v>
       </c>
       <c r="C93" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="D93" t="s">
+        <v>137</v>
       </c>
       <c r="G93" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H93" t="s">
-        <v>326</v>
+        <v>304</v>
+      </c>
+      <c r="I93">
+        <v>0.94</v>
       </c>
       <c r="J93">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="L93">
-        <v>0.71</v>
+        <v>0.43</v>
       </c>
       <c r="M93">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="N93">
-        <v>2018</v>
+        <v>2030</v>
       </c>
       <c r="O93">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="P93">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="Q93">
-        <v>76119.155977881208</v>
+        <v>1353813.9178252162</v>
       </c>
       <c r="R93">
-        <v>34147.844022118792</v>
+        <v>2403245.0821747836</v>
       </c>
       <c r="T93">
-        <v>0.13</v>
+        <v>0.57020000000000004</v>
       </c>
       <c r="U93" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:21">
       <c r="A94" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C94" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="D94" t="s">
+        <v>137</v>
       </c>
       <c r="G94" t="s">
-        <v>131</v>
-      </c>
-      <c r="H94" t="s">
-        <v>326</v>
-      </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-      <c r="J94">
+        <v>142</v>
+      </c>
+      <c r="H94">
+        <v>15</v>
+      </c>
+      <c r="K94">
         <v>1</v>
       </c>
       <c r="L94">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="M94">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="N94">
-        <v>2021</v>
+        <v>2030</v>
       </c>
       <c r="O94">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="P94">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="Q94">
-        <v>50287.328437504606</v>
+        <v>0</v>
       </c>
       <c r="R94">
-        <v>363078.67156249541</v>
+        <v>0</v>
       </c>
       <c r="T94">
         <v>1</v>
       </c>
       <c r="U94" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" spans="1:21">
       <c r="A95" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="B95" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C95" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="D95" t="s">
+        <v>135</v>
       </c>
       <c r="G95" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="H95" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I95">
-        <v>1</v>
-      </c>
-      <c r="J95">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="L95">
-        <v>0.3</v>
+        <v>0.72</v>
       </c>
       <c r="M95">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="N95">
+        <v>2030</v>
+      </c>
+      <c r="O95">
+        <v>2016</v>
+      </c>
+      <c r="P95">
         <v>2020</v>
       </c>
-      <c r="O95">
-        <v>2015</v>
-      </c>
-      <c r="P95">
-        <v>2022</v>
-      </c>
       <c r="Q95">
-        <v>220221.12183529223</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>310630.27816470782</v>
+        <v>0</v>
       </c>
       <c r="T95">
-        <v>0</v>
+        <v>0.88300000000000001</v>
       </c>
       <c r="U95" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:21">
       <c r="A96" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="C96" t="s">
-        <v>136</v>
-      </c>
-      <c r="D96" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G96" t="s">
         <v>131</v>
       </c>
       <c r="H96" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -8548,807 +8491,798 @@
         <v>1</v>
       </c>
       <c r="L96">
-        <v>0.57999999999999996</v>
+        <v>0.59</v>
       </c>
       <c r="M96">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="N96">
         <v>2030</v>
       </c>
       <c r="O96">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="P96">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="Q96">
-        <v>152767.86090478685</v>
+        <v>4253357.6841606703</v>
       </c>
       <c r="R96">
-        <v>378083.53909521317</v>
+        <v>5127493.4858393297</v>
       </c>
       <c r="T96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U96" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="97" spans="1:21">
       <c r="A97" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="C97" t="s">
         <v>136</v>
       </c>
       <c r="D97" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G97" t="s">
-        <v>131</v>
-      </c>
-      <c r="H97" t="s">
-        <v>326</v>
-      </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
-      <c r="J97">
+        <v>142</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="K97">
         <v>1</v>
       </c>
       <c r="L97">
-        <v>0.57000000000000006</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="M97">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="N97">
         <v>2030</v>
       </c>
       <c r="O97">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="P97">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="Q97">
-        <v>523303.09094109439</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>7548.309058905611</v>
+        <v>0</v>
       </c>
       <c r="T97">
         <v>1</v>
       </c>
       <c r="U97" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:21">
       <c r="A98" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="C98" t="s">
         <v>138</v>
       </c>
       <c r="G98" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H98" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0.66839999999999999</v>
+      </c>
+      <c r="J98">
+        <v>0.66839999999999999</v>
       </c>
       <c r="L98">
-        <v>0.38</v>
+        <v>0.81</v>
       </c>
       <c r="M98">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="N98">
-        <v>2050</v>
+        <v>2027</v>
       </c>
       <c r="O98">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="P98">
         <v>2019</v>
       </c>
       <c r="Q98">
-        <v>388368.40900136431</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>142482.99099863574</v>
+        <v>0</v>
       </c>
       <c r="T98">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="U98" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:21">
       <c r="A99" t="s">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="C99" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="D99" t="s">
+        <v>135</v>
       </c>
       <c r="G99" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H99" t="s">
-        <v>326</v>
+        <v>304</v>
+      </c>
+      <c r="I99">
+        <v>0.2024</v>
       </c>
       <c r="J99">
-        <v>1</v>
+        <v>0.2024</v>
       </c>
       <c r="L99">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="M99">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="N99">
-        <v>2020</v>
+        <v>2027</v>
       </c>
       <c r="O99">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="P99">
         <v>2020</v>
       </c>
       <c r="Q99">
-        <v>19905.125464660872</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>18145.874535339128</v>
+        <v>0</v>
       </c>
       <c r="T99">
-        <v>0.82000000000000006</v>
+        <v>0.154</v>
       </c>
       <c r="U99" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" spans="1:21">
       <c r="A100" t="s">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="C100" t="s">
         <v>136</v>
       </c>
       <c r="D100" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G100" t="s">
         <v>131</v>
       </c>
       <c r="H100" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I100">
-        <v>0.87</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="J100">
-        <v>0.87</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="L100">
-        <v>0.63</v>
+        <v>0.2</v>
       </c>
       <c r="M100">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="N100">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="O100">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="P100">
         <v>2021</v>
       </c>
       <c r="Q100">
-        <v>133558.90949356617</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>85549.090506433844</v>
+        <v>0</v>
       </c>
       <c r="T100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U100" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" spans="1:21">
       <c r="A101" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G101" t="s">
-        <v>144</v>
-      </c>
-      <c r="H101">
-        <v>6</v>
+        <v>131</v>
+      </c>
+      <c r="H101" t="s">
+        <v>304</v>
+      </c>
+      <c r="I101">
+        <v>0.5</v>
+      </c>
+      <c r="J101">
+        <v>0.5</v>
       </c>
       <c r="K101">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="L101">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="M101">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="N101">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="O101">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="P101">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="Q101">
-        <v>103544.86251166406</v>
+        <v>11000</v>
       </c>
       <c r="R101">
-        <v>153614.13748833592</v>
+        <v>1200</v>
       </c>
       <c r="T101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U101" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
     </row>
     <row r="102" spans="1:21">
       <c r="A102" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="B102" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G102" t="s">
-        <v>131</v>
-      </c>
-      <c r="H102" t="s">
-        <v>326</v>
+        <v>142</v>
+      </c>
+      <c r="H102">
+        <v>15</v>
       </c>
       <c r="I102">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="J102">
-        <v>0.27</v>
+        <v>0.5</v>
+      </c>
+      <c r="K102">
+        <v>0.2</v>
       </c>
       <c r="L102">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="M102">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="N102">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="O102">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="P102">
         <v>2023</v>
       </c>
       <c r="Q102">
+        <v>11000</v>
+      </c>
+      <c r="R102">
+        <v>1200</v>
+      </c>
+      <c r="T102">
         <v>0</v>
       </c>
-      <c r="R102">
-        <v>0</v>
-      </c>
-      <c r="T102">
-        <v>1</v>
-      </c>
       <c r="U102" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
     </row>
     <row r="103" spans="1:21">
       <c r="A103" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="B103" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>136</v>
-      </c>
-      <c r="D103" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G103" t="s">
-        <v>131</v>
-      </c>
-      <c r="H103" t="s">
-        <v>326</v>
-      </c>
-      <c r="I103">
-        <v>1</v>
-      </c>
-      <c r="J103">
-        <v>1</v>
+        <v>142</v>
+      </c>
+      <c r="H103">
+        <v>15</v>
+      </c>
+      <c r="K103">
+        <v>0.2</v>
       </c>
       <c r="L103">
-        <v>0.28999999999999998</v>
+        <v>0.75</v>
       </c>
       <c r="M103">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="N103">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="O103">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="P103">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="R103">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="T103">
         <v>0</v>
       </c>
       <c r="U103" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
     </row>
     <row r="104" spans="1:21">
       <c r="A104" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="B104" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>136</v>
-      </c>
-      <c r="D104" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G104" t="s">
-        <v>131</v>
-      </c>
-      <c r="H104" t="s">
-        <v>326</v>
-      </c>
-      <c r="I104">
-        <v>1</v>
-      </c>
-      <c r="J104">
-        <v>1</v>
+        <v>142</v>
+      </c>
+      <c r="H104">
+        <v>11</v>
+      </c>
+      <c r="K104">
+        <v>0.2</v>
       </c>
       <c r="L104">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="M104">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="N104">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="O104">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="P104">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="Q104">
+        <v>11000</v>
+      </c>
+      <c r="R104">
+        <v>1200</v>
+      </c>
+      <c r="T104">
         <v>0</v>
       </c>
-      <c r="R104">
-        <v>0</v>
-      </c>
-      <c r="T104">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="U104" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
     </row>
     <row r="105" spans="1:21">
       <c r="A105" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="B105" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>136</v>
-      </c>
-      <c r="D105" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G105" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H105">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K105">
-        <v>0.44</v>
+        <v>0.2</v>
       </c>
       <c r="L105">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="M105">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="N105">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="O105">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="P105">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="Q105">
-        <v>248965.63534281132</v>
+        <v>11000</v>
       </c>
       <c r="R105">
-        <v>32411.364657188678</v>
+        <v>1200</v>
       </c>
       <c r="T105">
-        <v>0.70000000000000007</v>
+        <v>0</v>
       </c>
       <c r="U105" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
     </row>
     <row r="106" spans="1:21">
       <c r="A106" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="B106" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C106" t="s">
-        <v>136</v>
-      </c>
-      <c r="D106" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G106" t="s">
-        <v>131</v>
-      </c>
-      <c r="H106" t="s">
-        <v>326</v>
-      </c>
-      <c r="I106">
-        <v>1</v>
-      </c>
-      <c r="J106">
-        <v>1</v>
+        <v>142</v>
+      </c>
+      <c r="H106">
+        <v>3</v>
+      </c>
+      <c r="K106">
+        <v>0.2</v>
       </c>
       <c r="L106">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="M106">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="N106">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="O106">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="P106">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="Q106">
+        <v>11000</v>
+      </c>
+      <c r="R106">
+        <v>1200</v>
+      </c>
+      <c r="T106">
         <v>0</v>
       </c>
-      <c r="R106">
-        <v>0</v>
-      </c>
-      <c r="T106">
-        <v>0.61</v>
-      </c>
       <c r="U106" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
     </row>
     <row r="107" spans="1:21">
       <c r="A107" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B107" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G107" t="s">
-        <v>131</v>
-      </c>
-      <c r="H107" t="s">
-        <v>326</v>
-      </c>
-      <c r="I107">
-        <v>0.94</v>
+        <v>142</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
       </c>
       <c r="J107">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="L107">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
       <c r="M107">
-        <v>2000</v>
+        <v>2018</v>
       </c>
       <c r="N107">
+        <v>2025</v>
+      </c>
+      <c r="O107">
         <v>2020</v>
       </c>
-      <c r="O107">
-        <v>2015</v>
-      </c>
       <c r="P107">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="Q107">
-        <v>542898.8931382685</v>
+        <v>1558</v>
       </c>
       <c r="R107">
-        <v>903665.1068617315</v>
+        <v>13333</v>
+      </c>
+      <c r="S107">
+        <v>1350</v>
       </c>
       <c r="T107">
-        <v>0.69000000000000006</v>
+        <v>0.5</v>
       </c>
       <c r="U107" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
     </row>
     <row r="108" spans="1:21">
       <c r="A108" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B108" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G108" t="s">
-        <v>131</v>
-      </c>
-      <c r="H108" t="s">
-        <v>326</v>
+        <v>142</v>
+      </c>
+      <c r="H108">
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>0.94</v>
+        <v>0.86</v>
       </c>
       <c r="J108">
-        <v>0.94</v>
+        <v>0.86</v>
       </c>
       <c r="L108">
-        <v>0.54</v>
+        <v>0.88</v>
       </c>
       <c r="M108">
-        <v>2000</v>
+        <v>2018</v>
       </c>
       <c r="N108">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="O108">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="P108">
         <v>2023</v>
       </c>
       <c r="Q108">
-        <v>1738037.0663147885</v>
+        <v>303878.5938430645</v>
       </c>
       <c r="R108">
-        <v>2019021.9336852115</v>
+        <v>501599.4061569355</v>
       </c>
       <c r="T108">
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="U108" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
     </row>
     <row r="109" spans="1:21">
       <c r="A109" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
-        <v>136</v>
-      </c>
-      <c r="D109" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G109" t="s">
-        <v>131</v>
-      </c>
-      <c r="H109" t="s">
-        <v>326</v>
+        <v>142</v>
+      </c>
+      <c r="H109">
+        <v>15</v>
       </c>
       <c r="I109">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="J109">
-        <v>0.94</v>
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>0.9</v>
       </c>
       <c r="L109">
-        <v>0.43</v>
+        <v>0.24</v>
       </c>
       <c r="M109">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="N109">
+        <v>2025</v>
+      </c>
+      <c r="O109">
         <v>2020</v>
       </c>
-      <c r="O109">
-        <v>2015</v>
-      </c>
       <c r="P109">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="Q109">
-        <v>1353813.9178252162</v>
+        <v>2784330.1868065619</v>
       </c>
       <c r="R109">
-        <v>2403245.0821747836</v>
+        <v>4565669.8131934376</v>
       </c>
       <c r="T109">
-        <v>0.57020000000000004</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="U109" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
     </row>
     <row r="110" spans="1:21">
       <c r="A110" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B110" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
-        <v>136</v>
-      </c>
-      <c r="D110" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="G110" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H110">
         <v>15</v>
       </c>
-      <c r="K110">
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
         <v>1</v>
       </c>
       <c r="L110">
-        <v>0.62</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="M110">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="N110">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="O110">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="P110">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="Q110">
+        <v>152767.86090478685</v>
+      </c>
+      <c r="R110">
+        <v>378083.53909521317</v>
+      </c>
+      <c r="T110">
         <v>0</v>
       </c>
-      <c r="R110">
-        <v>0</v>
-      </c>
-      <c r="T110">
-        <v>1</v>
-      </c>
       <c r="U110" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
     </row>
     <row r="111" spans="1:21">
       <c r="A111" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>136</v>
-      </c>
-      <c r="D111" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G111" t="s">
-        <v>140</v>
-      </c>
-      <c r="H111" t="s">
-        <v>326</v>
-      </c>
-      <c r="I111">
-        <v>0.99</v>
+        <v>142</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>0.6</v>
       </c>
       <c r="L111">
-        <v>0.72</v>
+        <v>0.15</v>
       </c>
       <c r="M111">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="N111">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="O111">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="P111">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>1209218.5863059745</v>
       </c>
       <c r="R111">
-        <v>0</v>
+        <v>2110267.4136940255</v>
       </c>
       <c r="T111">
-        <v>0.88300000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="U111" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
     </row>
     <row r="112" spans="1:21">
       <c r="A112" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="B112" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G112" t="s">
-        <v>131</v>
-      </c>
-      <c r="H112" t="s">
-        <v>326</v>
+        <v>142</v>
+      </c>
+      <c r="H112">
+        <v>2</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -9357,69 +9291,69 @@
         <v>1</v>
       </c>
       <c r="L112">
-        <v>0.59</v>
+        <v>0.9</v>
       </c>
       <c r="M112">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="N112">
+        <v>2025</v>
+      </c>
+      <c r="O112">
         <v>2020</v>
       </c>
-      <c r="O112">
-        <v>2016</v>
-      </c>
       <c r="P112">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="Q112">
-        <v>4253357.6841606703</v>
+        <v>451204.69109967712</v>
       </c>
       <c r="R112">
-        <v>5127493.4858393297</v>
+        <v>354273.30890032288</v>
       </c>
       <c r="T112">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="U112" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113" spans="1:21">
       <c r="A113" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="B113" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>136</v>
-      </c>
-      <c r="D113" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G113" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H113">
-        <v>1</v>
-      </c>
-      <c r="K113">
+        <v>3</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
         <v>1</v>
       </c>
       <c r="L113">
-        <v>0.56000000000000005</v>
+        <v>0.39</v>
       </c>
       <c r="M113">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="N113">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="O113">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="P113">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="Q113">
         <v>0</v>
@@ -9428,95 +9362,104 @@
         <v>0</v>
       </c>
       <c r="T113">
-        <v>1</v>
+        <v>0.55670000000000008</v>
       </c>
       <c r="U113" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
     </row>
     <row r="114" spans="1:21">
       <c r="A114" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="B114" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G114" t="s">
-        <v>131</v>
-      </c>
-      <c r="H114" t="s">
-        <v>326</v>
+        <v>142</v>
+      </c>
+      <c r="H114">
+        <v>4</v>
       </c>
       <c r="I114">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="J114">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="L114">
-        <v>0.37</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="M114">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N114">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="O114">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="P114">
         <v>2023</v>
       </c>
       <c r="Q114">
+        <v>523303.09094109439</v>
+      </c>
+      <c r="R114">
+        <v>7548.309058905611</v>
+      </c>
+      <c r="T114">
         <v>0</v>
       </c>
-      <c r="R114">
-        <v>0</v>
-      </c>
-      <c r="T114">
-        <v>1.52E-2</v>
-      </c>
       <c r="U114" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
     </row>
     <row r="115" spans="1:21">
       <c r="A115" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="B115" t="s">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>138</v>
+        <v>303</v>
+      </c>
+      <c r="E115">
+        <v>3.19</v>
+      </c>
+      <c r="F115">
+        <v>2.17</v>
       </c>
       <c r="G115" t="s">
         <v>131</v>
       </c>
       <c r="H115" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
       </c>
       <c r="L115">
-        <v>0.35000000000000003</v>
+        <v>0</v>
       </c>
       <c r="M115">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N115">
-        <v>2018</v>
+        <v>2025</v>
       </c>
       <c r="O115">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="P115">
         <v>2024</v>
@@ -9527,155 +9470,146 @@
       <c r="R115">
         <v>0</v>
       </c>
-      <c r="T115">
-        <v>1.24E-2</v>
+      <c r="S115">
+        <v>0</v>
       </c>
       <c r="U115" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="116" spans="1:21">
       <c r="A116" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="B116" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G116" t="s">
         <v>131</v>
       </c>
-      <c r="H116" t="s">
-        <v>326</v>
+      <c r="H116">
+        <v>3</v>
       </c>
       <c r="I116">
-        <v>0.66839999999999999</v>
+        <v>1</v>
       </c>
       <c r="J116">
-        <v>0.66839999999999999</v>
+        <v>1</v>
       </c>
       <c r="L116">
-        <v>0.81</v>
+        <v>0.6</v>
       </c>
       <c r="M116">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N116">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="O116">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="P116">
-        <v>2019</v>
-      </c>
-      <c r="Q116">
-        <v>0</v>
-      </c>
-      <c r="R116">
-        <v>0</v>
+        <v>2023</v>
+      </c>
+      <c r="Q116" s="2">
+        <v>1209218.5863059745</v>
+      </c>
+      <c r="R116" s="2">
+        <v>2110267.4136940255</v>
       </c>
       <c r="T116">
-        <v>0.25</v>
+        <v>0.55670000000000008</v>
       </c>
       <c r="U116" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
     </row>
     <row r="117" spans="1:21">
       <c r="A117" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="B117" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>136</v>
-      </c>
-      <c r="D117" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G117" t="s">
-        <v>131</v>
-      </c>
-      <c r="H117" t="s">
-        <v>326</v>
+        <v>142</v>
+      </c>
+      <c r="H117">
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>0.2024</v>
+        <v>1</v>
       </c>
       <c r="J117">
-        <v>0.2024</v>
+        <v>1</v>
       </c>
       <c r="L117">
-        <v>0.67</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="M117">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N117">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="O117">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="P117">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="Q117">
+        <v>523303.09094109439</v>
+      </c>
+      <c r="R117">
+        <v>7548.309058905611</v>
+      </c>
+      <c r="T117">
         <v>0</v>
       </c>
-      <c r="R117">
-        <v>0</v>
-      </c>
-      <c r="T117">
-        <v>0.154</v>
-      </c>
       <c r="U117" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
     </row>
     <row r="118" spans="1:21">
       <c r="A118" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="B118" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>136</v>
-      </c>
-      <c r="D118" t="s">
-        <v>135</v>
+        <v>303</v>
+      </c>
+      <c r="E118">
+        <v>2.8</v>
+      </c>
+      <c r="F118">
+        <v>1.9</v>
       </c>
       <c r="G118" t="s">
-        <v>131</v>
-      </c>
-      <c r="H118" t="s">
-        <v>326</v>
-      </c>
-      <c r="I118">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="J118">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="L118">
-        <v>0.2</v>
+        <v>134</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
       </c>
       <c r="M118">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="N118">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="O118">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="P118">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="Q118">
         <v>0</v>
@@ -9683,1014 +9617,11 @@
       <c r="R118">
         <v>0</v>
       </c>
-      <c r="T118">
+      <c r="S118">
         <v>0</v>
       </c>
       <c r="U118" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21">
-      <c r="A119" t="s">
-        <v>83</v>
-      </c>
-      <c r="B119" t="s">
-        <v>84</v>
-      </c>
-      <c r="C119" t="s">
-        <v>138</v>
-      </c>
-      <c r="G119" t="s">
-        <v>131</v>
-      </c>
-      <c r="H119" t="s">
-        <v>326</v>
-      </c>
-      <c r="I119">
-        <v>1</v>
-      </c>
-      <c r="J119">
-        <v>1</v>
-      </c>
-      <c r="L119">
-        <v>0.9</v>
-      </c>
-      <c r="M119">
-        <v>2009</v>
-      </c>
-      <c r="N119">
-        <v>2020</v>
-      </c>
-      <c r="O119">
-        <v>2010</v>
-      </c>
-      <c r="P119">
-        <v>2022</v>
-      </c>
-      <c r="Q119">
-        <v>0</v>
-      </c>
-      <c r="R119">
-        <v>0</v>
-      </c>
-      <c r="T119">
-        <v>1</v>
-      </c>
-      <c r="U119" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21">
-      <c r="A120" t="s">
-        <v>83</v>
-      </c>
-      <c r="B120" t="s">
-        <v>84</v>
-      </c>
-      <c r="C120" t="s">
-        <v>136</v>
-      </c>
-      <c r="D120" t="s">
-        <v>142</v>
-      </c>
-      <c r="G120" t="s">
-        <v>131</v>
-      </c>
-      <c r="H120" t="s">
-        <v>326</v>
-      </c>
-      <c r="I120">
-        <v>0.6</v>
-      </c>
-      <c r="J120">
-        <v>0.6</v>
-      </c>
-      <c r="L120">
-        <v>0.46</v>
-      </c>
-      <c r="M120">
-        <v>2009</v>
-      </c>
-      <c r="N120">
-        <v>2020</v>
-      </c>
-      <c r="O120">
-        <v>2010</v>
-      </c>
-      <c r="P120">
-        <v>2023</v>
-      </c>
-      <c r="Q120">
-        <v>65465.244156436005</v>
-      </c>
-      <c r="R120">
-        <v>2292.7558435639962</v>
-      </c>
-      <c r="T120">
-        <v>0.61</v>
-      </c>
-      <c r="U120" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21">
-      <c r="A121" t="s">
-        <v>121</v>
-      </c>
-      <c r="B121" t="s">
-        <v>2</v>
-      </c>
-      <c r="C121" t="s">
-        <v>130</v>
-      </c>
-      <c r="G121" t="s">
-        <v>131</v>
-      </c>
-      <c r="H121" t="s">
-        <v>326</v>
-      </c>
-      <c r="I121">
-        <v>0.5</v>
-      </c>
-      <c r="J121">
-        <v>0.5</v>
-      </c>
-      <c r="K121">
-        <v>0.3</v>
-      </c>
-      <c r="L121">
-        <v>0.75</v>
-      </c>
-      <c r="M121">
-        <v>2018</v>
-      </c>
-      <c r="N121">
-        <v>2025</v>
-      </c>
-      <c r="O121">
-        <v>2020</v>
-      </c>
-      <c r="P121">
-        <v>2023</v>
-      </c>
-      <c r="Q121">
-        <v>11000</v>
-      </c>
-      <c r="R121">
-        <v>1200</v>
-      </c>
-      <c r="T121">
-        <v>0</v>
-      </c>
-      <c r="U121" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21">
-      <c r="A122" t="s">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>2</v>
-      </c>
-      <c r="C122" t="s">
-        <v>130</v>
-      </c>
-      <c r="G122" t="s">
-        <v>144</v>
-      </c>
-      <c r="H122">
-        <v>15</v>
-      </c>
-      <c r="I122">
-        <v>0.5</v>
-      </c>
-      <c r="J122">
-        <v>0.5</v>
-      </c>
-      <c r="K122">
-        <v>0.2</v>
-      </c>
-      <c r="L122">
-        <v>0.75</v>
-      </c>
-      <c r="M122">
-        <v>2018</v>
-      </c>
-      <c r="N122">
-        <v>2025</v>
-      </c>
-      <c r="O122">
-        <v>2020</v>
-      </c>
-      <c r="P122">
-        <v>2023</v>
-      </c>
-      <c r="Q122">
-        <v>11000</v>
-      </c>
-      <c r="R122">
-        <v>1200</v>
-      </c>
-      <c r="T122">
-        <v>0</v>
-      </c>
-      <c r="U122" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21">
-      <c r="A123" t="s">
-        <v>121</v>
-      </c>
-      <c r="B123" t="s">
-        <v>2</v>
-      </c>
-      <c r="C123" t="s">
-        <v>130</v>
-      </c>
-      <c r="G123" t="s">
-        <v>144</v>
-      </c>
-      <c r="H123">
-        <v>15</v>
-      </c>
-      <c r="K123">
-        <v>0.2</v>
-      </c>
-      <c r="L123">
-        <v>0.75</v>
-      </c>
-      <c r="M123">
-        <v>2018</v>
-      </c>
-      <c r="N123">
-        <v>2025</v>
-      </c>
-      <c r="O123">
-        <v>2020</v>
-      </c>
-      <c r="P123">
-        <v>2023</v>
-      </c>
-      <c r="Q123">
-        <v>11000</v>
-      </c>
-      <c r="R123">
-        <v>1200</v>
-      </c>
-      <c r="T123">
-        <v>0</v>
-      </c>
-      <c r="U123" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21">
-      <c r="A124" t="s">
-        <v>121</v>
-      </c>
-      <c r="B124" t="s">
-        <v>2</v>
-      </c>
-      <c r="C124" t="s">
-        <v>130</v>
-      </c>
-      <c r="G124" t="s">
-        <v>144</v>
-      </c>
-      <c r="H124">
-        <v>11</v>
-      </c>
-      <c r="K124">
-        <v>0.2</v>
-      </c>
-      <c r="L124">
-        <v>0.75</v>
-      </c>
-      <c r="M124">
-        <v>2018</v>
-      </c>
-      <c r="N124">
-        <v>2025</v>
-      </c>
-      <c r="O124">
-        <v>2020</v>
-      </c>
-      <c r="P124">
-        <v>2023</v>
-      </c>
-      <c r="Q124">
-        <v>11000</v>
-      </c>
-      <c r="R124">
-        <v>1200</v>
-      </c>
-      <c r="T124">
-        <v>0</v>
-      </c>
-      <c r="U124" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="125" spans="1:21">
-      <c r="A125" t="s">
-        <v>121</v>
-      </c>
-      <c r="B125" t="s">
-        <v>2</v>
-      </c>
-      <c r="C125" t="s">
-        <v>130</v>
-      </c>
-      <c r="G125" t="s">
-        <v>144</v>
-      </c>
-      <c r="H125">
-        <v>2</v>
-      </c>
-      <c r="K125">
-        <v>0.2</v>
-      </c>
-      <c r="L125">
-        <v>0.75</v>
-      </c>
-      <c r="M125">
-        <v>2018</v>
-      </c>
-      <c r="N125">
-        <v>2025</v>
-      </c>
-      <c r="O125">
-        <v>2020</v>
-      </c>
-      <c r="P125">
-        <v>2023</v>
-      </c>
-      <c r="Q125">
-        <v>11000</v>
-      </c>
-      <c r="R125">
-        <v>1200</v>
-      </c>
-      <c r="T125">
-        <v>0</v>
-      </c>
-      <c r="U125" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21">
-      <c r="A126" t="s">
-        <v>121</v>
-      </c>
-      <c r="B126" t="s">
-        <v>2</v>
-      </c>
-      <c r="C126" t="s">
-        <v>130</v>
-      </c>
-      <c r="G126" t="s">
-        <v>144</v>
-      </c>
-      <c r="H126">
-        <v>3</v>
-      </c>
-      <c r="K126">
-        <v>0.2</v>
-      </c>
-      <c r="L126">
-        <v>0.75</v>
-      </c>
-      <c r="M126">
-        <v>2018</v>
-      </c>
-      <c r="N126">
-        <v>2025</v>
-      </c>
-      <c r="O126">
-        <v>2020</v>
-      </c>
-      <c r="P126">
-        <v>2023</v>
-      </c>
-      <c r="Q126">
-        <v>11000</v>
-      </c>
-      <c r="R126">
-        <v>1200</v>
-      </c>
-      <c r="T126">
-        <v>0</v>
-      </c>
-      <c r="U126" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="127" spans="1:21">
-      <c r="A127" t="s">
-        <v>167</v>
-      </c>
-      <c r="B127" t="s">
-        <v>6</v>
-      </c>
-      <c r="C127" t="s">
-        <v>130</v>
-      </c>
-      <c r="G127" t="s">
-        <v>144</v>
-      </c>
-      <c r="H127">
-        <v>1</v>
-      </c>
-      <c r="J127">
-        <v>1</v>
-      </c>
-      <c r="L127">
-        <v>0.4</v>
-      </c>
-      <c r="M127">
-        <v>2018</v>
-      </c>
-      <c r="N127">
-        <v>2025</v>
-      </c>
-      <c r="O127">
-        <v>2020</v>
-      </c>
-      <c r="P127">
-        <v>2023</v>
-      </c>
-      <c r="Q127">
-        <v>1558</v>
-      </c>
-      <c r="R127">
-        <v>13333</v>
-      </c>
-      <c r="S127">
-        <v>1350</v>
-      </c>
-      <c r="T127">
-        <v>0.5</v>
-      </c>
-      <c r="U127" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21">
-      <c r="A128" t="s">
-        <v>167</v>
-      </c>
-      <c r="B128" t="s">
-        <v>6</v>
-      </c>
-      <c r="C128" t="s">
-        <v>130</v>
-      </c>
-      <c r="G128" t="s">
-        <v>144</v>
-      </c>
-      <c r="H128">
-        <v>2</v>
-      </c>
-      <c r="I128">
-        <v>0.86</v>
-      </c>
-      <c r="J128">
-        <v>0.86</v>
-      </c>
-      <c r="L128">
-        <v>0.88</v>
-      </c>
-      <c r="M128">
-        <v>2018</v>
-      </c>
-      <c r="N128">
-        <v>2025</v>
-      </c>
-      <c r="O128">
-        <v>2020</v>
-      </c>
-      <c r="P128">
-        <v>2023</v>
-      </c>
-      <c r="Q128">
-        <v>303878.5938430645</v>
-      </c>
-      <c r="R128">
-        <v>501599.4061569355</v>
-      </c>
-      <c r="T128">
-        <v>0</v>
-      </c>
-      <c r="U128" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="129" spans="1:21">
-      <c r="A129" t="s">
-        <v>167</v>
-      </c>
-      <c r="B129" t="s">
-        <v>6</v>
-      </c>
-      <c r="C129" t="s">
-        <v>130</v>
-      </c>
-      <c r="G129" t="s">
-        <v>144</v>
-      </c>
-      <c r="H129">
-        <v>15</v>
-      </c>
-      <c r="I129">
-        <v>1</v>
-      </c>
-      <c r="J129">
-        <v>1</v>
-      </c>
-      <c r="K129">
-        <v>0.9</v>
-      </c>
-      <c r="L129">
-        <v>0.24</v>
-      </c>
-      <c r="M129">
-        <v>2018</v>
-      </c>
-      <c r="N129">
-        <v>2025</v>
-      </c>
-      <c r="O129">
-        <v>2020</v>
-      </c>
-      <c r="P129">
-        <v>2023</v>
-      </c>
-      <c r="Q129">
-        <v>2784330.1868065619</v>
-      </c>
-      <c r="R129">
-        <v>4565669.8131934376</v>
-      </c>
-      <c r="T129">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="U129" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="130" spans="1:21">
-      <c r="A130" t="s">
-        <v>167</v>
-      </c>
-      <c r="B130" t="s">
-        <v>6</v>
-      </c>
-      <c r="C130" t="s">
-        <v>130</v>
-      </c>
-      <c r="G130" t="s">
-        <v>144</v>
-      </c>
-      <c r="H130">
-        <v>15</v>
-      </c>
-      <c r="I130">
-        <v>1</v>
-      </c>
-      <c r="J130">
-        <v>1</v>
-      </c>
-      <c r="L130">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="M130">
-        <v>2018</v>
-      </c>
-      <c r="N130">
-        <v>2025</v>
-      </c>
-      <c r="O130">
-        <v>2020</v>
-      </c>
-      <c r="P130">
-        <v>2023</v>
-      </c>
-      <c r="Q130">
-        <v>152767.86090478685</v>
-      </c>
-      <c r="R130">
-        <v>378083.53909521317</v>
-      </c>
-      <c r="T130">
-        <v>0</v>
-      </c>
-      <c r="U130" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="131" spans="1:21">
-      <c r="A131" t="s">
-        <v>168</v>
-      </c>
-      <c r="B131" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" t="s">
-        <v>130</v>
-      </c>
-      <c r="G131" t="s">
-        <v>144</v>
-      </c>
-      <c r="H131">
-        <v>1</v>
-      </c>
-      <c r="K131">
-        <v>0.6</v>
-      </c>
-      <c r="L131">
-        <v>0.15</v>
-      </c>
-      <c r="M131">
-        <v>2018</v>
-      </c>
-      <c r="N131">
-        <v>2025</v>
-      </c>
-      <c r="O131">
-        <v>2020</v>
-      </c>
-      <c r="P131">
-        <v>2023</v>
-      </c>
-      <c r="Q131">
-        <v>1209218.5863059745</v>
-      </c>
-      <c r="R131">
-        <v>2110267.4136940255</v>
-      </c>
-      <c r="T131">
-        <v>0.5</v>
-      </c>
-      <c r="U131" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="132" spans="1:21">
-      <c r="A132" t="s">
-        <v>168</v>
-      </c>
-      <c r="B132" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" t="s">
-        <v>130</v>
-      </c>
-      <c r="G132" t="s">
-        <v>144</v>
-      </c>
-      <c r="H132">
-        <v>2</v>
-      </c>
-      <c r="I132">
-        <v>1</v>
-      </c>
-      <c r="J132">
-        <v>1</v>
-      </c>
-      <c r="L132">
-        <v>0.9</v>
-      </c>
-      <c r="M132">
-        <v>2018</v>
-      </c>
-      <c r="N132">
-        <v>2025</v>
-      </c>
-      <c r="O132">
-        <v>2020</v>
-      </c>
-      <c r="P132">
-        <v>2023</v>
-      </c>
-      <c r="Q132">
-        <v>451204.69109967712</v>
-      </c>
-      <c r="R132">
-        <v>354273.30890032288</v>
-      </c>
-      <c r="T132">
-        <v>0.86</v>
-      </c>
-      <c r="U132" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="133" spans="1:21">
-      <c r="A133" t="s">
-        <v>168</v>
-      </c>
-      <c r="B133" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" t="s">
-        <v>130</v>
-      </c>
-      <c r="G133" t="s">
-        <v>144</v>
-      </c>
-      <c r="H133">
-        <v>3</v>
-      </c>
-      <c r="I133">
-        <v>1</v>
-      </c>
-      <c r="J133">
-        <v>1</v>
-      </c>
-      <c r="L133">
-        <v>0.39</v>
-      </c>
-      <c r="M133">
-        <v>2018</v>
-      </c>
-      <c r="N133">
-        <v>2025</v>
-      </c>
-      <c r="O133">
-        <v>2020</v>
-      </c>
-      <c r="P133">
-        <v>2023</v>
-      </c>
-      <c r="Q133">
-        <v>0</v>
-      </c>
-      <c r="R133">
-        <v>0</v>
-      </c>
-      <c r="T133">
-        <v>0.55670000000000008</v>
-      </c>
-      <c r="U133" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="134" spans="1:21">
-      <c r="A134" t="s">
-        <v>168</v>
-      </c>
-      <c r="B134" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" t="s">
-        <v>130</v>
-      </c>
-      <c r="G134" t="s">
-        <v>144</v>
-      </c>
-      <c r="H134">
-        <v>4</v>
-      </c>
-      <c r="I134">
-        <v>1</v>
-      </c>
-      <c r="J134">
-        <v>1</v>
-      </c>
-      <c r="L134">
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="M134">
-        <v>2018</v>
-      </c>
-      <c r="N134">
-        <v>2025</v>
-      </c>
-      <c r="O134">
-        <v>2020</v>
-      </c>
-      <c r="P134">
-        <v>2023</v>
-      </c>
-      <c r="Q134">
-        <v>523303.09094109439</v>
-      </c>
-      <c r="R134">
-        <v>7548.309058905611</v>
-      </c>
-      <c r="T134">
-        <v>0</v>
-      </c>
-      <c r="U134" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="135" spans="1:21">
-      <c r="A135" t="s">
-        <v>168</v>
-      </c>
-      <c r="B135" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135" t="s">
-        <v>325</v>
-      </c>
-      <c r="E135">
-        <v>3.19</v>
-      </c>
-      <c r="F135">
-        <v>2.17</v>
-      </c>
-      <c r="G135" t="s">
-        <v>131</v>
-      </c>
-      <c r="H135" t="s">
-        <v>326</v>
-      </c>
-      <c r="I135">
-        <v>0</v>
-      </c>
-      <c r="J135">
-        <v>0</v>
-      </c>
-      <c r="K135">
-        <v>0</v>
-      </c>
-      <c r="L135">
-        <v>0</v>
-      </c>
-      <c r="M135">
-        <v>2018</v>
-      </c>
-      <c r="N135">
-        <v>2025</v>
-      </c>
-      <c r="O135">
-        <v>2020</v>
-      </c>
-      <c r="P135">
-        <v>2023</v>
-      </c>
-      <c r="Q135">
-        <v>0</v>
-      </c>
-      <c r="R135">
-        <v>0</v>
-      </c>
-      <c r="S135">
-        <v>0</v>
-      </c>
-      <c r="U135" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="136" spans="1:21">
-      <c r="A136" t="s">
-        <v>168</v>
-      </c>
-      <c r="B136" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" t="s">
-        <v>130</v>
-      </c>
-      <c r="G136" t="s">
-        <v>131</v>
-      </c>
-      <c r="H136">
-        <v>3</v>
-      </c>
-      <c r="I136">
-        <v>1</v>
-      </c>
-      <c r="J136">
-        <v>1</v>
-      </c>
-      <c r="L136">
-        <v>0.6</v>
-      </c>
-      <c r="M136">
-        <v>2018</v>
-      </c>
-      <c r="N136">
-        <v>2025</v>
-      </c>
-      <c r="O136">
-        <v>2020</v>
-      </c>
-      <c r="P136">
-        <v>2023</v>
-      </c>
-      <c r="Q136" s="2">
-        <v>1209218.5863059745</v>
-      </c>
-      <c r="R136" s="2">
-        <v>2110267.4136940255</v>
-      </c>
-      <c r="T136">
-        <v>0.55670000000000008</v>
-      </c>
-      <c r="U136" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="137" spans="1:21">
-      <c r="A137" t="s">
-        <v>168</v>
-      </c>
-      <c r="B137" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" t="s">
-        <v>130</v>
-      </c>
-      <c r="G137" t="s">
-        <v>144</v>
-      </c>
-      <c r="H137">
-        <v>2</v>
-      </c>
-      <c r="I137">
-        <v>1</v>
-      </c>
-      <c r="J137">
-        <v>1</v>
-      </c>
-      <c r="L137">
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="M137">
-        <v>2018</v>
-      </c>
-      <c r="N137">
-        <v>2025</v>
-      </c>
-      <c r="O137">
-        <v>2020</v>
-      </c>
-      <c r="P137">
-        <v>2023</v>
-      </c>
-      <c r="Q137">
-        <v>523303.09094109439</v>
-      </c>
-      <c r="R137">
-        <v>7548.309058905611</v>
-      </c>
-      <c r="T137">
-        <v>0</v>
-      </c>
-      <c r="U137" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="138" spans="1:21">
-      <c r="A138" t="s">
-        <v>168</v>
-      </c>
-      <c r="B138" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" t="s">
-        <v>325</v>
-      </c>
-      <c r="E138">
-        <v>2.8</v>
-      </c>
-      <c r="F138">
-        <v>1.9</v>
-      </c>
-      <c r="G138" t="s">
-        <v>134</v>
-      </c>
-      <c r="H138">
-        <v>1</v>
-      </c>
-      <c r="M138">
-        <v>2018</v>
-      </c>
-      <c r="N138">
-        <v>2030</v>
-      </c>
-      <c r="O138">
-        <v>2020</v>
-      </c>
-      <c r="P138">
-        <v>2023</v>
-      </c>
-      <c r="Q138">
-        <v>0</v>
-      </c>
-      <c r="R138">
-        <v>0</v>
-      </c>
-      <c r="S138">
-        <v>0</v>
-      </c>
-      <c r="U138" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/examples/data/data_provider_example.xlsx
+++ b/examples/data/data_provider_example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\mountainrambler\ITR\ITR-tool\examples\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter.nystrom\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F70A8D-379B-461A-AF1F-66718072A29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2062CF2F-FB1F-4C41-B33E-714C033CB71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3635,8 +3635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H124" sqref="H124"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4185,7 +4185,7 @@
         <v>10506.846238669841</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="U10" t="s">
         <v>191</v>
@@ -4388,7 +4388,7 @@
         <v>16355.37640519335</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="U14" t="s">
         <v>195</v>
@@ -4488,7 +4488,7 @@
         <v>19618.954967520734</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="U16" t="s">
         <v>197</v>
@@ -4870,7 +4870,7 @@
         <v>124029.24962486007</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="U24" t="s">
         <v>205</v>
@@ -5017,7 +5017,7 @@
         <v>111948.5261938753</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U27" t="s">
         <v>208</v>
@@ -5067,7 +5067,7 @@
         <v>887365.46183121088</v>
       </c>
       <c r="T28">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U28" t="s">
         <v>209</v>
@@ -5264,7 +5264,7 @@
         <v>9604.290716403666</v>
       </c>
       <c r="T32">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U32" t="s">
         <v>213</v>
@@ -5314,7 +5314,7 @@
         <v>12190.497762309758</v>
       </c>
       <c r="T33">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U33" t="s">
         <v>214</v>
@@ -5461,7 +5461,7 @@
         <v>16574.110790319079</v>
       </c>
       <c r="T36">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U36" t="s">
         <v>217</v>
@@ -5611,7 +5611,7 @@
         <v>501599.4061569355</v>
       </c>
       <c r="T39">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U39" t="s">
         <v>220</v>
@@ -5717,7 +5717,7 @@
         <v>364406.28335922863</v>
       </c>
       <c r="T41">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U41" t="s">
         <v>222</v>
@@ -5870,7 +5870,7 @@
         <v>30833.297935029001</v>
       </c>
       <c r="T44">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U44" t="s">
         <v>225</v>
@@ -6179,7 +6179,7 @@
         <v>272758.17280151439</v>
       </c>
       <c r="T50">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U50" t="s">
         <v>231</v>
@@ -6232,7 +6232,7 @@
         <v>217932.56677193692</v>
       </c>
       <c r="T51">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U51" t="s">
         <v>232</v>
@@ -6382,7 +6382,7 @@
         <v>0</v>
       </c>
       <c r="T54">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U54" t="s">
         <v>235</v>
@@ -6591,7 +6591,7 @@
         <v>10188.581114331457</v>
       </c>
       <c r="T58">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="U58" t="s">
         <v>239</v>
@@ -7206,7 +7206,7 @@
         <v>75081.708528570001</v>
       </c>
       <c r="T70">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="U70" t="s">
         <v>251</v>
@@ -7256,7 +7256,7 @@
         <v>44578.162437767227</v>
       </c>
       <c r="T71">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="U71" t="s">
         <v>252</v>
@@ -7306,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="T72">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="U72" t="s">
         <v>253</v>
@@ -7359,7 +7359,7 @@
         <v>9904580.3564182464</v>
       </c>
       <c r="T73">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="U73" t="s">
         <v>254</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="T75">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="U75" t="s">
         <v>256</v>
@@ -7503,7 +7503,7 @@
         <v>24078.026278255991</v>
       </c>
       <c r="T76">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="U76" t="s">
         <v>257</v>
@@ -7550,7 +7550,7 @@
         <v>256065.772081912</v>
       </c>
       <c r="T77">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="U77" t="s">
         <v>258</v>
@@ -7600,7 +7600,7 @@
         <v>363078.67156249541</v>
       </c>
       <c r="T78">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="U78" t="s">
         <v>259</v>
@@ -7756,7 +7756,7 @@
         <v>7548.309058905611</v>
       </c>
       <c r="T81">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="U81" t="s">
         <v>262</v>
@@ -7803,7 +7803,7 @@
         <v>142482.99099863574</v>
       </c>
       <c r="T82">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="U82" t="s">
         <v>263</v>
@@ -7903,7 +7903,7 @@
         <v>85549.090506433844</v>
       </c>
       <c r="T84">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="U84" t="s">
         <v>265</v>
@@ -7950,7 +7950,7 @@
         <v>153614.13748833592</v>
       </c>
       <c r="T85">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="U85" t="s">
         <v>266</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="T86">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="U86" t="s">
         <v>267</v>
@@ -8412,7 +8412,7 @@
         <v>0</v>
       </c>
       <c r="T94">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="U94" t="s">
         <v>275</v>

--- a/examples/data/data_provider_example.xlsx
+++ b/examples/data/data_provider_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter.nystrom\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\mountainrambler\ITR\ITR-tool\examples\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2062CF2F-FB1F-4C41-B33E-714C033CB71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4306F42-FB2E-4957-85A2-EC0C0A5DA0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="75" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="323">
   <si>
     <t>company_name</t>
   </si>
@@ -729,9 +729,6 @@
     <t>T57</t>
   </si>
   <si>
-    <t>T58</t>
-  </si>
-  <si>
     <t>T59</t>
   </si>
   <si>
@@ -1006,6 +1003,9 @@
   </si>
   <si>
     <t>T135</t>
+  </si>
+  <si>
+    <t>T_TS3</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1149,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:U118" totalsRowShown="0">
-  <autoFilter ref="A1:U118" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <autoFilter ref="A1:U118" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="T_score"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="company_name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="company_id"/>
@@ -1491,10 +1497,10 @@
         <v>1</v>
       </c>
       <c r="K1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L1" t="s">
         <v>283</v>
-      </c>
-      <c r="L1" t="s">
-        <v>284</v>
       </c>
       <c r="M1" t="s">
         <v>152</v>
@@ -1515,49 +1521,49 @@
         <v>164</v>
       </c>
       <c r="S1" t="s">
+        <v>285</v>
+      </c>
+      <c r="T1" t="s">
         <v>286</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>287</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>288</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>289</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>290</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>291</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>292</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>293</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>294</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>295</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>296</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>297</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>298</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>299</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -3636,7 +3642,7 @@
   <dimension ref="A1:U118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:V1048576"/>
+      <selection activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3669,16 +3675,16 @@
         <v>155</v>
       </c>
       <c r="E1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F1" t="s">
         <v>301</v>
-      </c>
-      <c r="F1" t="s">
-        <v>302</v>
       </c>
       <c r="G1" t="s">
         <v>156</v>
       </c>
       <c r="H1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I1" t="s">
         <v>157</v>
@@ -3702,7 +3708,7 @@
         <v>128</v>
       </c>
       <c r="P1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q1" t="s">
         <v>160</v>
@@ -3720,7 +3726,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" hidden="1">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -3734,7 +3740,7 @@
         <v>131</v>
       </c>
       <c r="H2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -3770,7 +3776,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" hidden="1">
       <c r="A3" t="s">
         <v>165</v>
       </c>
@@ -3787,7 +3793,7 @@
         <v>133</v>
       </c>
       <c r="H3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -3823,7 +3829,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" hidden="1">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -3873,7 +3879,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" hidden="1">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -3929,7 +3935,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" hidden="1">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -3985,7 +3991,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" hidden="1">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -4002,7 +4008,7 @@
         <v>131</v>
       </c>
       <c r="H7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -4038,7 +4044,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" hidden="1">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -4085,7 +4091,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" hidden="1">
       <c r="A9" t="s">
         <v>171</v>
       </c>
@@ -4102,7 +4108,7 @@
         <v>131</v>
       </c>
       <c r="H9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -4138,7 +4144,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" hidden="1">
       <c r="A10" t="s">
         <v>172</v>
       </c>
@@ -4155,7 +4161,7 @@
         <v>131</v>
       </c>
       <c r="H10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -4191,7 +4197,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" hidden="1">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -4208,7 +4214,7 @@
         <v>131</v>
       </c>
       <c r="H11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -4244,7 +4250,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" hidden="1">
       <c r="A12" t="s">
         <v>174</v>
       </c>
@@ -4258,7 +4264,7 @@
         <v>131</v>
       </c>
       <c r="H12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -4294,7 +4300,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" hidden="1">
       <c r="A13" t="s">
         <v>175</v>
       </c>
@@ -4308,7 +4314,7 @@
         <v>131</v>
       </c>
       <c r="H13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -4344,7 +4350,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" hidden="1">
       <c r="A14" t="s">
         <v>177</v>
       </c>
@@ -4358,7 +4364,7 @@
         <v>131</v>
       </c>
       <c r="H14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -4394,7 +4400,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" hidden="1">
       <c r="A15" t="s">
         <v>178</v>
       </c>
@@ -4408,7 +4414,7 @@
         <v>131</v>
       </c>
       <c r="H15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4444,7 +4450,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" hidden="1">
       <c r="A16" t="s">
         <v>179</v>
       </c>
@@ -4458,7 +4464,7 @@
         <v>131</v>
       </c>
       <c r="H16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -4494,7 +4500,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" hidden="1">
       <c r="A17" t="s">
         <v>181</v>
       </c>
@@ -4541,7 +4547,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" hidden="1">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -4588,7 +4594,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" hidden="1">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -4635,7 +4641,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" hidden="1">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -4682,7 +4688,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" hidden="1">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -4729,7 +4735,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" hidden="1">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -4776,7 +4782,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" hidden="1">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -4826,7 +4832,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" hidden="1">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -4840,7 +4846,7 @@
         <v>131</v>
       </c>
       <c r="H24" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -4876,7 +4882,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" hidden="1">
       <c r="A25" t="s">
         <v>88</v>
       </c>
@@ -4893,7 +4899,7 @@
         <v>131</v>
       </c>
       <c r="H25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I25">
         <v>0.95</v>
@@ -4929,7 +4935,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" hidden="1">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -4973,7 +4979,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" hidden="1">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -5023,7 +5029,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" hidden="1">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -5037,7 +5043,7 @@
         <v>131</v>
       </c>
       <c r="H28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I28">
         <v>0.99</v>
@@ -5073,7 +5079,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" hidden="1">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -5123,7 +5129,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" hidden="1">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -5170,7 +5176,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" hidden="1">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -5184,7 +5190,7 @@
         <v>131</v>
       </c>
       <c r="H31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -5220,7 +5226,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" hidden="1">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -5270,7 +5276,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" hidden="1">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -5320,7 +5326,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" hidden="1">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -5334,7 +5340,7 @@
         <v>133</v>
       </c>
       <c r="H34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -5367,7 +5373,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" hidden="1">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -5384,7 +5390,7 @@
         <v>131</v>
       </c>
       <c r="H35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I35">
         <v>0.71</v>
@@ -5414,7 +5420,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" hidden="1">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -5431,7 +5437,7 @@
         <v>131</v>
       </c>
       <c r="H36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I36">
         <v>0.75</v>
@@ -5467,7 +5473,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" hidden="1">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -5481,7 +5487,7 @@
         <v>131</v>
       </c>
       <c r="H37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -5517,7 +5523,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" hidden="1">
       <c r="A38" t="s">
         <v>121</v>
       </c>
@@ -5531,7 +5537,7 @@
         <v>131</v>
       </c>
       <c r="H38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I38">
         <v>0.86</v>
@@ -5567,7 +5573,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" hidden="1">
       <c r="A39" t="s">
         <v>165</v>
       </c>
@@ -5581,7 +5587,7 @@
         <v>131</v>
       </c>
       <c r="H39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I39">
         <v>0.86</v>
@@ -5617,7 +5623,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" hidden="1">
       <c r="A40" t="s">
         <v>170</v>
       </c>
@@ -5634,7 +5640,7 @@
         <v>131</v>
       </c>
       <c r="H40" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I40">
         <v>0.65</v>
@@ -5673,7 +5679,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" hidden="1">
       <c r="A41" t="s">
         <v>171</v>
       </c>
@@ -5687,7 +5693,7 @@
         <v>131</v>
       </c>
       <c r="H41" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -5723,7 +5729,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" hidden="1">
       <c r="A42" t="s">
         <v>172</v>
       </c>
@@ -5740,7 +5746,7 @@
         <v>133</v>
       </c>
       <c r="H42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -5773,7 +5779,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" hidden="1">
       <c r="A43" t="s">
         <v>173</v>
       </c>
@@ -5790,7 +5796,7 @@
         <v>131</v>
       </c>
       <c r="H43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -5826,7 +5832,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" hidden="1">
       <c r="A44" t="s">
         <v>174</v>
       </c>
@@ -5840,7 +5846,7 @@
         <v>131</v>
       </c>
       <c r="H44" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I44">
         <v>0.7</v>
@@ -5876,7 +5882,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" hidden="1">
       <c r="A45" t="s">
         <v>175</v>
       </c>
@@ -5890,7 +5896,7 @@
         <v>131</v>
       </c>
       <c r="H45" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -5926,7 +5932,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" hidden="1">
       <c r="A46" t="s">
         <v>176</v>
       </c>
@@ -5940,7 +5946,7 @@
         <v>131</v>
       </c>
       <c r="H46" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -5976,7 +5982,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" hidden="1">
       <c r="A47" t="s">
         <v>177</v>
       </c>
@@ -5990,7 +5996,7 @@
         <v>131</v>
       </c>
       <c r="H47" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I47">
         <v>0.97</v>
@@ -6026,7 +6032,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" hidden="1">
       <c r="A48" t="s">
         <v>178</v>
       </c>
@@ -6040,7 +6046,7 @@
         <v>131</v>
       </c>
       <c r="H48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -6084,7 +6090,7 @@
         <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E49">
         <v>3.13</v>
@@ -6093,10 +6099,10 @@
         <v>2.19</v>
       </c>
       <c r="G49" t="s">
-        <v>131</v>
-      </c>
-      <c r="H49" t="s">
-        <v>304</v>
+        <v>142</v>
+      </c>
+      <c r="H49">
+        <v>15</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -6129,10 +6135,10 @@
         <v>0.24</v>
       </c>
       <c r="U49" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" hidden="1">
       <c r="A50" t="s">
         <v>181</v>
       </c>
@@ -6149,7 +6155,7 @@
         <v>131</v>
       </c>
       <c r="H50" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I50">
         <v>0.75</v>
@@ -6182,10 +6188,10 @@
         <v>0.7</v>
       </c>
       <c r="U50" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" hidden="1">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -6202,7 +6208,7 @@
         <v>131</v>
       </c>
       <c r="H51" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -6235,10 +6241,10 @@
         <v>0.7</v>
       </c>
       <c r="U51" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" hidden="1">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -6252,7 +6258,7 @@
         <v>131</v>
       </c>
       <c r="H52" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -6285,10 +6291,10 @@
         <v>0</v>
       </c>
       <c r="U52" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" hidden="1">
       <c r="A53" t="s">
         <v>85</v>
       </c>
@@ -6302,7 +6308,7 @@
         <v>131</v>
       </c>
       <c r="H53" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -6335,10 +6341,10 @@
         <v>0.6</v>
       </c>
       <c r="U53" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" hidden="1">
       <c r="A54" t="s">
         <v>88</v>
       </c>
@@ -6352,7 +6358,7 @@
         <v>131</v>
       </c>
       <c r="H54" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I54">
         <v>0.95</v>
@@ -6385,10 +6391,10 @@
         <v>0.7</v>
       </c>
       <c r="U54" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" hidden="1">
       <c r="A55" t="s">
         <v>90</v>
       </c>
@@ -6405,7 +6411,7 @@
         <v>131</v>
       </c>
       <c r="H55" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I55">
         <v>0.95</v>
@@ -6438,10 +6444,10 @@
         <v>0.47789999999999999</v>
       </c>
       <c r="U55" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" hidden="1">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -6458,7 +6464,7 @@
         <v>131</v>
       </c>
       <c r="H56" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I56">
         <v>0.93</v>
@@ -6491,10 +6497,10 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="U56" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" hidden="1">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -6508,7 +6514,7 @@
         <v>131</v>
       </c>
       <c r="H57" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -6541,10 +6547,10 @@
         <v>0.79</v>
       </c>
       <c r="U57" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" hidden="1">
       <c r="A58" t="s">
         <v>85</v>
       </c>
@@ -6561,7 +6567,7 @@
         <v>131</v>
       </c>
       <c r="H58" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -6594,10 +6600,10 @@
         <v>0.7</v>
       </c>
       <c r="U58" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" hidden="1">
       <c r="A59" t="s">
         <v>88</v>
       </c>
@@ -6611,7 +6617,7 @@
         <v>139</v>
       </c>
       <c r="H59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -6641,10 +6647,10 @@
         <v>0</v>
       </c>
       <c r="U59" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" hidden="1">
       <c r="A60" t="s">
         <v>81</v>
       </c>
@@ -6661,7 +6667,7 @@
         <v>131</v>
       </c>
       <c r="H60" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -6694,10 +6700,10 @@
         <v>6.4100000000000004E-2</v>
       </c>
       <c r="U60" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" hidden="1">
       <c r="A61" t="s">
         <v>83</v>
       </c>
@@ -6744,10 +6750,10 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="U61" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" hidden="1">
       <c r="A62" t="s">
         <v>85</v>
       </c>
@@ -6761,7 +6767,7 @@
         <v>131</v>
       </c>
       <c r="H62" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -6794,10 +6800,10 @@
         <v>0.11220000000000001</v>
       </c>
       <c r="U62" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" hidden="1">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -6814,7 +6820,7 @@
         <v>131</v>
       </c>
       <c r="H63" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -6847,10 +6853,10 @@
         <v>0.22870000000000001</v>
       </c>
       <c r="U63" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" hidden="1">
       <c r="A64" t="s">
         <v>90</v>
       </c>
@@ -6864,7 +6870,7 @@
         <v>131</v>
       </c>
       <c r="H64" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -6897,10 +6903,10 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="U64" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" hidden="1">
       <c r="A65" t="s">
         <v>43</v>
       </c>
@@ -6917,7 +6923,7 @@
         <v>131</v>
       </c>
       <c r="H65" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -6950,10 +6956,10 @@
         <v>0.34</v>
       </c>
       <c r="U65" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" hidden="1">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -6970,7 +6976,7 @@
         <v>131</v>
       </c>
       <c r="H66" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -7003,10 +7009,10 @@
         <v>0.34</v>
       </c>
       <c r="U66" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" hidden="1">
       <c r="A67" t="s">
         <v>121</v>
       </c>
@@ -7050,10 +7056,10 @@
         <v>0.84400000000000008</v>
       </c>
       <c r="U67" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" hidden="1">
       <c r="A68" t="s">
         <v>165</v>
       </c>
@@ -7106,10 +7112,10 @@
         <v>0.85299999999999998</v>
       </c>
       <c r="U68" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" hidden="1">
       <c r="A69" t="s">
         <v>166</v>
       </c>
@@ -7126,7 +7132,7 @@
         <v>131</v>
       </c>
       <c r="H69" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -7159,10 +7165,10 @@
         <v>0.55670000000000008</v>
       </c>
       <c r="U69" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" hidden="1">
       <c r="A70" t="s">
         <v>167</v>
       </c>
@@ -7209,10 +7215,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="U70" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" hidden="1">
       <c r="A71" t="s">
         <v>168</v>
       </c>
@@ -7259,10 +7265,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="U71" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" hidden="1">
       <c r="A72" t="s">
         <v>169</v>
       </c>
@@ -7309,10 +7315,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="U72" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" hidden="1">
       <c r="A73" t="s">
         <v>172</v>
       </c>
@@ -7329,7 +7335,7 @@
         <v>131</v>
       </c>
       <c r="H73" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I73">
         <v>0.93100000000000005</v>
@@ -7362,10 +7368,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="U73" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" hidden="1">
       <c r="A74" t="s">
         <v>175</v>
       </c>
@@ -7382,7 +7388,7 @@
         <v>133</v>
       </c>
       <c r="H74" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J74">
         <v>0.7</v>
@@ -7412,10 +7418,10 @@
         <v>0.93</v>
       </c>
       <c r="U74" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" hidden="1">
       <c r="A75" t="s">
         <v>177</v>
       </c>
@@ -7429,7 +7435,7 @@
         <v>139</v>
       </c>
       <c r="H75" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -7459,10 +7465,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="U75" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" hidden="1">
       <c r="A76" t="s">
         <v>177</v>
       </c>
@@ -7476,7 +7482,7 @@
         <v>133</v>
       </c>
       <c r="H76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -7506,10 +7512,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="U76" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" hidden="1">
       <c r="A77" t="s">
         <v>178</v>
       </c>
@@ -7523,7 +7529,7 @@
         <v>139</v>
       </c>
       <c r="H77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -7553,10 +7559,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="U77" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" hidden="1">
       <c r="A78" t="s">
         <v>181</v>
       </c>
@@ -7570,7 +7576,7 @@
         <v>131</v>
       </c>
       <c r="H78" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -7603,10 +7609,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="U78" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" hidden="1">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -7620,7 +7626,7 @@
         <v>131</v>
       </c>
       <c r="H79" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -7653,10 +7659,10 @@
         <v>0</v>
       </c>
       <c r="U79" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" hidden="1">
       <c r="A80" t="s">
         <v>165</v>
       </c>
@@ -7673,7 +7679,7 @@
         <v>131</v>
       </c>
       <c r="H80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -7706,10 +7712,10 @@
         <v>0</v>
       </c>
       <c r="U80" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" hidden="1">
       <c r="A81" t="s">
         <v>166</v>
       </c>
@@ -7726,7 +7732,7 @@
         <v>131</v>
       </c>
       <c r="H81" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -7759,10 +7765,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="U81" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" hidden="1">
       <c r="A82" t="s">
         <v>167</v>
       </c>
@@ -7776,7 +7782,7 @@
         <v>139</v>
       </c>
       <c r="H82" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -7806,10 +7812,10 @@
         <v>0.33</v>
       </c>
       <c r="U82" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" hidden="1">
       <c r="A83" t="s">
         <v>167</v>
       </c>
@@ -7823,7 +7829,7 @@
         <v>133</v>
       </c>
       <c r="H83" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -7853,10 +7859,10 @@
         <v>0.82000000000000006</v>
       </c>
       <c r="U83" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" hidden="1">
       <c r="A84" t="s">
         <v>169</v>
       </c>
@@ -7873,7 +7879,7 @@
         <v>131</v>
       </c>
       <c r="H84" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I84">
         <v>0.87</v>
@@ -7906,10 +7912,10 @@
         <v>0.67</v>
       </c>
       <c r="U84" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" hidden="1">
       <c r="A85" t="s">
         <v>170</v>
       </c>
@@ -7953,10 +7959,10 @@
         <v>0.67</v>
       </c>
       <c r="U85" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" hidden="1">
       <c r="A86" t="s">
         <v>171</v>
       </c>
@@ -7970,7 +7976,7 @@
         <v>131</v>
       </c>
       <c r="H86" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I86">
         <v>0.27</v>
@@ -8003,10 +8009,10 @@
         <v>0.67</v>
       </c>
       <c r="U86" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" hidden="1">
       <c r="A87" t="s">
         <v>172</v>
       </c>
@@ -8023,7 +8029,7 @@
         <v>131</v>
       </c>
       <c r="H87" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -8056,10 +8062,10 @@
         <v>0</v>
       </c>
       <c r="U87" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" hidden="1">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -8076,7 +8082,7 @@
         <v>131</v>
       </c>
       <c r="H88" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -8109,10 +8115,10 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="U88" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" hidden="1">
       <c r="A89" t="s">
         <v>174</v>
       </c>
@@ -8159,10 +8165,10 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="U89" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" hidden="1">
       <c r="A90" t="s">
         <v>175</v>
       </c>
@@ -8179,7 +8185,7 @@
         <v>131</v>
       </c>
       <c r="H90" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -8212,10 +8218,10 @@
         <v>0.61</v>
       </c>
       <c r="U90" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" hidden="1">
       <c r="A91" t="s">
         <v>176</v>
       </c>
@@ -8229,7 +8235,7 @@
         <v>131</v>
       </c>
       <c r="H91" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I91">
         <v>0.94</v>
@@ -8262,10 +8268,10 @@
         <v>0.69000000000000006</v>
       </c>
       <c r="U91" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" hidden="1">
       <c r="A92" t="s">
         <v>177</v>
       </c>
@@ -8279,7 +8285,7 @@
         <v>131</v>
       </c>
       <c r="H92" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I92">
         <v>0.94</v>
@@ -8312,10 +8318,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="U92" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" hidden="1">
       <c r="A93" t="s">
         <v>178</v>
       </c>
@@ -8332,7 +8338,7 @@
         <v>131</v>
       </c>
       <c r="H93" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I93">
         <v>0.94</v>
@@ -8365,10 +8371,10 @@
         <v>0.57020000000000004</v>
       </c>
       <c r="U93" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" hidden="1">
       <c r="A94" t="s">
         <v>179</v>
       </c>
@@ -8415,10 +8421,10 @@
         <v>0.67</v>
       </c>
       <c r="U94" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" hidden="1">
       <c r="A95" t="s">
         <v>181</v>
       </c>
@@ -8435,7 +8441,7 @@
         <v>139</v>
       </c>
       <c r="H95" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I95">
         <v>0.99</v>
@@ -8465,10 +8471,10 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="U95" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" hidden="1">
       <c r="A96" t="s">
         <v>83</v>
       </c>
@@ -8482,7 +8488,7 @@
         <v>131</v>
       </c>
       <c r="H96" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -8515,10 +8521,10 @@
         <v>1</v>
       </c>
       <c r="U96" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" hidden="1">
       <c r="A97" t="s">
         <v>85</v>
       </c>
@@ -8565,10 +8571,10 @@
         <v>1</v>
       </c>
       <c r="U97" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" hidden="1">
       <c r="A98" t="s">
         <v>81</v>
       </c>
@@ -8582,7 +8588,7 @@
         <v>131</v>
       </c>
       <c r="H98" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I98">
         <v>0.66839999999999999</v>
@@ -8615,10 +8621,10 @@
         <v>0.25</v>
       </c>
       <c r="U98" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" hidden="1">
       <c r="A99" t="s">
         <v>83</v>
       </c>
@@ -8635,7 +8641,7 @@
         <v>131</v>
       </c>
       <c r="H99" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I99">
         <v>0.2024</v>
@@ -8668,10 +8674,10 @@
         <v>0.154</v>
       </c>
       <c r="U99" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" hidden="1">
       <c r="A100" t="s">
         <v>83</v>
       </c>
@@ -8688,7 +8694,7 @@
         <v>131</v>
       </c>
       <c r="H100" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I100">
         <v>0.66900000000000004</v>
@@ -8721,10 +8727,10 @@
         <v>0</v>
       </c>
       <c r="U100" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" hidden="1">
       <c r="A101" t="s">
         <v>121</v>
       </c>
@@ -8738,7 +8744,7 @@
         <v>131</v>
       </c>
       <c r="H101" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I101">
         <v>0.5</v>
@@ -8774,10 +8780,10 @@
         <v>0</v>
       </c>
       <c r="U101" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" hidden="1">
       <c r="A102" t="s">
         <v>121</v>
       </c>
@@ -8827,10 +8833,10 @@
         <v>0</v>
       </c>
       <c r="U102" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" hidden="1">
       <c r="A103" t="s">
         <v>121</v>
       </c>
@@ -8874,10 +8880,10 @@
         <v>0</v>
       </c>
       <c r="U103" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" hidden="1">
       <c r="A104" t="s">
         <v>121</v>
       </c>
@@ -8921,10 +8927,10 @@
         <v>0</v>
       </c>
       <c r="U104" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" hidden="1">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -8968,10 +8974,10 @@
         <v>0</v>
       </c>
       <c r="U105" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" hidden="1">
       <c r="A106" t="s">
         <v>121</v>
       </c>
@@ -9015,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="U106" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" hidden="1">
       <c r="A107" t="s">
         <v>165</v>
       </c>
@@ -9065,10 +9071,10 @@
         <v>0.5</v>
       </c>
       <c r="U107" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" hidden="1">
       <c r="A108" t="s">
         <v>165</v>
       </c>
@@ -9115,10 +9121,10 @@
         <v>0</v>
       </c>
       <c r="U108" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" hidden="1">
       <c r="A109" t="s">
         <v>165</v>
       </c>
@@ -9168,10 +9174,10 @@
         <v>0.85299999999999998</v>
       </c>
       <c r="U109" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" hidden="1">
       <c r="A110" t="s">
         <v>165</v>
       </c>
@@ -9218,10 +9224,10 @@
         <v>0</v>
       </c>
       <c r="U110" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" hidden="1">
       <c r="A111" t="s">
         <v>166</v>
       </c>
@@ -9265,10 +9271,10 @@
         <v>0.5</v>
       </c>
       <c r="U111" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" hidden="1">
       <c r="A112" t="s">
         <v>166</v>
       </c>
@@ -9315,10 +9321,10 @@
         <v>0.86</v>
       </c>
       <c r="U112" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" hidden="1">
       <c r="A113" t="s">
         <v>166</v>
       </c>
@@ -9365,10 +9371,10 @@
         <v>0.55670000000000008</v>
       </c>
       <c r="U113" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" hidden="1">
       <c r="A114" t="s">
         <v>166</v>
       </c>
@@ -9415,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="U114" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -9426,7 +9432,7 @@
         <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E115">
         <v>3.19</v>
@@ -9435,10 +9441,10 @@
         <v>2.17</v>
       </c>
       <c r="G115" t="s">
-        <v>131</v>
-      </c>
-      <c r="H115" t="s">
-        <v>304</v>
+        <v>142</v>
+      </c>
+      <c r="H115">
+        <v>15</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -9474,10 +9480,10 @@
         <v>0</v>
       </c>
       <c r="U115" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" hidden="1">
       <c r="A116" t="s">
         <v>166</v>
       </c>
@@ -9524,10 +9530,10 @@
         <v>0.55670000000000008</v>
       </c>
       <c r="U116" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" hidden="1">
       <c r="A117" t="s">
         <v>166</v>
       </c>
@@ -9574,7 +9580,7 @@
         <v>0</v>
       </c>
       <c r="U117" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -9585,7 +9591,7 @@
         <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E118">
         <v>2.8</v>
@@ -9594,10 +9600,10 @@
         <v>1.9</v>
       </c>
       <c r="G118" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="M118">
         <v>2018</v>
@@ -9621,7 +9627,7 @@
         <v>0</v>
       </c>
       <c r="U118" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/examples/data/data_provider_example.xlsx
+++ b/examples/data/data_provider_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\mountainrambler\ITR\ITR-tool\examples\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4306F42-FB2E-4957-85A2-EC0C0A5DA0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C09374-49FA-4793-B1EC-71D8675D2776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="75" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31305" yWindow="3630" windowWidth="22500" windowHeight="14970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fundamental_data" sheetId="1" r:id="rId1"/>
@@ -1149,13 +1149,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:U118" totalsRowShown="0">
-  <autoFilter ref="A1:U118" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="T_score"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:U118" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="company_name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="company_id"/>
@@ -1449,7 +1443,7 @@
   <dimension ref="A1:AG51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3642,7 +3636,7 @@
   <dimension ref="A1:U118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H118" sqref="H118"/>
+      <selection activeCell="N119" sqref="N119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3726,7 +3720,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -3776,7 +3770,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>165</v>
       </c>
@@ -3829,7 +3823,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -3879,7 +3873,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -3935,7 +3929,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>168</v>
       </c>
@@ -3991,7 +3985,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>169</v>
       </c>
@@ -4044,7 +4038,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -4070,7 +4064,7 @@
         <v>2015</v>
       </c>
       <c r="N8">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="O8">
         <v>2015</v>
@@ -4091,7 +4085,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>171</v>
       </c>
@@ -4144,7 +4138,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>172</v>
       </c>
@@ -4197,7 +4191,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -4250,7 +4244,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>174</v>
       </c>
@@ -4300,7 +4294,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>175</v>
       </c>
@@ -4350,7 +4344,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>177</v>
       </c>
@@ -4400,7 +4394,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>178</v>
       </c>
@@ -4450,7 +4444,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>179</v>
       </c>
@@ -4500,7 +4494,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:21" hidden="1">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>181</v>
       </c>
@@ -4547,7 +4541,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:21" hidden="1">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -4594,7 +4588,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -4641,7 +4635,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -4688,7 +4682,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:21" hidden="1">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -4735,7 +4729,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:21" hidden="1">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -4782,7 +4776,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:21" hidden="1">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -4832,7 +4826,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:21" hidden="1">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -4882,7 +4876,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:21" hidden="1">
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
         <v>88</v>
       </c>
@@ -4935,7 +4929,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:21" hidden="1">
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -4979,7 +4973,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="27" spans="1:21" hidden="1">
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -5029,7 +5023,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="28" spans="1:21" hidden="1">
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -5079,7 +5073,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:21" hidden="1">
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -5129,7 +5123,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:21" hidden="1">
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -5176,7 +5170,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:21" hidden="1">
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -5226,7 +5220,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:21" hidden="1">
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -5276,7 +5270,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="1:21" hidden="1">
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -5326,7 +5320,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="1:21" hidden="1">
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -5373,7 +5367,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:21" hidden="1">
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -5420,7 +5414,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="36" spans="1:21" hidden="1">
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -5473,7 +5467,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:21" hidden="1">
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -5523,7 +5517,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="38" spans="1:21" hidden="1">
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
         <v>121</v>
       </c>
@@ -5573,7 +5567,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:21" hidden="1">
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
         <v>165</v>
       </c>
@@ -5623,7 +5617,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:21" hidden="1">
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
         <v>170</v>
       </c>
@@ -5652,10 +5646,10 @@
         <v>0.25</v>
       </c>
       <c r="M40">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="N40">
-        <v>2025</v>
+        <v>2031</v>
       </c>
       <c r="O40">
         <v>2015</v>
@@ -5679,7 +5673,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:21" hidden="1">
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
         <v>171</v>
       </c>
@@ -5729,7 +5723,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:21" hidden="1">
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
         <v>172</v>
       </c>
@@ -5779,7 +5773,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="1:21" hidden="1">
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
         <v>173</v>
       </c>
@@ -5832,7 +5826,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="44" spans="1:21" hidden="1">
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
         <v>174</v>
       </c>
@@ -5882,7 +5876,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:21" hidden="1">
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
         <v>175</v>
       </c>
@@ -5932,7 +5926,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="46" spans="1:21" hidden="1">
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
         <v>176</v>
       </c>
@@ -5982,7 +5976,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:21" hidden="1">
+    <row r="47" spans="1:21">
       <c r="A47" t="s">
         <v>177</v>
       </c>
@@ -6032,7 +6026,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:21" hidden="1">
+    <row r="48" spans="1:21">
       <c r="A48" t="s">
         <v>178</v>
       </c>
@@ -6138,7 +6132,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="50" spans="1:21" hidden="1">
+    <row r="50" spans="1:21">
       <c r="A50" t="s">
         <v>181</v>
       </c>
@@ -6191,7 +6185,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:21" hidden="1">
+    <row r="51" spans="1:21">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -6244,7 +6238,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="1:21" hidden="1">
+    <row r="52" spans="1:21">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -6294,7 +6288,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="53" spans="1:21" hidden="1">
+    <row r="53" spans="1:21">
       <c r="A53" t="s">
         <v>85</v>
       </c>
@@ -6344,7 +6338,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:21" hidden="1">
+    <row r="54" spans="1:21">
       <c r="A54" t="s">
         <v>88</v>
       </c>
@@ -6394,7 +6388,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:21" hidden="1">
+    <row r="55" spans="1:21">
       <c r="A55" t="s">
         <v>90</v>
       </c>
@@ -6447,7 +6441,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="1:21" hidden="1">
+    <row r="56" spans="1:21">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -6500,7 +6494,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="57" spans="1:21" hidden="1">
+    <row r="57" spans="1:21">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -6550,7 +6544,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:21" hidden="1">
+    <row r="58" spans="1:21">
       <c r="A58" t="s">
         <v>85</v>
       </c>
@@ -6603,7 +6597,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="59" spans="1:21" hidden="1">
+    <row r="59" spans="1:21">
       <c r="A59" t="s">
         <v>88</v>
       </c>
@@ -6650,7 +6644,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="60" spans="1:21" hidden="1">
+    <row r="60" spans="1:21">
       <c r="A60" t="s">
         <v>81</v>
       </c>
@@ -6703,7 +6697,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="61" spans="1:21" hidden="1">
+    <row r="61" spans="1:21">
       <c r="A61" t="s">
         <v>83</v>
       </c>
@@ -6753,7 +6747,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="62" spans="1:21" hidden="1">
+    <row r="62" spans="1:21">
       <c r="A62" t="s">
         <v>85</v>
       </c>
@@ -6803,7 +6797,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="63" spans="1:21" hidden="1">
+    <row r="63" spans="1:21">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -6856,7 +6850,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="64" spans="1:21" hidden="1">
+    <row r="64" spans="1:21">
       <c r="A64" t="s">
         <v>90</v>
       </c>
@@ -6906,7 +6900,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="65" spans="1:21" hidden="1">
+    <row r="65" spans="1:21">
       <c r="A65" t="s">
         <v>43</v>
       </c>
@@ -6959,7 +6953,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="66" spans="1:21" hidden="1">
+    <row r="66" spans="1:21">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -7012,7 +7006,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="67" spans="1:21" hidden="1">
+    <row r="67" spans="1:21">
       <c r="A67" t="s">
         <v>121</v>
       </c>
@@ -7059,7 +7053,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="68" spans="1:21" hidden="1">
+    <row r="68" spans="1:21">
       <c r="A68" t="s">
         <v>165</v>
       </c>
@@ -7115,7 +7109,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="69" spans="1:21" hidden="1">
+    <row r="69" spans="1:21">
       <c r="A69" t="s">
         <v>166</v>
       </c>
@@ -7168,7 +7162,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="70" spans="1:21" hidden="1">
+    <row r="70" spans="1:21">
       <c r="A70" t="s">
         <v>167</v>
       </c>
@@ -7218,7 +7212,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="71" spans="1:21" hidden="1">
+    <row r="71" spans="1:21">
       <c r="A71" t="s">
         <v>168</v>
       </c>
@@ -7268,7 +7262,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="72" spans="1:21" hidden="1">
+    <row r="72" spans="1:21">
       <c r="A72" t="s">
         <v>169</v>
       </c>
@@ -7318,7 +7312,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="73" spans="1:21" hidden="1">
+    <row r="73" spans="1:21">
       <c r="A73" t="s">
         <v>172</v>
       </c>
@@ -7371,7 +7365,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="74" spans="1:21" hidden="1">
+    <row r="74" spans="1:21">
       <c r="A74" t="s">
         <v>175</v>
       </c>
@@ -7421,7 +7415,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="75" spans="1:21" hidden="1">
+    <row r="75" spans="1:21">
       <c r="A75" t="s">
         <v>177</v>
       </c>
@@ -7468,7 +7462,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:21" hidden="1">
+    <row r="76" spans="1:21">
       <c r="A76" t="s">
         <v>177</v>
       </c>
@@ -7515,7 +7509,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="77" spans="1:21" hidden="1">
+    <row r="77" spans="1:21">
       <c r="A77" t="s">
         <v>178</v>
       </c>
@@ -7562,7 +7556,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="78" spans="1:21" hidden="1">
+    <row r="78" spans="1:21">
       <c r="A78" t="s">
         <v>181</v>
       </c>
@@ -7612,7 +7606,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="79" spans="1:21" hidden="1">
+    <row r="79" spans="1:21">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -7662,7 +7656,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="80" spans="1:21" hidden="1">
+    <row r="80" spans="1:21">
       <c r="A80" t="s">
         <v>165</v>
       </c>
@@ -7715,7 +7709,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="81" spans="1:21" hidden="1">
+    <row r="81" spans="1:21">
       <c r="A81" t="s">
         <v>166</v>
       </c>
@@ -7768,7 +7762,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="82" spans="1:21" hidden="1">
+    <row r="82" spans="1:21">
       <c r="A82" t="s">
         <v>167</v>
       </c>
@@ -7815,7 +7809,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="83" spans="1:21" hidden="1">
+    <row r="83" spans="1:21">
       <c r="A83" t="s">
         <v>167</v>
       </c>
@@ -7862,7 +7856,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="84" spans="1:21" hidden="1">
+    <row r="84" spans="1:21">
       <c r="A84" t="s">
         <v>169</v>
       </c>
@@ -7915,7 +7909,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="85" spans="1:21" hidden="1">
+    <row r="85" spans="1:21">
       <c r="A85" t="s">
         <v>170</v>
       </c>
@@ -7941,7 +7935,7 @@
         <v>2016</v>
       </c>
       <c r="N85">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="O85">
         <v>2017</v>
@@ -7962,7 +7956,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="86" spans="1:21" hidden="1">
+    <row r="86" spans="1:21">
       <c r="A86" t="s">
         <v>171</v>
       </c>
@@ -8012,7 +8006,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="87" spans="1:21" hidden="1">
+    <row r="87" spans="1:21">
       <c r="A87" t="s">
         <v>172</v>
       </c>
@@ -8065,7 +8059,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" spans="1:21" hidden="1">
+    <row r="88" spans="1:21">
       <c r="A88" t="s">
         <v>173</v>
       </c>
@@ -8118,7 +8112,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="89" spans="1:21" hidden="1">
+    <row r="89" spans="1:21">
       <c r="A89" t="s">
         <v>174</v>
       </c>
@@ -8168,7 +8162,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="90" spans="1:21" hidden="1">
+    <row r="90" spans="1:21">
       <c r="A90" t="s">
         <v>175</v>
       </c>
@@ -8221,7 +8215,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="91" spans="1:21" hidden="1">
+    <row r="91" spans="1:21">
       <c r="A91" t="s">
         <v>176</v>
       </c>
@@ -8271,7 +8265,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="92" spans="1:21" hidden="1">
+    <row r="92" spans="1:21">
       <c r="A92" t="s">
         <v>177</v>
       </c>
@@ -8321,7 +8315,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="93" spans="1:21" hidden="1">
+    <row r="93" spans="1:21">
       <c r="A93" t="s">
         <v>178</v>
       </c>
@@ -8374,7 +8368,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="94" spans="1:21" hidden="1">
+    <row r="94" spans="1:21">
       <c r="A94" t="s">
         <v>179</v>
       </c>
@@ -8424,7 +8418,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="95" spans="1:21" hidden="1">
+    <row r="95" spans="1:21">
       <c r="A95" t="s">
         <v>181</v>
       </c>
@@ -8474,7 +8468,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="96" spans="1:21" hidden="1">
+    <row r="96" spans="1:21">
       <c r="A96" t="s">
         <v>83</v>
       </c>
@@ -8524,7 +8518,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="97" spans="1:21" hidden="1">
+    <row r="97" spans="1:21">
       <c r="A97" t="s">
         <v>85</v>
       </c>
@@ -8574,7 +8568,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="98" spans="1:21" hidden="1">
+    <row r="98" spans="1:21">
       <c r="A98" t="s">
         <v>81</v>
       </c>
@@ -8624,7 +8618,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="99" spans="1:21" hidden="1">
+    <row r="99" spans="1:21">
       <c r="A99" t="s">
         <v>83</v>
       </c>
@@ -8677,7 +8671,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="100" spans="1:21" hidden="1">
+    <row r="100" spans="1:21">
       <c r="A100" t="s">
         <v>83</v>
       </c>
@@ -8730,7 +8724,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="101" spans="1:21" hidden="1">
+    <row r="101" spans="1:21">
       <c r="A101" t="s">
         <v>121</v>
       </c>
@@ -8783,7 +8777,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="102" spans="1:21" hidden="1">
+    <row r="102" spans="1:21">
       <c r="A102" t="s">
         <v>121</v>
       </c>
@@ -8836,7 +8830,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="103" spans="1:21" hidden="1">
+    <row r="103" spans="1:21">
       <c r="A103" t="s">
         <v>121</v>
       </c>
@@ -8883,7 +8877,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="104" spans="1:21" hidden="1">
+    <row r="104" spans="1:21">
       <c r="A104" t="s">
         <v>121</v>
       </c>
@@ -8930,7 +8924,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:21" hidden="1">
+    <row r="105" spans="1:21">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -8977,7 +8971,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="106" spans="1:21" hidden="1">
+    <row r="106" spans="1:21">
       <c r="A106" t="s">
         <v>121</v>
       </c>
@@ -9024,7 +9018,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="107" spans="1:21" hidden="1">
+    <row r="107" spans="1:21">
       <c r="A107" t="s">
         <v>165</v>
       </c>
@@ -9074,7 +9068,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="108" spans="1:21" hidden="1">
+    <row r="108" spans="1:21">
       <c r="A108" t="s">
         <v>165</v>
       </c>
@@ -9124,7 +9118,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="109" spans="1:21" hidden="1">
+    <row r="109" spans="1:21">
       <c r="A109" t="s">
         <v>165</v>
       </c>
@@ -9177,7 +9171,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="110" spans="1:21" hidden="1">
+    <row r="110" spans="1:21">
       <c r="A110" t="s">
         <v>165</v>
       </c>
@@ -9227,7 +9221,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="111" spans="1:21" hidden="1">
+    <row r="111" spans="1:21">
       <c r="A111" t="s">
         <v>166</v>
       </c>
@@ -9274,7 +9268,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="112" spans="1:21" hidden="1">
+    <row r="112" spans="1:21">
       <c r="A112" t="s">
         <v>166</v>
       </c>
@@ -9324,7 +9318,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="113" spans="1:21" hidden="1">
+    <row r="113" spans="1:21">
       <c r="A113" t="s">
         <v>166</v>
       </c>
@@ -9374,7 +9368,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="114" spans="1:21" hidden="1">
+    <row r="114" spans="1:21">
       <c r="A114" t="s">
         <v>166</v>
       </c>
@@ -9483,7 +9477,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="116" spans="1:21" hidden="1">
+    <row r="116" spans="1:21">
       <c r="A116" t="s">
         <v>166</v>
       </c>
@@ -9533,7 +9527,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="117" spans="1:21" hidden="1">
+    <row r="117" spans="1:21">
       <c r="A117" t="s">
         <v>166</v>
       </c>
